--- a/策划案/Java/IOT项目/IOT物联网平台.xlsx
+++ b/策划案/Java/IOT项目/IOT物联网平台.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="1059">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -5724,96 +5724,655 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>提一些优化的意见</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量设备注册，Excel模板不支持Office打开(Bug)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议上传Json，让用户自己导出Json，但提供给用户导表工具。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用Json批量注册，可使项目拓展性更强。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除群组逻辑优化</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除群组节点，不需要先删除子群组，而是把这个群组节点和子群组全部删除</t>
+  </si>
+  <si>
+    <t>绑定设备的搜索项，不支持模糊查询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有群组是根结点，点击后查不到子节点的数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组点击中间节点，查询不到子群组的设备</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则列表不应该看到其他人的规则</t>
+  </si>
+  <si>
+    <t>规则名称要支持中文</t>
+  </si>
+  <si>
+    <t>主题订阅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增订阅应显示主题名称，不是主题Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量订阅，使用分好分隔，没有生成多条订阅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订阅列表不应看到其他人的订阅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id显示优化</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id自增显得十分不正是，建议Id从10亿开始自增，或者使用雪花算法，显示16进制的完整Long</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>各模块逻辑名和显示名的问题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有显示名，那么逻辑名应支持中文。要么就要加上显示名。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>便于企业各部门的账户做权限管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限概述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员可创建编辑项目</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门管理员可将其父节点系统管理员创建的项目引入部门，用于其部门成员对设备的添加和解绑。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目&amp;产品</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门成员只能看到当前部门和其子部门的设备</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门成员无法看到兄弟部门的设备</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门成员可以看到其父节点系统管理员创建的所有规则。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门成员可以把可见的规则绑定到对应的群组。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门成员管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息确认</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门子节点只能看到当前节点编辑的群组</t>
+  </si>
+  <si>
+    <t>部门父节点可以看到所有子节点编辑的群组</t>
+  </si>
+  <si>
+    <t>d.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一个群组，不存在不同节点可见性不同的情况</t>
+  </si>
+  <si>
+    <t>c.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组只要可见，就是可编辑的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能概述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础信息部分</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示部门名称，部门Id和部门简介</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击编辑按钮，下方出现取消和确认按钮，编辑按钮消失。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门名和简介可编辑，用户点击确认则保存，并退出编辑态；点击取消则直接退出编辑态；退出编辑态后，取消和确定按钮消失，编辑按钮重新出现。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>子部门</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示当前部门下的所有子部门。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击部门上方的叉号，可删除部门，要有确认弹框。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加部门，弹出如图所示对话框</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门项目</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门继承其父级节点的项目</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有部门用户均可见</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有部门管理员可做此操作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户填写部门名称和简介后，点击确认则添加成功。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门名称可中文（2个字及以上），并且同一部门下的子部门名字不能重复。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>子部门展示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>子部门删除</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加子部门</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承过来的项目不可删除</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门管理员可以引入新的项目，点击添加按钮，弹出右图所示窗口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能概述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在成员管理中，部门成员可以看到该部门和其子部门下的所有成员信息，其中包括用户名，用户Id，所属部门的链接，身份，和操作项。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息修改</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互操作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击修改，可修改项变为可编辑状态，修改按钮变为确认。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击确认发送请求，完成修改。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名修改</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有人都可以修改自己的用户名。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门管理员可以修改表中所见非管理员的名字。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在可编辑态变为输入框</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在可编辑态变为下拉列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有身份包括系统管理员，部门管理员，操作员和游客。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门管理员可以修改表中所见非管理员的身份。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除部门</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门管理员可以把部门中的非管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己排最前，而后是按身份排，系统管理员&gt;部门管理员&gt;操作员&gt;游客，而后按用户Id排序</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除部门有2次确认框</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员被移除后，会在消息页签收到相关消息。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请成员</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击邀请成员弹出右图窗口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户输入Id，点击邀请后发出邀请通知。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知成功则提示已发送，不成功则提示原因。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已发送过提示邀请已发送，已经是部门成员则提示已在部门。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门修改</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门管理员可以修改表中所见非管理员的部门。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在阅读状态下，部门为超链接。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在可编辑态变为下拉列表，展示当前部门和所有子部门。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请后，不要关闭窗口，点击x后关闭窗口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户Id可复制。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示邀请请或移除部门的通知。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除部门点击确认则删除消息。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请项，点击确认加入部门，删除邀请。点击拒绝删除该条消息。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>褚智勇</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>提一些优化的意见</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>批量设备注册，Excel模板不支持Office打开(Bug)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>建议上传Json，让用户自己导出Json，但提供给用户导表工具。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用Json批量注册，可使项目拓展性更强。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除群组逻辑优化</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除群组节点，不需要先删除子群组，而是把这个群组节点和子群组全部删除</t>
-  </si>
-  <si>
-    <t>绑定设备的搜索项，不支持模糊查询</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有群组是根结点，点击后查不到子节点的数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组点击中间节点，查询不到子群组的设备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则列表不应该看到其他人的规则</t>
-  </si>
-  <si>
-    <t>规则名称要支持中文</t>
-  </si>
-  <si>
-    <t>主题订阅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增订阅应显示主题名称，不是主题Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>批量订阅，使用分好分隔，没有生成多条订阅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>订阅列表不应看到其他人的订阅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id显示优化</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id自增显得十分不正是，建议Id从10亿开始自增，或者使用雪花算法，显示16进制的完整Long</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>各模块逻辑名和显示名的问题</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果没有显示名，那么逻辑名应支持中文。要么就要加上显示名。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>便于企业各部门的账户做权限管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限概述</t>
+    <t>增加部门系统</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5821,7 +6380,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5977,6 +6536,12 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -6364,7 +6929,7 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6427,6 +6992,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="12"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6654,8 +7220,8 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>208896</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>209002</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>2627</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7178,6 +7744,234 @@
         <a:xfrm>
           <a:off x="276225" y="1047750"/>
           <a:ext cx="7142857" cy="6009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>617521</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>189690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="25355550"/>
+          <a:ext cx="12828571" cy="6476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>312653</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>37257</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="11734800"/>
+          <a:ext cx="13371428" cy="6742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>275570</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>209113</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6029325" y="19973925"/>
+          <a:ext cx="5238095" cy="3495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>113430</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>47202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5838825" y="23698200"/>
+          <a:ext cx="6961905" cy="3380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28092</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>56964</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5457825" y="37776150"/>
+          <a:ext cx="3866667" cy="1485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>341226</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>122978</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="485775" y="25622250"/>
+          <a:ext cx="13390476" cy="6771428"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9253,7 +10047,7 @@
   <dimension ref="B1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D17" sqref="D17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -9268,12 +10062,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -9282,10 +10076,10 @@
       <c r="C3" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="46" t="s">
         <v>803</v>
       </c>
     </row>
@@ -9296,26 +10090,26 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="46"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="47"/>
     </row>
     <row r="5" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="48" t="s">
         <v>804</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="53"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -9324,10 +10118,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="39"/>
+      <c r="E7" s="40"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -9336,10 +10130,10 @@
       <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="33"/>
+      <c r="E8" s="34"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
@@ -9348,10 +10142,10 @@
       <c r="C9" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="E9" s="33"/>
+      <c r="E9" s="34"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
@@ -9360,10 +10154,10 @@
       <c r="C10" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="33" t="s">
         <v>367</v>
       </c>
-      <c r="E10" s="33"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
@@ -9372,10 +10166,10 @@
       <c r="C11" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="38" t="s">
         <v>625</v>
       </c>
-      <c r="E11" s="33"/>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
@@ -9384,10 +10178,10 @@
       <c r="C12" s="8" t="s">
         <v>871</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="33" t="s">
         <v>805</v>
       </c>
-      <c r="E12" s="33"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
@@ -9396,10 +10190,10 @@
       <c r="C13" s="8" t="s">
         <v>892</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="33" t="s">
         <v>872</v>
       </c>
-      <c r="E13" s="33"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="7">
@@ -9408,108 +10202,114 @@
       <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="33" t="s">
         <v>893</v>
       </c>
-      <c r="E14" s="33"/>
+      <c r="E14" s="34"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
         <v>44018</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="33" t="s">
         <v>932</v>
       </c>
-      <c r="D15" s="32" t="s">
-        <v>933</v>
-      </c>
-      <c r="E15" s="33"/>
+      <c r="E15" s="34"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="9"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
+      <c r="B16" s="7">
+        <v>44020</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E16" s="34"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="34"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="36"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -13048,10 +13848,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z36"/>
+  <dimension ref="A1:Z239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X149" sqref="X149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13098,7 +13898,7 @@
         <v>86</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -13138,7 +13938,7 @@
         <v>18</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -13164,6 +13964,681 @@
       <c r="X36" s="13"/>
       <c r="Y36" s="13"/>
       <c r="Z36" s="13"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B37" s="18" t="s">
+        <v>955</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C38" s="19" t="s">
+        <v>957</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C39" s="19" t="s">
+        <v>958</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B40" s="18" t="s">
+        <v>961</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C41" s="19" t="s">
+        <v>963</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C42" s="19" t="s">
+        <v>958</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B43" s="18" t="s">
+        <v>966</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C44" s="19" t="s">
+        <v>957</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C45" s="19" t="s">
+        <v>970</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B46" s="18" t="s">
+        <v>969</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C47" s="19" t="s">
+        <v>957</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C48" s="19" t="s">
+        <v>970</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B49" s="18" t="s">
+        <v>973</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C50" s="19" t="s">
+        <v>963</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C51" s="19" t="s">
+        <v>970</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C52" s="19" t="s">
+        <v>983</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C53" s="19" t="s">
+        <v>981</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A55" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>975</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="13"/>
+      <c r="W55" s="13"/>
+      <c r="X55" s="13"/>
+      <c r="Y55" s="13"/>
+      <c r="Z55" s="13"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B56" s="18" t="s">
+        <v>955</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B90" s="18" t="s">
+        <v>961</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C91" s="19" t="s">
+        <v>957</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D92" s="19" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D93" s="19" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D94" s="19" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C95" s="19" t="s">
+        <v>958</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D96" s="19" t="s">
+        <v>998</v>
+      </c>
+      <c r="E96" s="19" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D97" s="19"/>
+      <c r="E97" s="19" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D98" s="19"/>
+      <c r="E98" s="19" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D99" s="19" t="s">
+        <v>999</v>
+      </c>
+      <c r="E99" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D100" s="19"/>
+      <c r="E100" s="19" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D101" s="19"/>
+      <c r="E101" s="19" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="102" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D102" s="19" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="103" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D103" s="19"/>
+      <c r="E103" s="19" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="104" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D104" s="19"/>
+      <c r="E104" s="19" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="105" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D105" s="19"/>
+      <c r="E105" s="19" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="106" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D106" s="19"/>
+    </row>
+    <row r="107" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D107" s="19"/>
+    </row>
+    <row r="108" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D108" s="19"/>
+    </row>
+    <row r="109" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D109" s="19"/>
+    </row>
+    <row r="110" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D110" s="19"/>
+    </row>
+    <row r="111" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D111" s="19"/>
+    </row>
+    <row r="112" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D112" s="19"/>
+    </row>
+    <row r="113" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D113" s="19"/>
+    </row>
+    <row r="114" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D114" s="19"/>
+    </row>
+    <row r="115" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D115" s="19"/>
+    </row>
+    <row r="116" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D116" s="19"/>
+    </row>
+    <row r="117" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D117" s="19"/>
+    </row>
+    <row r="118" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D118" s="19"/>
+    </row>
+    <row r="119" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D119" s="19"/>
+    </row>
+    <row r="120" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D120" s="19"/>
+    </row>
+    <row r="121" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D121" s="19"/>
+    </row>
+    <row r="122" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C122" s="19" t="s">
+        <v>994</v>
+      </c>
+      <c r="D122" s="19" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="123" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D123" s="19" t="s">
+        <v>996</v>
+      </c>
+      <c r="E123" s="19" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="124" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D124" s="19" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E124" s="19" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="125" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D125" s="19" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E125" s="19" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="126" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D126" s="19"/>
+    </row>
+    <row r="127" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D127" s="19"/>
+    </row>
+    <row r="128" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D128" s="19"/>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A131" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B131" s="17" t="s">
+        <v>977</v>
+      </c>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="13"/>
+      <c r="I131" s="13"/>
+      <c r="J131" s="13"/>
+      <c r="K131" s="13"/>
+      <c r="L131" s="13"/>
+      <c r="M131" s="13"/>
+      <c r="N131" s="13"/>
+      <c r="O131" s="13"/>
+      <c r="P131" s="13"/>
+      <c r="Q131" s="13"/>
+      <c r="R131" s="13"/>
+      <c r="S131" s="13"/>
+      <c r="T131" s="13"/>
+      <c r="U131" s="13"/>
+      <c r="V131" s="13"/>
+      <c r="W131" s="13"/>
+      <c r="X131" s="13"/>
+      <c r="Y131" s="13"/>
+      <c r="Z131" s="13"/>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B132" s="18" t="s">
+        <v>955</v>
+      </c>
+      <c r="C132" s="19" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B166" s="18" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C166" s="19" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C167" s="19" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C168" s="19" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C169" s="19" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D169" s="19" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C170" s="19"/>
+      <c r="D170" s="19" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C171" s="19" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D171" s="19" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D172" s="19" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E172" s="19" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E173" s="19" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E174" s="19" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D175" s="19" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E175" s="19" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D176" s="19"/>
+      <c r="E176" s="19" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="177" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E177" s="19" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="178" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E178" s="19" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="179" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D179" s="19" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E179" s="19" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="180" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E180" s="19" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="181" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E181" s="19" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="182" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E182" s="19" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="183" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D183" s="19" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E183" s="19" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="184" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D184" s="19"/>
+      <c r="E184" s="19" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="185" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E185" s="19" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="186" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E186" s="19" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="187" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C187" s="19" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D187" s="19" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="188" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D188" s="19" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E188" s="19" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="189" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D189" s="19" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E189" s="19" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="190" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D190" s="19" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E190" s="19" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="191" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C191" s="19" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D191" s="19" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="192" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D192" s="19" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="193" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D193" s="19" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E193" s="19" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="194" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E194" s="19" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="195" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E195" s="19" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="196" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E196" s="19" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="197" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E197" s="19" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="203" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A203" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="B203" s="17" t="s">
+        <v>978</v>
+      </c>
+      <c r="C203" s="13"/>
+      <c r="D203" s="13"/>
+      <c r="E203" s="13"/>
+      <c r="F203" s="13"/>
+      <c r="G203" s="13"/>
+      <c r="H203" s="13"/>
+      <c r="I203" s="13"/>
+      <c r="J203" s="13"/>
+      <c r="K203" s="13"/>
+      <c r="L203" s="13"/>
+      <c r="M203" s="13"/>
+      <c r="N203" s="13"/>
+      <c r="O203" s="13"/>
+      <c r="P203" s="13"/>
+      <c r="Q203" s="13"/>
+      <c r="R203" s="13"/>
+      <c r="S203" s="13"/>
+      <c r="T203" s="13"/>
+      <c r="U203" s="13"/>
+      <c r="V203" s="13"/>
+      <c r="W203" s="13"/>
+      <c r="X203" s="13"/>
+      <c r="Y203" s="13"/>
+      <c r="Z203" s="13"/>
+    </row>
+    <row r="204" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B204" s="18" t="s">
+        <v>955</v>
+      </c>
+      <c r="C204" s="19" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B236" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C236" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C237" s="19" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C238" s="19" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C239" s="19" t="s">
+        <v>1055</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -13238,7 +14713,7 @@
       </c>
     </row>
     <row r="5" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="54" t="s">
         <v>149</v>
       </c>
       <c r="C5" s="22" t="s">
@@ -13263,7 +14738,7 @@
       <c r="N5" s="22"/>
     </row>
     <row r="6" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="53"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="22" t="s">
         <v>131</v>
       </c>
@@ -13286,7 +14761,7 @@
       <c r="N6" s="22"/>
     </row>
     <row r="7" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="53"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="22" t="s">
         <v>132</v>
       </c>
@@ -13309,7 +14784,7 @@
       <c r="N7" s="22"/>
     </row>
     <row r="8" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="54" t="s">
         <v>150</v>
       </c>
       <c r="C8" s="22" t="s">
@@ -13334,7 +14809,7 @@
       <c r="N8" s="22"/>
     </row>
     <row r="9" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="53"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="22" t="s">
         <v>134</v>
       </c>
@@ -13357,7 +14832,7 @@
       <c r="N9" s="22"/>
     </row>
     <row r="10" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="53"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="22" t="s">
         <v>135</v>
       </c>
@@ -13383,7 +14858,7 @@
       </c>
     </row>
     <row r="11" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="54" t="s">
         <v>151</v>
       </c>
       <c r="C11" s="22" t="s">
@@ -13407,7 +14882,7 @@
       </c>
     </row>
     <row r="12" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="53"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="22" t="s">
         <v>137</v>
       </c>
@@ -13426,7 +14901,7 @@
       <c r="N12" s="22"/>
     </row>
     <row r="13" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B13" s="53"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="22" t="s">
         <v>144</v>
       </c>
@@ -13445,7 +14920,7 @@
       <c r="N13" s="22"/>
     </row>
     <row r="14" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="53"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="22" t="s">
         <v>145</v>
       </c>
@@ -13464,7 +14939,7 @@
       <c r="N14" s="22"/>
     </row>
     <row r="15" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="54" t="s">
         <v>152</v>
       </c>
       <c r="C15" s="22" t="s">
@@ -13485,7 +14960,7 @@
       <c r="N15" s="22"/>
     </row>
     <row r="16" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="53"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="22" t="s">
         <v>154</v>
       </c>
@@ -13504,7 +14979,7 @@
       <c r="N16" s="22"/>
     </row>
     <row r="17" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B17" s="53"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="22" t="s">
         <v>155</v>
       </c>
@@ -13523,7 +14998,7 @@
       <c r="N17" s="22"/>
     </row>
     <row r="18" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="53"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="22" t="s">
         <v>158</v>
       </c>
@@ -13542,7 +15017,7 @@
       <c r="N18" s="22"/>
     </row>
     <row r="19" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="53"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="22" t="s">
         <v>159</v>
       </c>
@@ -13561,7 +15036,7 @@
       <c r="N19" s="22"/>
     </row>
     <row r="20" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="53"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="24" t="s">
         <v>200</v>
       </c>
@@ -13580,7 +15055,7 @@
       <c r="N20" s="22"/>
     </row>
     <row r="21" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="54" t="s">
         <v>160</v>
       </c>
       <c r="C21" s="22" t="s">
@@ -13601,7 +15076,7 @@
       <c r="N21" s="22"/>
     </row>
     <row r="22" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B22" s="53"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="22" t="s">
         <v>162</v>
       </c>
@@ -13620,7 +15095,7 @@
       <c r="N22" s="22"/>
     </row>
     <row r="23" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="53"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="22" t="s">
         <v>163</v>
       </c>
@@ -13639,7 +15114,7 @@
       <c r="N23" s="22"/>
     </row>
     <row r="24" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B24" s="53"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="22" t="s">
         <v>164</v>
       </c>
@@ -13658,7 +15133,7 @@
       <c r="N24" s="22"/>
     </row>
     <row r="25" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B25" s="53"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="24" t="s">
         <v>201</v>
       </c>
@@ -13677,7 +15152,7 @@
       <c r="N25" s="22"/>
     </row>
     <row r="26" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B26" s="53"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="22" t="s">
         <v>165</v>
       </c>
@@ -13696,7 +15171,7 @@
       <c r="N26" s="22"/>
     </row>
     <row r="27" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="53"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="22" t="s">
         <v>166</v>
       </c>
@@ -13715,7 +15190,7 @@
       <c r="N27" s="22"/>
     </row>
     <row r="28" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="54" t="s">
         <v>167</v>
       </c>
       <c r="C28" s="22" t="s">
@@ -13736,7 +15211,7 @@
       <c r="N28" s="22"/>
     </row>
     <row r="29" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B29" s="53"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="22" t="s">
         <v>169</v>
       </c>
@@ -13755,7 +15230,7 @@
       <c r="N29" s="22"/>
     </row>
     <row r="30" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B30" s="53"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="22" t="s">
         <v>170</v>
       </c>
@@ -13774,7 +15249,7 @@
       <c r="N30" s="22"/>
     </row>
     <row r="31" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="54" t="s">
         <v>173</v>
       </c>
       <c r="C31" s="22" t="s">
@@ -13795,7 +15270,7 @@
       <c r="N31" s="22"/>
     </row>
     <row r="32" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B32" s="53"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="22" t="s">
         <v>175</v>
       </c>
@@ -13814,7 +15289,7 @@
       <c r="N32" s="22"/>
     </row>
     <row r="33" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B33" s="53"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="22" t="s">
         <v>176</v>
       </c>
@@ -13833,7 +15308,7 @@
       <c r="N33" s="22"/>
     </row>
     <row r="34" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B34" s="53"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="22" t="s">
         <v>177</v>
       </c>
@@ -13852,7 +15327,7 @@
       <c r="N34" s="22"/>
     </row>
     <row r="35" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B35" s="53"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="22" t="s">
         <v>178</v>
       </c>
@@ -13873,7 +15348,7 @@
       <c r="N35" s="22"/>
     </row>
     <row r="36" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B36" s="53"/>
+      <c r="B36" s="54"/>
       <c r="C36" s="22" t="s">
         <v>178</v>
       </c>
@@ -13894,7 +15369,7 @@
       <c r="N36" s="22"/>
     </row>
     <row r="37" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B37" s="53"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="22" t="s">
         <v>178</v>
       </c>
@@ -13915,10 +15390,10 @@
       <c r="N37" s="22"/>
     </row>
     <row r="38" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="C38" s="53" t="s">
+      <c r="C38" s="54" t="s">
         <v>185</v>
       </c>
       <c r="D38" s="22" t="s">
@@ -13938,8 +15413,8 @@
       <c r="N38" s="22"/>
     </row>
     <row r="39" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="22" t="s">
         <v>193</v>
       </c>
@@ -13957,8 +15432,8 @@
       <c r="N39" s="22"/>
     </row>
     <row r="40" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
       <c r="D40" s="22" t="s">
         <v>194</v>
       </c>
@@ -13976,8 +15451,8 @@
       <c r="N40" s="22"/>
     </row>
     <row r="41" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
       <c r="D41" s="22" t="s">
         <v>195</v>
       </c>
@@ -13995,8 +15470,8 @@
       <c r="N41" s="22"/>
     </row>
     <row r="42" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B42" s="53"/>
-      <c r="C42" s="53" t="s">
+      <c r="B42" s="54"/>
+      <c r="C42" s="54" t="s">
         <v>186</v>
       </c>
       <c r="D42" s="22" t="s">
@@ -14016,8 +15491,8 @@
       <c r="N42" s="22"/>
     </row>
     <row r="43" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
       <c r="D43" s="22" t="s">
         <v>197</v>
       </c>
@@ -14035,7 +15510,7 @@
       <c r="N43" s="22"/>
     </row>
     <row r="44" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="54" t="s">
         <v>179</v>
       </c>
       <c r="C44" s="22" t="s">
@@ -14056,7 +15531,7 @@
       <c r="N44" s="22"/>
     </row>
     <row r="45" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B45" s="53"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="22" t="s">
         <v>188</v>
       </c>
@@ -14075,7 +15550,7 @@
       <c r="N45" s="22"/>
     </row>
     <row r="46" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B46" s="53"/>
+      <c r="B46" s="54"/>
       <c r="C46" s="22" t="s">
         <v>189</v>
       </c>
@@ -14094,7 +15569,7 @@
       <c r="N46" s="22"/>
     </row>
     <row r="47" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B47" s="53"/>
+      <c r="B47" s="54"/>
       <c r="C47" s="22" t="s">
         <v>190</v>
       </c>
@@ -14113,7 +15588,7 @@
       <c r="N47" s="22"/>
     </row>
     <row r="48" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B48" s="53"/>
+      <c r="B48" s="54"/>
       <c r="C48" s="22" t="s">
         <v>191</v>
       </c>
@@ -14133,6 +15608,10 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B21:B27"/>
     <mergeCell ref="C38:C41"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="B38:B43"/>
@@ -14140,10 +15619,6 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B20"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B21:B27"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14152,10 +15627,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
   <dimension ref="A1:Z128"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14385,7 +15863,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
@@ -14417,17 +15895,17 @@
         <v>20</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C83" s="19" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C84" s="19" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
@@ -14435,7 +15913,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
@@ -14467,12 +15945,12 @@
         <v>20</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C88" s="12" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.3">
@@ -14480,7 +15958,7 @@
         <v>44</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.3">
@@ -14488,7 +15966,7 @@
         <v>69</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.3">
@@ -14496,7 +15974,7 @@
         <v>448</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.3">
@@ -14536,7 +16014,7 @@
         <v>20</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.3">
@@ -14544,7 +16022,7 @@
         <v>44</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.3">
@@ -14552,7 +16030,7 @@
         <v>227</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
@@ -14584,7 +16062,7 @@
         <v>20</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.3">
@@ -14592,7 +16070,7 @@
         <v>237</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
@@ -14600,7 +16078,7 @@
         <v>69</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.3">
@@ -14640,12 +16118,12 @@
         <v>20</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C126" s="19" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.3">
@@ -14653,12 +16131,12 @@
         <v>44</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C128" s="19" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
   </sheetData>
@@ -17395,47 +18873,47 @@
     <row r="115" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D115" s="19"/>
       <c r="H115" s="28"/>
-      <c r="I115" s="54" t="s">
+      <c r="I115" s="55" t="s">
         <v>340</v>
       </c>
-      <c r="J115" s="53"/>
-      <c r="K115" s="53"/>
+      <c r="J115" s="54"/>
+      <c r="K115" s="54"/>
     </row>
     <row r="116" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D116" s="19"/>
-      <c r="I116" s="53"/>
-      <c r="J116" s="53"/>
-      <c r="K116" s="53"/>
+      <c r="I116" s="54"/>
+      <c r="J116" s="54"/>
+      <c r="K116" s="54"/>
     </row>
     <row r="117" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D117" s="19"/>
-      <c r="I117" s="53"/>
-      <c r="J117" s="53"/>
-      <c r="K117" s="53"/>
+      <c r="I117" s="54"/>
+      <c r="J117" s="54"/>
+      <c r="K117" s="54"/>
     </row>
     <row r="118" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D118" s="19"/>
-      <c r="I118" s="53"/>
-      <c r="J118" s="53"/>
-      <c r="K118" s="53"/>
+      <c r="I118" s="54"/>
+      <c r="J118" s="54"/>
+      <c r="K118" s="54"/>
     </row>
     <row r="119" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D119" s="19"/>
-      <c r="I119" s="53"/>
-      <c r="J119" s="53"/>
-      <c r="K119" s="53"/>
+      <c r="I119" s="54"/>
+      <c r="J119" s="54"/>
+      <c r="K119" s="54"/>
     </row>
     <row r="120" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D120" s="19"/>
-      <c r="I120" s="53"/>
-      <c r="J120" s="53"/>
-      <c r="K120" s="53"/>
+      <c r="I120" s="54"/>
+      <c r="J120" s="54"/>
+      <c r="K120" s="54"/>
     </row>
     <row r="121" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D121" s="19"/>
-      <c r="I121" s="53"/>
-      <c r="J121" s="53"/>
-      <c r="K121" s="53"/>
+      <c r="I121" s="54"/>
+      <c r="J121" s="54"/>
+      <c r="K121" s="54"/>
     </row>
     <row r="122" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C122" s="19" t="s">

--- a/策划案/Java/IOT项目/IOT物联网平台.xlsx
+++ b/策划案/Java/IOT项目/IOT物联网平台.xlsx
@@ -19,7 +19,8 @@
     <sheet name="群组页面" sheetId="80" r:id="rId10"/>
     <sheet name="规则模块" sheetId="87" r:id="rId11"/>
     <sheet name="主题" sheetId="89" r:id="rId12"/>
-    <sheet name="部门系统" sheetId="92" r:id="rId13"/>
+    <sheet name="后台管理模块" sheetId="93" r:id="rId13"/>
+    <sheet name="部门系统" sheetId="92" state="hidden" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,84 +32,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="1059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="1072">
   <si>
     <t>负责人名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>系统名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>文档状态</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>文档说明</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>文档修订记录</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>修订人</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>修订内容（后续任何修改都需要记录到此）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>说明：文档内容尽量用Excel来完成（按模板），并同步下单至WorkTime。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>初稿</t>
   </si>
   <si>
     <t>能力商店项目设计</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>功能概述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>褚智勇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设计设备注册查询与群组界面</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>原型视图</t>
   </si>
   <si>
     <t>一.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>功能概述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>二.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>三.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>功能详述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -121,11 +122,11 @@
       </rPr>
       <t>1.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>筛选</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -141,11 +142,11 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>区域截图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -161,27 +162,27 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>排序方式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>排序方式有3种，按名称排序，按标识ID排序，按注册时间排序</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>默认为按名称排序</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>当完成新增设备后，切换为按注册时间排序</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>名称和Id排序为升序，注册时间排序为降序</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -197,19 +198,19 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设备状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设备状态筛选有2个复选项，在线和离线</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>默认情况下2个复选框都勾选</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -225,15 +226,15 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>资源空间筛选</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>包含所有资源空间和该账号下各资源空间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -249,15 +250,15 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>产品筛选</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>包含所有产品和该账号下当前资源空间下的所有产品</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -273,19 +274,19 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>模糊查询</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>支持设备名称查询和设备Id查询</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>查询语句为正则表达式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -298,11 +299,11 @@
       </rPr>
       <t>2.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>显示列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -318,11 +319,11 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>区域截图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -338,11 +339,11 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>包含内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -358,11 +359,11 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>离线和在线状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -378,11 +379,11 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设备名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -398,11 +399,11 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设备标识码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -418,11 +419,11 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设备的所属资源空间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -438,11 +439,11 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设备的所属产品</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -458,11 +459,11 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设备的节点类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -478,31 +479,31 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设备的操作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击查看，跳转设备详情页面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击删除，则弹出一个提示框，是否删除该设备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>查看</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>删除</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>弹出框样式由美术统一设计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -515,23 +516,23 @@
       </rPr>
       <t>3.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>删除成功后，前端去掉该项，不进行页面刷新</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>分页功能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>规则描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -547,11 +548,11 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>在头部显示总条数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -567,7 +568,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -583,47 +584,47 @@
       </rPr>
       <t>0个选页按钮</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>选页按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>每页显示10条（以美术设计为准）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>页数不够10个，有多少个显示多少个</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>四.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>新增设备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>原型图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>五.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>批量新增</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>原型图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -636,11 +637,11 @@
       </rPr>
       <t>2.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>表单详解</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -656,7 +657,7 @@
       </rPr>
       <t>son配置文件、相同Id的操作模式</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -672,23 +673,23 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>表单包含内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>配置文件格式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>待定</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>模板下载</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -704,7 +705,7 @@
       </rPr>
       <t>xcel模板和导表工具的下载</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -720,107 +721,107 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>交互相关</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>初始装填，确认按钮置灰。必要的表单填全后变为可点击态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>一.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设备绑定</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>操作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>展示内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设备名字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>所属产品的链接</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>查看设备的链接</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>解绑设备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>解绑操作需要弹出框2次确认。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>展示规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>展示当前选中分组和其子分组的所有设备，按设备名称升序排列</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>绑定设备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击绑定设备，右侧绑定设备面板划出</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>刷新设备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击刷新设备，重新请求一次设备列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ps:这个操作其实只会在用户打开2个相同页面的页签时实际发挥作用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>与设备列表页面中的所有设备类似，只是这里不提供命名空间筛选</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>表头的勾选项点击后，会把本页所有设备都勾选上。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>列表展示还没有添加进这个分组的设备。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>列表有4列，分别是勾选项，设备名称，设备Id和所属产品。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>每个列表项的勾选表示要把这个设备添加进该分组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>确认按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -836,246 +837,246 @@
       </rPr>
       <t>即使不在本页)，加入到选定分组。</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>成功后页签折叠回去。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>撤销按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击后重置所有勾选</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>返回按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击后折回页签</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设计人员</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>项目创建</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>项目列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>项目修改</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>产品创建</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>产品列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>产品修改</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>模型在线配置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>模型离线配置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设计预期用时</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设计截止时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>开发预期用时</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>开发截止时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>开发人员</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>美术人员</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>模型上传</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>模型套用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>所在版本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>大项目</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>子项目</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>项目管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 产品管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>模型管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设备管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>添加设备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设备列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设备修改</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设计完成情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>开发完成情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设备分组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设备数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设备接入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>协议接入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>上线鉴权</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>上行事件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>下行数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>离线数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>数据回流</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>数据管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>实时数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>历史数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>分库分表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>千位吊唁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>19983242695</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>告警管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>告警规则管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>告警规则监听</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>告警规则解析</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>告警数据管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>告警通知</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>统计分析</t>
   </si>
   <si>
     <t>2级子项目</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>系统内通知</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>短信通知</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>email通知</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>北向应用服务</t>
@@ -1133,31 +1134,31 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>V2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设备日志</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>日志上传</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>褚智勇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>产品页面的界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设计目的</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1170,23 +1171,23 @@
       </rPr>
       <t>1.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>使设备可以分组查看，便于信息统计与设备管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>三.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>五.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设计目的</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1199,15 +1200,15 @@
       </rPr>
       <t>1.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>新增设备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>用户可以通过类似账号注册的方式新增设备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1223,7 +1224,7 @@
       </rPr>
       <t>son配置文件批量新增设备</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1236,63 +1237,63 @@
       </rPr>
       <t>2.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>用户可以在页面上较方便的查看已注册的设备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设备查询</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>二.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>三.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>用于设备预先注册，设置登录密码。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>以列表形式展示出注册的设备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>并提供一些筛选和条件查找功能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>允许用户创建群组，并把注册到账户上的设备添加进群组。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设计目的</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>方便用户对已注册的设备进行分组管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>三.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>四.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>七.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>功能概述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1305,15 +1306,15 @@
       </rPr>
       <t>1.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>一个项目下有多个产品，每个产品定义了一个上行数据模型和下发命令数据模型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1326,83 +1327,83 @@
       </rPr>
       <t>2.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设备上传的数据，需要经过产品层数据模型的校验，才可以进入数据库</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>上行数据校验</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>命令下发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>产品 介绍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>功能关联</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>a.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>b.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>二.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设计目的</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对设备上传数据和下发数据的行为进行定义</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>在命令下发页面，或在应用侧API处，可以对对应设备下发定义好的命令</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>产品列表页面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>原型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>三.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>功能概览</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>功能简介</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>在右上方下拉菜单中选定特定项目，展示出该项目下的产品列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>概述：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1418,23 +1419,23 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>列表包含信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>产品名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>提供产品名称，并附带产品跳转的链接</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>产品Id，设备类型，协议，操作相关</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1450,99 +1451,99 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>协议包含</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MQTT, CoAp,HTTP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>c.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>交互逻辑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击产品名称和详情，跳转产品详情界面。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击删除，需要弹出一个确认框</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击创建产品，弹出创建产品界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>创建产品页面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>功能简介</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>表单包含项</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>所属项目，产品名称，协议类型，数据格式，所属行业，设备类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>使用模板</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>可以上传json配置文件进行创建，同时初始化上行数据模型和下发命令模型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>数据格式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>约束</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>四.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>产品详情界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>包含基础信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>基础信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>a.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>d.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>产品名称，产品Id，所属设备数，所属项目，设备类型，协议类型，数据格式，最后修改时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1558,23 +1559,23 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>交互相关</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击注册数量，跳转到设备列表页面，并设置筛选项为当前产品</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>每个产品有且只有一个上行数据模型和下发命令模型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1590,23 +1591,23 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>模型属性字段展示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>c.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>上传你配置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>可以上传配置文件进行自动模型配置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1622,11 +1623,11 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>导出配置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1642,23 +1643,23 @@
       </rPr>
       <t>son自动下载给用户</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>五.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>新增属性页面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>包含内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>属性名称，是否必选，属性类型，约束，描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1674,15 +1675,15 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>属性类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>不同属性约束条件不同</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1698,27 +1699,27 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>约束</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>String类型约束为长度和枚举。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>枚举用,分隔</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>如果枚举元素值超过长度，提交表单时报错</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1734,15 +1735,15 @@
       </rPr>
       <t>tring,Integer,Double</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Integer,Double</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>约束为范围</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1758,23 +1759,23 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>交互</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>确认，撤销，×</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设备详情</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1787,15 +1788,15 @@
       </rPr>
       <t>1.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>原型图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>该界面展示设备的基本信息，和影子信息。以及重置秘钥的操作。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1811,19 +1812,19 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>基础信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>包括设备名称，在线情况，设备Id，认证类型，注册时间，所属产品和节点类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>目前认证类型只支持秘钥，后续会添加指纹等功能。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1839,19 +1840,19 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>重置秘钥操作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击重置秘钥，弹出右图所示弹框</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>用户可以点击自动生成，生成一个随机的秘钥。生成秘钥算法要求重复率较低，长度在20位以内。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1867,31 +1868,31 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设备影子</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>所谓设备影子，即是设备上一次上传的消息。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设备影子显示上次上传数据的时间，和上传数据的属性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击确认后完成重置秘钥操作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>三.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>这里要前端拉去数据并动态生成。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1907,19 +1908,19 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>上传文件功能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>命令表单</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>用户上传下发命令的Json文件，命令表单根据文件内容自动填充</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1935,15 +1936,15 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>下发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>用户点击下发按钮，向设备下发数据。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"cmd" : "test",
@@ -1952,23 +1953,23 @@
  "k2" : 100,
  "k3" : "v1",
 }</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>数据格式为：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>消息追踪</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>这个功能用于排查设备的故障，检测一段时间内设备的业务数据。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1984,11 +1985,11 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设计目的</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2004,19 +2005,19 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>概述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>本功能和华为版完全一致，包含开启追踪，显示追踪数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>同时用于开发阶段的调试功能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2032,91 +2033,91 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>追踪数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>包含流水号，节点类型，记录时间，业务详情和操作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>业务详情显示源数据，如果是二进制数据，也直接丢2进制乱码数据。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>业务详情</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>业务详情只显示1行，超过在末尾用…展示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>业务详情提供一个复制按钮，方便调试使用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>数据追踪按钮交互</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击查看，展示完整的业务详情数据，如右图所示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击数据追踪弹出如下界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击弹出原型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>操作如图所示，不做赘述。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>褚智勇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>褚智勇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>褚智勇</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>设备详情界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>群组可以绑定规则，使群组下的所有设备和规则关联。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>便于规则绑定，使设备批量应用规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>功能概浏览</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>原型图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2132,11 +2133,11 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击左边节点树节点，显示该群组节点的详情信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2152,15 +2153,15 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>数据结构</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>六.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2173,15 +2174,15 @@
       </rPr>
       <t>1.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>群组节点</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>群组节点是树状结构，根结点是所有群组。用户可以在根结点或其他子节点下创建群组节点</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2194,15 +2195,15 @@
       </rPr>
       <t>2.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>群组与设备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>一个设备可以绑定在多个群组节点上。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2218,27 +2219,27 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>b.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>父群组的规则，可以应用到所有子群组上</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>c.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1个设备，最多绑定10个群组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>群组操作&amp;群组概览</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2254,19 +2255,19 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击删除，弹出删除确认框</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击左上角的+按钮，弹出添加群组窗口，编辑完成后完成群组添加</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>群组节点操作概述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2282,11 +2283,11 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击刷新，再次请求一下节点树信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2299,19 +2300,19 @@
       </rPr>
       <t>3.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>群组概览显示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>a.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>群组名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2327,11 +2328,11 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>群组统计信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2347,11 +2348,11 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>子群组数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2367,15 +2368,15 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设备数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ps:按照当前设计，一个传感器设备及一个产品，一套设备是一个群组，一个项目会卖出多套设备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2391,11 +2392,11 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>群组创建日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2411,11 +2412,11 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2431,23 +2432,23 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>详细描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>显示设备分组的详细描述。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击编辑按钮，下方出现取消和确定按钮，点击确定后保存退出编辑状态，点击取消也退出编辑状态。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>添加群组页面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2460,11 +2461,11 @@
       </rPr>
       <t>1.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>原型图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2477,19 +2478,19 @@
       </rPr>
       <t>2.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>概述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>包含表单</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>父级群组，群组名称，群组描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2505,31 +2506,31 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>其他规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>父级群组帮用户自动填写，根据用户选中的群组节点。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>如果没有选中群组节点，则父级群组是"所有群组"这个根结点。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>八.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设备列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>原型图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2542,63 +2543,63 @@
       </rPr>
       <t>2.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>4.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>5.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>原型图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>规则概述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>b.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>c.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>d.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>e.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>入口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>进入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击绑定设备，绑定设备页面弹出或从右向左滑出（浏览器需要支持蒙版功能，不好做就弹出）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2614,19 +2615,19 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>离开</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击》按钮，绑定设备页面折回</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>显示绑定的规则链接，删除规则的x号，以及绑定规则按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2639,11 +2640,11 @@
       </rPr>
       <t>4.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>群组概览交互</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2659,31 +2660,31 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>绑定规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击绑定规则，弹出如图界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>删除规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击x号，弹出确认框，点击确认后删除</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>5.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>规则绑定页面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2699,87 +2700,87 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>进入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击绑定规则，展示如右图所示页面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>退出</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击x或撤销退出该弹出页面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击确定添加所选择的规则，而后退出页面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>c.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>展示规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>展示所选项目下所有未被添加进该群组的规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>d.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>选择</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击表头的选择框，本页规则全选，再次点击本页全部变为非选择态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击数据行的选择框，该条规则进入选择态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>e.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>分页</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>每页显示5条规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>超过5条则显示分页</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>一.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设计目的</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>目标用户</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>一些想进入物联网行业的中小公司</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2795,15 +2796,15 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>画像</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>缺乏资金，缺技术储备，难以自己开发物联网大数据系统</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2819,23 +2820,23 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>精益创业的团队</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>诉求</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>需要用尽可能低的成本，尽可能快的速度，做出产品MVP，验证物联网产品想法。等想法验证后再进入下一轮迭代，正式开发。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2851,7 +2852,7 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2867,31 +2868,31 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>画像</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>大学生做社团项目</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>希望了解物联网行业，尝试制作一些小产品。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>大概率是嵌入式类社团</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>使用我们的规则引擎，避免处理大数据高并发相关的业务，低成本制造产品</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2907,35 +2908,35 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>不是目标的用户</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>大公司使用物联网平台，更多是节省设备接入的开发成本。建议使用北向应用接入和数据转发功能完成产品。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>当然，在敏捷开发模式下，规则引擎可以用在立项初期，快速制作产品原型，快速定位产品目标，同b所述。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>目的概述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>规则模块，可以为开发团队提供一个快速简易的方式，实现上报属性的设备联动，站内告警，北向应用通知等功能。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>避免研发团队处理高并发的规则联动问题，从而降低开发成本，提升研发速度。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2962,11 +2963,11 @@
       </rPr>
       <t>。</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>希望在只接SDK的情况下，完成demo（不开发Java后台）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2993,7 +2994,7 @@
       </rPr>
       <t>。</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3020,31 +3021,31 @@
       </rPr>
       <t>。</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>用户在项目下创建规则，在设备群组下绑定规则，使指定规则与设备群组下的设备关联。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>一个规则引擎包含触发条件和触发动作，针对的粒度是群组下所有特定类型的产品。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>当某些设备上报属性满足规则的条件，则触发动作。通知群组下某产品的所有设备执行命令吗，或站内告警，或发送主题消息。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>二.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>规则添加与编辑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>规则列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3057,11 +3058,11 @@
       </rPr>
       <t>1.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>原型图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3077,15 +3078,15 @@
       </rPr>
       <t>odo</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>包含内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3101,15 +3102,15 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>所属项目</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>规则名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3125,11 +3126,11 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>规则描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3145,11 +3146,11 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>基础信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3165,39 +3166,39 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>组内产品列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>产品概述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>列表名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>触发条件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>产品数量选择</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>选择全部时，必须满足所有条件才会触发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>选择某一个时，只要一个条件满足，就回触发规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>触发间隔</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3213,15 +3214,15 @@
       </rPr>
       <t>1，表示不设置间隔。</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>当设置间隔时，触发动作后，需要过指定时间（秒），才会继续触发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>条件列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3237,23 +3238,23 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>执行动作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>添加条件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>动作列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>添加动作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3269,60 +3270,60 @@
       </rPr>
       <t>E图，预计和华为几乎没有出入，</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>资源空间“改为项目”</t>
   </si>
   <si>
     <t>规则名称做成链接，点击跳转规则详情。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2).</t>
   </si>
   <si>
     <t>1).</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3).</t>
   </si>
   <si>
     <t>2).</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3).</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>4).</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2).</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>e.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>确认取消按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>编辑按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击编辑按钮，进入编辑状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3338,31 +3339,31 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>确认撤销按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>在编辑状态下，才显示确认和取消按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设备属性上传流程简述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>五.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>三.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>四.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3375,11 +3376,11 @@
       </rPr>
       <t>1.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>流程简图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3392,11 +3393,11 @@
       </rPr>
       <t>2.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>遍历设备上的各规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3472,11 +3473,11 @@
       </rPr>
       <t>放入redis中，不用每次做2重循环。</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>修改规则时，记得更新</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3489,11 +3490,11 @@
       </rPr>
       <t>3.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>触发动作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3509,19 +3510,19 @@
       </rPr>
       <t>K(200)回复信息，则把这次失败记录到设备影子中（Json形式）。只记录最新的一次。</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>多条件关系</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>多条件关系目前只支持2种，一种是and(与)关系，一种是or(或)关系</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3537,7 +3538,7 @@
       </rPr>
       <t>nd关系，选择某一条件是or关系</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3553,11 +3554,11 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>触发间隔</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3573,7 +3574,7 @@
       </rPr>
       <t>1表示没有间隔，设置x，表示一次动作触发后，x秒才会再次触发</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3589,51 +3590,51 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>产品选择</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>产品选择是一个下拉列表，可选择项目下的任何一个产品</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>条件项</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>产品选择</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设备范围选择</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>某个设备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>表示某个设备上报属性在条件范围内，该条件为真</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>全部设备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>表示该产品下全部设备上报属性都在范围内，该条件为真（使用设备影子功能）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3649,7 +3650,7 @@
       </rPr>
       <t>ua脚本</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3665,11 +3666,11 @@
       </rPr>
       <t>ua脚本，来判断该条件是否为真</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>为效率期间，lua脚本采取某个设备模式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3685,7 +3686,7 @@
       </rPr>
       <t>ua脚本中传入该设备影子，让脚本去判断。</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3701,7 +3702,7 @@
       </rPr>
       <t>oAction</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3717,7 +3718,7 @@
       </rPr>
       <t>前提要开启消息追踪)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3733,23 +3734,23 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>#注意</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>lua库要重新编译一下，把系统函数模块注释掉，只让用户使用四则运算循环函数Math库等基础功能。全局变量也要禁掉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>属性选择</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>属性选择是个下拉列表，可选择产品下的所有属性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3765,23 +3766,23 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>条件选择</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>条件选择是个下拉列表，有6个选项</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&gt;,&gt;=,=,&lt;=,&lt;,范围</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>如果选择为范围，条件值用,分隔</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3797,15 +3798,15 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>条件值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>条件值是一个输入框</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3821,15 +3822,15 @@
       </rPr>
       <t>ua脚本模式，条件选择如图所示</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>添加条件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击添加条件，则新建一条条件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3845,60 +3846,60 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>触发动作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>触发动作有4中类型，下发命令，发送通知</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>下发命令：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>产品选择是一个下拉框，展示该项目下的所有产品</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>命令名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>参数配置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击弹出右图参数配置，根据产品模型中的字段生成表单</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>发送通知：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>通知主题</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>通知主题是一个下拉列表，在产品中配置（这部分文档还没写）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>编辑通知内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>添加规则模块。
 修改群组模块，使设备群组模块可以绑定规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>编辑内容根据主题的类型，展示不同页面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3914,7 +3915,7 @@
       </rPr>
       <t>http类型和短信通知类型</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3930,35 +3931,35 @@
       </rPr>
       <t>L表达式，访问设备影子的变量</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>http类型通知内容为Json格式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>功能概述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>向用户展示各协议的域名，总体设置的项目、产品、设备、规则和主题数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>UE概要图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>一.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>功能概述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>主题定义了一类消息，IOT平台的规则引擎，在上报属性满足条件时会触发动作，其中包含向特定主题发送消息。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3974,23 +3975,23 @@
       </rPr>
       <t>OT平台发送相关主题的消息后，订阅者可以以某种方式接受到这个主题消息。</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>二.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>功能概览</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>三.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>主题</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4003,15 +4004,15 @@
       </rPr>
       <t>1.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>原型图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>主界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4027,19 +4028,19 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>原型图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>创建主题</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4055,23 +4056,23 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>发布消息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>4.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>添加订阅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4087,15 +4088,15 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>包含内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>创建主题按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4111,11 +4112,11 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击弹出创建主题页面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4131,23 +4132,23 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>主题搜索</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>模糊搜索选项，用户输入搜索内容，点击放大镜，则返回与输入内容模糊匹配的主题列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>刷新按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4163,23 +4164,23 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>列表项-标识名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>主题的名字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>5)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4195,7 +4196,7 @@
       </rPr>
       <t>D使用用户Id+主题名字做Id</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4211,39 +4212,39 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>显示名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>主题的显示名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>7）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>操作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>发布消息，弹出发布消息窗口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>订阅消息，弹出订阅消息窗口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>删除，则删除主题</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击跳转主题详情界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4259,11 +4260,11 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>表单包含</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4279,43 +4280,43 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>表单内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>消息标题</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>上传消息文件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>消息框</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>包含内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>主题名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>协议</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>主题名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>必填，英文约束，非重</t>
@@ -4334,11 +4335,11 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>显示名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>中文的显示名，当然也能填英文</t>
@@ -4357,19 +4358,19 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>自动填充</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>下拉列表，包含短信，邮件，HTTP，HTTPS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4385,11 +4386,11 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>订阅终端</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4405,19 +4406,19 @@
       </rPr>
       <t>RL，并以;分隔</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>帮助</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>参考华为</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>短信：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>请输入有效手机号码：[+][国家码][手机号码]。国内手机号码可省略[+][国家码]，直接输入手机号码。批量添加手机号码时，以换行符隔开，手机号码支持空格、/和-，例如</t>
@@ -4433,23 +4434,23 @@
   </si>
   <si>
     <t>邮件：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>c.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>操作结果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击确认，向所有订阅者发布刚才编辑的消息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击撤销或x，关闭弹出框</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4465,19 +4466,19 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>操作结果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击确认，创建主题</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>如果主题名称重复，则alert提示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>请添加订阅终端。批量添加终端信息时，以换行符隔开，例如</t>
@@ -4490,7 +4491,7 @@
   </si>
   <si>
     <t>HTTP/HTTPS:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4506,31 +4507,31 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>操作结果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击确认，创建订阅，并跳转订阅列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击取消或x，退出弹出框</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>四.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>订阅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>订阅列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4546,11 +4547,11 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>原型图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4566,65 +4567,65 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击弹出添加订阅界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>批量请求订阅、删除</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>左上角的请求订阅和删除，初始置灰。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>用户在表格中选择需要批量操作的订阅后，两个按钮亮起。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮批量订阅请求，立即进行批量请求。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击删除，弹出确认框后删除。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>筛选</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>筛选项包括协议筛选，状态筛选和模糊查询。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>状态筛选失业下拉表，包含所有状态，已确认，未确认。</t>
   </si>
   <si>
     <t>模糊查询</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>协议筛选项是个下拉列表，包含所有协议，短信，邮件，HTTP，HTTPS</t>
   </si>
   <si>
     <t>协议筛选项</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>状态筛选项</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>用户输入订阅终端的信息，点击放大镜，列表展示模糊查询的内容。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4640,27 +4641,27 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>包含内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>列表包含选择框，订阅UNR，协议类型，订阅终端，主题名称，状态，操作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>列表选择框</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>复选框。复选框为√状态，表示该项数据被选择，左上的按钮可批量操作。点击表头的复选框，该页所有数据都变成可选择状态。点掉表头的复选框，该页所有数据都变为未选择状态。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4676,7 +4677,7 @@
       </rPr>
       <t>NR</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4692,71 +4693,71 @@
       </rPr>
       <t>RN，超出长度末尾用…表示</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>协议</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>订阅的协议</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>显示订阅终端的链接</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>主题名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>显示所属的主题名称，是个超链接，点击进入主题详情页面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>有未确认和确认两种状态，未确认红色，确认绿色</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>操作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>请求订阅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击后向订阅端发送订阅链接，如果订阅链接被访问，则确认成功。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>删除</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>弹出确认框后，确认删除。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>c.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>请求订阅操作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>短信、邮件类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>向终端发送确认订阅的地址链接，用户访问该地址，则确认订阅成功</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4772,15 +4773,15 @@
       </rPr>
       <t>TTP/HTTPS类型</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>a.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设计目的</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4813,11 +4814,11 @@
       </rPr>
       <t>DOS，或骚扰其他用户</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>b.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4833,27 +4834,27 @@
       </rPr>
       <t>Confirm发送请求，如果收到ok+主题Id，则表示订阅成功</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>功能详解</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>略，同三.4，除了把自动填充的主题换为可选择的主题下拉框</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>五.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>主题详情</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4869,59 +4870,59 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>原型图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>b.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>包含内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>详情：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>主题名称、主题URN、显示名、创建时间、订阅总数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>订阅列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>和四.1的内容类似，只不过这里限定为显示当前主题的订阅，不赘述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>添加订阅、发布消息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>与前面功能类似，不做赘述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>三.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>包含元素详述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>用户资源空间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4937,7 +4938,7 @@
       </rPr>
       <t>D，用于设备接入时，设定访问链接</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4950,15 +4951,15 @@
       </rPr>
       <t>2.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>平台接入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>静态页面，告诉用户接入相关的信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4971,23 +4972,23 @@
       </rPr>
       <t>3.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>资源概览</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>显示当前创建的各资源的数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击进入相应的模块</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>IOT物联网平台设计</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5005,23 +5006,23 @@
       </rPr>
       <t>该文档属于策划案，不是产品规格说明书，仅用于指导开发，并不面向用户阅读</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>添加总览页面和主题模块</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>如果用户上传消息文件，则消息框置灰，并自动填充为文件内容，文件上传框…变为x，点击x则消息框恢复（不清空）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>v1阶段包含功能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>命令下发性能需求</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5048,11 +5049,11 @@
       </rPr>
       <t>。</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>所以推荐使用Ajax方式，而不是让设备去监听端口。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5068,11 +5069,11 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>背景</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5088,19 +5089,19 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>实现方式推荐</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>下发命令后，把命令放到redis缓存的队列中，设备心跳时拉取缓存。服务端收到执行完成的回执后，让该命令出队。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对设备的角色进行定义，用于规则引擎的做批量操作。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5116,7 +5117,7 @@
       </rPr>
       <t>1阶段，IOT项目围绕着规则引擎来实现。</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5132,11 +5133,11 @@
       </rPr>
       <t>DK，把设备与我们的后台连接。</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>通过配置产品模型，设备群组，规则引擎，实现设备与设备间和设备与第三方后台间的联动，用较低成本实现一个物联网系统。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5160,39 +5161,39 @@
       </rPr>
       <t>，有助于我们在设计时，避免过度设计和设计不足的问题。</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>一.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>功能概述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>二.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>项目是一个物联网产品的根结点。项目下可包含多个产品。同时，规则，主题，设备群组，都是项目下的模块。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设备的物联在本平台中，只能在同一个项目中进行联通交互。(不同项目间的设备联动，在北向应用v2版本中实现)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>项目列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>包含元素和元素详解</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5208,15 +5209,15 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>创建项目按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击创建项目，弹出项目创建页面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5232,23 +5233,23 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>项目列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>包含项目名称，显示名，项目Id，创建时间，操作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>项目名称可点击，点击进入对应项目的详情页面。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>操作有详情和删除，点击产出需有弹框二次确认。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5264,27 +5265,27 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>项目概念介绍，一个包含设备，群组，规则，主题的图标，以让用户直观的理解我们的系统。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>三.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>项目详情</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>基本信息：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5300,19 +5301,19 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>项目Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>创建时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>显示名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5328,11 +5329,11 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>详细信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5348,27 +5349,27 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>编辑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击编辑按钮，编辑按钮消失，下发出现取消和确认按钮。详细信息和显示名变为可编辑。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击确认，保存信息，退出编辑状态，取消和确认按钮消失，编辑按钮出现。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>四.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>新建项目</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5381,11 +5382,11 @@
       </rPr>
       <t>1.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>原型图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5401,167 +5402,167 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>项目名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>显示名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>必填，英文</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>中文标题，用于显示，简要说明，可中文</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>项目的描述，可以考虑带滚动条</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>交互按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>x，点击后关闭窗口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>没填写时，确认置灰。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>填写项目名称后，确认亮起。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>确认，取消</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击取消退出窗口。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击确认则新建项目，而后关闭窗口。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>褚智勇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>添加项目模块</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>展示属性名称，数据类型，不展示约束字段。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>模型配置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>修改</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>弹出添加属性的界面，只不过相关属性已经自动填充</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>注意弹出确认框</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>属性字段操作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>c.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>命令操作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>添加命令</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>删除命令</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>弹出确认框，确认后删除</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>新增字段</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Json，Protobuf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>新增</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>弹出新增属性界面，见”五“</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>没有必选项</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>弹出添加命令对话框，如右图所示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>下拉列表，包含"全部“，"某一个”和特定设备，特定设备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>下拉列表，根据产品选择，展示可发送的命令名称列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>褚智勇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>修改产品模块，支持多个命令</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>根据用户选择的命令，展示命令下发模型的各字段的表单。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>编辑显示名：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击编辑显示名，显示名编程可输入文本框，并在右边显示√和×。点击√保存显示名，退出编辑模式。点击×直接退出编辑模式。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设备范围选择，有2个选项，某个设备，全部设备，lua脚本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5577,35 +5578,35 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>批量终端订阅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>http://10.12.155.1/notification/action</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>http://10.12.155.2/notification/action</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>暂时不支持域名地址</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>批量终端只是一个简化操作的功能。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>请求成功后，每个订阅地址生成一条订阅，而不是把多个终端合并成一个订阅。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>所属项目</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5621,150 +5622,150 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>显示产品所属的项目</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>产品名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>可以是中文，同一项目下的产品名称不能重复</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>协议类型与数据格式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>可用的协议类型和数据格式从后端拉取。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>数据格式绑定在协议下：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>同一个项目下，产品名不可重复。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>产品名可为中文。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>总览模块</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>应当显示资源空间ID，用于用户设备信息地址请求，便于后期分库分表。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>项目</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>项目列表去掉分页，太丑且没必要</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>新建项目，应当增加显示名，项目列表页显示显示名。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>产品</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>约束页面优化</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>优化与变更</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>约束部分，每条数据增加一个CheckBox</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>枚举型约束，后面加个问号，用户鼠标移上去，显示帮助信息，"不同枚举值用;分隔"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>首次进入该界面，字符串类型没有显示枚举（BUG）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>必选建议按文档中排版，当前的做法有些华而不实。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>新建产品优化</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>增加产品显示名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>协议与数据格式逻辑拉取优化</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>提一些优化的意见</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>群组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>批量设备注册，Excel模板不支持Office打开(Bug)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>建议上传Json，让用户自己导出Json，但提供给用户导表工具。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>使用Json批量注册，可使项目拓展性更强。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>删除群组逻辑优化</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>删除群组节点，不需要先删除子群组，而是把这个群组节点和子群组全部删除</t>
   </si>
   <si>
     <t>绑定设备的搜索项，不支持模糊查询</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>所有群组是根结点，点击后查不到子节点的数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>群组点击中间节点，查询不到子群组的设备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>规则列表不应该看到其他人的规则</t>
@@ -5774,43 +5775,43 @@
   </si>
   <si>
     <t>主题订阅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>新增订阅应显示主题名称，不是主题Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>批量订阅，使用分好分隔，没有生成多条订阅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>订阅列表不应看到其他人的订阅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Id显示优化</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Id自增显得十分不正是，建议Id从10亿开始自增，或者使用雪花算法，显示16进制的完整Long</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>各模块逻辑名和显示名的问题</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>如果没有显示名，那么逻辑名应支持中文。要么就要加上显示名。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>便于企业各部门的账户做权限管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>权限概述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5823,11 +5824,11 @@
       </rPr>
       <t>1.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>系统管理员可创建编辑项目</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5843,7 +5844,7 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5859,15 +5860,15 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>部门管理员可将其父节点系统管理员创建的项目引入部门，用于其部门成员对设备的添加和解绑。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>项目&amp;产品</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5880,23 +5881,23 @@
       </rPr>
       <t>2.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>a.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>部门成员只能看到当前部门和其子部门的设备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>部门成员无法看到兄弟部门的设备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5909,15 +5910,15 @@
       </rPr>
       <t>3.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>部门成员可以看到其父节点系统管理员创建的所有规则。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5930,19 +5931,19 @@
       </rPr>
       <t>4.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>b.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>部门成员可以把可见的规则绑定到对应的群组。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>主题</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5955,27 +5956,27 @@
       </rPr>
       <t>5.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>群组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>部门信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>原型图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>部门成员管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>消息确认</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>部门子节点只能看到当前节点编辑的群组</t>
@@ -5985,54 +5986,54 @@
   </si>
   <si>
     <t>d.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>同一个群组，不存在不同节点可见性不同的情况</t>
   </si>
   <si>
     <t>c.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>群组只要可见，就是可编辑的</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>功能概述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>基础信息部分</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>显示部门名称，部门Id和部门简介</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击编辑按钮，下方出现取消和确认按钮，编辑按钮消失。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>部门名和简介可编辑，用户点击确认则保存，并退出编辑态；点击取消则直接退出编辑态；退出编辑态后，取消和确定按钮消失，编辑按钮重新出现。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>子部门</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>展示当前部门下的所有子部门。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击部门上方的叉号，可删除部门，要有确认弹框。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击添加部门，弹出如图所示对话框</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6048,19 +6049,19 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>部门项目</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>部门继承其父级节点的项目</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6076,7 +6077,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6092,7 +6093,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6108,51 +6109,51 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>所有部门用户均可见</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>只有部门管理员可做此操作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>用户填写部门名称和简介后，点击确认则添加成功。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>部门名称可中文（2个字及以上），并且同一部门下的子部门名字不能重复。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>子部门展示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>子部门删除</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>添加子部门</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>继承过来的项目不可删除</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>部门管理员可以引入新的项目，点击添加按钮，弹出右图所示窗口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6165,99 +6166,99 @@
       </rPr>
       <t>2.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>功能概述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>在成员管理中，部门成员可以看到该部门和其子部门下的所有成员信息，其中包括用户名，用户Id，所属部门的链接，身份，和操作项。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>用户信息修改</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>交互操作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击修改，可修改项变为可编辑状态，修改按钮变为确认。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击确认发送请求，完成修改。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>用户名修改</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>所有人都可以修改自己的用户名。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>部门管理员可以修改表中所见非管理员的名字。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>身份</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>在可编辑态变为输入框</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>在可编辑态变为下拉列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>现有身份包括系统管理员，部门管理员，操作员和游客。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>部门管理员可以修改表中所见非管理员的身份。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>移除部门</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>部门管理员可以把部门中的非管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>a.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>排序</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>自己排最前，而后是按身份排，系统管理员&gt;部门管理员&gt;操作员&gt;游客，而后按用户Id排序</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>移除部门有2次确认框</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6273,19 +6274,19 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>成员被移除后，会在消息页签收到相关消息。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>b.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>c.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6301,91 +6302,170 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>邀请成员</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击邀请成员弹出右图窗口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>交互</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>用户输入Id，点击邀请后发出邀请通知。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>通知成功则提示已发送，不成功则提示原因。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>已发送过提示邀请已发送，已经是部门成员则提示已在部门。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>4）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>部门修改</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>部门管理员可以修改表中所见非管理员的部门。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>在阅读状态下，部门为超链接。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>在可编辑态变为下拉列表，展示当前部门和所有子部门。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>邀请后，不要关闭窗口，点击x后关闭窗口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>用户Id可复制。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>展示邀请请或移除部门的通知。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>移除部门点击确认则删除消息。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>邀请项，点击确认加入部门，删除邀请。点击拒绝删除该条消息。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>褚智勇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加部门系统</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加部门系统-经讨论后放入后续迭代</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>群组支持中文名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>供超级管理员创建部门，更改用户部门等操作。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧的部门树，可通过左上角的添加删除进行树的更改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中某个部门节点，显示该部门和其子部门的成员</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加部门操作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出一个对话框，包含表单，叉号，确认。表单有一个部门名字段，可支持中文。原型图就不画了。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除部门操作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除前弹出确认框，并提示所有子部门会一并删除，在该部门上的用户会移动到父级节点。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改部门操作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在表单中点击更改部门，弹出一个对话框，对话框包含叉号，标题，名字，</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门详情</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员管理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6900,166 +6980,166 @@
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" applyFont="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="9" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="9" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="9" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="9" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="9" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="9" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="5">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="5">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="9" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="9" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="9" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="9" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="12"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="12"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7328,13 +7408,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>85036</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>85164</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7713,6 +7793,125 @@
 </file>
 
 <file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>475595</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142438</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14382750" y="1257300"/>
+          <a:ext cx="5238095" cy="3495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>179301</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>84877</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="1057275"/>
+          <a:ext cx="13390476" cy="6780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>331701</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>75352</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="10477500"/>
+          <a:ext cx="13390476" cy="6780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10047,7 +10246,7 @@
   <dimension ref="B1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:E17"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -10062,12 +10261,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -10076,10 +10275,10 @@
       <c r="C3" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="40" t="s">
         <v>803</v>
       </c>
     </row>
@@ -10090,26 +10289,26 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="47"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="42" t="s">
         <v>804</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="47"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -10118,10 +10317,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="40"/>
+      <c r="E7" s="34"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -10130,10 +10329,10 @@
       <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="34"/>
+      <c r="E8" s="49"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
@@ -10142,10 +10341,10 @@
       <c r="C9" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="E9" s="34"/>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
@@ -10154,10 +10353,10 @@
       <c r="C10" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="48" t="s">
         <v>367</v>
       </c>
-      <c r="E10" s="34"/>
+      <c r="E10" s="49"/>
     </row>
     <row r="11" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
@@ -10166,10 +10365,10 @@
       <c r="C11" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="50" t="s">
         <v>625</v>
       </c>
-      <c r="E11" s="34"/>
+      <c r="E11" s="49"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
@@ -10178,10 +10377,10 @@
       <c r="C12" s="8" t="s">
         <v>871</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="48" t="s">
         <v>805</v>
       </c>
-      <c r="E12" s="34"/>
+      <c r="E12" s="49"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
@@ -10190,10 +10389,10 @@
       <c r="C13" s="8" t="s">
         <v>892</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="48" t="s">
         <v>872</v>
       </c>
-      <c r="E13" s="34"/>
+      <c r="E13" s="49"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="7">
@@ -10202,10 +10401,10 @@
       <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="48" t="s">
         <v>893</v>
       </c>
-      <c r="E14" s="34"/>
+      <c r="E14" s="49"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
@@ -10214,10 +10413,10 @@
       <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="48" t="s">
         <v>932</v>
       </c>
-      <c r="E15" s="34"/>
+      <c r="E15" s="49"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="7">
@@ -10226,99 +10425,103 @@
       <c r="C16" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="48" t="s">
         <v>1058</v>
       </c>
-      <c r="E16" s="34"/>
+      <c r="E16" s="49"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="49"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -10331,18 +10534,14 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C4">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="迭代">
       <formula>NOT(ISERROR(SEARCH("迭代",C4)))</formula>
@@ -11658,7 +11857,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -12739,7 +12938,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -12751,7 +12950,7 @@
   <dimension ref="A1:Z342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13835,7 +14034,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F182" r:id="rId1"/>
     <hyperlink ref="F183" r:id="rId2"/>
@@ -13848,10 +14047,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z239"/>
+  <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X149" sqref="X149"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="W56" sqref="W56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13866,7 +14065,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -13894,11 +14093,8 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>953</v>
+      <c r="B2" s="19" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -13906,7 +14102,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>248</v>
+        <v>1070</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -13933,6 +14129,206 @@
       <c r="Y4" s="13"/>
       <c r="Z4" s="13"/>
     </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="19" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="19" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C43" s="19" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C45" s="19" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="18" t="s">
+        <v>973</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C47" s="19" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A49" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13"/>
+      <c r="X49" s="13"/>
+      <c r="Y49" s="13"/>
+      <c r="Z49" s="13"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B50" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z239"/>
+  <sheetViews>
+    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V102" sqref="V102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="3.125" style="12" customWidth="1"/>
+    <col min="8" max="26" width="11.125" style="12" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+    </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>18</v>
@@ -14641,7 +15037,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -15608,6 +16004,10 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B20"/>
     <mergeCell ref="B44:B48"/>
     <mergeCell ref="B31:B37"/>
     <mergeCell ref="B28:B30"/>
@@ -15615,12 +16015,8 @@
     <mergeCell ref="C38:C41"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="B38:B43"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B20"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15630,10 +16026,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Z128"/>
+  <dimension ref="A1:Z129"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z20" sqref="Z20"/>
+    <sheetView topLeftCell="B97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P107" sqref="P107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15977,170 +16373,178 @@
         <v>942</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A93" s="17" t="s">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B92" s="18" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A94" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="B93" s="17" t="s">
+      <c r="B94" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13"/>
-      <c r="J93" s="13"/>
-      <c r="K93" s="13"/>
-      <c r="L93" s="13"/>
-      <c r="M93" s="13"/>
-      <c r="N93" s="13"/>
-      <c r="O93" s="13"/>
-      <c r="P93" s="13"/>
-      <c r="Q93" s="13"/>
-      <c r="R93" s="13"/>
-      <c r="S93" s="13"/>
-      <c r="T93" s="13"/>
-      <c r="U93" s="13"/>
-      <c r="V93" s="13"/>
-      <c r="W93" s="13"/>
-      <c r="X93" s="13"/>
-      <c r="Y93" s="13"/>
-      <c r="Z93" s="13"/>
-    </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B94" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>943</v>
-      </c>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
+      <c r="O94" s="13"/>
+      <c r="P94" s="13"/>
+      <c r="Q94" s="13"/>
+      <c r="R94" s="13"/>
+      <c r="S94" s="13"/>
+      <c r="T94" s="13"/>
+      <c r="U94" s="13"/>
+      <c r="V94" s="13"/>
+      <c r="W94" s="13"/>
+      <c r="X94" s="13"/>
+      <c r="Y94" s="13"/>
+      <c r="Z94" s="13"/>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B95" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B96" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C95" s="12" t="s">
+      <c r="C96" s="12" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A97" s="17" t="s">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A98" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="B97" s="17" t="s">
+      <c r="B98" s="17" t="s">
         <v>945</v>
       </c>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
-      <c r="J97" s="13"/>
-      <c r="K97" s="13"/>
-      <c r="L97" s="13"/>
-      <c r="M97" s="13"/>
-      <c r="N97" s="13"/>
-      <c r="O97" s="13"/>
-      <c r="P97" s="13"/>
-      <c r="Q97" s="13"/>
-      <c r="R97" s="13"/>
-      <c r="S97" s="13"/>
-      <c r="T97" s="13"/>
-      <c r="U97" s="13"/>
-      <c r="V97" s="13"/>
-      <c r="W97" s="13"/>
-      <c r="X97" s="13"/>
-      <c r="Y97" s="13"/>
-      <c r="Z97" s="13"/>
-    </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B98" s="18" t="s">
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="13"/>
+      <c r="M98" s="13"/>
+      <c r="N98" s="13"/>
+      <c r="O98" s="13"/>
+      <c r="P98" s="13"/>
+      <c r="Q98" s="13"/>
+      <c r="R98" s="13"/>
+      <c r="S98" s="13"/>
+      <c r="T98" s="13"/>
+      <c r="U98" s="13"/>
+      <c r="V98" s="13"/>
+      <c r="W98" s="13"/>
+      <c r="X98" s="13"/>
+      <c r="Y98" s="13"/>
+      <c r="Z98" s="13"/>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B99" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C98" s="19" t="s">
+      <c r="C99" s="19" t="s">
         <v>946</v>
-      </c>
-    </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B121" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="C121" s="19" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B122" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B123" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C122" s="19" t="s">
+      <c r="C123" s="19" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A124" s="17" t="s">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A125" s="17" t="s">
         <v>426</v>
       </c>
-      <c r="B124" s="17" t="s">
+      <c r="B125" s="17" t="s">
         <v>838</v>
       </c>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="13"/>
-      <c r="H124" s="13"/>
-      <c r="I124" s="13"/>
-      <c r="J124" s="13"/>
-      <c r="K124" s="13"/>
-      <c r="L124" s="13"/>
-      <c r="M124" s="13"/>
-      <c r="N124" s="13"/>
-      <c r="O124" s="13"/>
-      <c r="P124" s="13"/>
-      <c r="Q124" s="13"/>
-      <c r="R124" s="13"/>
-      <c r="S124" s="13"/>
-      <c r="T124" s="13"/>
-      <c r="U124" s="13"/>
-      <c r="V124" s="13"/>
-      <c r="W124" s="13"/>
-      <c r="X124" s="13"/>
-      <c r="Y124" s="13"/>
-      <c r="Z124" s="13"/>
-    </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B125" s="18" t="s">
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="13"/>
+      <c r="I125" s="13"/>
+      <c r="J125" s="13"/>
+      <c r="K125" s="13"/>
+      <c r="L125" s="13"/>
+      <c r="M125" s="13"/>
+      <c r="N125" s="13"/>
+      <c r="O125" s="13"/>
+      <c r="P125" s="13"/>
+      <c r="Q125" s="13"/>
+      <c r="R125" s="13"/>
+      <c r="S125" s="13"/>
+      <c r="T125" s="13"/>
+      <c r="U125" s="13"/>
+      <c r="V125" s="13"/>
+      <c r="W125" s="13"/>
+      <c r="X125" s="13"/>
+      <c r="Y125" s="13"/>
+      <c r="Z125" s="13"/>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B126" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C125" s="19" t="s">
+      <c r="C126" s="19" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C126" s="19" t="s">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C127" s="19" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B127" s="18" t="s">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B128" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C127" s="19" t="s">
+      <c r="C128" s="19" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C128" s="19" t="s">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C129" s="19" t="s">
         <v>952</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -16355,7 +16759,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -16745,7 +17149,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -17851,7 +18255,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -18526,7 +18930,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -19217,7 +19621,7 @@
   <mergeCells count="1">
     <mergeCell ref="I115:K121"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -19232,7 +19636,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/策划案/Java/IOT项目/IOT物联网平台.xlsx
+++ b/策划案/Java/IOT项目/IOT物联网平台.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="1079">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -6445,6 +6445,52 @@
   </si>
   <si>
     <t>成员管理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改部门做弹框处理。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出一个框，在弹框页面修改。页面待设计。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改身份</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在身份下拉列表中进行过修改，右上角保存图标出现。点保存后发送请求，请求成功后图标隐藏，不成功表上方红字显示错误信息。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改部门</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -7073,6 +7119,24 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="12"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7117,24 +7181,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
@@ -10261,12 +10307,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -10275,10 +10321,10 @@
       <c r="C3" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="46" t="s">
         <v>803</v>
       </c>
     </row>
@@ -10289,26 +10335,26 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="41"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="47"/>
     </row>
     <row r="5" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="48" t="s">
         <v>804</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="53"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -10317,10 +10363,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="34"/>
+      <c r="E7" s="40"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -10329,10 +10375,10 @@
       <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="49"/>
+      <c r="E8" s="34"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
@@ -10341,10 +10387,10 @@
       <c r="C9" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="E9" s="49"/>
+      <c r="E9" s="34"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
@@ -10353,10 +10399,10 @@
       <c r="C10" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="33" t="s">
         <v>367</v>
       </c>
-      <c r="E10" s="49"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
@@ -10365,10 +10411,10 @@
       <c r="C11" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="38" t="s">
         <v>625</v>
       </c>
-      <c r="E11" s="49"/>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
@@ -10377,10 +10423,10 @@
       <c r="C12" s="8" t="s">
         <v>871</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="33" t="s">
         <v>805</v>
       </c>
-      <c r="E12" s="49"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
@@ -10389,10 +10435,10 @@
       <c r="C13" s="8" t="s">
         <v>892</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="33" t="s">
         <v>872</v>
       </c>
-      <c r="E13" s="49"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="7">
@@ -10401,10 +10447,10 @@
       <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="33" t="s">
         <v>893</v>
       </c>
-      <c r="E14" s="49"/>
+      <c r="E14" s="34"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
@@ -10413,10 +10459,10 @@
       <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="33" t="s">
         <v>932</v>
       </c>
-      <c r="E15" s="49"/>
+      <c r="E15" s="34"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="7">
@@ -10425,103 +10471,99 @@
       <c r="C16" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="33" t="s">
         <v>1058</v>
       </c>
-      <c r="E16" s="49"/>
+      <c r="E16" s="34"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="49"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="34"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="49"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="36"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -10534,12 +10576,16 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -14047,10 +14093,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z50"/>
+  <dimension ref="A1:Z88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="W56" sqref="W56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14232,6 +14278,37 @@
       </c>
       <c r="C50" s="19" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84" s="18" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C85" s="19" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86" s="18" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C87" s="19" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C88" s="19" t="s">
+        <v>1073</v>
       </c>
     </row>
   </sheetData>
@@ -16004,6 +16081,9 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B38:B43"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B14"/>
@@ -16012,9 +16092,6 @@
     <mergeCell ref="B31:B37"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B21:B27"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B38:B43"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/策划案/Java/IOT项目/IOT物联网平台.xlsx
+++ b/策划案/Java/IOT项目/IOT物联网平台.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="1079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="1123">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -6369,10 +6369,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>褚智勇</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>增加部门系统-经讨论后放入后续迭代</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -6408,38 +6404,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>左侧的部门树，可通过左上角的添加删除进行树的更改</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>选中某个部门节点，显示该部门和其子部门的成员</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加部门操作</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出一个对话框，包含表单，叉号，确认。表单有一个部门名字段，可支持中文。原型图就不画了。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除部门操作</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除前弹出确认框，并提示所有子部门会一并删除，在该部门上的用户会移动到父级节点。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改部门操作</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>在表单中点击更改部门，弹出一个对话框，对话框包含叉号，标题，名字，</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>部门详情</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -6448,32 +6412,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>更改部门做弹框处理。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出一个框，在弹框页面修改。页面待设计。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改身份</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户在身份下拉列表中进行过修改，右上角保存图标出现。点保存后发送请求，请求成功后图标隐藏，不成功表上方红字显示错误信息。</t>
+    <t>页面分左右两部分，左侧是部门的树，右侧是部门详情。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧部门树分上下2部分，上方是部门树的操作按钮，下方是树。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>右侧是部门详情，包含部门名，Id，简介和子部门。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -6490,7 +6437,281 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>更改部门</t>
+    <t>部门添加修改删除操作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门树上方的操作区有3个按钮，分别为添加，修改，删除</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加部门</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改部门</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除部门</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除后，其子部门一并删除。子部门的成员，上移到父级部门。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>先选中部门树中的节点，点击添加部门，弹出右图窗口，用户确定后即在选中部门下添加子部门。在右上角展示错误信息。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>先选中部门树中的节点，点击修改部门，弹出右图窗口，用户确定后即修改选中部门。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>先选中部门，点击删除部门按钮，弹出2次确认框，确认后删除选中部门。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在部门树没有选中时，3个按钮置灰。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门管理展示信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示部门名，部门Id，部门简介</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时展示部门的子部门，点击子部门，更改部门树的选中状态为该子部门。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改部门做弹框处理。弹出下图窗口</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止登陆/恢复激活</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击禁止登陆或恢复激活，要有弹框2次确认，用户确认后执行相关操作。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>二.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限概述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在后台配置权限x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ml，启服时加载xml，加载角色权限信息。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在用户权限咱定这几个，超级管理员，系统管理员，部门管理员，操作员。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级管理员</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供权限功能，使不同部门的人只能看到自己关心和能被阅览的元素。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门权限</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限的管理以部门为单位，系统中的元素，诸如项目、设备、群组等，都关联到部门下。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目/产品</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组/规则</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题、订阅</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以使用超级管理员系统，对平台账号进行管理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门管理员</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门管理员，可以创建修改群组和规则。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>倾向于对系统机制的研发调试，可以创建修改项目和产品，也可以创建和修改主题和订阅</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级角色拥有一起低级角色的权限。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作员</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以注册设备，删除设备，把设备加入群组，移除群组。向群组绑定规则。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门成员只能在父级部门创建的群组下创建群组。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门的根结点是公司，由超级管理员创建。公司下有多个子部门。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门成员，只能看到其父级部门，当前部门和子部门创建的群组，不能看到兄弟部门创建的群组。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门成员也类似，不可以看到兄弟部门的群组</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题和订阅在同公司节点下，全部可见。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门和产品，在同公司节点下，全部可见。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门成员可以看到该部门和其子部门的设备</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级管理员可创建公司</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>褚智勇</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善后台管理模块</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -7119,24 +7340,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="12"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7181,6 +7384,24 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
@@ -7842,20 +8063,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>475595</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>142438</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>189925</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>113948</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7868,8 +8089,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14382750" y="1257300"/>
-          <a:ext cx="5238095" cy="3495238"/>
+          <a:off x="14049375" y="1066800"/>
+          <a:ext cx="4600000" cy="2819048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7880,20 +8101,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>179301</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>84877</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>170876</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85373</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7906,8 +8127,84 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323850" y="1057275"/>
-          <a:ext cx="13390476" cy="6780952"/>
+          <a:off x="14039850" y="3971925"/>
+          <a:ext cx="4590476" cy="2819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>198358</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>27733</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="1047750"/>
+          <a:ext cx="13333333" cy="6733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>151496</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>85173</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523875" y="20393025"/>
+          <a:ext cx="7228571" cy="4419048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7920,32 +8217,32 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>331701</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>75352</xdr:rowOff>
+      <xdr:colOff>312653</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>37257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="476250" y="10477500"/>
-          <a:ext cx="13390476" cy="6780952"/>
+          <a:off x="476250" y="18649950"/>
+          <a:ext cx="13371428" cy="6742857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10292,7 +10589,7 @@
   <dimension ref="B1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -10307,12 +10604,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -10321,10 +10618,10 @@
       <c r="C3" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="40" t="s">
         <v>803</v>
       </c>
     </row>
@@ -10335,26 +10632,26 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="47"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="42" t="s">
         <v>804</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="47"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -10363,10 +10660,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="40"/>
+      <c r="E7" s="34"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -10375,10 +10672,10 @@
       <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="34"/>
+      <c r="E8" s="49"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
@@ -10387,10 +10684,10 @@
       <c r="C9" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="E9" s="34"/>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
@@ -10399,10 +10696,10 @@
       <c r="C10" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="48" t="s">
         <v>367</v>
       </c>
-      <c r="E10" s="34"/>
+      <c r="E10" s="49"/>
     </row>
     <row r="11" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
@@ -10411,10 +10708,10 @@
       <c r="C11" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="50" t="s">
         <v>625</v>
       </c>
-      <c r="E11" s="34"/>
+      <c r="E11" s="49"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
@@ -10423,10 +10720,10 @@
       <c r="C12" s="8" t="s">
         <v>871</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="48" t="s">
         <v>805</v>
       </c>
-      <c r="E12" s="34"/>
+      <c r="E12" s="49"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
@@ -10435,10 +10732,10 @@
       <c r="C13" s="8" t="s">
         <v>892</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="48" t="s">
         <v>872</v>
       </c>
-      <c r="E13" s="34"/>
+      <c r="E13" s="49"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="7">
@@ -10447,10 +10744,10 @@
       <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="48" t="s">
         <v>893</v>
       </c>
-      <c r="E14" s="34"/>
+      <c r="E14" s="49"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
@@ -10459,111 +10756,121 @@
       <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="48" t="s">
         <v>932</v>
       </c>
-      <c r="E15" s="34"/>
+      <c r="E15" s="49"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="7">
         <v>44020</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="48" t="s">
         <v>1057</v>
       </c>
-      <c r="D16" s="33" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E16" s="34"/>
+      <c r="E16" s="49"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="9"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
+      <c r="B17" s="7">
+        <v>44025</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E17" s="49"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="49"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -10576,16 +10883,12 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -14093,10 +14396,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z88"/>
+  <dimension ref="A1:Z148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K88" sqref="K88"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14140,175 +14443,440 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B6" s="18" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B7" s="18"/>
+      <c r="C7" s="19" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C8" s="19" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C9" s="19" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C11" s="19" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C13" s="19" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C14" s="19"/>
+      <c r="D14" s="19" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="19" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="18" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="19" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="19" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C22" s="19" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="19" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="19" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="19"/>
+      <c r="D27" s="19" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="19" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="19" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C31" s="19"/>
+      <c r="D31" s="19" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="17" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B34" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C69" s="19" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C70" s="19" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C71" s="19" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" s="18" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C73" s="19" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C74" s="19" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C75" s="18" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D75" s="19" t="s">
         <v>1070</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C76" s="19"/>
+      <c r="D76" s="19" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C77" s="19" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C78" s="19"/>
+      <c r="D78" s="19" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C79" s="19" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C80" s="19"/>
+      <c r="D80" s="19" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D81" s="19" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B82" s="18" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D82" s="19"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C83" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D83" s="19"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C84" s="19" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D84" s="19"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D85" s="19"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D86" s="19"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A88" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
+      <c r="O88" s="13"/>
+      <c r="P88" s="13"/>
+      <c r="Q88" s="13"/>
+      <c r="R88" s="13"/>
+      <c r="S88" s="13"/>
+      <c r="T88" s="13"/>
+      <c r="U88" s="13"/>
+      <c r="V88" s="13"/>
+      <c r="W88" s="13"/>
+      <c r="X88" s="13"/>
+      <c r="Y88" s="13"/>
+      <c r="Z88" s="13"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B89" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C89" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="18" t="s">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B123" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C40" s="19" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C41" s="19" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C43" s="19" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="18" t="s">
-        <v>448</v>
-      </c>
-      <c r="C44" s="19" t="s">
+      <c r="C123" s="19" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C124" s="19" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B147" s="18" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C45" s="19" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="18" t="s">
-        <v>973</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C47" s="19" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A49" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="13"/>
-      <c r="V49" s="13"/>
-      <c r="W49" s="13"/>
-      <c r="X49" s="13"/>
-      <c r="Y49" s="13"/>
-      <c r="Z49" s="13"/>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B50" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B84" s="18" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C84" s="19" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C85" s="19" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B86" s="18" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C87" s="19" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C88" s="19" t="s">
-        <v>1073</v>
+      <c r="C147" s="19" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C148" s="19" t="s">
+        <v>1086</v>
       </c>
     </row>
   </sheetData>
@@ -14323,8 +14891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z239"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V102" sqref="V102"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16452,10 +17020,10 @@
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B92" s="18" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C92" s="19" t="s">
         <v>1059</v>
-      </c>
-      <c r="C92" s="19" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.3">
@@ -16632,8 +17200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16847,7 +17415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z131"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
@@ -17237,8 +17805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z268"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127:E128"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="V238" sqref="V238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18343,7 +18911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z176"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="Q131" sqref="Q131"/>
     </sheetView>
   </sheetViews>

--- a/策划案/Java/IOT项目/IOT物联网平台.xlsx
+++ b/策划案/Java/IOT项目/IOT物联网平台.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="1123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="1154">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -6514,10 +6514,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>更改部门做弹框处理。弹出下图窗口</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>禁止登陆/恢复激活</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -6534,22 +6530,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>在后台配置权限x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ml，启服时加载xml，加载角色权限信息。</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>系统管理员</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -6559,10 +6539,6 @@
   </si>
   <si>
     <t>超级管理员</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -6591,18 +6567,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>项目/产品</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组/规则</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题、订阅</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>2.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -6671,47 +6635,264 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>d.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门成员只能在父级部门创建的群组下创建群组。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>部门的根结点是公司，由超级管理员创建。公司下有多个子部门。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>部门成员，只能看到其父级部门，当前部门和子部门创建的群组，不能看到兄弟部门创建的群组。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门成员也类似，不可以看到兄弟部门的群组</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题和订阅在同公司节点下，全部可见。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门和产品，在同公司节点下，全部可见。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门成员可以看到该部门和其子部门的设备</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>超级管理员可创建公司</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>完善后台管理模块</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色详情</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击详情或用户名链接</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转对应角色详情页面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户Id，用户名字，重置秘钥，角色，所属部门</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置秘钥操作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改操作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始状态，修改按钮为不可用状态，当用户修改了相关信息，修改按钮变为如图状态。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击撤销返回到部门成员列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型图</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单包含内容</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单包含角色名，角色Id和各模块的操作码。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作码：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个4位2进制数，以十六进制数字展示。从首位到末位分别表示增删改查，1表示授权，0表示不授权。比如可以增伤改查，那就是1*8+1*4+1*2+1=15，16进制表示为F。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开右上角的编辑模式，表中文字变成文本框。用户修改表单后，修改按钮变成可用状态。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击修改，保存数据，退出编辑模式。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击撤销，直接退出编辑模式。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击新增，弹出如图新增角色窗口。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>用户输入角色名后，点击确认，则新增一条数据色，初始各权限设置为0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>各模块权限暂时按只能看到当前部门和当年部门子部门来做，日后发现有问题再做更改。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在角色管理页面设置。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击重置密码，弹出如图窗口，初始确认为不可点击状态，输入符合长度的密码后，变为可点击态。点击确认重置密码，后关闭窗口。点击x和撤销直接关闭窗口。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>导航信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果从后台管理-部门管理跳转过来，导航信息如图显示。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>如果直接点击1级菜单，导航显示角色信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-&gt;ID:XXXXX</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接点击角色信息，展示自己的角色状态。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是只能查看自己的信息，重置密码。无法在这里修改自己的信息。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作权限</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级管理员可以操作所有部门。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门管理员只能操作自己的部门和其子部门。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有权限，点击增加，修改等操作，则提示没有权限。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级管理员可以操作和查看所有部门。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门管理员只能操作和查看自己的部门和其子部门。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作员只能查看自己部门，并且没有任何操作权限。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>褚智勇</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>完善后台管理模块</t>
+    <t>完善文档说明</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -7276,7 +7457,7 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7340,6 +7521,25 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="12"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="9" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7384,24 +7584,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
@@ -8065,13 +8247,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>189925</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:colOff>199450</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>113948</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8103,13 +8285,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>170876</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:colOff>180401</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>85373</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8140,19 +8322,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>198358</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>27733</xdr:rowOff>
+      <xdr:colOff>217401</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>103927</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPr id="9" name="图片 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8165,8 +8347,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="400050" y="1047750"/>
-          <a:ext cx="13333333" cy="6733333"/>
+          <a:off x="361950" y="18678525"/>
+          <a:ext cx="13390476" cy="6780952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8178,19 +8360,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>151496</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>85173</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>284082</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>46781</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPr id="8" name="图片 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8203,8 +8385,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="523875" y="20393025"/>
-          <a:ext cx="7228571" cy="4419048"/>
+          <a:off x="476250" y="5238750"/>
+          <a:ext cx="13342857" cy="6752381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8217,14 +8399,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>312653</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>37257</xdr:rowOff>
+      <xdr:colOff>341225</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>56305</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8241,7 +8423,45 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="476250" y="18649950"/>
+          <a:off x="476250" y="38557200"/>
+          <a:ext cx="13400000" cy="6761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>312653</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>37257</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="25774650"/>
           <a:ext cx="13371428" cy="6742857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10589,7 +10809,7 @@
   <dimension ref="B1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="D19" sqref="D19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -10604,12 +10824,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -10618,10 +10838,10 @@
       <c r="C3" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="47" t="s">
         <v>803</v>
       </c>
     </row>
@@ -10632,26 +10852,26 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="41"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="48"/>
     </row>
     <row r="5" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="49" t="s">
         <v>804</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="54"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -10660,10 +10880,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="34"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -10672,10 +10892,10 @@
       <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="49"/>
+      <c r="E8" s="35"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
@@ -10684,10 +10904,10 @@
       <c r="C9" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="E9" s="49"/>
+      <c r="E9" s="35"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
@@ -10696,10 +10916,10 @@
       <c r="C10" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="E10" s="49"/>
+      <c r="E10" s="35"/>
     </row>
     <row r="11" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
@@ -10708,10 +10928,10 @@
       <c r="C11" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="39" t="s">
         <v>625</v>
       </c>
-      <c r="E11" s="49"/>
+      <c r="E11" s="35"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
@@ -10720,10 +10940,10 @@
       <c r="C12" s="8" t="s">
         <v>871</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="34" t="s">
         <v>805</v>
       </c>
-      <c r="E12" s="49"/>
+      <c r="E12" s="35"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
@@ -10732,10 +10952,10 @@
       <c r="C13" s="8" t="s">
         <v>892</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="34" t="s">
         <v>872</v>
       </c>
-      <c r="E13" s="49"/>
+      <c r="E13" s="35"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="7">
@@ -10744,10 +10964,10 @@
       <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="34" t="s">
         <v>893</v>
       </c>
-      <c r="E14" s="49"/>
+      <c r="E14" s="35"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
@@ -10756,10 +10976,10 @@
       <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="34" t="s">
         <v>932</v>
       </c>
-      <c r="E15" s="49"/>
+      <c r="E15" s="35"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="7">
@@ -10768,109 +10988,111 @@
       <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="34" t="s">
         <v>1057</v>
       </c>
-      <c r="E16" s="49"/>
+      <c r="E16" s="35"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="7">
         <v>44025</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>1122</v>
-      </c>
-      <c r="E17" s="49"/>
+        <v>12</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E17" s="35"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="9"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
+      <c r="B18" s="7">
+        <v>44027</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E18" s="35"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="49"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="49"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="37"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -10883,12 +11105,16 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -14396,16 +14622,18 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z148"/>
+  <dimension ref="A1:Z224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="V185" sqref="V185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="3.125" style="12" customWidth="1"/>
-    <col min="8" max="26" width="11.125" style="12" customWidth="1"/>
+    <col min="8" max="22" width="11.125" style="12" customWidth="1"/>
+    <col min="23" max="23" width="11" style="12" customWidth="1"/>
+    <col min="24" max="26" width="11.125" style="12" customWidth="1"/>
     <col min="27" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
@@ -14448,15 +14676,15 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>1087</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>1088</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -14485,398 +14713,661 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
       <c r="C7" s="19" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C8" s="19" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C9" s="19" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>1098</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C10" s="19"/>
-      <c r="D10" s="19" t="s">
-        <v>1118</v>
-      </c>
+      <c r="B10" s="18" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C11" s="19" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>1093</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C12" s="19"/>
-      <c r="D12" s="19" t="s">
-        <v>1119</v>
+      <c r="C12" s="19" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C13" s="19" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C14" s="19"/>
+      <c r="C14" s="19" t="s">
+        <v>1069</v>
+      </c>
       <c r="D14" s="19" t="s">
-        <v>1113</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19" t="s">
-        <v>1115</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C17" s="19" t="s">
-        <v>1112</v>
+        <v>1071</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C18" s="19"/>
       <c r="D18" s="19" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="18" t="s">
         <v>1101</v>
       </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C19" s="19" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C20" s="19"/>
+      <c r="D20" s="19" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C21" s="19" t="s">
         <v>1102</v>
       </c>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C20" s="19" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C21" s="19" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C22" s="19" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C23" s="19" t="s">
+      <c r="D21" s="19" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B25" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C60" s="19" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C61" s="19" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C62" s="19" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" s="18" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C64" s="19" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C65" s="19" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C66" s="18" t="s">
         <v>1069</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C26" s="19" t="s">
+      <c r="D66" s="19" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C67" s="19"/>
+      <c r="D67" s="19" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C68" s="19" t="s">
         <v>1071</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C27" s="19"/>
-      <c r="D27" s="19" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C28" s="19" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C29" s="19"/>
-      <c r="D29" s="19" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C30" s="19" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C31" s="19"/>
-      <c r="D31" s="19" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13"/>
-      <c r="Z33" s="13"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B34" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>348</v>
+      <c r="D68" s="19" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C69" s="19" t="s">
-        <v>1063</v>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C70" s="19" t="s">
-        <v>1064</v>
+        <v>1073</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C71" s="19" t="s">
-        <v>1065</v>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B72" s="18" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>1067</v>
+      <c r="D72" s="19" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73" s="18" t="s">
+        <v>1080</v>
+      </c>
       <c r="C73" s="19" t="s">
-        <v>1068</v>
-      </c>
+        <v>1081</v>
+      </c>
+      <c r="D73" s="19"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C74" s="19" t="s">
-        <v>1079</v>
-      </c>
+        <v>1082</v>
+      </c>
+      <c r="D74" s="19"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C75" s="18" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D75" s="19" t="s">
-        <v>1070</v>
-      </c>
+      <c r="C75" s="19" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D75" s="19"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C76" s="19"/>
-      <c r="D76" s="19" t="s">
-        <v>1076</v>
-      </c>
+      <c r="B76" s="18" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D76" s="19"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C77" s="19" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D77" s="19" t="s">
-        <v>1072</v>
-      </c>
+        <v>1145</v>
+      </c>
+      <c r="D77" s="19"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C78" s="19"/>
-      <c r="D78" s="19" t="s">
-        <v>1077</v>
-      </c>
+      <c r="C78" s="19" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D78" s="19"/>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C79" s="19" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D79" s="19" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C80" s="19"/>
-      <c r="D80" s="19" t="s">
-        <v>1078</v>
-      </c>
+        <v>1147</v>
+      </c>
+      <c r="D79" s="19"/>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D81" s="19" t="s">
-        <v>1075</v>
-      </c>
+      <c r="A81" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="13"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="13"/>
+      <c r="R81" s="13"/>
+      <c r="S81" s="13"/>
+      <c r="T81" s="13"/>
+      <c r="U81" s="13"/>
+      <c r="V81" s="13"/>
+      <c r="W81" s="13"/>
+      <c r="X81" s="13"/>
+      <c r="Y81" s="13"/>
+      <c r="Z81" s="13"/>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B82" s="18" t="s">
-        <v>1080</v>
+        <v>20</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D82" s="19"/>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C83" s="19" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D83" s="19"/>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C84" s="19" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D84" s="19"/>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D85" s="19"/>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D86" s="19"/>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A88" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B88" s="17" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
-      <c r="J88" s="13"/>
-      <c r="K88" s="13"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="13"/>
-      <c r="O88" s="13"/>
-      <c r="P88" s="13"/>
-      <c r="Q88" s="13"/>
-      <c r="R88" s="13"/>
-      <c r="S88" s="13"/>
-      <c r="T88" s="13"/>
-      <c r="U88" s="13"/>
-      <c r="V88" s="13"/>
-      <c r="W88" s="13"/>
-      <c r="X88" s="13"/>
-      <c r="Y88" s="13"/>
-      <c r="Z88" s="13"/>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B89" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B117" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C118" s="19" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B119" s="18" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C120" s="19" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B121" s="18" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C122" s="19" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C123" s="19" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C124" s="19" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C125" s="19"/>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A126" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="B126" s="17" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="13"/>
+      <c r="K126" s="13"/>
+      <c r="L126" s="13"/>
+      <c r="M126" s="13"/>
+      <c r="N126" s="13"/>
+      <c r="O126" s="13"/>
+      <c r="P126" s="13"/>
+      <c r="Q126" s="13"/>
+      <c r="R126" s="13"/>
+      <c r="S126" s="13"/>
+      <c r="T126" s="13"/>
+      <c r="U126" s="13"/>
+      <c r="V126" s="13"/>
+      <c r="W126" s="13"/>
+      <c r="X126" s="13"/>
+      <c r="Y126" s="13"/>
+      <c r="Z126" s="13"/>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B127" s="18" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C129" s="19"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C131" s="19"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C133" s="19"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C135" s="19"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C137" s="19"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C139" s="19"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C141" s="19"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C143" s="19"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C145" s="19"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C147" s="19"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C149" s="19"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C151" s="19"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C153" s="19"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C155" s="19"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C157" s="19"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C159" s="19"/>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C161" s="19"/>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B162" s="18" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C162" s="19" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C163" s="19" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C164" s="19" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C165" s="19" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B166" s="18" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C166" s="19" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C167" s="19" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C168" s="19" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C169" s="19" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B170" s="18" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C170" s="19" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C171" s="19" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C172" s="19" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C173" s="19"/>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C175" s="19"/>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C176" s="19"/>
+    </row>
+    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A178" s="33" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B178" s="17" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C178" s="13"/>
+      <c r="D178" s="13"/>
+      <c r="E178" s="13"/>
+      <c r="F178" s="13"/>
+      <c r="G178" s="13"/>
+      <c r="H178" s="13"/>
+      <c r="I178" s="13"/>
+      <c r="J178" s="13"/>
+      <c r="K178" s="13"/>
+      <c r="L178" s="13"/>
+      <c r="M178" s="13"/>
+      <c r="N178" s="13"/>
+      <c r="O178" s="13"/>
+      <c r="P178" s="13"/>
+      <c r="Q178" s="13"/>
+      <c r="R178" s="13"/>
+      <c r="S178" s="13"/>
+      <c r="T178" s="13"/>
+      <c r="U178" s="13"/>
+      <c r="V178" s="13"/>
+      <c r="W178" s="13"/>
+      <c r="X178" s="13"/>
+      <c r="Y178" s="13"/>
+      <c r="Z178" s="13"/>
+    </row>
+    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B179" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C89" s="19" t="s">
+      <c r="C179" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B123" s="18" t="s">
+    <row r="213" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B213" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="C123" s="19" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C124" s="19" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B147" s="18" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C147" s="19" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C148" s="19" t="s">
-        <v>1086</v>
+      <c r="C213" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C214" s="19" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B215" s="18" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C215" s="19" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C216" s="19" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B217" s="18" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C217" s="19" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C218" s="19" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C219" s="19" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B220" s="18" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C220" s="19" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C221" s="19" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C222" s="19" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B223" s="18" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C223" s="19" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C224" s="19" t="s">
+        <v>1143</v>
       </c>
     </row>
   </sheetData>
@@ -15754,7 +16245,7 @@
       </c>
     </row>
     <row r="5" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="55" t="s">
         <v>149</v>
       </c>
       <c r="C5" s="22" t="s">
@@ -15779,7 +16270,7 @@
       <c r="N5" s="22"/>
     </row>
     <row r="6" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="54"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="22" t="s">
         <v>131</v>
       </c>
@@ -15802,7 +16293,7 @@
       <c r="N6" s="22"/>
     </row>
     <row r="7" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="54"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="22" t="s">
         <v>132</v>
       </c>
@@ -15825,7 +16316,7 @@
       <c r="N7" s="22"/>
     </row>
     <row r="8" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="55" t="s">
         <v>150</v>
       </c>
       <c r="C8" s="22" t="s">
@@ -15850,7 +16341,7 @@
       <c r="N8" s="22"/>
     </row>
     <row r="9" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="54"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="22" t="s">
         <v>134</v>
       </c>
@@ -15873,7 +16364,7 @@
       <c r="N9" s="22"/>
     </row>
     <row r="10" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="54"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="22" t="s">
         <v>135</v>
       </c>
@@ -15899,7 +16390,7 @@
       </c>
     </row>
     <row r="11" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="55" t="s">
         <v>151</v>
       </c>
       <c r="C11" s="22" t="s">
@@ -15923,7 +16414,7 @@
       </c>
     </row>
     <row r="12" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="54"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="22" t="s">
         <v>137</v>
       </c>
@@ -15942,7 +16433,7 @@
       <c r="N12" s="22"/>
     </row>
     <row r="13" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B13" s="54"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="22" t="s">
         <v>144</v>
       </c>
@@ -15961,7 +16452,7 @@
       <c r="N13" s="22"/>
     </row>
     <row r="14" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="54"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="22" t="s">
         <v>145</v>
       </c>
@@ -15980,7 +16471,7 @@
       <c r="N14" s="22"/>
     </row>
     <row r="15" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="55" t="s">
         <v>152</v>
       </c>
       <c r="C15" s="22" t="s">
@@ -16001,7 +16492,7 @@
       <c r="N15" s="22"/>
     </row>
     <row r="16" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="54"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="22" t="s">
         <v>154</v>
       </c>
@@ -16020,7 +16511,7 @@
       <c r="N16" s="22"/>
     </row>
     <row r="17" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B17" s="54"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="22" t="s">
         <v>155</v>
       </c>
@@ -16039,7 +16530,7 @@
       <c r="N17" s="22"/>
     </row>
     <row r="18" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="54"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="22" t="s">
         <v>158</v>
       </c>
@@ -16058,7 +16549,7 @@
       <c r="N18" s="22"/>
     </row>
     <row r="19" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="54"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="22" t="s">
         <v>159</v>
       </c>
@@ -16077,7 +16568,7 @@
       <c r="N19" s="22"/>
     </row>
     <row r="20" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="54"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="24" t="s">
         <v>200</v>
       </c>
@@ -16096,7 +16587,7 @@
       <c r="N20" s="22"/>
     </row>
     <row r="21" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="55" t="s">
         <v>160</v>
       </c>
       <c r="C21" s="22" t="s">
@@ -16117,7 +16608,7 @@
       <c r="N21" s="22"/>
     </row>
     <row r="22" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B22" s="54"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="22" t="s">
         <v>162</v>
       </c>
@@ -16136,7 +16627,7 @@
       <c r="N22" s="22"/>
     </row>
     <row r="23" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="54"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="22" t="s">
         <v>163</v>
       </c>
@@ -16155,7 +16646,7 @@
       <c r="N23" s="22"/>
     </row>
     <row r="24" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B24" s="54"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="22" t="s">
         <v>164</v>
       </c>
@@ -16174,7 +16665,7 @@
       <c r="N24" s="22"/>
     </row>
     <row r="25" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B25" s="54"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="24" t="s">
         <v>201</v>
       </c>
@@ -16193,7 +16684,7 @@
       <c r="N25" s="22"/>
     </row>
     <row r="26" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B26" s="54"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="22" t="s">
         <v>165</v>
       </c>
@@ -16212,7 +16703,7 @@
       <c r="N26" s="22"/>
     </row>
     <row r="27" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="54"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="22" t="s">
         <v>166</v>
       </c>
@@ -16231,7 +16722,7 @@
       <c r="N27" s="22"/>
     </row>
     <row r="28" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="55" t="s">
         <v>167</v>
       </c>
       <c r="C28" s="22" t="s">
@@ -16252,7 +16743,7 @@
       <c r="N28" s="22"/>
     </row>
     <row r="29" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B29" s="54"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="22" t="s">
         <v>169</v>
       </c>
@@ -16271,7 +16762,7 @@
       <c r="N29" s="22"/>
     </row>
     <row r="30" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B30" s="54"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="22" t="s">
         <v>170</v>
       </c>
@@ -16290,7 +16781,7 @@
       <c r="N30" s="22"/>
     </row>
     <row r="31" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="55" t="s">
         <v>173</v>
       </c>
       <c r="C31" s="22" t="s">
@@ -16311,7 +16802,7 @@
       <c r="N31" s="22"/>
     </row>
     <row r="32" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B32" s="54"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="22" t="s">
         <v>175</v>
       </c>
@@ -16330,7 +16821,7 @@
       <c r="N32" s="22"/>
     </row>
     <row r="33" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B33" s="54"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="22" t="s">
         <v>176</v>
       </c>
@@ -16349,7 +16840,7 @@
       <c r="N33" s="22"/>
     </row>
     <row r="34" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B34" s="54"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="22" t="s">
         <v>177</v>
       </c>
@@ -16368,7 +16859,7 @@
       <c r="N34" s="22"/>
     </row>
     <row r="35" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B35" s="54"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="22" t="s">
         <v>178</v>
       </c>
@@ -16389,7 +16880,7 @@
       <c r="N35" s="22"/>
     </row>
     <row r="36" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B36" s="54"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="22" t="s">
         <v>178</v>
       </c>
@@ -16410,7 +16901,7 @@
       <c r="N36" s="22"/>
     </row>
     <row r="37" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B37" s="54"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="22" t="s">
         <v>178</v>
       </c>
@@ -16431,10 +16922,10 @@
       <c r="N37" s="22"/>
     </row>
     <row r="38" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="C38" s="54" t="s">
+      <c r="C38" s="55" t="s">
         <v>185</v>
       </c>
       <c r="D38" s="22" t="s">
@@ -16454,8 +16945,8 @@
       <c r="N38" s="22"/>
     </row>
     <row r="39" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
       <c r="D39" s="22" t="s">
         <v>193</v>
       </c>
@@ -16473,8 +16964,8 @@
       <c r="N39" s="22"/>
     </row>
     <row r="40" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
       <c r="D40" s="22" t="s">
         <v>194</v>
       </c>
@@ -16492,8 +16983,8 @@
       <c r="N40" s="22"/>
     </row>
     <row r="41" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
       <c r="D41" s="22" t="s">
         <v>195</v>
       </c>
@@ -16511,8 +17002,8 @@
       <c r="N41" s="22"/>
     </row>
     <row r="42" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B42" s="54"/>
-      <c r="C42" s="54" t="s">
+      <c r="B42" s="55"/>
+      <c r="C42" s="55" t="s">
         <v>186</v>
       </c>
       <c r="D42" s="22" t="s">
@@ -16532,8 +17023,8 @@
       <c r="N42" s="22"/>
     </row>
     <row r="43" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
       <c r="D43" s="22" t="s">
         <v>197</v>
       </c>
@@ -16551,7 +17042,7 @@
       <c r="N43" s="22"/>
     </row>
     <row r="44" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="55" t="s">
         <v>179</v>
       </c>
       <c r="C44" s="22" t="s">
@@ -16572,7 +17063,7 @@
       <c r="N44" s="22"/>
     </row>
     <row r="45" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B45" s="54"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="22" t="s">
         <v>188</v>
       </c>
@@ -16591,7 +17082,7 @@
       <c r="N45" s="22"/>
     </row>
     <row r="46" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B46" s="54"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="22" t="s">
         <v>189</v>
       </c>
@@ -16610,7 +17101,7 @@
       <c r="N46" s="22"/>
     </row>
     <row r="47" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B47" s="54"/>
+      <c r="B47" s="55"/>
       <c r="C47" s="22" t="s">
         <v>190</v>
       </c>
@@ -16629,7 +17120,7 @@
       <c r="N47" s="22"/>
     </row>
     <row r="48" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B48" s="54"/>
+      <c r="B48" s="55"/>
       <c r="C48" s="22" t="s">
         <v>191</v>
       </c>
@@ -16649,9 +17140,6 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B38:B43"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B14"/>
@@ -16660,6 +17148,9 @@
     <mergeCell ref="B31:B37"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B21:B27"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B38:B43"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16673,8 +17164,8 @@
   </sheetPr>
   <dimension ref="A1:Z129"/>
   <sheetViews>
-    <sheetView topLeftCell="B97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P107" sqref="P107"/>
+    <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L142" sqref="L142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17200,8 +17691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="X31" sqref="X31"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17415,7 +17906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z131"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
@@ -17805,8 +18296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z268"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="V238" sqref="V238"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="X59" sqref="X59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19922,47 +20413,47 @@
     <row r="115" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D115" s="19"/>
       <c r="H115" s="28"/>
-      <c r="I115" s="55" t="s">
+      <c r="I115" s="56" t="s">
         <v>340</v>
       </c>
-      <c r="J115" s="54"/>
-      <c r="K115" s="54"/>
+      <c r="J115" s="55"/>
+      <c r="K115" s="55"/>
     </row>
     <row r="116" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D116" s="19"/>
-      <c r="I116" s="54"/>
-      <c r="J116" s="54"/>
-      <c r="K116" s="54"/>
+      <c r="I116" s="55"/>
+      <c r="J116" s="55"/>
+      <c r="K116" s="55"/>
     </row>
     <row r="117" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D117" s="19"/>
-      <c r="I117" s="54"/>
-      <c r="J117" s="54"/>
-      <c r="K117" s="54"/>
+      <c r="I117" s="55"/>
+      <c r="J117" s="55"/>
+      <c r="K117" s="55"/>
     </row>
     <row r="118" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D118" s="19"/>
-      <c r="I118" s="54"/>
-      <c r="J118" s="54"/>
-      <c r="K118" s="54"/>
+      <c r="I118" s="55"/>
+      <c r="J118" s="55"/>
+      <c r="K118" s="55"/>
     </row>
     <row r="119" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D119" s="19"/>
-      <c r="I119" s="54"/>
-      <c r="J119" s="54"/>
-      <c r="K119" s="54"/>
+      <c r="I119" s="55"/>
+      <c r="J119" s="55"/>
+      <c r="K119" s="55"/>
     </row>
     <row r="120" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D120" s="19"/>
-      <c r="I120" s="54"/>
-      <c r="J120" s="54"/>
-      <c r="K120" s="54"/>
+      <c r="I120" s="55"/>
+      <c r="J120" s="55"/>
+      <c r="K120" s="55"/>
     </row>
     <row r="121" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D121" s="19"/>
-      <c r="I121" s="54"/>
-      <c r="J121" s="54"/>
-      <c r="K121" s="54"/>
+      <c r="I121" s="55"/>
+      <c r="J121" s="55"/>
+      <c r="K121" s="55"/>
     </row>
     <row r="122" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C122" s="19" t="s">

--- a/策划案/Java/IOT项目/IOT物联网平台.xlsx
+++ b/策划案/Java/IOT项目/IOT物联网平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="12"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
@@ -9605,19 +9605,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>146</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>799250</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>94750</xdr:rowOff>
+      <xdr:colOff>637342</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>151917</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="14" name="图片 13"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9630,8 +9630,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="523875" y="30746700"/>
-          <a:ext cx="6800000" cy="4000000"/>
+          <a:off x="495300" y="30727650"/>
+          <a:ext cx="6666667" cy="3866667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10120,44 +10120,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>703209</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>180096</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="266700" y="29194125"/>
-          <a:ext cx="13123809" cy="7028571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -10176,7 +10138,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10214,7 +10176,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10223,6 +10185,44 @@
         <a:xfrm>
           <a:off x="1676400" y="8696325"/>
           <a:ext cx="1152381" cy="352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>160272</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>208659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="29127450"/>
+          <a:ext cx="13219047" cy="7123809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11142,8 +11142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z244"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="X145" sqref="X145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12443,8 +12443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z234"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="R193" sqref="R193"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14624,7 +14624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+    <sheetView topLeftCell="A175" workbookViewId="0">
       <selection activeCell="V185" sqref="V185"/>
     </sheetView>
   </sheetViews>
@@ -17140,10 +17140,6 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B20"/>
     <mergeCell ref="B44:B48"/>
     <mergeCell ref="B31:B37"/>
     <mergeCell ref="B28:B30"/>
@@ -17151,6 +17147,10 @@
     <mergeCell ref="C38:C41"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="B38:B43"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B20"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17691,7 +17691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
@@ -19400,10 +19400,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z176"/>
+  <dimension ref="A1:Z175"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="Q131" sqref="Q131"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="S151" sqref="S151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20005,63 +20005,63 @@
         <v>87</v>
       </c>
     </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B167" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C167" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B168" s="16" t="s">
-        <v>88</v>
-      </c>
       <c r="C168" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="D168" s="15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C169" s="15" t="s">
-        <v>91</v>
-      </c>
       <c r="D169" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C170" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="D170" s="15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C171" s="15" t="s">
-        <v>24</v>
-      </c>
       <c r="D171" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C172" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="D172" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C173" s="15" t="s">
-        <v>30</v>
-      </c>
       <c r="D173" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C174" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="D174" s="15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C175" s="15" t="s">
-        <v>97</v>
-      </c>
       <c r="D175" s="15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D176" s="15" t="s">
         <v>99</v>
       </c>
     </row>

--- a/策划案/Java/IOT项目/IOT物联网平台.xlsx
+++ b/策划案/Java/IOT项目/IOT物联网平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="1154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="1160">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -3597,10 +3597,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>产品选择是一个下拉列表，可选择项目下的任何一个产品</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>条件项</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -6893,6 +6889,34 @@
   </si>
   <si>
     <t>完善文档说明</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品选择是一个下拉列表，可选择为系统时间和项目下的任何一个产品，系统时间在前</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择系统时间时，界面如图所示：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二个输入框是条件选择，第三个是时间。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件选择包含&gt;,&gt;=,=,&lt;=,&lt;,范围。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果群组下绑定的有数据，则弹出提示框，添加子群组后群组下的设备将移动到子群组</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备只能绑定在叶子群组上</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -7522,24 +7546,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="9" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7584,6 +7590,24 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
@@ -9963,13 +9987,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>655613</xdr:colOff>
-      <xdr:row>223</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>103930</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10045,13 +10069,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>580369</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>113898</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10083,13 +10107,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>732737</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>190108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10121,13 +10145,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>703206</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>170569</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10159,13 +10183,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>314181</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>38056</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10197,13 +10221,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>160272</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>208659</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10354,13 +10378,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>712878</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>9393</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10392,13 +10416,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>215</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>18396</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>132990</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10430,13 +10454,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>223</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>427787</xdr:colOff>
-      <xdr:row>240</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>199571</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10468,13 +10492,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>223</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>103937</xdr:colOff>
-      <xdr:row>240</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>209096</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10532,6 +10556,44 @@
         <a:xfrm>
           <a:off x="533400" y="24555450"/>
           <a:ext cx="13171428" cy="7238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>112713</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>9419</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="39604950"/>
+          <a:ext cx="12695238" cy="847619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10824,12 +10886,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -10838,11 +10900,11 @@
       <c r="C3" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="47" t="s">
-        <v>803</v>
+      <c r="E3" s="41" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10852,26 +10914,26 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="48"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="49" t="s">
-        <v>804</v>
-      </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="43" t="s">
+        <v>803</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -10880,10 +10942,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="41"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -10892,10 +10954,10 @@
       <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="35"/>
+      <c r="E8" s="50"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
@@ -10904,10 +10966,10 @@
       <c r="C9" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="E9" s="35"/>
+      <c r="E9" s="50"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
@@ -10916,10 +10978,10 @@
       <c r="C10" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="49" t="s">
         <v>367</v>
       </c>
-      <c r="E10" s="35"/>
+      <c r="E10" s="50"/>
     </row>
     <row r="11" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
@@ -10928,34 +10990,34 @@
       <c r="C11" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>625</v>
-      </c>
-      <c r="E11" s="35"/>
+      <c r="D11" s="51" t="s">
+        <v>624</v>
+      </c>
+      <c r="E11" s="50"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
         <v>43966</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>871</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>805</v>
-      </c>
-      <c r="E12" s="35"/>
+        <v>870</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>804</v>
+      </c>
+      <c r="E12" s="50"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
         <v>43976</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>892</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>872</v>
-      </c>
-      <c r="E13" s="35"/>
+        <v>891</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>871</v>
+      </c>
+      <c r="E13" s="50"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="7">
@@ -10964,10 +11026,10 @@
       <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="34" t="s">
-        <v>893</v>
-      </c>
-      <c r="E14" s="35"/>
+      <c r="D14" s="49" t="s">
+        <v>892</v>
+      </c>
+      <c r="E14" s="50"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
@@ -10976,10 +11038,10 @@
       <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="34" t="s">
-        <v>932</v>
-      </c>
-      <c r="E15" s="35"/>
+      <c r="D15" s="49" t="s">
+        <v>931</v>
+      </c>
+      <c r="E15" s="50"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="7">
@@ -10988,10 +11050,10 @@
       <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="34" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E16" s="35"/>
+      <c r="D16" s="49" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E16" s="50"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="7">
@@ -11000,99 +11062,103 @@
       <c r="C17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="34" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E17" s="35"/>
+      <c r="D17" s="49" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E17" s="50"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="7">
         <v>44027</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D18" s="49" t="s">
         <v>1152</v>
       </c>
-      <c r="D18" s="34" t="s">
-        <v>1153</v>
-      </c>
-      <c r="E18" s="35"/>
+      <c r="E18" s="50"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="50"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="50"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="35"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="50"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="35"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="50"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="37"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -11105,16 +11171,12 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -11140,10 +11202,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z244"/>
+  <dimension ref="A1:Z246"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="X145" sqref="X145"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11393,734 +11455,712 @@
         <v>388</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C39" s="19" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B41" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B41" s="25" t="s">
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="13"/>
+      <c r="Z41" s="13"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B42" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C42" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
-      <c r="X41" s="27"/>
-      <c r="Y41" s="27"/>
-      <c r="Z41" s="27"/>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B76" s="25" t="s">
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="27"/>
+      <c r="X42" s="27"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="27"/>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B77" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="C76" s="26" t="s">
+      <c r="C77" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="27"/>
-      <c r="M76" s="27"/>
-      <c r="N76" s="27"/>
-      <c r="O76" s="27"/>
-      <c r="P76" s="27"/>
-      <c r="Q76" s="27"/>
-      <c r="R76" s="27"/>
-      <c r="S76" s="27"/>
-      <c r="T76" s="27"/>
-      <c r="U76" s="27"/>
-      <c r="V76" s="27"/>
-      <c r="W76" s="27"/>
-      <c r="X76" s="27"/>
-      <c r="Y76" s="27"/>
-      <c r="Z76" s="27"/>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C77" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="D77" s="19" t="s">
-        <v>374</v>
-      </c>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="27"/>
+      <c r="L77" s="27"/>
+      <c r="M77" s="27"/>
+      <c r="N77" s="27"/>
+      <c r="O77" s="27"/>
+      <c r="P77" s="27"/>
+      <c r="Q77" s="27"/>
+      <c r="R77" s="27"/>
+      <c r="S77" s="27"/>
+      <c r="T77" s="27"/>
+      <c r="U77" s="27"/>
+      <c r="V77" s="27"/>
+      <c r="W77" s="27"/>
+      <c r="X77" s="27"/>
+      <c r="Y77" s="27"/>
+      <c r="Z77" s="27"/>
     </row>
     <row r="78" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C78" s="19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
     </row>
     <row r="79" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C79" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="80" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C80" s="19"/>
+      <c r="D80" s="19" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="81" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C81" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="D79" s="19" t="s">
+      <c r="D81" s="19" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C80" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="D80" s="19" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="81" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B81" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="C81" s="26" t="s">
-        <v>397</v>
-      </c>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="27"/>
-      <c r="M81" s="27"/>
-      <c r="N81" s="27"/>
-      <c r="O81" s="27"/>
-      <c r="P81" s="27"/>
-      <c r="Q81" s="27"/>
-      <c r="R81" s="27"/>
-      <c r="S81" s="27"/>
-      <c r="T81" s="27"/>
-      <c r="U81" s="27"/>
-      <c r="V81" s="27"/>
-      <c r="W81" s="27"/>
-      <c r="X81" s="27"/>
-      <c r="Y81" s="27"/>
-      <c r="Z81" s="27"/>
     </row>
     <row r="82" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C82" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="83" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B83" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="27"/>
+      <c r="L83" s="27"/>
+      <c r="M83" s="27"/>
+      <c r="N83" s="27"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="27"/>
+      <c r="Q83" s="27"/>
+      <c r="R83" s="27"/>
+      <c r="S83" s="27"/>
+      <c r="T83" s="27"/>
+      <c r="U83" s="27"/>
+      <c r="V83" s="27"/>
+      <c r="W83" s="27"/>
+      <c r="X83" s="27"/>
+      <c r="Y83" s="27"/>
+      <c r="Z83" s="27"/>
+    </row>
+    <row r="84" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C84" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="D82" s="19" t="s">
+      <c r="D84" s="19" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="83" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C83" s="19" t="s">
+    <row r="85" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C85" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="D83" s="19" t="s">
+      <c r="D85" s="19" t="s">
         <v>401</v>
-      </c>
-    </row>
-    <row r="84" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D84" s="19" t="s">
-        <v>402</v>
-      </c>
-      <c r="E84" s="19" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="85" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D85" s="19"/>
-      <c r="E85" s="20" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="86" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D86" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="87" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D87" s="19"/>
+      <c r="E87" s="20" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="88" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D88" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="E86" s="19" t="s">
+      <c r="E88" s="19" t="s">
         <v>405</v>
-      </c>
-    </row>
-    <row r="87" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D87" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="E87" s="19" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="88" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C88" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="D88" s="19" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="89" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D89" s="19" t="s">
-        <v>447</v>
+        <v>407</v>
+      </c>
+      <c r="E89" s="19" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="90" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C90" s="19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="91" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D91" s="19" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="92" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C92" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="93" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D93" s="19" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="92" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D92" s="19" t="s">
+    <row r="94" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D94" s="19" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="93" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B93" s="25" t="s">
+    <row r="95" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B95" s="25" t="s">
         <v>448</v>
       </c>
-      <c r="C93" s="26" t="s">
+      <c r="C95" s="26" t="s">
         <v>449</v>
       </c>
-      <c r="D93" s="26"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="27"/>
-      <c r="L93" s="27"/>
-      <c r="M93" s="27"/>
-      <c r="N93" s="27"/>
-      <c r="O93" s="27"/>
-      <c r="P93" s="27"/>
-      <c r="Q93" s="27"/>
-      <c r="R93" s="27"/>
-      <c r="S93" s="27"/>
-      <c r="T93" s="27"/>
-      <c r="U93" s="27"/>
-      <c r="V93" s="27"/>
-      <c r="W93" s="27"/>
-      <c r="X93" s="27"/>
-      <c r="Y93" s="27"/>
-      <c r="Z93" s="27"/>
-    </row>
-    <row r="94" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C94" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="D94" s="19" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="95" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D95" s="19" t="s">
-        <v>452</v>
-      </c>
+      <c r="D95" s="26"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="27"/>
+      <c r="J95" s="27"/>
+      <c r="K95" s="27"/>
+      <c r="L95" s="27"/>
+      <c r="M95" s="27"/>
+      <c r="N95" s="27"/>
+      <c r="O95" s="27"/>
+      <c r="P95" s="27"/>
+      <c r="Q95" s="27"/>
+      <c r="R95" s="27"/>
+      <c r="S95" s="27"/>
+      <c r="T95" s="27"/>
+      <c r="U95" s="27"/>
+      <c r="V95" s="27"/>
+      <c r="W95" s="27"/>
+      <c r="X95" s="27"/>
+      <c r="Y95" s="27"/>
+      <c r="Z95" s="27"/>
     </row>
     <row r="96" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C96" s="19" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="97" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D97" s="19" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="98" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C98" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="D98" s="19" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="99" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D99" s="19" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="98" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B98" s="25" t="s">
+    <row r="100" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B100" s="25" t="s">
         <v>455</v>
       </c>
-      <c r="C98" s="26" t="s">
+      <c r="C100" s="26" t="s">
         <v>456</v>
       </c>
-      <c r="D98" s="26"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="27"/>
-      <c r="I98" s="27"/>
-      <c r="J98" s="27"/>
-      <c r="K98" s="27"/>
-      <c r="L98" s="27"/>
-      <c r="M98" s="27"/>
-      <c r="N98" s="27"/>
-      <c r="O98" s="27"/>
-      <c r="P98" s="27"/>
-      <c r="Q98" s="27"/>
-      <c r="R98" s="27"/>
-      <c r="S98" s="27"/>
-      <c r="T98" s="27"/>
-      <c r="U98" s="27"/>
-      <c r="V98" s="27"/>
-      <c r="W98" s="27"/>
-      <c r="X98" s="27"/>
-      <c r="Y98" s="27"/>
-      <c r="Z98" s="27"/>
-    </row>
-    <row r="99" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C99" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="D99" s="19" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="100" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D100" s="19" t="s">
-        <v>459</v>
-      </c>
+      <c r="D100" s="26"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="27"/>
+      <c r="J100" s="27"/>
+      <c r="K100" s="27"/>
+      <c r="L100" s="27"/>
+      <c r="M100" s="27"/>
+      <c r="N100" s="27"/>
+      <c r="O100" s="27"/>
+      <c r="P100" s="27"/>
+      <c r="Q100" s="27"/>
+      <c r="R100" s="27"/>
+      <c r="S100" s="27"/>
+      <c r="T100" s="27"/>
+      <c r="U100" s="27"/>
+      <c r="V100" s="27"/>
+      <c r="W100" s="27"/>
+      <c r="X100" s="27"/>
+      <c r="Y100" s="27"/>
+      <c r="Z100" s="27"/>
     </row>
     <row r="101" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C101" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="102" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D102" s="19" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="103" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C103" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="D101" s="19" t="s">
+      <c r="D103" s="19" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="102" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C102" s="19"/>
-      <c r="D102" s="19" t="s">
+    <row r="104" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C104" s="19"/>
+      <c r="D104" s="19" t="s">
         <v>461</v>
-      </c>
-    </row>
-    <row r="103" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C103" s="19"/>
-      <c r="D103" s="19" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="104" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C104" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="D104" s="19" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="105" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C105" s="19"/>
       <c r="D105" s="19" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="106" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C106" s="19" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="107" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C107" s="19"/>
       <c r="D107" s="19" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="108" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C108" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="D108" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="109" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C109" s="19"/>
+      <c r="D109" s="19" t="s">
         <v>468</v>
-      </c>
-    </row>
-    <row r="108" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C108" s="19"/>
-      <c r="D108" s="19" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="109" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C109" s="19" t="s">
-        <v>470</v>
-      </c>
-      <c r="D109" s="19" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="110" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C110" s="19"/>
       <c r="D110" s="19" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="111" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C111" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="D111" s="19" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="112" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C112" s="19"/>
+      <c r="D112" s="19" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="111" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C111" s="19"/>
-      <c r="D111" s="19" t="s">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C113" s="19"/>
+      <c r="D113" s="19" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="112" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D112" s="19"/>
-    </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A113" s="17" t="s">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D114" s="19"/>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A115" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="B113" s="17" t="s">
+      <c r="B115" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="13"/>
-      <c r="I113" s="13"/>
-      <c r="J113" s="13"/>
-      <c r="K113" s="13"/>
-      <c r="L113" s="13"/>
-      <c r="M113" s="13"/>
-      <c r="N113" s="13"/>
-      <c r="O113" s="13"/>
-      <c r="P113" s="13"/>
-      <c r="Q113" s="13"/>
-      <c r="R113" s="13"/>
-      <c r="S113" s="13"/>
-      <c r="T113" s="13"/>
-      <c r="U113" s="13"/>
-      <c r="V113" s="13"/>
-      <c r="W113" s="13"/>
-      <c r="X113" s="13"/>
-      <c r="Y113" s="13"/>
-      <c r="Z113" s="13"/>
-    </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B114" s="25" t="s">
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="13"/>
+      <c r="J115" s="13"/>
+      <c r="K115" s="13"/>
+      <c r="L115" s="13"/>
+      <c r="M115" s="13"/>
+      <c r="N115" s="13"/>
+      <c r="O115" s="13"/>
+      <c r="P115" s="13"/>
+      <c r="Q115" s="13"/>
+      <c r="R115" s="13"/>
+      <c r="S115" s="13"/>
+      <c r="T115" s="13"/>
+      <c r="U115" s="13"/>
+      <c r="V115" s="13"/>
+      <c r="W115" s="13"/>
+      <c r="X115" s="13"/>
+      <c r="Y115" s="13"/>
+      <c r="Z115" s="13"/>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B116" s="25" t="s">
         <v>416</v>
       </c>
-      <c r="C114" s="26" t="s">
+      <c r="C116" s="26" t="s">
         <v>417</v>
       </c>
-      <c r="D114" s="27"/>
-      <c r="E114" s="27"/>
-      <c r="F114" s="27"/>
-      <c r="G114" s="27"/>
-      <c r="H114" s="27"/>
-      <c r="I114" s="27"/>
-      <c r="J114" s="27"/>
-      <c r="K114" s="27"/>
-      <c r="L114" s="27"/>
-      <c r="M114" s="27"/>
-      <c r="N114" s="27"/>
-      <c r="O114" s="27"/>
-      <c r="P114" s="27"/>
-      <c r="Q114" s="27"/>
-      <c r="R114" s="27"/>
-      <c r="S114" s="27"/>
-      <c r="T114" s="27"/>
-      <c r="U114" s="27"/>
-      <c r="V114" s="27"/>
-      <c r="W114" s="27"/>
-      <c r="X114" s="27"/>
-      <c r="Y114" s="27"/>
-      <c r="Z114" s="27"/>
-    </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B126" s="18"/>
-      <c r="C126" s="19"/>
-    </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B132" s="25" t="s">
+      <c r="D116" s="27"/>
+      <c r="E116" s="27"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="27"/>
+      <c r="I116" s="27"/>
+      <c r="J116" s="27"/>
+      <c r="K116" s="27"/>
+      <c r="L116" s="27"/>
+      <c r="M116" s="27"/>
+      <c r="N116" s="27"/>
+      <c r="O116" s="27"/>
+      <c r="P116" s="27"/>
+      <c r="Q116" s="27"/>
+      <c r="R116" s="27"/>
+      <c r="S116" s="27"/>
+      <c r="T116" s="27"/>
+      <c r="U116" s="27"/>
+      <c r="V116" s="27"/>
+      <c r="W116" s="27"/>
+      <c r="X116" s="27"/>
+      <c r="Y116" s="27"/>
+      <c r="Z116" s="27"/>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B128" s="18"/>
+      <c r="C128" s="19"/>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B134" s="25" t="s">
         <v>418</v>
       </c>
-      <c r="C132" s="26" t="s">
+      <c r="C134" s="26" t="s">
         <v>419</v>
       </c>
-      <c r="D132" s="27"/>
-      <c r="E132" s="27"/>
-      <c r="F132" s="27"/>
-      <c r="G132" s="27"/>
-      <c r="H132" s="27"/>
-      <c r="I132" s="27"/>
-      <c r="J132" s="27"/>
-      <c r="K132" s="27"/>
-      <c r="L132" s="27"/>
-      <c r="M132" s="27"/>
-      <c r="N132" s="27"/>
-      <c r="O132" s="27"/>
-      <c r="P132" s="27"/>
-      <c r="Q132" s="27"/>
-      <c r="R132" s="27"/>
-      <c r="S132" s="27"/>
-      <c r="T132" s="27"/>
-      <c r="U132" s="27"/>
-      <c r="V132" s="27"/>
-      <c r="W132" s="27"/>
-      <c r="X132" s="27"/>
-      <c r="Y132" s="27"/>
-      <c r="Z132" s="27"/>
-    </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C133" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="D133" s="19" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D134" s="19" t="s">
-        <v>421</v>
-      </c>
+      <c r="D134" s="27"/>
+      <c r="E134" s="27"/>
+      <c r="F134" s="27"/>
+      <c r="G134" s="27"/>
+      <c r="H134" s="27"/>
+      <c r="I134" s="27"/>
+      <c r="J134" s="27"/>
+      <c r="K134" s="27"/>
+      <c r="L134" s="27"/>
+      <c r="M134" s="27"/>
+      <c r="N134" s="27"/>
+      <c r="O134" s="27"/>
+      <c r="P134" s="27"/>
+      <c r="Q134" s="27"/>
+      <c r="R134" s="27"/>
+      <c r="S134" s="27"/>
+      <c r="T134" s="27"/>
+      <c r="U134" s="27"/>
+      <c r="V134" s="27"/>
+      <c r="W134" s="27"/>
+      <c r="X134" s="27"/>
+      <c r="Y134" s="27"/>
+      <c r="Z134" s="27"/>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C135" s="19" t="s">
-        <v>422</v>
+        <v>373</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D136" s="19" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C137" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="D137" s="19" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D138" s="19" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D137" s="19" t="s">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D139" s="19" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A138" s="17" t="s">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A140" s="17" t="s">
         <v>426</v>
       </c>
-      <c r="B138" s="17" t="s">
+      <c r="B140" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="C138" s="13"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="13"/>
-      <c r="G138" s="13"/>
-      <c r="H138" s="13"/>
-      <c r="I138" s="13"/>
-      <c r="J138" s="13"/>
-      <c r="K138" s="13"/>
-      <c r="L138" s="13"/>
-      <c r="M138" s="13"/>
-      <c r="N138" s="13"/>
-      <c r="O138" s="13"/>
-      <c r="P138" s="13"/>
-      <c r="Q138" s="13"/>
-      <c r="R138" s="13"/>
-      <c r="S138" s="13"/>
-      <c r="T138" s="13"/>
-      <c r="U138" s="13"/>
-      <c r="V138" s="13"/>
-      <c r="W138" s="13"/>
-      <c r="X138" s="13"/>
-      <c r="Y138" s="13"/>
-      <c r="Z138" s="13"/>
-    </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B139" s="25" t="s">
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13"/>
+      <c r="G140" s="13"/>
+      <c r="H140" s="13"/>
+      <c r="I140" s="13"/>
+      <c r="J140" s="13"/>
+      <c r="K140" s="13"/>
+      <c r="L140" s="13"/>
+      <c r="M140" s="13"/>
+      <c r="N140" s="13"/>
+      <c r="O140" s="13"/>
+      <c r="P140" s="13"/>
+      <c r="Q140" s="13"/>
+      <c r="R140" s="13"/>
+      <c r="S140" s="13"/>
+      <c r="T140" s="13"/>
+      <c r="U140" s="13"/>
+      <c r="V140" s="13"/>
+      <c r="W140" s="13"/>
+      <c r="X140" s="13"/>
+      <c r="Y140" s="13"/>
+      <c r="Z140" s="13"/>
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B141" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="C139" s="26" t="s">
+      <c r="C141" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="D139" s="27"/>
-      <c r="E139" s="27"/>
-      <c r="F139" s="27"/>
-      <c r="G139" s="27"/>
-      <c r="H139" s="27"/>
-      <c r="I139" s="27"/>
-      <c r="J139" s="27"/>
-      <c r="K139" s="27"/>
-      <c r="L139" s="27"/>
-      <c r="M139" s="27"/>
-      <c r="N139" s="27"/>
-      <c r="O139" s="27"/>
-      <c r="P139" s="27"/>
-      <c r="Q139" s="27"/>
-      <c r="R139" s="27"/>
-      <c r="S139" s="27"/>
-      <c r="T139" s="27"/>
-      <c r="U139" s="27"/>
-      <c r="V139" s="27"/>
-      <c r="W139" s="27"/>
-      <c r="X139" s="27"/>
-      <c r="Y139" s="27"/>
-      <c r="Z139" s="27"/>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B145" s="18"/>
-      <c r="C145" s="19"/>
-    </row>
-    <row r="174" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B174" s="25" t="s">
+      <c r="D141" s="27"/>
+      <c r="E141" s="27"/>
+      <c r="F141" s="27"/>
+      <c r="G141" s="27"/>
+      <c r="H141" s="27"/>
+      <c r="I141" s="27"/>
+      <c r="J141" s="27"/>
+      <c r="K141" s="27"/>
+      <c r="L141" s="27"/>
+      <c r="M141" s="27"/>
+      <c r="N141" s="27"/>
+      <c r="O141" s="27"/>
+      <c r="P141" s="27"/>
+      <c r="Q141" s="27"/>
+      <c r="R141" s="27"/>
+      <c r="S141" s="27"/>
+      <c r="T141" s="27"/>
+      <c r="U141" s="27"/>
+      <c r="V141" s="27"/>
+      <c r="W141" s="27"/>
+      <c r="X141" s="27"/>
+      <c r="Y141" s="27"/>
+      <c r="Z141" s="27"/>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B147" s="18"/>
+      <c r="C147" s="19"/>
+    </row>
+    <row r="176" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B176" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="C174" s="26" t="s">
+      <c r="C176" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="D174" s="27"/>
-      <c r="E174" s="27"/>
-      <c r="F174" s="27"/>
-      <c r="G174" s="27"/>
-      <c r="H174" s="27"/>
-      <c r="I174" s="27"/>
-      <c r="J174" s="27"/>
-      <c r="K174" s="27"/>
-      <c r="L174" s="27"/>
-      <c r="M174" s="27"/>
-      <c r="N174" s="27"/>
-      <c r="O174" s="27"/>
-      <c r="P174" s="27"/>
-      <c r="Q174" s="27"/>
-      <c r="R174" s="27"/>
-      <c r="S174" s="27"/>
-      <c r="T174" s="27"/>
-      <c r="U174" s="27"/>
-      <c r="V174" s="27"/>
-      <c r="W174" s="27"/>
-      <c r="X174" s="27"/>
-      <c r="Y174" s="27"/>
-      <c r="Z174" s="27"/>
-    </row>
-    <row r="175" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C175" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D175" s="19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="176" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C176" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D176" s="19" t="s">
-        <v>55</v>
-      </c>
+      <c r="D176" s="27"/>
+      <c r="E176" s="27"/>
+      <c r="F176" s="27"/>
+      <c r="G176" s="27"/>
+      <c r="H176" s="27"/>
+      <c r="I176" s="27"/>
+      <c r="J176" s="27"/>
+      <c r="K176" s="27"/>
+      <c r="L176" s="27"/>
+      <c r="M176" s="27"/>
+      <c r="N176" s="27"/>
+      <c r="O176" s="27"/>
+      <c r="P176" s="27"/>
+      <c r="Q176" s="27"/>
+      <c r="R176" s="27"/>
+      <c r="S176" s="27"/>
+      <c r="T176" s="27"/>
+      <c r="U176" s="27"/>
+      <c r="V176" s="27"/>
+      <c r="W176" s="27"/>
+      <c r="X176" s="27"/>
+      <c r="Y176" s="27"/>
+      <c r="Z176" s="27"/>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C177" s="19" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D177" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C178" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D178" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C179" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D179" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C180" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D178" s="19" t="s">
+      <c r="D180" s="19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D179" s="19" t="s">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D181" s="19" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D180" s="19" t="s">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D182" s="19" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="E181" s="19" t="s">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E183" s="19" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B182" s="25" t="s">
-        <v>431</v>
-      </c>
-      <c r="C182" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="D182" s="27"/>
-      <c r="E182" s="27"/>
-      <c r="F182" s="27"/>
-      <c r="G182" s="27"/>
-      <c r="H182" s="27"/>
-      <c r="I182" s="27"/>
-      <c r="J182" s="27"/>
-      <c r="K182" s="27"/>
-      <c r="L182" s="27"/>
-      <c r="M182" s="27"/>
-      <c r="N182" s="27"/>
-      <c r="O182" s="27"/>
-      <c r="P182" s="27"/>
-      <c r="Q182" s="27"/>
-      <c r="R182" s="27"/>
-      <c r="S182" s="27"/>
-      <c r="T182" s="27"/>
-      <c r="U182" s="27"/>
-      <c r="V182" s="27"/>
-      <c r="W182" s="27"/>
-      <c r="X182" s="27"/>
-      <c r="Y182" s="27"/>
-      <c r="Z182" s="27"/>
-    </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C183" s="19" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B184" s="25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C184" s="26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D184" s="27"/>
       <c r="E184" s="27"/>
@@ -12148,15 +12188,15 @@
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C185" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B186" s="25" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C186" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D186" s="27"/>
       <c r="E186" s="27"/>
@@ -12184,250 +12224,286 @@
     </row>
     <row r="187" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C187" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="188" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B188" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="C188" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D188" s="27"/>
+      <c r="E188" s="27"/>
+      <c r="F188" s="27"/>
+      <c r="G188" s="27"/>
+      <c r="H188" s="27"/>
+      <c r="I188" s="27"/>
+      <c r="J188" s="27"/>
+      <c r="K188" s="27"/>
+      <c r="L188" s="27"/>
+      <c r="M188" s="27"/>
+      <c r="N188" s="27"/>
+      <c r="O188" s="27"/>
+      <c r="P188" s="27"/>
+      <c r="Q188" s="27"/>
+      <c r="R188" s="27"/>
+      <c r="S188" s="27"/>
+      <c r="T188" s="27"/>
+      <c r="U188" s="27"/>
+      <c r="V188" s="27"/>
+      <c r="W188" s="27"/>
+      <c r="X188" s="27"/>
+      <c r="Y188" s="27"/>
+      <c r="Z188" s="27"/>
+    </row>
+    <row r="189" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C189" s="19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C188" s="20" t="s">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C190" s="20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A190" s="17" t="s">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A192" s="17" t="s">
         <v>426</v>
       </c>
-      <c r="B190" s="17" t="s">
+      <c r="B192" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C190" s="13"/>
-      <c r="D190" s="13"/>
-      <c r="E190" s="13"/>
-      <c r="F190" s="13"/>
-      <c r="G190" s="13"/>
-      <c r="H190" s="13"/>
-      <c r="I190" s="13"/>
-      <c r="J190" s="13"/>
-      <c r="K190" s="13"/>
-      <c r="L190" s="13"/>
-      <c r="M190" s="13"/>
-      <c r="N190" s="13"/>
-      <c r="O190" s="13"/>
-      <c r="P190" s="13"/>
-      <c r="Q190" s="13"/>
-      <c r="R190" s="13"/>
-      <c r="S190" s="13"/>
-      <c r="T190" s="13"/>
-      <c r="U190" s="13"/>
-      <c r="V190" s="13"/>
-      <c r="W190" s="13"/>
-      <c r="X190" s="13"/>
-      <c r="Y190" s="13"/>
-      <c r="Z190" s="13"/>
-    </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B191" s="25" t="s">
+      <c r="C192" s="13"/>
+      <c r="D192" s="13"/>
+      <c r="E192" s="13"/>
+      <c r="F192" s="13"/>
+      <c r="G192" s="13"/>
+      <c r="H192" s="13"/>
+      <c r="I192" s="13"/>
+      <c r="J192" s="13"/>
+      <c r="K192" s="13"/>
+      <c r="L192" s="13"/>
+      <c r="M192" s="13"/>
+      <c r="N192" s="13"/>
+      <c r="O192" s="13"/>
+      <c r="P192" s="13"/>
+      <c r="Q192" s="13"/>
+      <c r="R192" s="13"/>
+      <c r="S192" s="13"/>
+      <c r="T192" s="13"/>
+      <c r="U192" s="13"/>
+      <c r="V192" s="13"/>
+      <c r="W192" s="13"/>
+      <c r="X192" s="13"/>
+      <c r="Y192" s="13"/>
+      <c r="Z192" s="13"/>
+    </row>
+    <row r="193" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B193" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="C191" s="26" t="s">
+      <c r="C193" s="26" t="s">
         <v>434</v>
       </c>
-      <c r="D191" s="27"/>
-      <c r="E191" s="27"/>
-      <c r="F191" s="27"/>
-      <c r="G191" s="27"/>
-      <c r="H191" s="27"/>
-      <c r="I191" s="27"/>
-      <c r="J191" s="27"/>
-      <c r="K191" s="27"/>
-      <c r="L191" s="27"/>
-      <c r="M191" s="27"/>
-      <c r="N191" s="27"/>
-      <c r="O191" s="27"/>
-      <c r="P191" s="27"/>
-      <c r="Q191" s="27"/>
-      <c r="R191" s="27"/>
-      <c r="S191" s="27"/>
-      <c r="T191" s="27"/>
-      <c r="U191" s="27"/>
-      <c r="V191" s="27"/>
-      <c r="W191" s="27"/>
-      <c r="X191" s="27"/>
-      <c r="Y191" s="27"/>
-      <c r="Z191" s="27"/>
-    </row>
-    <row r="225" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B225" s="25" t="s">
+      <c r="D193" s="27"/>
+      <c r="E193" s="27"/>
+      <c r="F193" s="27"/>
+      <c r="G193" s="27"/>
+      <c r="H193" s="27"/>
+      <c r="I193" s="27"/>
+      <c r="J193" s="27"/>
+      <c r="K193" s="27"/>
+      <c r="L193" s="27"/>
+      <c r="M193" s="27"/>
+      <c r="N193" s="27"/>
+      <c r="O193" s="27"/>
+      <c r="P193" s="27"/>
+      <c r="Q193" s="27"/>
+      <c r="R193" s="27"/>
+      <c r="S193" s="27"/>
+      <c r="T193" s="27"/>
+      <c r="U193" s="27"/>
+      <c r="V193" s="27"/>
+      <c r="W193" s="27"/>
+      <c r="X193" s="27"/>
+      <c r="Y193" s="27"/>
+      <c r="Z193" s="27"/>
+    </row>
+    <row r="227" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B227" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="C225" s="26" t="s">
+      <c r="C227" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="D225" s="27"/>
-      <c r="E225" s="27"/>
-      <c r="F225" s="27"/>
-      <c r="G225" s="27"/>
-      <c r="H225" s="27"/>
-      <c r="I225" s="27"/>
-      <c r="J225" s="27"/>
-      <c r="K225" s="27"/>
-      <c r="L225" s="27"/>
-      <c r="M225" s="27"/>
-      <c r="N225" s="27"/>
-      <c r="O225" s="27"/>
-      <c r="P225" s="27"/>
-      <c r="Q225" s="27"/>
-      <c r="R225" s="27"/>
-      <c r="S225" s="27"/>
-      <c r="T225" s="27"/>
-      <c r="U225" s="27"/>
-      <c r="V225" s="27"/>
-      <c r="W225" s="27"/>
-      <c r="X225" s="27"/>
-      <c r="Y225" s="27"/>
-      <c r="Z225" s="27"/>
-    </row>
-    <row r="226" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B226" s="18"/>
-      <c r="C226" s="19" t="s">
+      <c r="D227" s="27"/>
+      <c r="E227" s="27"/>
+      <c r="F227" s="27"/>
+      <c r="G227" s="27"/>
+      <c r="H227" s="27"/>
+      <c r="I227" s="27"/>
+      <c r="J227" s="27"/>
+      <c r="K227" s="27"/>
+      <c r="L227" s="27"/>
+      <c r="M227" s="27"/>
+      <c r="N227" s="27"/>
+      <c r="O227" s="27"/>
+      <c r="P227" s="27"/>
+      <c r="Q227" s="27"/>
+      <c r="R227" s="27"/>
+      <c r="S227" s="27"/>
+      <c r="T227" s="27"/>
+      <c r="U227" s="27"/>
+      <c r="V227" s="27"/>
+      <c r="W227" s="27"/>
+      <c r="X227" s="27"/>
+      <c r="Y227" s="27"/>
+      <c r="Z227" s="27"/>
+    </row>
+    <row r="228" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B228" s="18"/>
+      <c r="C228" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="D226" s="19" t="s">
+      <c r="D228" s="19" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="227" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D227" s="19" t="s">
+    <row r="229" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D229" s="19" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="228" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C228" s="19" t="s">
+    <row r="230" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C230" s="19" t="s">
         <v>444</v>
       </c>
-      <c r="D228" s="19" t="s">
+      <c r="D230" s="19" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="229" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C229" s="19"/>
-      <c r="D229" s="19" t="s">
+    <row r="231" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C231" s="19"/>
+      <c r="D231" s="19" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="230" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B230" s="25" t="s">
+    <row r="232" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B232" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="C230" s="26" t="s">
+      <c r="C232" s="26" t="s">
         <v>435</v>
       </c>
-      <c r="D230" s="27"/>
-      <c r="E230" s="27"/>
-      <c r="F230" s="27"/>
-      <c r="G230" s="27"/>
-      <c r="H230" s="27"/>
-      <c r="I230" s="27"/>
-      <c r="J230" s="27"/>
-      <c r="K230" s="27"/>
-      <c r="L230" s="27"/>
-      <c r="M230" s="27"/>
-      <c r="N230" s="27"/>
-      <c r="O230" s="27"/>
-      <c r="P230" s="27"/>
-      <c r="Q230" s="27"/>
-      <c r="R230" s="27"/>
-      <c r="S230" s="27"/>
-      <c r="T230" s="27"/>
-      <c r="U230" s="27"/>
-      <c r="V230" s="27"/>
-      <c r="W230" s="27"/>
-      <c r="X230" s="27"/>
-      <c r="Y230" s="27"/>
-      <c r="Z230" s="27"/>
-    </row>
-    <row r="231" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C231" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="D231" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="232" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D232" s="19" t="s">
-        <v>116</v>
-      </c>
+      <c r="D232" s="27"/>
+      <c r="E232" s="27"/>
+      <c r="F232" s="27"/>
+      <c r="G232" s="27"/>
+      <c r="H232" s="27"/>
+      <c r="I232" s="27"/>
+      <c r="J232" s="27"/>
+      <c r="K232" s="27"/>
+      <c r="L232" s="27"/>
+      <c r="M232" s="27"/>
+      <c r="N232" s="27"/>
+      <c r="O232" s="27"/>
+      <c r="P232" s="27"/>
+      <c r="Q232" s="27"/>
+      <c r="R232" s="27"/>
+      <c r="S232" s="27"/>
+      <c r="T232" s="27"/>
+      <c r="U232" s="27"/>
+      <c r="V232" s="27"/>
+      <c r="W232" s="27"/>
+      <c r="X232" s="27"/>
+      <c r="Y232" s="27"/>
+      <c r="Z232" s="27"/>
     </row>
     <row r="233" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C233" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D233" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="234" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D234" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="235" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C235" s="18" t="s">
         <v>436</v>
       </c>
-      <c r="D233" s="19" t="s">
+      <c r="D235" s="19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="234" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C234" s="18"/>
-      <c r="D234" s="19" t="s">
+    <row r="236" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C236" s="18"/>
+      <c r="D236" s="19" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="235" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D235" s="19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="236" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D236" s="19" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="237" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D237" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="238" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C238" s="18" t="s">
-        <v>437</v>
-      </c>
       <c r="D238" s="19" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="239" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D239" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="240" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C240" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="D240" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="241" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D241" s="19" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="240" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D240" s="19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="241" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C241" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="D241" s="19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="242" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D242" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="243" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C243" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D243" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="244" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D244" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="245" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C245" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="D245" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="246" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D246" s="19" t="s">
         <v>128</v>
       </c>
     </row>
@@ -12441,10 +12517,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z234"/>
+  <dimension ref="A1:Z242"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="X195" sqref="X195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12561,7 +12637,7 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
@@ -13080,7 +13156,7 @@
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E163" s="19" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="164" spans="3:6" x14ac:dyDescent="0.3">
@@ -13253,263 +13329,303 @@
         <v>579</v>
       </c>
       <c r="D186" s="19" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="187" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D187" s="19" t="s">
+        <v>582</v>
+      </c>
+      <c r="E187" s="19" t="s">
         <v>583</v>
-      </c>
-      <c r="E187" s="19" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="188" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C188" s="19"/>
       <c r="E188" s="19" t="s">
-        <v>581</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="189" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D189" s="19" t="s">
-        <v>585</v>
-      </c>
+      <c r="C189" s="19"/>
       <c r="E189" s="19" t="s">
-        <v>586</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="190" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="E190" s="19" t="s">
-        <v>897</v>
-      </c>
+      <c r="C190" s="19"/>
+      <c r="E190" s="19"/>
     </row>
     <row r="191" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="E191" s="19" t="s">
-        <v>587</v>
-      </c>
+      <c r="C191" s="19"/>
+      <c r="E191" s="19"/>
     </row>
     <row r="192" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="F192" s="19" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="193" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="E193" s="19" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="194" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="F194" s="19" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="195" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="E195" s="19" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="196" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="C192" s="19"/>
+      <c r="E192" s="19"/>
+    </row>
+    <row r="193" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C193" s="19"/>
+      <c r="E193" s="19"/>
+    </row>
+    <row r="194" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C194" s="19"/>
+      <c r="E194" s="19"/>
+    </row>
+    <row r="195" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C195" s="19"/>
+      <c r="E195" s="19"/>
+      <c r="F195" s="19" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="196" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C196" s="19"/>
       <c r="E196" s="19"/>
       <c r="F196" s="19" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="197" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D197" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="E197" s="19" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="198" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E198" s="19" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="199" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E199" s="19" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="200" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F200" s="19" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="201" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E201" s="19" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="202" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F202" s="19" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="203" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E203" s="19" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="204" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E204" s="19"/>
+      <c r="F204" s="19" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="205" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E205" s="19"/>
+    </row>
+    <row r="206" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E206" s="19"/>
+    </row>
+    <row r="207" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E207" s="19"/>
+    </row>
+    <row r="208" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E208" s="19"/>
+    </row>
+    <row r="209" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E209" s="19"/>
+    </row>
+    <row r="210" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F210" s="19" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="211" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F211" s="19" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="212" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F212" s="19" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="213" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F213" s="19" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="214" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F214" s="19" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="215" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F215" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="H215" s="19" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="216" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D216" s="19" t="s">
+        <v>596</v>
+      </c>
+      <c r="E216" s="19" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="217" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E217" s="19" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="218" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D218" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="E218" s="19" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="219" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E219" s="19" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="220" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E220" s="19" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="221" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E221" s="19" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="222" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D222" s="19" t="s">
+        <v>606</v>
+      </c>
+      <c r="E222" s="19" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="223" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E223" s="19" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="224" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C224" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="D224" s="19" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="197" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="E197" s="19"/>
-    </row>
-    <row r="198" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="E198" s="19"/>
-    </row>
-    <row r="199" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="E199" s="19"/>
-    </row>
-    <row r="200" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="E200" s="19"/>
-    </row>
-    <row r="201" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="E201" s="19"/>
-    </row>
-    <row r="202" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="F202" s="19" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="203" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="F203" s="19" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="204" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="F204" s="19" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="205" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="F205" s="19" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="206" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="F206" s="19" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="207" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="F207" s="19" t="s">
-        <v>598</v>
-      </c>
-      <c r="H207" s="19" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="208" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D208" s="19" t="s">
-        <v>597</v>
-      </c>
-      <c r="E208" s="19" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="209" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E209" s="19" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="210" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D210" s="19" t="s">
-        <v>602</v>
-      </c>
-      <c r="E210" s="19" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="211" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E211" s="19" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="212" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E212" s="19" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="213" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E213" s="19" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="214" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D214" s="19" t="s">
-        <v>607</v>
-      </c>
-      <c r="E214" s="19" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="215" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E215" s="19" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="216" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C216" s="19" t="s">
-        <v>579</v>
-      </c>
-      <c r="D216" s="19" t="s">
+    <row r="225" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D225" s="19" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="217" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D217" s="19" t="s">
+    <row r="226" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C226" s="19" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="218" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C218" s="19" t="s">
+      <c r="D226" s="19" t="s">
         <v>613</v>
       </c>
-      <c r="D218" s="19" t="s">
+    </row>
+    <row r="227" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D227" s="19" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="219" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D219" s="19" t="s">
+    <row r="228" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D228" s="19" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="220" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D220" s="19" t="s">
+    <row r="229" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E229" s="19" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="230" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F230" s="19" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="221" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E221" s="19" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="222" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F222" s="19" t="s">
+    <row r="231" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E231" s="19" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="223" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E223" s="19" t="s">
+    <row r="232" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F232" s="19" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="233" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E233" s="19" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="224" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F224" s="19" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="225" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E225" s="19" t="s">
+    <row r="234" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F234" s="12" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="226" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F226" s="12" t="s">
+    <row r="235" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D235" s="12" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="227" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D227" s="12" t="s">
+    <row r="236" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E236" s="12" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="228" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E228" s="12" t="s">
+    <row r="237" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F237" s="12" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="229" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F229" s="12" t="s">
+    <row r="238" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E238" s="12" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="230" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E230" s="12" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="231" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F231" s="19" t="s">
+    <row r="239" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F239" s="19" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="240" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F240" s="19" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="232" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F232" s="19" t="s">
+    <row r="241" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F241" s="19" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="233" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F233" s="19" t="s">
+    <row r="242" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F242" s="19" t="s">
         <v>628</v>
-      </c>
-    </row>
-    <row r="234" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F234" s="19" t="s">
-        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -13537,10 +13653,10 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>633</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>634</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -13569,12 +13685,12 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -13582,10 +13698,10 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>637</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>638</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -13614,10 +13730,10 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="B34" s="17" t="s">
         <v>639</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>640</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -13646,10 +13762,10 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B35" s="25" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
@@ -13677,133 +13793,133 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C36" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="D36" s="19" t="s">
         <v>644</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C72" s="19" t="s">
+        <v>652</v>
+      </c>
+      <c r="D72" s="19" t="s">
         <v>653</v>
-      </c>
-      <c r="D72" s="19" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D73" s="19" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E74" s="19" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D75" s="19" t="s">
+        <v>657</v>
+      </c>
+      <c r="E75" s="19" t="s">
         <v>658</v>
-      </c>
-      <c r="E75" s="19" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E76" s="19" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D77" s="19" t="s">
+        <v>660</v>
+      </c>
+      <c r="E77" s="19" t="s">
         <v>661</v>
-      </c>
-      <c r="E77" s="19" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D78" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="E78" s="19" t="s">
         <v>663</v>
-      </c>
-      <c r="E78" s="19" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="79" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D79" s="19"/>
       <c r="E79" s="19" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="80" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D80" s="19"/>
       <c r="E80" s="19" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="81" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D81" s="19" t="s">
+        <v>665</v>
+      </c>
+      <c r="E81" s="19" t="s">
         <v>666</v>
-      </c>
-      <c r="E81" s="19" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="82" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E82" s="19" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="83" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D83" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="E83" s="19" t="s">
         <v>669</v>
-      </c>
-      <c r="E83" s="19" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="84" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D84" s="19"/>
       <c r="E84" s="19" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="85" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D85" s="19" t="s">
+        <v>671</v>
+      </c>
+      <c r="E85" s="19" t="s">
         <v>672</v>
-      </c>
-      <c r="E85" s="19" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="86" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D86" s="19"/>
       <c r="E86" s="19" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="87" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D87" s="19"/>
       <c r="E87" s="19" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="88" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D88" s="19"/>
       <c r="E88" s="19" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="89" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B89" s="25" t="s">
+        <v>645</v>
+      </c>
+      <c r="C89" s="26" t="s">
         <v>646</v>
-      </c>
-      <c r="C89" s="26" t="s">
-        <v>647</v>
       </c>
       <c r="D89" s="27"/>
       <c r="E89" s="27"/>
@@ -13831,75 +13947,75 @@
     </row>
     <row r="90" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C90" s="19" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="102" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C102" s="19" t="s">
+        <v>677</v>
+      </c>
+      <c r="D102" s="19" t="s">
         <v>678</v>
-      </c>
-      <c r="D102" s="19" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="103" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D103" s="19" t="s">
+        <v>687</v>
+      </c>
+      <c r="E103" s="19" t="s">
         <v>688</v>
-      </c>
-      <c r="E103" s="19" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="104" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D104" s="19"/>
       <c r="E104" s="12" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="105" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D105" s="19" t="s">
+        <v>690</v>
+      </c>
+      <c r="E105" s="19" t="s">
         <v>691</v>
-      </c>
-      <c r="E105" s="19" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="106" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D106" s="19"/>
       <c r="E106" s="19" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="107" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C107" s="19" t="s">
+        <v>712</v>
+      </c>
+      <c r="D107" s="19" t="s">
         <v>713</v>
-      </c>
-      <c r="D107" s="19" t="s">
-        <v>714</v>
       </c>
       <c r="E107" s="19"/>
     </row>
     <row r="108" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D108" s="19" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E108" s="19"/>
     </row>
     <row r="109" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D109" s="19" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E109" s="19"/>
     </row>
     <row r="110" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B110" s="25" t="s">
+        <v>648</v>
+      </c>
+      <c r="C110" s="26" t="s">
         <v>649</v>
-      </c>
-      <c r="C110" s="26" t="s">
-        <v>650</v>
       </c>
       <c r="D110" s="27"/>
       <c r="E110" s="27"/>
@@ -13927,71 +14043,71 @@
     </row>
     <row r="111" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C111" s="19" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="133" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C133" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="D133" s="19" t="s">
         <v>680</v>
-      </c>
-      <c r="D133" s="19" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="134" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C134" s="19"/>
       <c r="D134" s="19" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="135" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C135" s="19"/>
       <c r="D135" s="19" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="136" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C136" s="19"/>
       <c r="D136" s="19"/>
       <c r="E136" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="137" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C137" s="19"/>
       <c r="D137" s="19" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="138" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C138" s="19" t="s">
+        <v>708</v>
+      </c>
+      <c r="D138" s="19" t="s">
         <v>709</v>
-      </c>
-      <c r="D138" s="19" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="139" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C139" s="19"/>
       <c r="D139" s="19" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="140" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C140" s="19"/>
       <c r="D140" s="19" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="141" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B141" s="25" t="s">
+        <v>650</v>
+      </c>
+      <c r="C141" s="26" t="s">
         <v>651</v>
-      </c>
-      <c r="C141" s="26" t="s">
-        <v>652</v>
       </c>
       <c r="D141" s="27"/>
       <c r="E141" s="27"/>
@@ -14019,186 +14135,186 @@
     </row>
     <row r="142" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C142" s="19" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D142" s="19" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="162" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C162" s="19" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D162" s="19" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D163" s="19" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E163" s="19" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="164" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D164" s="19"/>
       <c r="E164" s="19" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D165" s="19" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E165" s="19" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E166" s="19" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D167" s="19" t="s">
+        <v>697</v>
+      </c>
+      <c r="E167" s="19" t="s">
         <v>698</v>
-      </c>
-      <c r="E167" s="19" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="168" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E168" s="19" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="169" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D169" s="19" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E169" s="19" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="170" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E170" s="19" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="171" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E171" s="19" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="172" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F172" s="29" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="173" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F173" s="29" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="174" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F174" s="29" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="175" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F175" s="29" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E176" s="19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F177" s="29" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F178" s="29" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F179" s="29" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E180" s="19" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F181" s="29" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F182" s="30" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F183" s="30" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F184" s="29" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C185" s="19" t="s">
+        <v>720</v>
+      </c>
+      <c r="D185" s="19" t="s">
         <v>721</v>
-      </c>
-      <c r="D185" s="19" t="s">
-        <v>722</v>
       </c>
       <c r="E185" s="19"/>
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D186" s="19" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="187" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D187" s="19" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C188" s="19" t="s">
+        <v>897</v>
+      </c>
+      <c r="D188" s="19" t="s">
         <v>898</v>
-      </c>
-      <c r="D188" s="19" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D189" s="31" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D190" s="19" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A192" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="B192" s="17" t="s">
         <v>725</v>
-      </c>
-      <c r="B192" s="17" t="s">
-        <v>726</v>
       </c>
       <c r="C192" s="13"/>
       <c r="D192" s="13"/>
@@ -14227,297 +14343,297 @@
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B193" s="18" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C193" s="19" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C194" s="19" t="s">
+        <v>727</v>
+      </c>
+      <c r="D194" s="19" t="s">
         <v>728</v>
-      </c>
-      <c r="D194" s="19" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="230" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C230" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D230" s="19" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="231" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C231" s="19"/>
       <c r="D231" s="19" t="s">
+        <v>770</v>
+      </c>
+      <c r="E231" s="19" t="s">
         <v>771</v>
-      </c>
-      <c r="E231" s="19" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="232" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C232" s="19"/>
       <c r="D232" s="19"/>
       <c r="E232" s="19" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="233" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D233" s="19" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E233" s="19" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="234" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E234" s="19" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="235" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D235" s="19" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E235" s="19" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="236" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E236" s="19" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="237" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C237" s="19" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D237" s="19" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="238" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D238" s="19" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E238" s="19" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="239" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E239" s="19" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="240" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D240" s="19" t="s">
+        <v>731</v>
+      </c>
+      <c r="E240" s="19" t="s">
         <v>732</v>
-      </c>
-      <c r="E240" s="19" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="241" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E241" s="19" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="242" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E242" s="19" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="243" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E243" s="19" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="244" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E244" s="19" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="245" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D245" s="19" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E245" s="19" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="246" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E246" s="19" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="247" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E247" s="19" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="248" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E248" s="19"/>
       <c r="F248" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="249" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E249" s="19" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="250" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E250" s="19"/>
       <c r="F250" s="12" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="251" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E251" s="19" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="252" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F252" s="19" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="253" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D253" s="19" t="s">
+        <v>745</v>
+      </c>
+      <c r="E253" s="19" t="s">
         <v>746</v>
-      </c>
-      <c r="E253" s="19" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="254" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E254" s="19" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="255" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E255" s="19" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="256" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F256" s="19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="257" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E257" s="19" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F258" s="19" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E259" s="19" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F260" s="19" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="261" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E261" s="19" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="262" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F262" s="19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E263" s="19" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="264" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F264" s="19" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E265" s="19" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F266" s="19" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E267" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F268" s="19" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G269" s="19" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="270" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F270" s="19" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="271" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G271" s="19" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="272" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B272" s="18" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C272" s="19" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="273" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C273" s="19" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D273" s="19" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="293" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C293" s="19" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D293" s="19" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="294" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D294" s="19" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="296" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A296" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="B296" s="17" t="s">
         <v>779</v>
-      </c>
-      <c r="B296" s="17" t="s">
-        <v>780</v>
       </c>
       <c r="C296" s="13"/>
       <c r="D296" s="13"/>
@@ -14546,66 +14662,66 @@
     </row>
     <row r="297" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B297" s="19" t="s">
+        <v>780</v>
+      </c>
+      <c r="C297" s="19" t="s">
         <v>781</v>
-      </c>
-      <c r="C297" s="19" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B333" s="19" t="s">
+        <v>782</v>
+      </c>
+      <c r="C333" s="19" t="s">
         <v>783</v>
-      </c>
-      <c r="C333" s="19" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C334" s="19" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D335" s="19" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C336" s="19" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="337" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D337" s="19" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="338" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B338" s="19" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C338" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="339" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D339" s="19" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="340" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D340" s="19" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="341" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D341" s="19" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="342" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E342" s="19" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
   </sheetData>
@@ -14671,20 +14787,20 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>1086</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>1087</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -14713,114 +14829,114 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>1092</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
       <c r="C7" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C8" s="19" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C9" s="19" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>1095</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>1096</v>
       </c>
       <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C11" s="19" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C12" s="19" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C13" s="19" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C14" s="19" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C17" s="19" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C18" s="19"/>
       <c r="D18" s="19" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C19" s="19" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>1098</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C20" s="19"/>
       <c r="D20" s="19" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C21" s="19" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C22" s="19"/>
       <c r="D22" s="19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
@@ -14828,7 +14944,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -14873,129 +14989,129 @@
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C60" s="19" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C61" s="19" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C62" s="19" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" s="18" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C63" s="19" t="s">
         <v>1066</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C64" s="19" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C65" s="19" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C66" s="18" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D66" s="19" t="s">
         <v>1069</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C67" s="19"/>
       <c r="D67" s="19" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C68" s="19" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D68" s="19" t="s">
         <v>1071</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C69" s="19"/>
       <c r="D69" s="19" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C70" s="19" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D70" s="19" t="s">
         <v>1073</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C71" s="19"/>
       <c r="D71" s="19" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D72" s="19" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73" s="18" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C73" s="19" t="s">
         <v>1080</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>1081</v>
       </c>
       <c r="D73" s="19"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C74" s="19" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D74" s="19"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C75" s="19" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D75" s="19"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76" s="18" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D76" s="19"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C77" s="19" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D77" s="19"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C78" s="19" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D78" s="19"/>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C79" s="19" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D79" s="19"/>
     </row>
@@ -15004,7 +15120,7 @@
         <v>18</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
@@ -15044,48 +15160,48 @@
         <v>237</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C118" s="19" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B119" s="18" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C119" s="19" t="s">
         <v>1111</v>
-      </c>
-      <c r="C119" s="19" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C120" s="19" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B121" s="18" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C122" s="19" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C123" s="19" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C124" s="19" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.3">
@@ -15096,7 +15212,7 @@
         <v>432</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
@@ -15125,10 +15241,10 @@
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B127" s="18" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C127" s="19" t="s">
         <v>1119</v>
-      </c>
-      <c r="C127" s="19" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.3">
@@ -15184,66 +15300,66 @@
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B162" s="18" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C162" s="19" t="s">
         <v>1121</v>
-      </c>
-      <c r="C162" s="19" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C163" s="19" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C164" s="19" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C165" s="19" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B166" s="18" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C167" s="19" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C168" s="19" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C169" s="19" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B170" s="18" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C171" s="19" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C172" s="19" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.3">
@@ -15257,10 +15373,10 @@
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A178" s="33" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B178" s="17" t="s">
         <v>1109</v>
-      </c>
-      <c r="B178" s="17" t="s">
-        <v>1110</v>
       </c>
       <c r="C178" s="13"/>
       <c r="D178" s="13"/>
@@ -15305,69 +15421,69 @@
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C214" s="19" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B215" s="18" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C215" s="19" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C216" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B217" s="18" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C218" s="19" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C219" s="19" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B220" s="18" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C220" s="19" t="s">
         <v>1137</v>
-      </c>
-      <c r="C220" s="19" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C221" s="19" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C222" s="19" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B223" s="18" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C223" s="19" t="s">
         <v>1141</v>
-      </c>
-      <c r="C223" s="19" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C224" s="19" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
   </sheetData>
@@ -15430,7 +15546,7 @@
         <v>86</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -15470,7 +15586,7 @@
         <v>18</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -15499,138 +15615,138 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B37" s="18" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C38" s="19" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C39" s="19" t="s">
+        <v>957</v>
+      </c>
+      <c r="D39" s="19" t="s">
         <v>958</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
+        <v>960</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>961</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C41" s="19" t="s">
+        <v>962</v>
+      </c>
+      <c r="D41" s="19" t="s">
         <v>963</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C42" s="19" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B43" s="18" t="s">
+        <v>965</v>
+      </c>
+      <c r="C43" s="19" t="s">
         <v>966</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C44" s="19" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C45" s="19" t="s">
+        <v>969</v>
+      </c>
+      <c r="D45" s="19" t="s">
         <v>970</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C47" s="19" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C48" s="19" t="s">
+        <v>969</v>
+      </c>
+      <c r="D48" s="19" t="s">
         <v>970</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B49" s="18" t="s">
+        <v>972</v>
+      </c>
+      <c r="C49" s="19" t="s">
         <v>973</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C50" s="19" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C51" s="19" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C52" s="19" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C53" s="19" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.3">
@@ -15638,7 +15754,7 @@
         <v>81</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -15667,115 +15783,115 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B56" s="18" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="18" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C91" s="19" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D92" s="19" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D93" s="19" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D94" s="19" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C95" s="19" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D96" s="19" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D97" s="19"/>
       <c r="E97" s="19" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D98" s="19"/>
       <c r="E98" s="19" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D99" s="19" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D100" s="19"/>
       <c r="E100" s="19" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D101" s="19"/>
       <c r="E101" s="19" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="102" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D102" s="19" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="103" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D103" s="19"/>
       <c r="E103" s="19" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="104" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D104" s="19"/>
       <c r="E104" s="19" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="105" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D105" s="19"/>
       <c r="E105" s="19" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="106" spans="4:5" x14ac:dyDescent="0.3">
@@ -15828,34 +15944,34 @@
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C122" s="19" t="s">
+        <v>993</v>
+      </c>
+      <c r="D122" s="19" t="s">
         <v>994</v>
-      </c>
-      <c r="D122" s="19" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="123" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D123" s="19" t="s">
+        <v>995</v>
+      </c>
+      <c r="E123" s="19" t="s">
         <v>996</v>
-      </c>
-      <c r="E123" s="19" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D124" s="19" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E124" s="19" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="125" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D125" s="19" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E125" s="19" t="s">
         <v>1010</v>
-      </c>
-      <c r="E125" s="19" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="126" spans="3:5" x14ac:dyDescent="0.3">
@@ -15872,7 +15988,7 @@
         <v>84</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C131" s="13"/>
       <c r="D131" s="13"/>
@@ -15901,212 +16017,212 @@
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B132" s="18" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B166" s="18" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C166" s="19" t="s">
         <v>1012</v>
-      </c>
-      <c r="C166" s="19" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C167" s="19" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C168" s="19" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C169" s="19" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D169" s="19" t="s">
         <v>1032</v>
-      </c>
-      <c r="D169" s="19" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C170" s="19"/>
       <c r="D170" s="19" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C171" s="19" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D172" s="19" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E172" s="19" t="s">
         <v>1016</v>
-      </c>
-      <c r="E172" s="19" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E173" s="19" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E174" s="19" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D175" s="19" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E175" s="19" t="s">
         <v>1020</v>
-      </c>
-      <c r="E175" s="19" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D176" s="19"/>
       <c r="E176" s="19" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="177" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E177" s="19" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="178" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E178" s="19" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="179" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D179" s="19" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E179" s="19" t="s">
         <v>1024</v>
-      </c>
-      <c r="E179" s="19" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="180" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E180" s="19" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="181" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E181" s="19" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="182" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E182" s="19" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="183" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D183" s="19" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E183" s="19" t="s">
         <v>1047</v>
-      </c>
-      <c r="E183" s="19" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="184" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D184" s="19"/>
       <c r="E184" s="19" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="185" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E185" s="19" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="186" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E186" s="19" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="187" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C187" s="19" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D187" s="19" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="188" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D188" s="19" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E188" s="19" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="189" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D189" s="19" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E189" s="19" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="190" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D190" s="19" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E190" s="19" t="s">
         <v>1036</v>
-      </c>
-      <c r="E190" s="19" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="191" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C191" s="19" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D191" s="19" t="s">
         <v>1040</v>
-      </c>
-      <c r="D191" s="19" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="192" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D192" s="19" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="193" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D193" s="19" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E193" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="194" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E194" s="19" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E195" s="19" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E196" s="19" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="197" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E197" s="19" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="203" spans="1:26" x14ac:dyDescent="0.3">
@@ -16114,7 +16230,7 @@
         <v>377</v>
       </c>
       <c r="B203" s="17" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C203" s="13"/>
       <c r="D203" s="13"/>
@@ -16143,10 +16259,10 @@
     </row>
     <row r="204" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B204" s="18" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.3">
@@ -16159,17 +16275,17 @@
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C237" s="19" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C238" s="19" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C239" s="19" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
   </sheetData>
@@ -17180,7 +17296,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -17209,7 +17325,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -17217,7 +17333,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -17249,7 +17365,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
@@ -17257,7 +17373,7 @@
         <v>237</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
@@ -17265,7 +17381,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -17297,7 +17413,7 @@
         <v>20</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
@@ -17313,7 +17429,7 @@
         <v>24</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
@@ -17321,7 +17437,7 @@
         <v>50</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
@@ -17329,7 +17445,7 @@
         <v>52</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
@@ -17337,7 +17453,7 @@
         <v>54</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
@@ -17345,12 +17461,12 @@
         <v>30</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D56" s="19" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
@@ -17361,7 +17477,7 @@
         <v>237</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
@@ -17369,7 +17485,7 @@
         <v>73</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
@@ -17377,17 +17493,17 @@
         <v>483</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D61" s="19" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D62" s="19" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.3">
@@ -17395,7 +17511,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
@@ -17427,17 +17543,17 @@
         <v>20</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C83" s="19" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C84" s="19" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
@@ -17445,7 +17561,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
@@ -17477,12 +17593,12 @@
         <v>20</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C88" s="12" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.3">
@@ -17490,7 +17606,7 @@
         <v>44</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.3">
@@ -17498,7 +17614,7 @@
         <v>69</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.3">
@@ -17506,15 +17622,15 @@
         <v>448</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B92" s="18" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C92" s="19" t="s">
         <v>1058</v>
-      </c>
-      <c r="C92" s="19" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.3">
@@ -17554,7 +17670,7 @@
         <v>20</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.3">
@@ -17562,7 +17678,7 @@
         <v>44</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.3">
@@ -17570,7 +17686,7 @@
         <v>227</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
@@ -17602,7 +17718,7 @@
         <v>20</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
@@ -17610,7 +17726,7 @@
         <v>237</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.3">
@@ -17618,7 +17734,7 @@
         <v>69</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.3">
@@ -17626,7 +17742,7 @@
         <v>426</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
@@ -17658,12 +17774,12 @@
         <v>20</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C127" s="19" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.3">
@@ -17671,12 +17787,12 @@
         <v>44</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C129" s="19" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
   </sheetData>
@@ -17707,7 +17823,7 @@
         <v>100</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -17736,7 +17852,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
@@ -17744,7 +17860,7 @@
         <v>217</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -17773,10 +17889,10 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
+        <v>790</v>
+      </c>
+      <c r="B35" s="17" t="s">
         <v>791</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>792</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -17805,46 +17921,46 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B36" s="18" t="s">
+        <v>792</v>
+      </c>
+      <c r="C36" s="19" t="s">
         <v>793</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C37" s="19" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
+        <v>795</v>
+      </c>
+      <c r="C38" s="19" t="s">
         <v>796</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C39" s="19" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
+        <v>798</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>799</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C41" s="19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C42" s="19" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
@@ -17852,7 +17968,7 @@
         <v>226</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -17881,17 +17997,17 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B45" s="19" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B46" s="19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B47" s="19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
   </sheetData>
@@ -17919,10 +18035,10 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
+        <v>820</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>821</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>822</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -17951,20 +18067,20 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -18001,67 +18117,67 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
+        <v>826</v>
+      </c>
+      <c r="C42" s="19" t="s">
         <v>827</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C43" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="D43" s="19" t="s">
         <v>829</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D44" s="19" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C45" s="19" t="s">
+        <v>831</v>
+      </c>
+      <c r="D45" s="19" t="s">
         <v>832</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D46" s="19" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D47" s="19" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D48" s="19" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C49" s="19" t="s">
+        <v>836</v>
+      </c>
+      <c r="D49" s="19" t="s">
         <v>837</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D50" s="19" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
+        <v>839</v>
+      </c>
+      <c r="B52" s="17" t="s">
         <v>840</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>841</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -18098,73 +18214,73 @@
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="18" t="s">
+        <v>826</v>
+      </c>
+      <c r="C90" s="19" t="s">
         <v>827</v>
-      </c>
-      <c r="C90" s="19" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C91" s="19" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D92" s="19" t="s">
+        <v>842</v>
+      </c>
+      <c r="E92" s="19" t="s">
         <v>843</v>
-      </c>
-      <c r="E92" s="19" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D93" s="19" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D94" s="19" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D95" s="19" t="s">
+        <v>846</v>
+      </c>
+      <c r="E95" s="19" t="s">
         <v>847</v>
-      </c>
-      <c r="E95" s="19" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D96" s="19" t="s">
+        <v>848</v>
+      </c>
+      <c r="E96" s="19" t="s">
         <v>849</v>
-      </c>
-      <c r="E96" s="19" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E97" s="19" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E98" s="19" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100" s="17" t="s">
+        <v>852</v>
+      </c>
+      <c r="B100" s="17" t="s">
         <v>853</v>
-      </c>
-      <c r="B100" s="17" t="s">
-        <v>854</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
@@ -18193,10 +18309,10 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B101" s="18" t="s">
+        <v>854</v>
+      </c>
+      <c r="C101" s="19" t="s">
         <v>855</v>
-      </c>
-      <c r="C101" s="19" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.3">
@@ -18204,20 +18320,20 @@
         <v>237</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C119" s="19" t="s">
+        <v>856</v>
+      </c>
+      <c r="D119" s="19" t="s">
         <v>857</v>
-      </c>
-      <c r="D119" s="19" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D120" s="19" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.3">
@@ -18225,12 +18341,12 @@
         <v>257</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D122" s="19" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.3">
@@ -18238,12 +18354,12 @@
         <v>301</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D124" s="19" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.3">
@@ -18251,37 +18367,37 @@
         <v>97</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D126" s="19" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D127" s="19" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E128" s="19" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E129" s="19" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E130" s="19" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E131" s="19" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
   </sheetData>
@@ -18430,7 +18546,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D12" s="19"/>
     </row>
@@ -18745,50 +18861,50 @@
     </row>
     <row r="122" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D122" s="19" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="123" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D123" s="19"/>
       <c r="E123" s="19" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="124" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D124" s="19" t="s">
+        <v>907</v>
+      </c>
+      <c r="E124" s="19" t="s">
         <v>908</v>
-      </c>
-      <c r="E124" s="19" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="125" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D125" s="19"/>
       <c r="E125" s="19" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="126" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D126" s="19" t="s">
+        <v>910</v>
+      </c>
+      <c r="E126" s="19" t="s">
         <v>911</v>
-      </c>
-      <c r="E126" s="19" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="127" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D127" s="19"/>
       <c r="E127" s="19" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="128" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D128" s="19"/>
       <c r="E128" s="19" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="129" spans="4:5" x14ac:dyDescent="0.3">
@@ -18882,7 +18998,7 @@
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D149" s="19" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.3">
@@ -18895,12 +19011,12 @@
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D151" s="19" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D152" s="19" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.3">
@@ -19028,7 +19144,7 @@
         <v>284</v>
       </c>
       <c r="C202" s="26" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D202" s="27"/>
       <c r="E202" s="27"/>
@@ -19070,7 +19186,7 @@
     <row r="205" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C205" s="19"/>
       <c r="D205" s="19" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="206" spans="2:26" x14ac:dyDescent="0.3">
@@ -19078,40 +19194,40 @@
         <v>257</v>
       </c>
       <c r="D206" s="19" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="207" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C207" s="19"/>
       <c r="D207" s="19" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="208" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C208" s="19"/>
       <c r="D208" s="19"/>
       <c r="E208" s="19" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="209" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C209" s="19"/>
       <c r="D209" s="19"/>
       <c r="E209" s="19" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="210" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C210" s="19"/>
       <c r="D210" s="19" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="211" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C211" s="19"/>
       <c r="D211" s="19"/>
       <c r="E211" s="19" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="212" spans="3:5" x14ac:dyDescent="0.3">
@@ -19124,22 +19240,22 @@
       <c r="C213" s="19"/>
       <c r="D213" s="19"/>
       <c r="E213" s="19" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="214" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C214" s="19" t="s">
+        <v>878</v>
+      </c>
+      <c r="D214" s="19" t="s">
         <v>879</v>
-      </c>
-      <c r="D214" s="19" t="s">
-        <v>880</v>
       </c>
       <c r="E214" s="19"/>
     </row>
     <row r="215" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C215" s="19"/>
       <c r="D215" s="19" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E215" s="19"/>
     </row>
@@ -19147,13 +19263,13 @@
       <c r="C216" s="19"/>
       <c r="D216" s="19"/>
       <c r="E216" s="19" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="217" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C217" s="19"/>
       <c r="D217" s="19" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E217" s="19"/>
     </row>
@@ -19161,13 +19277,13 @@
       <c r="C218" s="19"/>
       <c r="D218" s="19"/>
       <c r="E218" s="19" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="219" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C219" s="19"/>
       <c r="D219" s="19" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E219" s="19"/>
     </row>
@@ -19175,7 +19291,7 @@
       <c r="C220" s="19"/>
       <c r="D220" s="19"/>
       <c r="E220" s="19" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="221" spans="3:5" x14ac:dyDescent="0.3">
@@ -19402,7 +19518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="S151" sqref="S151"/>
     </sheetView>
   </sheetViews>
@@ -20384,7 +20500,7 @@
     <row r="110" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C110" s="19"/>
       <c r="D110" s="19" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="111" spans="2:26" x14ac:dyDescent="0.3">
@@ -20476,7 +20592,7 @@
         <v>313</v>
       </c>
       <c r="C125" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D125" s="27"/>
       <c r="E125" s="27"/>
@@ -20504,33 +20620,33 @@
     </row>
     <row r="126" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C126" s="19" t="s">
+        <v>810</v>
+      </c>
+      <c r="D126" s="19" t="s">
         <v>811</v>
-      </c>
-      <c r="D126" s="19" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="127" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D127" s="19" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="128" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C128" s="19" t="s">
+        <v>812</v>
+      </c>
+      <c r="D128" s="19" t="s">
         <v>813</v>
-      </c>
-      <c r="D128" s="19" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D129" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D130" s="19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.3">

--- a/策划案/Java/IOT项目/IOT物联网平台.xlsx
+++ b/策划案/Java/IOT项目/IOT物联网平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="1160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="1161">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -2372,10 +2372,6 @@
   </si>
   <si>
     <t>设备数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ps:按照当前设计，一个传感器设备及一个产品，一套设备是一个群组，一个项目会卖出多套设备</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -6917,6 +6913,14 @@
   </si>
   <si>
     <t>设备只能绑定在叶子群组上</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于处于离线状态的设备，下发命令按钮置灰。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组名称可编辑。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -7546,6 +7550,24 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="9" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7590,24 +7612,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
@@ -9671,53 +9675,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>665094</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>151494</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="447675" y="4429125"/>
-          <a:ext cx="13247619" cy="7247619"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>551627</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>18379</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9728,7 +9694,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9749,13 +9715,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>447025</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>85415</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9766,7 +9732,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9804,7 +9770,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9842,7 +9808,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9863,13 +9829,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>455555</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>180070</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9880,7 +9846,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9918,7 +9884,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9927,6 +9893,44 @@
         <a:xfrm>
           <a:off x="581025" y="14963775"/>
           <a:ext cx="13095238" cy="7219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>769862</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>199118</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="4467225"/>
+          <a:ext cx="13304762" cy="7257143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9987,13 +9991,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>655613</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>103930</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10069,13 +10073,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>580369</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>113898</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10107,13 +10111,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>732737</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>190108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10143,20 +10147,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>703206</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>170569</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>160272</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>208659</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10169,8 +10173,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="238125" y="8629650"/>
-          <a:ext cx="13152381" cy="7047619"/>
+          <a:off x="476250" y="29127450"/>
+          <a:ext cx="13219047" cy="7123809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>807964</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>84836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="8896350"/>
+          <a:ext cx="13285714" cy="7114286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10184,55 +10226,17 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>314181</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>38056</xdr:rowOff>
+      <xdr:rowOff>123781</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1676400" y="8696325"/>
-          <a:ext cx="1152381" cy="352381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>160272</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>208659</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="10" name="图片 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10245,8 +10249,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="476250" y="29127450"/>
-          <a:ext cx="13219047" cy="7123809"/>
+          <a:off x="1676400" y="8991600"/>
+          <a:ext cx="1152381" cy="352381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10886,12 +10890,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -10900,11 +10904,11 @@
       <c r="C3" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="41" t="s">
-        <v>802</v>
+      <c r="E3" s="47" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10914,26 +10918,26 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="42"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="48"/>
     </row>
     <row r="5" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="43" t="s">
-        <v>803</v>
-      </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45"/>
+      <c r="C5" s="49" t="s">
+        <v>802</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="54"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -10942,10 +10946,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="35"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -10954,10 +10958,10 @@
       <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="50"/>
+      <c r="E8" s="35"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
@@ -10966,10 +10970,10 @@
       <c r="C9" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="E9" s="50"/>
+      <c r="E9" s="35"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
@@ -10978,10 +10982,10 @@
       <c r="C10" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="E10" s="50"/>
+      <c r="E10" s="35"/>
     </row>
     <row r="11" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
@@ -10990,34 +10994,34 @@
       <c r="C11" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="51" t="s">
-        <v>624</v>
-      </c>
-      <c r="E11" s="50"/>
+      <c r="D11" s="39" t="s">
+        <v>623</v>
+      </c>
+      <c r="E11" s="35"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
         <v>43966</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>870</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>804</v>
-      </c>
-      <c r="E12" s="50"/>
+        <v>869</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>803</v>
+      </c>
+      <c r="E12" s="35"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
         <v>43976</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>891</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>871</v>
-      </c>
-      <c r="E13" s="50"/>
+        <v>890</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>870</v>
+      </c>
+      <c r="E13" s="35"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="7">
@@ -11026,10 +11030,10 @@
       <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="49" t="s">
-        <v>892</v>
-      </c>
-      <c r="E14" s="50"/>
+      <c r="D14" s="34" t="s">
+        <v>891</v>
+      </c>
+      <c r="E14" s="35"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
@@ -11038,10 +11042,10 @@
       <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="49" t="s">
-        <v>931</v>
-      </c>
-      <c r="E15" s="50"/>
+      <c r="D15" s="34" t="s">
+        <v>930</v>
+      </c>
+      <c r="E15" s="35"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="7">
@@ -11050,10 +11054,10 @@
       <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="49" t="s">
-        <v>1056</v>
-      </c>
-      <c r="E16" s="50"/>
+      <c r="D16" s="34" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E16" s="35"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="7">
@@ -11062,103 +11066,99 @@
       <c r="C17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="49" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E17" s="50"/>
+      <c r="D17" s="34" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E17" s="35"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="7">
         <v>44027</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D18" s="34" t="s">
         <v>1151</v>
       </c>
-      <c r="D18" s="49" t="s">
-        <v>1152</v>
-      </c>
-      <c r="E18" s="50"/>
+      <c r="E18" s="35"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="50"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="50"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="50"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="50"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="37"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -11171,12 +11171,16 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -11202,10 +11206,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z246"/>
+  <dimension ref="A1:Z247"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11457,10 +11461,10 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C39" s="19" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D39" s="19" t="s">
         <v>1158</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
@@ -11526,984 +11530,984 @@
       <c r="Y42" s="27"/>
       <c r="Z42" s="27"/>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B77" s="25" t="s">
+    <row r="78" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B78" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="C77" s="26" t="s">
+      <c r="C78" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="27"/>
-      <c r="M77" s="27"/>
-      <c r="N77" s="27"/>
-      <c r="O77" s="27"/>
-      <c r="P77" s="27"/>
-      <c r="Q77" s="27"/>
-      <c r="R77" s="27"/>
-      <c r="S77" s="27"/>
-      <c r="T77" s="27"/>
-      <c r="U77" s="27"/>
-      <c r="V77" s="27"/>
-      <c r="W77" s="27"/>
-      <c r="X77" s="27"/>
-      <c r="Y77" s="27"/>
-      <c r="Z77" s="27"/>
-    </row>
-    <row r="78" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C78" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="D78" s="19" t="s">
-        <v>374</v>
-      </c>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="27"/>
+      <c r="L78" s="27"/>
+      <c r="M78" s="27"/>
+      <c r="N78" s="27"/>
+      <c r="O78" s="27"/>
+      <c r="P78" s="27"/>
+      <c r="Q78" s="27"/>
+      <c r="R78" s="27"/>
+      <c r="S78" s="27"/>
+      <c r="T78" s="27"/>
+      <c r="U78" s="27"/>
+      <c r="V78" s="27"/>
+      <c r="W78" s="27"/>
+      <c r="X78" s="27"/>
+      <c r="Y78" s="27"/>
+      <c r="Z78" s="27"/>
     </row>
     <row r="79" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C79" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="80" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C80" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="D79" s="19" t="s">
+      <c r="D80" s="19" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C80" s="19"/>
-      <c r="D80" s="19" t="s">
-        <v>1157</v>
-      </c>
-    </row>
     <row r="81" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C81" s="19" t="s">
-        <v>390</v>
-      </c>
+      <c r="C81" s="19"/>
       <c r="D81" s="19" t="s">
-        <v>391</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="82" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C82" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="83" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C83" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="D82" s="19" t="s">
+      <c r="D83" s="19" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="83" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B83" s="25" t="s">
+    <row r="84" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B84" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="C83" s="26" t="s">
+      <c r="C84" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="27"/>
-      <c r="M83" s="27"/>
-      <c r="N83" s="27"/>
-      <c r="O83" s="27"/>
-      <c r="P83" s="27"/>
-      <c r="Q83" s="27"/>
-      <c r="R83" s="27"/>
-      <c r="S83" s="27"/>
-      <c r="T83" s="27"/>
-      <c r="U83" s="27"/>
-      <c r="V83" s="27"/>
-      <c r="W83" s="27"/>
-      <c r="X83" s="27"/>
-      <c r="Y83" s="27"/>
-      <c r="Z83" s="27"/>
-    </row>
-    <row r="84" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C84" s="19" t="s">
-        <v>398</v>
-      </c>
-      <c r="D84" s="19" t="s">
-        <v>399</v>
-      </c>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="27"/>
+      <c r="K84" s="27"/>
+      <c r="L84" s="27"/>
+      <c r="M84" s="27"/>
+      <c r="N84" s="27"/>
+      <c r="O84" s="27"/>
+      <c r="P84" s="27"/>
+      <c r="Q84" s="27"/>
+      <c r="R84" s="27"/>
+      <c r="S84" s="27"/>
+      <c r="T84" s="27"/>
+      <c r="U84" s="27"/>
+      <c r="V84" s="27"/>
+      <c r="W84" s="27"/>
+      <c r="X84" s="27"/>
+      <c r="Y84" s="27"/>
+      <c r="Z84" s="27"/>
     </row>
     <row r="85" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C85" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="86" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C86" s="19"/>
+      <c r="D86" s="19" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="87" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C87" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="D85" s="19" t="s">
+      <c r="D87" s="19" t="s">
         <v>401</v>
-      </c>
-    </row>
-    <row r="86" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D86" s="19" t="s">
-        <v>402</v>
-      </c>
-      <c r="E86" s="19" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="87" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D87" s="19"/>
-      <c r="E87" s="20" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="88" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D88" s="19" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="89" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D89" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="E89" s="19" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="90" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D90" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="E90" s="19" t="s">
         <v>407</v>
       </c>
-      <c r="E89" s="19" t="s">
+    </row>
+    <row r="91" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C91" s="19" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="90" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C90" s="19" t="s">
+      <c r="D91" s="19" t="s">
         <v>409</v>
       </c>
-      <c r="D90" s="19" t="s">
+    </row>
+    <row r="92" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D92" s="19" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="93" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C93" s="19" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="91" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D91" s="19" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="92" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C92" s="19" t="s">
+      <c r="D93" s="19" t="s">
         <v>411</v>
-      </c>
-      <c r="D92" s="19" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="93" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D93" s="19" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="94" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D94" s="19" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="95" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B95" s="25" t="s">
+      <c r="D95" s="19" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="96" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B96" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="C96" s="26" t="s">
         <v>448</v>
       </c>
-      <c r="C95" s="26" t="s">
+      <c r="D96" s="26"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="27"/>
+      <c r="J96" s="27"/>
+      <c r="K96" s="27"/>
+      <c r="L96" s="27"/>
+      <c r="M96" s="27"/>
+      <c r="N96" s="27"/>
+      <c r="O96" s="27"/>
+      <c r="P96" s="27"/>
+      <c r="Q96" s="27"/>
+      <c r="R96" s="27"/>
+      <c r="S96" s="27"/>
+      <c r="T96" s="27"/>
+      <c r="U96" s="27"/>
+      <c r="V96" s="27"/>
+      <c r="W96" s="27"/>
+      <c r="X96" s="27"/>
+      <c r="Y96" s="27"/>
+      <c r="Z96" s="27"/>
+    </row>
+    <row r="97" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C97" s="19" t="s">
         <v>449</v>
       </c>
-      <c r="D95" s="26"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="27"/>
-      <c r="J95" s="27"/>
-      <c r="K95" s="27"/>
-      <c r="L95" s="27"/>
-      <c r="M95" s="27"/>
-      <c r="N95" s="27"/>
-      <c r="O95" s="27"/>
-      <c r="P95" s="27"/>
-      <c r="Q95" s="27"/>
-      <c r="R95" s="27"/>
-      <c r="S95" s="27"/>
-      <c r="T95" s="27"/>
-      <c r="U95" s="27"/>
-      <c r="V95" s="27"/>
-      <c r="W95" s="27"/>
-      <c r="X95" s="27"/>
-      <c r="Y95" s="27"/>
-      <c r="Z95" s="27"/>
-    </row>
-    <row r="96" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C96" s="19" t="s">
+      <c r="D97" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="D96" s="19" t="s">
+    </row>
+    <row r="98" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D98" s="19" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="97" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D97" s="19" t="s">
+    <row r="99" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C99" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="D99" s="19" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="98" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C98" s="19" t="s">
-        <v>422</v>
-      </c>
-      <c r="D98" s="19" t="s">
+    <row r="100" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D100" s="19" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="99" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D99" s="19" t="s">
+    <row r="101" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B101" s="25" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="100" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B100" s="25" t="s">
+      <c r="C101" s="26" t="s">
         <v>455</v>
       </c>
-      <c r="C100" s="26" t="s">
+      <c r="D101" s="26"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="27"/>
+      <c r="I101" s="27"/>
+      <c r="J101" s="27"/>
+      <c r="K101" s="27"/>
+      <c r="L101" s="27"/>
+      <c r="M101" s="27"/>
+      <c r="N101" s="27"/>
+      <c r="O101" s="27"/>
+      <c r="P101" s="27"/>
+      <c r="Q101" s="27"/>
+      <c r="R101" s="27"/>
+      <c r="S101" s="27"/>
+      <c r="T101" s="27"/>
+      <c r="U101" s="27"/>
+      <c r="V101" s="27"/>
+      <c r="W101" s="27"/>
+      <c r="X101" s="27"/>
+      <c r="Y101" s="27"/>
+      <c r="Z101" s="27"/>
+    </row>
+    <row r="102" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C102" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="D100" s="26"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="27"/>
-      <c r="J100" s="27"/>
-      <c r="K100" s="27"/>
-      <c r="L100" s="27"/>
-      <c r="M100" s="27"/>
-      <c r="N100" s="27"/>
-      <c r="O100" s="27"/>
-      <c r="P100" s="27"/>
-      <c r="Q100" s="27"/>
-      <c r="R100" s="27"/>
-      <c r="S100" s="27"/>
-      <c r="T100" s="27"/>
-      <c r="U100" s="27"/>
-      <c r="V100" s="27"/>
-      <c r="W100" s="27"/>
-      <c r="X100" s="27"/>
-      <c r="Y100" s="27"/>
-      <c r="Z100" s="27"/>
-    </row>
-    <row r="101" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C101" s="19" t="s">
+      <c r="D102" s="19" t="s">
         <v>457</v>
       </c>
-      <c r="D101" s="19" t="s">
+    </row>
+    <row r="103" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D103" s="19" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="102" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D102" s="19" t="s">
+    <row r="104" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C104" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="D104" s="19" t="s">
         <v>459</v>
-      </c>
-    </row>
-    <row r="103" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C103" s="19" t="s">
-        <v>385</v>
-      </c>
-      <c r="D103" s="19" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="104" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C104" s="19"/>
-      <c r="D104" s="19" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="105" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C105" s="19"/>
       <c r="D105" s="19" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="106" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C106" s="19"/>
+      <c r="D106" s="19" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="107" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C107" s="19" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="106" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C106" s="19" t="s">
+      <c r="D107" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="D106" s="19" t="s">
+    </row>
+    <row r="108" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C108" s="19"/>
+      <c r="D108" s="19" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="107" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C107" s="19"/>
-      <c r="D107" s="19" t="s">
+    <row r="109" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C109" s="19" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="108" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C108" s="19" t="s">
+      <c r="D109" s="19" t="s">
         <v>466</v>
-      </c>
-      <c r="D108" s="19" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="109" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C109" s="19"/>
-      <c r="D109" s="19" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="110" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C110" s="19"/>
       <c r="D110" s="19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="111" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C111" s="19"/>
+      <c r="D111" s="19" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="112" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C112" s="19" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="111" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C111" s="19" t="s">
+      <c r="D112" s="19" t="s">
         <v>470</v>
-      </c>
-      <c r="D111" s="19" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="112" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C112" s="19"/>
-      <c r="D112" s="19" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C113" s="19"/>
       <c r="D113" s="19" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D114" s="19"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A115" s="17" t="s">
+      <c r="D115" s="19"/>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A116" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="B115" s="17" t="s">
+      <c r="B116" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="13"/>
+      <c r="J116" s="13"/>
+      <c r="K116" s="13"/>
+      <c r="L116" s="13"/>
+      <c r="M116" s="13"/>
+      <c r="N116" s="13"/>
+      <c r="O116" s="13"/>
+      <c r="P116" s="13"/>
+      <c r="Q116" s="13"/>
+      <c r="R116" s="13"/>
+      <c r="S116" s="13"/>
+      <c r="T116" s="13"/>
+      <c r="U116" s="13"/>
+      <c r="V116" s="13"/>
+      <c r="W116" s="13"/>
+      <c r="X116" s="13"/>
+      <c r="Y116" s="13"/>
+      <c r="Z116" s="13"/>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B117" s="25" t="s">
         <v>415</v>
       </c>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="13"/>
-      <c r="I115" s="13"/>
-      <c r="J115" s="13"/>
-      <c r="K115" s="13"/>
-      <c r="L115" s="13"/>
-      <c r="M115" s="13"/>
-      <c r="N115" s="13"/>
-      <c r="O115" s="13"/>
-      <c r="P115" s="13"/>
-      <c r="Q115" s="13"/>
-      <c r="R115" s="13"/>
-      <c r="S115" s="13"/>
-      <c r="T115" s="13"/>
-      <c r="U115" s="13"/>
-      <c r="V115" s="13"/>
-      <c r="W115" s="13"/>
-      <c r="X115" s="13"/>
-      <c r="Y115" s="13"/>
-      <c r="Z115" s="13"/>
-    </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B116" s="25" t="s">
+      <c r="C117" s="26" t="s">
         <v>416</v>
       </c>
-      <c r="C116" s="26" t="s">
+      <c r="D117" s="27"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="27"/>
+      <c r="G117" s="27"/>
+      <c r="H117" s="27"/>
+      <c r="I117" s="27"/>
+      <c r="J117" s="27"/>
+      <c r="K117" s="27"/>
+      <c r="L117" s="27"/>
+      <c r="M117" s="27"/>
+      <c r="N117" s="27"/>
+      <c r="O117" s="27"/>
+      <c r="P117" s="27"/>
+      <c r="Q117" s="27"/>
+      <c r="R117" s="27"/>
+      <c r="S117" s="27"/>
+      <c r="T117" s="27"/>
+      <c r="U117" s="27"/>
+      <c r="V117" s="27"/>
+      <c r="W117" s="27"/>
+      <c r="X117" s="27"/>
+      <c r="Y117" s="27"/>
+      <c r="Z117" s="27"/>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B129" s="18"/>
+      <c r="C129" s="19"/>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B135" s="25" t="s">
         <v>417</v>
       </c>
-      <c r="D116" s="27"/>
-      <c r="E116" s="27"/>
-      <c r="F116" s="27"/>
-      <c r="G116" s="27"/>
-      <c r="H116" s="27"/>
-      <c r="I116" s="27"/>
-      <c r="J116" s="27"/>
-      <c r="K116" s="27"/>
-      <c r="L116" s="27"/>
-      <c r="M116" s="27"/>
-      <c r="N116" s="27"/>
-      <c r="O116" s="27"/>
-      <c r="P116" s="27"/>
-      <c r="Q116" s="27"/>
-      <c r="R116" s="27"/>
-      <c r="S116" s="27"/>
-      <c r="T116" s="27"/>
-      <c r="U116" s="27"/>
-      <c r="V116" s="27"/>
-      <c r="W116" s="27"/>
-      <c r="X116" s="27"/>
-      <c r="Y116" s="27"/>
-      <c r="Z116" s="27"/>
-    </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B128" s="18"/>
-      <c r="C128" s="19"/>
-    </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B134" s="25" t="s">
+      <c r="C135" s="26" t="s">
         <v>418</v>
       </c>
-      <c r="C134" s="26" t="s">
+      <c r="D135" s="27"/>
+      <c r="E135" s="27"/>
+      <c r="F135" s="27"/>
+      <c r="G135" s="27"/>
+      <c r="H135" s="27"/>
+      <c r="I135" s="27"/>
+      <c r="J135" s="27"/>
+      <c r="K135" s="27"/>
+      <c r="L135" s="27"/>
+      <c r="M135" s="27"/>
+      <c r="N135" s="27"/>
+      <c r="O135" s="27"/>
+      <c r="P135" s="27"/>
+      <c r="Q135" s="27"/>
+      <c r="R135" s="27"/>
+      <c r="S135" s="27"/>
+      <c r="T135" s="27"/>
+      <c r="U135" s="27"/>
+      <c r="V135" s="27"/>
+      <c r="W135" s="27"/>
+      <c r="X135" s="27"/>
+      <c r="Y135" s="27"/>
+      <c r="Z135" s="27"/>
+    </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C136" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="D136" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="D134" s="27"/>
-      <c r="E134" s="27"/>
-      <c r="F134" s="27"/>
-      <c r="G134" s="27"/>
-      <c r="H134" s="27"/>
-      <c r="I134" s="27"/>
-      <c r="J134" s="27"/>
-      <c r="K134" s="27"/>
-      <c r="L134" s="27"/>
-      <c r="M134" s="27"/>
-      <c r="N134" s="27"/>
-      <c r="O134" s="27"/>
-      <c r="P134" s="27"/>
-      <c r="Q134" s="27"/>
-      <c r="R134" s="27"/>
-      <c r="S134" s="27"/>
-      <c r="T134" s="27"/>
-      <c r="U134" s="27"/>
-      <c r="V134" s="27"/>
-      <c r="W134" s="27"/>
-      <c r="X134" s="27"/>
-      <c r="Y134" s="27"/>
-      <c r="Z134" s="27"/>
-    </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C135" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="D135" s="19" t="s">
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D137" s="19" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D136" s="19" t="s">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C138" s="19" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C137" s="19" t="s">
+      <c r="D138" s="19" t="s">
         <v>422</v>
-      </c>
-      <c r="D137" s="19" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D138" s="19" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D139" s="19" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D140" s="19" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A141" s="17" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A140" s="17" t="s">
+      <c r="B141" s="17" t="s">
         <v>426</v>
       </c>
-      <c r="B140" s="17" t="s">
+      <c r="C141" s="13"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="13"/>
+      <c r="I141" s="13"/>
+      <c r="J141" s="13"/>
+      <c r="K141" s="13"/>
+      <c r="L141" s="13"/>
+      <c r="M141" s="13"/>
+      <c r="N141" s="13"/>
+      <c r="O141" s="13"/>
+      <c r="P141" s="13"/>
+      <c r="Q141" s="13"/>
+      <c r="R141" s="13"/>
+      <c r="S141" s="13"/>
+      <c r="T141" s="13"/>
+      <c r="U141" s="13"/>
+      <c r="V141" s="13"/>
+      <c r="W141" s="13"/>
+      <c r="X141" s="13"/>
+      <c r="Y141" s="13"/>
+      <c r="Z141" s="13"/>
+    </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B142" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C142" s="26" t="s">
         <v>427</v>
       </c>
-      <c r="C140" s="13"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="13"/>
-      <c r="F140" s="13"/>
-      <c r="G140" s="13"/>
-      <c r="H140" s="13"/>
-      <c r="I140" s="13"/>
-      <c r="J140" s="13"/>
-      <c r="K140" s="13"/>
-      <c r="L140" s="13"/>
-      <c r="M140" s="13"/>
-      <c r="N140" s="13"/>
-      <c r="O140" s="13"/>
-      <c r="P140" s="13"/>
-      <c r="Q140" s="13"/>
-      <c r="R140" s="13"/>
-      <c r="S140" s="13"/>
-      <c r="T140" s="13"/>
-      <c r="U140" s="13"/>
-      <c r="V140" s="13"/>
-      <c r="W140" s="13"/>
-      <c r="X140" s="13"/>
-      <c r="Y140" s="13"/>
-      <c r="Z140" s="13"/>
-    </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B141" s="25" t="s">
+      <c r="D142" s="27"/>
+      <c r="E142" s="27"/>
+      <c r="F142" s="27"/>
+      <c r="G142" s="27"/>
+      <c r="H142" s="27"/>
+      <c r="I142" s="27"/>
+      <c r="J142" s="27"/>
+      <c r="K142" s="27"/>
+      <c r="L142" s="27"/>
+      <c r="M142" s="27"/>
+      <c r="N142" s="27"/>
+      <c r="O142" s="27"/>
+      <c r="P142" s="27"/>
+      <c r="Q142" s="27"/>
+      <c r="R142" s="27"/>
+      <c r="S142" s="27"/>
+      <c r="T142" s="27"/>
+      <c r="U142" s="27"/>
+      <c r="V142" s="27"/>
+      <c r="W142" s="27"/>
+      <c r="X142" s="27"/>
+      <c r="Y142" s="27"/>
+      <c r="Z142" s="27"/>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B148" s="18"/>
+      <c r="C148" s="19"/>
+    </row>
+    <row r="177" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B177" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="C177" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D177" s="27"/>
+      <c r="E177" s="27"/>
+      <c r="F177" s="27"/>
+      <c r="G177" s="27"/>
+      <c r="H177" s="27"/>
+      <c r="I177" s="27"/>
+      <c r="J177" s="27"/>
+      <c r="K177" s="27"/>
+      <c r="L177" s="27"/>
+      <c r="M177" s="27"/>
+      <c r="N177" s="27"/>
+      <c r="O177" s="27"/>
+      <c r="P177" s="27"/>
+      <c r="Q177" s="27"/>
+      <c r="R177" s="27"/>
+      <c r="S177" s="27"/>
+      <c r="T177" s="27"/>
+      <c r="U177" s="27"/>
+      <c r="V177" s="27"/>
+      <c r="W177" s="27"/>
+      <c r="X177" s="27"/>
+      <c r="Y177" s="27"/>
+      <c r="Z177" s="27"/>
+    </row>
+    <row r="178" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C178" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D178" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="179" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C179" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D179" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="180" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C180" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D180" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="181" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C181" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D181" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="182" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D182" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="183" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D183" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="184" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E184" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="185" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B185" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="C185" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D185" s="27"/>
+      <c r="E185" s="27"/>
+      <c r="F185" s="27"/>
+      <c r="G185" s="27"/>
+      <c r="H185" s="27"/>
+      <c r="I185" s="27"/>
+      <c r="J185" s="27"/>
+      <c r="K185" s="27"/>
+      <c r="L185" s="27"/>
+      <c r="M185" s="27"/>
+      <c r="N185" s="27"/>
+      <c r="O185" s="27"/>
+      <c r="P185" s="27"/>
+      <c r="Q185" s="27"/>
+      <c r="R185" s="27"/>
+      <c r="S185" s="27"/>
+      <c r="T185" s="27"/>
+      <c r="U185" s="27"/>
+      <c r="V185" s="27"/>
+      <c r="W185" s="27"/>
+      <c r="X185" s="27"/>
+      <c r="Y185" s="27"/>
+      <c r="Z185" s="27"/>
+    </row>
+    <row r="186" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C186" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="187" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B187" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="C187" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D187" s="27"/>
+      <c r="E187" s="27"/>
+      <c r="F187" s="27"/>
+      <c r="G187" s="27"/>
+      <c r="H187" s="27"/>
+      <c r="I187" s="27"/>
+      <c r="J187" s="27"/>
+      <c r="K187" s="27"/>
+      <c r="L187" s="27"/>
+      <c r="M187" s="27"/>
+      <c r="N187" s="27"/>
+      <c r="O187" s="27"/>
+      <c r="P187" s="27"/>
+      <c r="Q187" s="27"/>
+      <c r="R187" s="27"/>
+      <c r="S187" s="27"/>
+      <c r="T187" s="27"/>
+      <c r="U187" s="27"/>
+      <c r="V187" s="27"/>
+      <c r="W187" s="27"/>
+      <c r="X187" s="27"/>
+      <c r="Y187" s="27"/>
+      <c r="Z187" s="27"/>
+    </row>
+    <row r="188" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C188" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="189" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B189" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="C189" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D189" s="27"/>
+      <c r="E189" s="27"/>
+      <c r="F189" s="27"/>
+      <c r="G189" s="27"/>
+      <c r="H189" s="27"/>
+      <c r="I189" s="27"/>
+      <c r="J189" s="27"/>
+      <c r="K189" s="27"/>
+      <c r="L189" s="27"/>
+      <c r="M189" s="27"/>
+      <c r="N189" s="27"/>
+      <c r="O189" s="27"/>
+      <c r="P189" s="27"/>
+      <c r="Q189" s="27"/>
+      <c r="R189" s="27"/>
+      <c r="S189" s="27"/>
+      <c r="T189" s="27"/>
+      <c r="U189" s="27"/>
+      <c r="V189" s="27"/>
+      <c r="W189" s="27"/>
+      <c r="X189" s="27"/>
+      <c r="Y189" s="27"/>
+      <c r="Z189" s="27"/>
+    </row>
+    <row r="190" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C190" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="191" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C191" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="193" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A193" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="B193" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C193" s="13"/>
+      <c r="D193" s="13"/>
+      <c r="E193" s="13"/>
+      <c r="F193" s="13"/>
+      <c r="G193" s="13"/>
+      <c r="H193" s="13"/>
+      <c r="I193" s="13"/>
+      <c r="J193" s="13"/>
+      <c r="K193" s="13"/>
+      <c r="L193" s="13"/>
+      <c r="M193" s="13"/>
+      <c r="N193" s="13"/>
+      <c r="O193" s="13"/>
+      <c r="P193" s="13"/>
+      <c r="Q193" s="13"/>
+      <c r="R193" s="13"/>
+      <c r="S193" s="13"/>
+      <c r="T193" s="13"/>
+      <c r="U193" s="13"/>
+      <c r="V193" s="13"/>
+      <c r="W193" s="13"/>
+      <c r="X193" s="13"/>
+      <c r="Y193" s="13"/>
+      <c r="Z193" s="13"/>
+    </row>
+    <row r="194" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B194" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="C141" s="26" t="s">
+      <c r="C194" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="D194" s="27"/>
+      <c r="E194" s="27"/>
+      <c r="F194" s="27"/>
+      <c r="G194" s="27"/>
+      <c r="H194" s="27"/>
+      <c r="I194" s="27"/>
+      <c r="J194" s="27"/>
+      <c r="K194" s="27"/>
+      <c r="L194" s="27"/>
+      <c r="M194" s="27"/>
+      <c r="N194" s="27"/>
+      <c r="O194" s="27"/>
+      <c r="P194" s="27"/>
+      <c r="Q194" s="27"/>
+      <c r="R194" s="27"/>
+      <c r="S194" s="27"/>
+      <c r="T194" s="27"/>
+      <c r="U194" s="27"/>
+      <c r="V194" s="27"/>
+      <c r="W194" s="27"/>
+      <c r="X194" s="27"/>
+      <c r="Y194" s="27"/>
+      <c r="Z194" s="27"/>
+    </row>
+    <row r="228" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B228" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="D141" s="27"/>
-      <c r="E141" s="27"/>
-      <c r="F141" s="27"/>
-      <c r="G141" s="27"/>
-      <c r="H141" s="27"/>
-      <c r="I141" s="27"/>
-      <c r="J141" s="27"/>
-      <c r="K141" s="27"/>
-      <c r="L141" s="27"/>
-      <c r="M141" s="27"/>
-      <c r="N141" s="27"/>
-      <c r="O141" s="27"/>
-      <c r="P141" s="27"/>
-      <c r="Q141" s="27"/>
-      <c r="R141" s="27"/>
-      <c r="S141" s="27"/>
-      <c r="T141" s="27"/>
-      <c r="U141" s="27"/>
-      <c r="V141" s="27"/>
-      <c r="W141" s="27"/>
-      <c r="X141" s="27"/>
-      <c r="Y141" s="27"/>
-      <c r="Z141" s="27"/>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B147" s="18"/>
-      <c r="C147" s="19"/>
-    </row>
-    <row r="176" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B176" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="C176" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="D176" s="27"/>
-      <c r="E176" s="27"/>
-      <c r="F176" s="27"/>
-      <c r="G176" s="27"/>
-      <c r="H176" s="27"/>
-      <c r="I176" s="27"/>
-      <c r="J176" s="27"/>
-      <c r="K176" s="27"/>
-      <c r="L176" s="27"/>
-      <c r="M176" s="27"/>
-      <c r="N176" s="27"/>
-      <c r="O176" s="27"/>
-      <c r="P176" s="27"/>
-      <c r="Q176" s="27"/>
-      <c r="R176" s="27"/>
-      <c r="S176" s="27"/>
-      <c r="T176" s="27"/>
-      <c r="U176" s="27"/>
-      <c r="V176" s="27"/>
-      <c r="W176" s="27"/>
-      <c r="X176" s="27"/>
-      <c r="Y176" s="27"/>
-      <c r="Z176" s="27"/>
-    </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C177" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D177" s="19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C178" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D178" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C179" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D179" s="19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C180" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D180" s="19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D181" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D182" s="19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="E183" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B184" s="25" t="s">
-        <v>431</v>
-      </c>
-      <c r="C184" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="D184" s="27"/>
-      <c r="E184" s="27"/>
-      <c r="F184" s="27"/>
-      <c r="G184" s="27"/>
-      <c r="H184" s="27"/>
-      <c r="I184" s="27"/>
-      <c r="J184" s="27"/>
-      <c r="K184" s="27"/>
-      <c r="L184" s="27"/>
-      <c r="M184" s="27"/>
-      <c r="N184" s="27"/>
-      <c r="O184" s="27"/>
-      <c r="P184" s="27"/>
-      <c r="Q184" s="27"/>
-      <c r="R184" s="27"/>
-      <c r="S184" s="27"/>
-      <c r="T184" s="27"/>
-      <c r="U184" s="27"/>
-      <c r="V184" s="27"/>
-      <c r="W184" s="27"/>
-      <c r="X184" s="27"/>
-      <c r="Y184" s="27"/>
-      <c r="Z184" s="27"/>
-    </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C185" s="19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B186" s="25" t="s">
-        <v>432</v>
-      </c>
-      <c r="C186" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D186" s="27"/>
-      <c r="E186" s="27"/>
-      <c r="F186" s="27"/>
-      <c r="G186" s="27"/>
-      <c r="H186" s="27"/>
-      <c r="I186" s="27"/>
-      <c r="J186" s="27"/>
-      <c r="K186" s="27"/>
-      <c r="L186" s="27"/>
-      <c r="M186" s="27"/>
-      <c r="N186" s="27"/>
-      <c r="O186" s="27"/>
-      <c r="P186" s="27"/>
-      <c r="Q186" s="27"/>
-      <c r="R186" s="27"/>
-      <c r="S186" s="27"/>
-      <c r="T186" s="27"/>
-      <c r="U186" s="27"/>
-      <c r="V186" s="27"/>
-      <c r="W186" s="27"/>
-      <c r="X186" s="27"/>
-      <c r="Y186" s="27"/>
-      <c r="Z186" s="27"/>
-    </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C187" s="19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B188" s="25" t="s">
-        <v>433</v>
-      </c>
-      <c r="C188" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D188" s="27"/>
-      <c r="E188" s="27"/>
-      <c r="F188" s="27"/>
-      <c r="G188" s="27"/>
-      <c r="H188" s="27"/>
-      <c r="I188" s="27"/>
-      <c r="J188" s="27"/>
-      <c r="K188" s="27"/>
-      <c r="L188" s="27"/>
-      <c r="M188" s="27"/>
-      <c r="N188" s="27"/>
-      <c r="O188" s="27"/>
-      <c r="P188" s="27"/>
-      <c r="Q188" s="27"/>
-      <c r="R188" s="27"/>
-      <c r="S188" s="27"/>
-      <c r="T188" s="27"/>
-      <c r="U188" s="27"/>
-      <c r="V188" s="27"/>
-      <c r="W188" s="27"/>
-      <c r="X188" s="27"/>
-      <c r="Y188" s="27"/>
-      <c r="Z188" s="27"/>
-    </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C189" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C190" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A192" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="B192" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C192" s="13"/>
-      <c r="D192" s="13"/>
-      <c r="E192" s="13"/>
-      <c r="F192" s="13"/>
-      <c r="G192" s="13"/>
-      <c r="H192" s="13"/>
-      <c r="I192" s="13"/>
-      <c r="J192" s="13"/>
-      <c r="K192" s="13"/>
-      <c r="L192" s="13"/>
-      <c r="M192" s="13"/>
-      <c r="N192" s="13"/>
-      <c r="O192" s="13"/>
-      <c r="P192" s="13"/>
-      <c r="Q192" s="13"/>
-      <c r="R192" s="13"/>
-      <c r="S192" s="13"/>
-      <c r="T192" s="13"/>
-      <c r="U192" s="13"/>
-      <c r="V192" s="13"/>
-      <c r="W192" s="13"/>
-      <c r="X192" s="13"/>
-      <c r="Y192" s="13"/>
-      <c r="Z192" s="13"/>
-    </row>
-    <row r="193" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B193" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C193" s="26" t="s">
+      <c r="C228" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="D228" s="27"/>
+      <c r="E228" s="27"/>
+      <c r="F228" s="27"/>
+      <c r="G228" s="27"/>
+      <c r="H228" s="27"/>
+      <c r="I228" s="27"/>
+      <c r="J228" s="27"/>
+      <c r="K228" s="27"/>
+      <c r="L228" s="27"/>
+      <c r="M228" s="27"/>
+      <c r="N228" s="27"/>
+      <c r="O228" s="27"/>
+      <c r="P228" s="27"/>
+      <c r="Q228" s="27"/>
+      <c r="R228" s="27"/>
+      <c r="S228" s="27"/>
+      <c r="T228" s="27"/>
+      <c r="U228" s="27"/>
+      <c r="V228" s="27"/>
+      <c r="W228" s="27"/>
+      <c r="X228" s="27"/>
+      <c r="Y228" s="27"/>
+      <c r="Z228" s="27"/>
+    </row>
+    <row r="229" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B229" s="18"/>
+      <c r="C229" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="D229" s="19" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="230" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D230" s="19" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="231" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C231" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="D231" s="19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="232" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C232" s="19"/>
+      <c r="D232" s="19" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="233" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B233" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="C233" s="26" t="s">
         <v>434</v>
       </c>
-      <c r="D193" s="27"/>
-      <c r="E193" s="27"/>
-      <c r="F193" s="27"/>
-      <c r="G193" s="27"/>
-      <c r="H193" s="27"/>
-      <c r="I193" s="27"/>
-      <c r="J193" s="27"/>
-      <c r="K193" s="27"/>
-      <c r="L193" s="27"/>
-      <c r="M193" s="27"/>
-      <c r="N193" s="27"/>
-      <c r="O193" s="27"/>
-      <c r="P193" s="27"/>
-      <c r="Q193" s="27"/>
-      <c r="R193" s="27"/>
-      <c r="S193" s="27"/>
-      <c r="T193" s="27"/>
-      <c r="U193" s="27"/>
-      <c r="V193" s="27"/>
-      <c r="W193" s="27"/>
-      <c r="X193" s="27"/>
-      <c r="Y193" s="27"/>
-      <c r="Z193" s="27"/>
-    </row>
-    <row r="227" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B227" s="25" t="s">
-        <v>429</v>
-      </c>
-      <c r="C227" s="26" t="s">
-        <v>441</v>
-      </c>
-      <c r="D227" s="27"/>
-      <c r="E227" s="27"/>
-      <c r="F227" s="27"/>
-      <c r="G227" s="27"/>
-      <c r="H227" s="27"/>
-      <c r="I227" s="27"/>
-      <c r="J227" s="27"/>
-      <c r="K227" s="27"/>
-      <c r="L227" s="27"/>
-      <c r="M227" s="27"/>
-      <c r="N227" s="27"/>
-      <c r="O227" s="27"/>
-      <c r="P227" s="27"/>
-      <c r="Q227" s="27"/>
-      <c r="R227" s="27"/>
-      <c r="S227" s="27"/>
-      <c r="T227" s="27"/>
-      <c r="U227" s="27"/>
-      <c r="V227" s="27"/>
-      <c r="W227" s="27"/>
-      <c r="X227" s="27"/>
-      <c r="Y227" s="27"/>
-      <c r="Z227" s="27"/>
-    </row>
-    <row r="228" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B228" s="18"/>
-      <c r="C228" s="19" t="s">
-        <v>398</v>
-      </c>
-      <c r="D228" s="19" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="229" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D229" s="19" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="230" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C230" s="19" t="s">
-        <v>444</v>
-      </c>
-      <c r="D230" s="19" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="231" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C231" s="19"/>
-      <c r="D231" s="19" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="232" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B232" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="C232" s="26" t="s">
+      <c r="D233" s="27"/>
+      <c r="E233" s="27"/>
+      <c r="F233" s="27"/>
+      <c r="G233" s="27"/>
+      <c r="H233" s="27"/>
+      <c r="I233" s="27"/>
+      <c r="J233" s="27"/>
+      <c r="K233" s="27"/>
+      <c r="L233" s="27"/>
+      <c r="M233" s="27"/>
+      <c r="N233" s="27"/>
+      <c r="O233" s="27"/>
+      <c r="P233" s="27"/>
+      <c r="Q233" s="27"/>
+      <c r="R233" s="27"/>
+      <c r="S233" s="27"/>
+      <c r="T233" s="27"/>
+      <c r="U233" s="27"/>
+      <c r="V233" s="27"/>
+      <c r="W233" s="27"/>
+      <c r="X233" s="27"/>
+      <c r="Y233" s="27"/>
+      <c r="Z233" s="27"/>
+    </row>
+    <row r="234" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C234" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D234" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="235" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D235" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="236" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C236" s="18" t="s">
         <v>435</v>
       </c>
-      <c r="D232" s="27"/>
-      <c r="E232" s="27"/>
-      <c r="F232" s="27"/>
-      <c r="G232" s="27"/>
-      <c r="H232" s="27"/>
-      <c r="I232" s="27"/>
-      <c r="J232" s="27"/>
-      <c r="K232" s="27"/>
-      <c r="L232" s="27"/>
-      <c r="M232" s="27"/>
-      <c r="N232" s="27"/>
-      <c r="O232" s="27"/>
-      <c r="P232" s="27"/>
-      <c r="Q232" s="27"/>
-      <c r="R232" s="27"/>
-      <c r="S232" s="27"/>
-      <c r="T232" s="27"/>
-      <c r="U232" s="27"/>
-      <c r="V232" s="27"/>
-      <c r="W232" s="27"/>
-      <c r="X232" s="27"/>
-      <c r="Y232" s="27"/>
-      <c r="Z232" s="27"/>
-    </row>
-    <row r="233" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C233" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="D233" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="234" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D234" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="235" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C235" s="18" t="s">
-        <v>436</v>
-      </c>
-      <c r="D235" s="19" t="s">
+      <c r="D236" s="19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="236" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C236" s="18"/>
-      <c r="D236" s="19" t="s">
+    <row r="237" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C237" s="18"/>
+      <c r="D237" s="19" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="237" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D237" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="238" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D238" s="19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="239" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D239" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="240" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D240" s="19" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="240" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C240" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="D240" s="19" t="s">
+    <row r="241" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C241" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="D241" s="19" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="241" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D241" s="19" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="242" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D242" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="243" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D243" s="19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="243" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C243" s="18" t="s">
+    <row r="244" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C244" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="D244" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="245" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D245" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="246" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C246" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="D243" s="19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="244" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D244" s="19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="245" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C245" s="18" t="s">
-        <v>439</v>
-      </c>
-      <c r="D245" s="19" t="s">
+      <c r="D246" s="19" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="246" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D246" s="19" t="s">
+    <row r="247" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D247" s="19" t="s">
         <v>128</v>
       </c>
     </row>
@@ -12519,7 +12523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="X195" sqref="X195"/>
     </sheetView>
   </sheetViews>
@@ -12532,10 +12536,10 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>474</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>475</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -12567,7 +12571,7 @@
         <v>230</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -12595,20 +12599,20 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C3" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C4" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -12637,13 +12641,13 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
       <c r="C7" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
@@ -12651,134 +12655,134 @@
         <v>91</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C9" s="19"/>
       <c r="D9" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>478</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E10" s="19" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D11" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>483</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D12" s="19"/>
       <c r="E12" s="19" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C13" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>481</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D14" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>478</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E15" s="19" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D16" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>483</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E17" s="19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C18" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D19" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="E19" s="19" t="s">
         <v>487</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E20" s="19" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E21" s="19" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D22" s="19" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E23" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C24" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="D24" s="19" t="s">
         <v>494</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>495</v>
       </c>
       <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D25" s="19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D26" s="19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D27" s="19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E27" s="19"/>
     </row>
@@ -12788,7 +12792,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>228</v>
@@ -12820,25 +12824,25 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B30" s="19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B31" s="19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B32" s="19" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -12867,46 +12871,46 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>563</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B57" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="C57" s="19" t="s">
         <v>565</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C58" s="19" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C59" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B60" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="C60" s="19" t="s">
         <v>569</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C61" s="19" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B64" s="17" t="s">
         <v>248</v>
@@ -12938,10 +12942,10 @@
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
@@ -12970,22 +12974,22 @@
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C111" s="19" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D112" s="19" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D113" s="19" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D114" s="19" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.3">
@@ -12993,7 +12997,7 @@
         <v>377</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C116" s="13"/>
       <c r="D116" s="13"/>
@@ -13022,10 +13026,10 @@
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B117" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="C117" s="26" t="s">
         <v>512</v>
-      </c>
-      <c r="C117" s="26" t="s">
-        <v>513</v>
       </c>
       <c r="D117" s="27"/>
       <c r="E117" s="27"/>
@@ -13053,10 +13057,10 @@
     </row>
     <row r="153" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B153" s="25" t="s">
+        <v>514</v>
+      </c>
+      <c r="C153" s="26" t="s">
         <v>515</v>
-      </c>
-      <c r="C153" s="26" t="s">
-        <v>516</v>
       </c>
       <c r="D153" s="27"/>
       <c r="E153" s="27"/>
@@ -13084,190 +13088,190 @@
     </row>
     <row r="154" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C154" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="D154" s="19" t="s">
         <v>522</v>
-      </c>
-      <c r="D154" s="19" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="155" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D155" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F155" s="19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="156" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D156" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F156" s="19" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="157" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D157" s="19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F157" s="19" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="158" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C158" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="D158" s="19" t="s">
         <v>524</v>
-      </c>
-      <c r="D158" s="19" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="159" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D159" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F159" s="19" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="160" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D160" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F160" s="19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="161" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C161" s="19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D161" s="19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="162" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D162" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F162" s="19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E163" s="19" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="164" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E164" s="19" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E165" s="19" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D166" s="19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F166" s="19" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E167" s="19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="168" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E168" s="19" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="169" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D169" s="19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E169" s="19" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="170" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D170" s="19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E170" s="19" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="171" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C171" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="D171" s="19" t="s">
         <v>536</v>
-      </c>
-      <c r="D171" s="19" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="172" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D172" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F172" s="19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="173" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D173" s="19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F173" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="174" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C174" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="D174" s="19" t="s">
         <v>551</v>
-      </c>
-      <c r="D174" s="19" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="175" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D175" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="E175" s="19" t="s">
         <v>553</v>
-      </c>
-      <c r="E175" s="19" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D176" s="19"/>
       <c r="E176" s="19" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="177" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D177" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="E177" s="19" t="s">
         <v>556</v>
-      </c>
-      <c r="E177" s="19" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="178" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E178" s="19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="180" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B180" s="25" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C180" s="26" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D180" s="27"/>
       <c r="E180" s="27"/>
@@ -13295,61 +13299,61 @@
     </row>
     <row r="181" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C181" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D181" s="19" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="182" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D182" s="19" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="183" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D183" s="19" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="184" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C184" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="D184" s="19" t="s">
         <v>576</v>
-      </c>
-      <c r="D184" s="19" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="185" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D185" s="19" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="186" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C186" s="19" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D186" s="19" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="187" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D187" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="E187" s="19" t="s">
         <v>582</v>
-      </c>
-      <c r="E187" s="19" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="188" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C188" s="19"/>
       <c r="E188" s="19" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="189" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C189" s="19"/>
       <c r="E189" s="19" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="190" spans="2:26" x14ac:dyDescent="0.3">
@@ -13376,58 +13380,58 @@
       <c r="C195" s="19"/>
       <c r="E195" s="19"/>
       <c r="F195" s="19" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="196" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C196" s="19"/>
       <c r="E196" s="19"/>
       <c r="F196" s="19" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="197" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D197" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="E197" s="19" t="s">
         <v>584</v>
-      </c>
-      <c r="E197" s="19" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="198" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E198" s="19" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="199" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E199" s="19" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="200" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F200" s="19" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="201" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E201" s="19" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="202" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F202" s="19" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="203" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E203" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="204" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E204" s="19"/>
       <c r="F204" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="205" spans="3:6" x14ac:dyDescent="0.3">
@@ -13447,185 +13451,185 @@
     </row>
     <row r="210" spans="3:8" x14ac:dyDescent="0.3">
       <c r="F210" s="19" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="211" spans="3:8" x14ac:dyDescent="0.3">
       <c r="F211" s="19" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="212" spans="3:8" x14ac:dyDescent="0.3">
       <c r="F212" s="19" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="213" spans="3:8" x14ac:dyDescent="0.3">
       <c r="F213" s="19" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="214" spans="3:8" x14ac:dyDescent="0.3">
       <c r="F214" s="19" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="215" spans="3:8" x14ac:dyDescent="0.3">
       <c r="F215" s="19" t="s">
+        <v>596</v>
+      </c>
+      <c r="H215" s="19" t="s">
         <v>597</v>
-      </c>
-      <c r="H215" s="19" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="216" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D216" s="19" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E216" s="19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="217" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E217" s="19" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="218" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D218" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="E218" s="19" t="s">
         <v>601</v>
-      </c>
-      <c r="E218" s="19" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="219" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E219" s="19" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="220" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E220" s="19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="221" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E221" s="19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="222" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D222" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="E222" s="19" t="s">
         <v>606</v>
-      </c>
-      <c r="E222" s="19" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="223" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E223" s="19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="224" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C224" s="19" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D224" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="225" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D225" s="19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="226" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C226" s="19" t="s">
+        <v>611</v>
+      </c>
+      <c r="D226" s="19" t="s">
         <v>612</v>
-      </c>
-      <c r="D226" s="19" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="227" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D227" s="19" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="228" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D228" s="19" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="229" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E229" s="19" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="230" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F230" s="19" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="231" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E231" s="19" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="232" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F232" s="19" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="233" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E233" s="19" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="234" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F234" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="235" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D235" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="236" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E236" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="237" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F237" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="238" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E238" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="239" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F239" s="19" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="240" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F240" s="19" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="241" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F241" s="19" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="242" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F242" s="19" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -13653,10 +13657,10 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>632</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>633</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -13685,12 +13689,12 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -13698,10 +13702,10 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>636</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>637</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -13730,10 +13734,10 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="B34" s="17" t="s">
         <v>638</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>639</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -13762,10 +13766,10 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B35" s="25" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
@@ -13793,133 +13797,133 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C36" s="19" t="s">
+        <v>642</v>
+      </c>
+      <c r="D36" s="19" t="s">
         <v>643</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C72" s="19" t="s">
+        <v>651</v>
+      </c>
+      <c r="D72" s="19" t="s">
         <v>652</v>
-      </c>
-      <c r="D72" s="19" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D73" s="19" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E74" s="19" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D75" s="19" t="s">
+        <v>656</v>
+      </c>
+      <c r="E75" s="19" t="s">
         <v>657</v>
-      </c>
-      <c r="E75" s="19" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E76" s="19" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D77" s="19" t="s">
+        <v>659</v>
+      </c>
+      <c r="E77" s="19" t="s">
         <v>660</v>
-      </c>
-      <c r="E77" s="19" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D78" s="19" t="s">
+        <v>661</v>
+      </c>
+      <c r="E78" s="19" t="s">
         <v>662</v>
-      </c>
-      <c r="E78" s="19" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="79" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D79" s="19"/>
       <c r="E79" s="19" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="80" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D80" s="19"/>
       <c r="E80" s="19" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="81" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D81" s="19" t="s">
+        <v>664</v>
+      </c>
+      <c r="E81" s="19" t="s">
         <v>665</v>
-      </c>
-      <c r="E81" s="19" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="82" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E82" s="19" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="83" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D83" s="19" t="s">
+        <v>667</v>
+      </c>
+      <c r="E83" s="19" t="s">
         <v>668</v>
-      </c>
-      <c r="E83" s="19" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="84" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D84" s="19"/>
       <c r="E84" s="19" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="85" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D85" s="19" t="s">
+        <v>670</v>
+      </c>
+      <c r="E85" s="19" t="s">
         <v>671</v>
-      </c>
-      <c r="E85" s="19" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="86" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D86" s="19"/>
       <c r="E86" s="19" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="87" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D87" s="19"/>
       <c r="E87" s="19" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="88" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D88" s="19"/>
       <c r="E88" s="19" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="89" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B89" s="25" t="s">
+        <v>644</v>
+      </c>
+      <c r="C89" s="26" t="s">
         <v>645</v>
-      </c>
-      <c r="C89" s="26" t="s">
-        <v>646</v>
       </c>
       <c r="D89" s="27"/>
       <c r="E89" s="27"/>
@@ -13947,75 +13951,75 @@
     </row>
     <row r="90" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C90" s="19" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="102" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C102" s="19" t="s">
+        <v>676</v>
+      </c>
+      <c r="D102" s="19" t="s">
         <v>677</v>
-      </c>
-      <c r="D102" s="19" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="103" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D103" s="19" t="s">
+        <v>686</v>
+      </c>
+      <c r="E103" s="19" t="s">
         <v>687</v>
-      </c>
-      <c r="E103" s="19" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="104" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D104" s="19"/>
       <c r="E104" s="12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="105" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D105" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="E105" s="19" t="s">
         <v>690</v>
-      </c>
-      <c r="E105" s="19" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="106" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D106" s="19"/>
       <c r="E106" s="19" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="107" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C107" s="19" t="s">
+        <v>711</v>
+      </c>
+      <c r="D107" s="19" t="s">
         <v>712</v>
-      </c>
-      <c r="D107" s="19" t="s">
-        <v>713</v>
       </c>
       <c r="E107" s="19"/>
     </row>
     <row r="108" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D108" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E108" s="19"/>
     </row>
     <row r="109" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D109" s="19" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E109" s="19"/>
     </row>
     <row r="110" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B110" s="25" t="s">
+        <v>647</v>
+      </c>
+      <c r="C110" s="26" t="s">
         <v>648</v>
-      </c>
-      <c r="C110" s="26" t="s">
-        <v>649</v>
       </c>
       <c r="D110" s="27"/>
       <c r="E110" s="27"/>
@@ -14043,71 +14047,71 @@
     </row>
     <row r="111" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C111" s="19" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="133" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C133" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="D133" s="19" t="s">
         <v>679</v>
-      </c>
-      <c r="D133" s="19" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="134" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C134" s="19"/>
       <c r="D134" s="19" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="135" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C135" s="19"/>
       <c r="D135" s="19" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="136" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C136" s="19"/>
       <c r="D136" s="19"/>
       <c r="E136" s="19" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="137" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C137" s="19"/>
       <c r="D137" s="19" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="138" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C138" s="19" t="s">
+        <v>707</v>
+      </c>
+      <c r="D138" s="19" t="s">
         <v>708</v>
-      </c>
-      <c r="D138" s="19" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="139" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C139" s="19"/>
       <c r="D139" s="19" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="140" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C140" s="19"/>
       <c r="D140" s="19" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="141" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B141" s="25" t="s">
+        <v>649</v>
+      </c>
+      <c r="C141" s="26" t="s">
         <v>650</v>
-      </c>
-      <c r="C141" s="26" t="s">
-        <v>651</v>
       </c>
       <c r="D141" s="27"/>
       <c r="E141" s="27"/>
@@ -14135,186 +14139,186 @@
     </row>
     <row r="142" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C142" s="19" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D142" s="19" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="162" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C162" s="19" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D162" s="19" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D163" s="19" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E163" s="19" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="164" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D164" s="19"/>
       <c r="E164" s="19" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D165" s="19" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E165" s="19" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E166" s="19" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D167" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="E167" s="19" t="s">
         <v>697</v>
-      </c>
-      <c r="E167" s="19" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="168" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E168" s="19" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="169" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D169" s="19" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E169" s="19" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="170" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E170" s="19" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="171" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E171" s="19" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="172" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F172" s="29" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="173" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F173" s="29" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="174" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F174" s="29" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="175" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F175" s="29" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E176" s="19" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F177" s="29" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F178" s="29" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F179" s="29" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E180" s="19" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F181" s="29" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F182" s="30" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F183" s="30" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F184" s="29" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C185" s="19" t="s">
+        <v>719</v>
+      </c>
+      <c r="D185" s="19" t="s">
         <v>720</v>
-      </c>
-      <c r="D185" s="19" t="s">
-        <v>721</v>
       </c>
       <c r="E185" s="19"/>
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D186" s="19" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="187" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D187" s="19" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C188" s="19" t="s">
+        <v>896</v>
+      </c>
+      <c r="D188" s="19" t="s">
         <v>897</v>
-      </c>
-      <c r="D188" s="19" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D189" s="31" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D190" s="19" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A192" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="B192" s="17" t="s">
         <v>724</v>
-      </c>
-      <c r="B192" s="17" t="s">
-        <v>725</v>
       </c>
       <c r="C192" s="13"/>
       <c r="D192" s="13"/>
@@ -14343,297 +14347,297 @@
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B193" s="18" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C193" s="19" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C194" s="19" t="s">
+        <v>726</v>
+      </c>
+      <c r="D194" s="19" t="s">
         <v>727</v>
-      </c>
-      <c r="D194" s="19" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="230" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C230" s="19" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D230" s="19" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="231" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C231" s="19"/>
       <c r="D231" s="19" t="s">
+        <v>769</v>
+      </c>
+      <c r="E231" s="19" t="s">
         <v>770</v>
-      </c>
-      <c r="E231" s="19" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="232" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C232" s="19"/>
       <c r="D232" s="19"/>
       <c r="E232" s="19" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="233" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D233" s="19" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E233" s="19" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="234" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E234" s="19" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="235" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D235" s="19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E235" s="19" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="236" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E236" s="19" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="237" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C237" s="19" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D237" s="19" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="238" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D238" s="19" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E238" s="19" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="239" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E239" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="240" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D240" s="19" t="s">
+        <v>730</v>
+      </c>
+      <c r="E240" s="19" t="s">
         <v>731</v>
-      </c>
-      <c r="E240" s="19" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="241" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E241" s="19" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="242" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E242" s="19" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="243" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E243" s="19" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="244" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E244" s="19" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="245" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D245" s="19" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E245" s="19" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="246" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E246" s="19" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="247" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E247" s="19" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="248" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E248" s="19"/>
       <c r="F248" s="12" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="249" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E249" s="19" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="250" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E250" s="19"/>
       <c r="F250" s="12" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="251" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E251" s="19" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="252" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F252" s="19" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="253" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D253" s="19" t="s">
+        <v>744</v>
+      </c>
+      <c r="E253" s="19" t="s">
         <v>745</v>
-      </c>
-      <c r="E253" s="19" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="254" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E254" s="19" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="255" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E255" s="19" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="256" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F256" s="19" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="257" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E257" s="19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F258" s="19" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E259" s="19" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F260" s="19" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="261" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E261" s="19" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="262" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F262" s="19" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E263" s="19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="264" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F264" s="19" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E265" s="19" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F266" s="19" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E267" s="19" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F268" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G269" s="19" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="270" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F270" s="19" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="271" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G271" s="19" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="272" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B272" s="18" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C272" s="19" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="273" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C273" s="19" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D273" s="19" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="293" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C293" s="19" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D293" s="19" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="294" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D294" s="19" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="296" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A296" s="17" t="s">
+        <v>777</v>
+      </c>
+      <c r="B296" s="17" t="s">
         <v>778</v>
-      </c>
-      <c r="B296" s="17" t="s">
-        <v>779</v>
       </c>
       <c r="C296" s="13"/>
       <c r="D296" s="13"/>
@@ -14662,66 +14666,66 @@
     </row>
     <row r="297" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B297" s="19" t="s">
+        <v>779</v>
+      </c>
+      <c r="C297" s="19" t="s">
         <v>780</v>
-      </c>
-      <c r="C297" s="19" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B333" s="19" t="s">
+        <v>781</v>
+      </c>
+      <c r="C333" s="19" t="s">
         <v>782</v>
-      </c>
-      <c r="C333" s="19" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C334" s="19" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D335" s="19" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C336" s="19" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="337" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D337" s="19" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="338" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B338" s="19" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C338" s="19" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="339" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D339" s="19" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="340" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D340" s="19" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="341" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D341" s="19" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="342" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E342" s="19" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
   </sheetData>
@@ -14787,20 +14791,20 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>1085</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>1086</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -14829,114 +14833,114 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>1091</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
       <c r="C7" s="19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C8" s="19" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C9" s="19" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>1094</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>1095</v>
       </c>
       <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C11" s="19" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C12" s="19" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C13" s="19" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C14" s="19" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C17" s="19" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C18" s="19"/>
       <c r="D18" s="19" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C19" s="19" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>1097</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C20" s="19"/>
       <c r="D20" s="19" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C21" s="19" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C22" s="19"/>
       <c r="D22" s="19" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
@@ -14944,7 +14948,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -14989,129 +14993,129 @@
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C60" s="19" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C61" s="19" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C62" s="19" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" s="18" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C63" s="19" t="s">
         <v>1065</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C64" s="19" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C65" s="19" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C66" s="18" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D66" s="19" t="s">
         <v>1068</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C67" s="19"/>
       <c r="D67" s="19" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C68" s="19" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D68" s="19" t="s">
         <v>1070</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C69" s="19"/>
       <c r="D69" s="19" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C70" s="19" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D70" s="19" t="s">
         <v>1072</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C71" s="19"/>
       <c r="D71" s="19" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D72" s="19" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73" s="18" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C73" s="19" t="s">
         <v>1079</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>1080</v>
       </c>
       <c r="D73" s="19"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C74" s="19" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D74" s="19"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C75" s="19" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D75" s="19"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76" s="18" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D76" s="19"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C77" s="19" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D77" s="19"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C78" s="19" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D78" s="19"/>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C79" s="19" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D79" s="19"/>
     </row>
@@ -15120,7 +15124,7 @@
         <v>18</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
@@ -15160,48 +15164,48 @@
         <v>237</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C118" s="19" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B119" s="18" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C119" s="19" t="s">
         <v>1110</v>
-      </c>
-      <c r="C119" s="19" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C120" s="19" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B121" s="18" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C122" s="19" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C123" s="19" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C124" s="19" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.3">
@@ -15209,10 +15213,10 @@
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A126" s="33" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
@@ -15241,10 +15245,10 @@
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B127" s="18" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C127" s="19" t="s">
         <v>1118</v>
-      </c>
-      <c r="C127" s="19" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.3">
@@ -15300,66 +15304,66 @@
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B162" s="18" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C162" s="19" t="s">
         <v>1120</v>
-      </c>
-      <c r="C162" s="19" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C163" s="19" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C164" s="19" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C165" s="19" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B166" s="18" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C167" s="19" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C168" s="19" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C169" s="19" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B170" s="18" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C171" s="19" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C172" s="19" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.3">
@@ -15373,10 +15377,10 @@
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A178" s="33" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B178" s="17" t="s">
         <v>1108</v>
-      </c>
-      <c r="B178" s="17" t="s">
-        <v>1109</v>
       </c>
       <c r="C178" s="13"/>
       <c r="D178" s="13"/>
@@ -15421,69 +15425,69 @@
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C214" s="19" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B215" s="18" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C215" s="19" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C216" s="19" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B217" s="18" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C218" s="19" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C219" s="19" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B220" s="18" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C220" s="19" t="s">
         <v>1136</v>
-      </c>
-      <c r="C220" s="19" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C221" s="19" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C222" s="19" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B223" s="18" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C223" s="19" t="s">
         <v>1140</v>
-      </c>
-      <c r="C223" s="19" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C224" s="19" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
   </sheetData>
@@ -15546,7 +15550,7 @@
         <v>86</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -15586,7 +15590,7 @@
         <v>18</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -15615,138 +15619,138 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B37" s="18" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C38" s="19" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C39" s="19" t="s">
+        <v>956</v>
+      </c>
+      <c r="D39" s="19" t="s">
         <v>957</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
+        <v>959</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>960</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C41" s="19" t="s">
+        <v>961</v>
+      </c>
+      <c r="D41" s="19" t="s">
         <v>962</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C42" s="19" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B43" s="18" t="s">
+        <v>964</v>
+      </c>
+      <c r="C43" s="19" t="s">
         <v>965</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C44" s="19" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C45" s="19" t="s">
+        <v>968</v>
+      </c>
+      <c r="D45" s="19" t="s">
         <v>969</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C47" s="19" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C48" s="19" t="s">
+        <v>968</v>
+      </c>
+      <c r="D48" s="19" t="s">
         <v>969</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B49" s="18" t="s">
+        <v>971</v>
+      </c>
+      <c r="C49" s="19" t="s">
         <v>972</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C50" s="19" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C51" s="19" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C52" s="19" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C53" s="19" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.3">
@@ -15754,7 +15758,7 @@
         <v>81</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -15783,115 +15787,115 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B56" s="18" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="18" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C91" s="19" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D92" s="19" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D93" s="19" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D94" s="19" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C95" s="19" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D96" s="19" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D97" s="19"/>
       <c r="E97" s="19" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D98" s="19"/>
       <c r="E98" s="19" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D99" s="19" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D100" s="19"/>
       <c r="E100" s="19" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D101" s="19"/>
       <c r="E101" s="19" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="102" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D102" s="19" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="103" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D103" s="19"/>
       <c r="E103" s="19" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="104" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D104" s="19"/>
       <c r="E104" s="19" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="105" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D105" s="19"/>
       <c r="E105" s="19" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="106" spans="4:5" x14ac:dyDescent="0.3">
@@ -15944,34 +15948,34 @@
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C122" s="19" t="s">
+        <v>992</v>
+      </c>
+      <c r="D122" s="19" t="s">
         <v>993</v>
-      </c>
-      <c r="D122" s="19" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="123" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D123" s="19" t="s">
+        <v>994</v>
+      </c>
+      <c r="E123" s="19" t="s">
         <v>995</v>
-      </c>
-      <c r="E123" s="19" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D124" s="19" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E124" s="19" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="125" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D125" s="19" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E125" s="19" t="s">
         <v>1009</v>
-      </c>
-      <c r="E125" s="19" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="126" spans="3:5" x14ac:dyDescent="0.3">
@@ -15988,7 +15992,7 @@
         <v>84</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C131" s="13"/>
       <c r="D131" s="13"/>
@@ -16017,212 +16021,212 @@
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B132" s="18" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B166" s="18" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C166" s="19" t="s">
         <v>1011</v>
-      </c>
-      <c r="C166" s="19" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C167" s="19" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C168" s="19" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C169" s="19" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D169" s="19" t="s">
         <v>1031</v>
-      </c>
-      <c r="D169" s="19" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C170" s="19"/>
       <c r="D170" s="19" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C171" s="19" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D172" s="19" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E172" s="19" t="s">
         <v>1015</v>
-      </c>
-      <c r="E172" s="19" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E173" s="19" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E174" s="19" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D175" s="19" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E175" s="19" t="s">
         <v>1019</v>
-      </c>
-      <c r="E175" s="19" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D176" s="19"/>
       <c r="E176" s="19" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="177" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E177" s="19" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="178" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E178" s="19" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="179" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D179" s="19" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E179" s="19" t="s">
         <v>1023</v>
-      </c>
-      <c r="E179" s="19" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="180" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E180" s="19" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="181" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E181" s="19" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="182" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E182" s="19" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="183" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D183" s="19" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E183" s="19" t="s">
         <v>1046</v>
-      </c>
-      <c r="E183" s="19" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="184" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D184" s="19"/>
       <c r="E184" s="19" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="185" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E185" s="19" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="186" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E186" s="19" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="187" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C187" s="19" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D187" s="19" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="188" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D188" s="19" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E188" s="19" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="189" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D189" s="19" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E189" s="19" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="190" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D190" s="19" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E190" s="19" t="s">
         <v>1035</v>
-      </c>
-      <c r="E190" s="19" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="191" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C191" s="19" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D191" s="19" t="s">
         <v>1039</v>
-      </c>
-      <c r="D191" s="19" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="192" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D192" s="19" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="193" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D193" s="19" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E193" s="19" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="194" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E194" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E195" s="19" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E196" s="19" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="197" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E197" s="19" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="203" spans="1:26" x14ac:dyDescent="0.3">
@@ -16230,7 +16234,7 @@
         <v>377</v>
       </c>
       <c r="B203" s="17" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C203" s="13"/>
       <c r="D203" s="13"/>
@@ -16259,10 +16263,10 @@
     </row>
     <row r="204" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B204" s="18" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.3">
@@ -16275,17 +16279,17 @@
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C237" s="19" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C238" s="19" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C239" s="19" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
   </sheetData>
@@ -17280,7 +17284,7 @@
   </sheetPr>
   <dimension ref="A1:Z129"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L142" sqref="L142"/>
     </sheetView>
   </sheetViews>
@@ -17296,7 +17300,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -17325,7 +17329,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -17333,7 +17337,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -17365,7 +17369,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
@@ -17373,7 +17377,7 @@
         <v>237</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
@@ -17381,7 +17385,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -17413,7 +17417,7 @@
         <v>20</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
@@ -17429,7 +17433,7 @@
         <v>24</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
@@ -17437,7 +17441,7 @@
         <v>50</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
@@ -17445,7 +17449,7 @@
         <v>52</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
@@ -17453,7 +17457,7 @@
         <v>54</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
@@ -17461,12 +17465,12 @@
         <v>30</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D56" s="19" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
@@ -17477,7 +17481,7 @@
         <v>237</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
@@ -17485,25 +17489,25 @@
         <v>73</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C60" s="19" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D61" s="19" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D62" s="19" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.3">
@@ -17511,7 +17515,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
@@ -17543,17 +17547,17 @@
         <v>20</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C83" s="19" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C84" s="19" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
@@ -17561,7 +17565,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
@@ -17593,12 +17597,12 @@
         <v>20</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C88" s="12" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.3">
@@ -17606,7 +17610,7 @@
         <v>44</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.3">
@@ -17614,23 +17618,23 @@
         <v>69</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B91" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B92" s="18" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C92" s="19" t="s">
         <v>1057</v>
-      </c>
-      <c r="C92" s="19" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.3">
@@ -17638,7 +17642,7 @@
         <v>377</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
@@ -17670,7 +17674,7 @@
         <v>20</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.3">
@@ -17678,7 +17682,7 @@
         <v>44</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.3">
@@ -17686,7 +17690,7 @@
         <v>227</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
@@ -17718,7 +17722,7 @@
         <v>20</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
@@ -17726,7 +17730,7 @@
         <v>237</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.3">
@@ -17734,15 +17738,15 @@
         <v>69</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A125" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
@@ -17774,12 +17778,12 @@
         <v>20</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C127" s="19" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.3">
@@ -17787,12 +17791,12 @@
         <v>44</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C129" s="19" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
   </sheetData>
@@ -17807,7 +17811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
@@ -17823,7 +17827,7 @@
         <v>100</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -17852,7 +17856,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
@@ -17860,7 +17864,7 @@
         <v>217</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -17889,10 +17893,10 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
+        <v>789</v>
+      </c>
+      <c r="B35" s="17" t="s">
         <v>790</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>791</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -17921,46 +17925,46 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B36" s="18" t="s">
+        <v>791</v>
+      </c>
+      <c r="C36" s="19" t="s">
         <v>792</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C37" s="19" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="C38" s="19" t="s">
         <v>795</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C39" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
+        <v>797</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>798</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C41" s="19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C42" s="19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
@@ -17968,7 +17972,7 @@
         <v>226</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -17997,17 +18001,17 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B45" s="19" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B46" s="19" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B47" s="19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
   </sheetData>
@@ -18022,8 +18026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18035,10 +18039,10 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
+        <v>819</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>820</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>821</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -18067,20 +18071,20 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -18117,67 +18121,67 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
+        <v>825</v>
+      </c>
+      <c r="C42" s="19" t="s">
         <v>826</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C43" s="19" t="s">
+        <v>827</v>
+      </c>
+      <c r="D43" s="19" t="s">
         <v>828</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D44" s="19" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C45" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="D45" s="19" t="s">
         <v>831</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D46" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D47" s="19" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D48" s="19" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C49" s="19" t="s">
+        <v>835</v>
+      </c>
+      <c r="D49" s="19" t="s">
         <v>836</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D50" s="19" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
+        <v>838</v>
+      </c>
+      <c r="B52" s="17" t="s">
         <v>839</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>840</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -18214,73 +18218,73 @@
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="18" t="s">
+        <v>825</v>
+      </c>
+      <c r="C90" s="19" t="s">
         <v>826</v>
-      </c>
-      <c r="C90" s="19" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C91" s="19" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D92" s="19" t="s">
+        <v>841</v>
+      </c>
+      <c r="E92" s="19" t="s">
         <v>842</v>
-      </c>
-      <c r="E92" s="19" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D93" s="19" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D94" s="19" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D95" s="19" t="s">
+        <v>845</v>
+      </c>
+      <c r="E95" s="19" t="s">
         <v>846</v>
-      </c>
-      <c r="E95" s="19" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D96" s="19" t="s">
+        <v>847</v>
+      </c>
+      <c r="E96" s="19" t="s">
         <v>848</v>
-      </c>
-      <c r="E96" s="19" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E97" s="19" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E98" s="19" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100" s="17" t="s">
+        <v>851</v>
+      </c>
+      <c r="B100" s="17" t="s">
         <v>852</v>
-      </c>
-      <c r="B100" s="17" t="s">
-        <v>853</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
@@ -18309,10 +18313,10 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B101" s="18" t="s">
+        <v>853</v>
+      </c>
+      <c r="C101" s="19" t="s">
         <v>854</v>
-      </c>
-      <c r="C101" s="19" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.3">
@@ -18320,20 +18324,20 @@
         <v>237</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C119" s="19" t="s">
+        <v>855</v>
+      </c>
+      <c r="D119" s="19" t="s">
         <v>856</v>
-      </c>
-      <c r="D119" s="19" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D120" s="19" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.3">
@@ -18341,12 +18345,12 @@
         <v>257</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D122" s="19" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.3">
@@ -18354,12 +18358,12 @@
         <v>301</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D124" s="19" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.3">
@@ -18367,37 +18371,37 @@
         <v>97</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D126" s="19" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D127" s="19" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E128" s="19" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E129" s="19" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E130" s="19" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E131" s="19" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
   </sheetData>
@@ -18546,7 +18550,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D12" s="19"/>
     </row>
@@ -18861,50 +18865,50 @@
     </row>
     <row r="122" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D122" s="19" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="123" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D123" s="19"/>
       <c r="E123" s="19" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="124" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D124" s="19" t="s">
+        <v>906</v>
+      </c>
+      <c r="E124" s="19" t="s">
         <v>907</v>
-      </c>
-      <c r="E124" s="19" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="125" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D125" s="19"/>
       <c r="E125" s="19" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="126" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D126" s="19" t="s">
+        <v>909</v>
+      </c>
+      <c r="E126" s="19" t="s">
         <v>910</v>
-      </c>
-      <c r="E126" s="19" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="127" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D127" s="19"/>
       <c r="E127" s="19" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="128" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D128" s="19"/>
       <c r="E128" s="19" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="129" spans="4:5" x14ac:dyDescent="0.3">
@@ -18998,7 +19002,7 @@
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D149" s="19" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.3">
@@ -19011,12 +19015,12 @@
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D151" s="19" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D152" s="19" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.3">
@@ -19144,7 +19148,7 @@
         <v>284</v>
       </c>
       <c r="C202" s="26" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D202" s="27"/>
       <c r="E202" s="27"/>
@@ -19186,7 +19190,7 @@
     <row r="205" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C205" s="19"/>
       <c r="D205" s="19" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="206" spans="2:26" x14ac:dyDescent="0.3">
@@ -19194,40 +19198,40 @@
         <v>257</v>
       </c>
       <c r="D206" s="19" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="207" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C207" s="19"/>
       <c r="D207" s="19" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="208" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C208" s="19"/>
       <c r="D208" s="19"/>
       <c r="E208" s="19" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="209" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C209" s="19"/>
       <c r="D209" s="19"/>
       <c r="E209" s="19" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="210" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C210" s="19"/>
       <c r="D210" s="19" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="211" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C211" s="19"/>
       <c r="D211" s="19"/>
       <c r="E211" s="19" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="212" spans="3:5" x14ac:dyDescent="0.3">
@@ -19240,22 +19244,22 @@
       <c r="C213" s="19"/>
       <c r="D213" s="19"/>
       <c r="E213" s="19" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="214" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C214" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="D214" s="19" t="s">
         <v>878</v>
-      </c>
-      <c r="D214" s="19" t="s">
-        <v>879</v>
       </c>
       <c r="E214" s="19"/>
     </row>
     <row r="215" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C215" s="19"/>
       <c r="D215" s="19" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E215" s="19"/>
     </row>
@@ -19263,13 +19267,13 @@
       <c r="C216" s="19"/>
       <c r="D216" s="19"/>
       <c r="E216" s="19" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="217" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C217" s="19"/>
       <c r="D217" s="19" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E217" s="19"/>
     </row>
@@ -19277,13 +19281,13 @@
       <c r="C218" s="19"/>
       <c r="D218" s="19"/>
       <c r="E218" s="19" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="219" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C219" s="19"/>
       <c r="D219" s="19" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E219" s="19"/>
     </row>
@@ -19291,7 +19295,7 @@
       <c r="C220" s="19"/>
       <c r="D220" s="19"/>
       <c r="E220" s="19" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="221" spans="3:5" x14ac:dyDescent="0.3">
@@ -19518,8 +19522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z175"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="S151" sqref="S151"/>
+    <sheetView topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="Q75" sqref="Q75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20191,10 +20195,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z198"/>
+  <dimension ref="A1:Z199"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X33" sqref="X33"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="M173" sqref="M173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20500,7 +20504,7 @@
     <row r="110" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C110" s="19"/>
       <c r="D110" s="19" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="111" spans="2:26" x14ac:dyDescent="0.3">
@@ -20585,287 +20589,292 @@
       </c>
     </row>
     <row r="124" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D124" s="19"/>
+      <c r="D124" s="19" t="s">
+        <v>1159</v>
+      </c>
     </row>
     <row r="125" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B125" s="25" t="s">
+      <c r="D125" s="19"/>
+    </row>
+    <row r="126" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B126" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="C125" s="26" t="s">
+      <c r="C126" s="26" t="s">
+        <v>806</v>
+      </c>
+      <c r="D126" s="27"/>
+      <c r="E126" s="27"/>
+      <c r="F126" s="27"/>
+      <c r="G126" s="27"/>
+      <c r="H126" s="27"/>
+      <c r="I126" s="27"/>
+      <c r="J126" s="27"/>
+      <c r="K126" s="27"/>
+      <c r="L126" s="27"/>
+      <c r="M126" s="27"/>
+      <c r="N126" s="27"/>
+      <c r="O126" s="27"/>
+      <c r="P126" s="27"/>
+      <c r="Q126" s="27"/>
+      <c r="R126" s="27"/>
+      <c r="S126" s="27"/>
+      <c r="T126" s="27"/>
+      <c r="U126" s="27"/>
+      <c r="V126" s="27"/>
+      <c r="W126" s="27"/>
+      <c r="X126" s="27"/>
+      <c r="Y126" s="27"/>
+      <c r="Z126" s="27"/>
+    </row>
+    <row r="127" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C127" s="19" t="s">
+        <v>809</v>
+      </c>
+      <c r="D127" s="19" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="128" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D128" s="19" t="s">
         <v>807</v>
       </c>
-      <c r="D125" s="27"/>
-      <c r="E125" s="27"/>
-      <c r="F125" s="27"/>
-      <c r="G125" s="27"/>
-      <c r="H125" s="27"/>
-      <c r="I125" s="27"/>
-      <c r="J125" s="27"/>
-      <c r="K125" s="27"/>
-      <c r="L125" s="27"/>
-      <c r="M125" s="27"/>
-      <c r="N125" s="27"/>
-      <c r="O125" s="27"/>
-      <c r="P125" s="27"/>
-      <c r="Q125" s="27"/>
-      <c r="R125" s="27"/>
-      <c r="S125" s="27"/>
-      <c r="T125" s="27"/>
-      <c r="U125" s="27"/>
-      <c r="V125" s="27"/>
-      <c r="W125" s="27"/>
-      <c r="X125" s="27"/>
-      <c r="Y125" s="27"/>
-      <c r="Z125" s="27"/>
-    </row>
-    <row r="126" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C126" s="19" t="s">
-        <v>810</v>
-      </c>
-      <c r="D126" s="19" t="s">
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C129" s="19" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="127" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D127" s="19" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="128" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C128" s="19" t="s">
+      <c r="D129" s="19" t="s">
         <v>812</v>
-      </c>
-      <c r="D128" s="19" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D129" s="19" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D130" s="19" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A132" s="17" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D131" s="19" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A133" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="B132" s="13"/>
-      <c r="C132" s="17" t="s">
+      <c r="B133" s="13"/>
+      <c r="C133" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="13"/>
-      <c r="H132" s="13"/>
-      <c r="I132" s="13"/>
-      <c r="J132" s="13"/>
-      <c r="K132" s="13"/>
-      <c r="L132" s="13"/>
-      <c r="M132" s="13"/>
-      <c r="N132" s="13"/>
-      <c r="O132" s="13"/>
-      <c r="P132" s="13"/>
-      <c r="Q132" s="13"/>
-      <c r="R132" s="13"/>
-      <c r="S132" s="13"/>
-      <c r="T132" s="13"/>
-      <c r="U132" s="13"/>
-      <c r="V132" s="13"/>
-      <c r="W132" s="13"/>
-      <c r="X132" s="13"/>
-      <c r="Y132" s="13"/>
-      <c r="Z132" s="13"/>
-    </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B133" s="25" t="s">
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="13"/>
+      <c r="I133" s="13"/>
+      <c r="J133" s="13"/>
+      <c r="K133" s="13"/>
+      <c r="L133" s="13"/>
+      <c r="M133" s="13"/>
+      <c r="N133" s="13"/>
+      <c r="O133" s="13"/>
+      <c r="P133" s="13"/>
+      <c r="Q133" s="13"/>
+      <c r="R133" s="13"/>
+      <c r="S133" s="13"/>
+      <c r="T133" s="13"/>
+      <c r="U133" s="13"/>
+      <c r="V133" s="13"/>
+      <c r="W133" s="13"/>
+      <c r="X133" s="13"/>
+      <c r="Y133" s="13"/>
+      <c r="Z133" s="13"/>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B134" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="C133" s="26" t="s">
+      <c r="C134" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="D133" s="27"/>
-      <c r="E133" s="27"/>
-      <c r="F133" s="27"/>
-      <c r="G133" s="27"/>
-      <c r="H133" s="27"/>
-      <c r="I133" s="27"/>
-      <c r="J133" s="27"/>
-      <c r="K133" s="27"/>
-      <c r="L133" s="27"/>
-      <c r="M133" s="27"/>
-      <c r="N133" s="27"/>
-      <c r="O133" s="27"/>
-      <c r="P133" s="27"/>
-      <c r="Q133" s="27"/>
-      <c r="R133" s="27"/>
-      <c r="S133" s="27"/>
-      <c r="T133" s="27"/>
-      <c r="U133" s="27"/>
-      <c r="V133" s="27"/>
-      <c r="W133" s="27"/>
-      <c r="X133" s="27"/>
-      <c r="Y133" s="27"/>
-      <c r="Z133" s="27"/>
-    </row>
-    <row r="169" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B169" s="25" t="s">
+      <c r="D134" s="27"/>
+      <c r="E134" s="27"/>
+      <c r="F134" s="27"/>
+      <c r="G134" s="27"/>
+      <c r="H134" s="27"/>
+      <c r="I134" s="27"/>
+      <c r="J134" s="27"/>
+      <c r="K134" s="27"/>
+      <c r="L134" s="27"/>
+      <c r="M134" s="27"/>
+      <c r="N134" s="27"/>
+      <c r="O134" s="27"/>
+      <c r="P134" s="27"/>
+      <c r="Q134" s="27"/>
+      <c r="R134" s="27"/>
+      <c r="S134" s="27"/>
+      <c r="T134" s="27"/>
+      <c r="U134" s="27"/>
+      <c r="V134" s="27"/>
+      <c r="W134" s="27"/>
+      <c r="X134" s="27"/>
+      <c r="Y134" s="27"/>
+      <c r="Z134" s="27"/>
+    </row>
+    <row r="170" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B170" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="C169" s="26" t="s">
+      <c r="C170" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="D169" s="27"/>
-      <c r="E169" s="27"/>
-      <c r="F169" s="27"/>
-      <c r="G169" s="27"/>
-      <c r="H169" s="27"/>
-      <c r="I169" s="27"/>
-      <c r="J169" s="27"/>
-      <c r="K169" s="27"/>
-      <c r="L169" s="27"/>
-      <c r="M169" s="27"/>
-      <c r="N169" s="27"/>
-      <c r="O169" s="27"/>
-      <c r="P169" s="27"/>
-      <c r="Q169" s="27"/>
-      <c r="R169" s="27"/>
-      <c r="S169" s="27"/>
-      <c r="T169" s="27"/>
-      <c r="U169" s="27"/>
-      <c r="V169" s="27"/>
-      <c r="W169" s="27"/>
-      <c r="X169" s="27"/>
-      <c r="Y169" s="27"/>
-      <c r="Z169" s="27"/>
-    </row>
-    <row r="170" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C170" s="19" t="s">
+      <c r="D170" s="27"/>
+      <c r="E170" s="27"/>
+      <c r="F170" s="27"/>
+      <c r="G170" s="27"/>
+      <c r="H170" s="27"/>
+      <c r="I170" s="27"/>
+      <c r="J170" s="27"/>
+      <c r="K170" s="27"/>
+      <c r="L170" s="27"/>
+      <c r="M170" s="27"/>
+      <c r="N170" s="27"/>
+      <c r="O170" s="27"/>
+      <c r="P170" s="27"/>
+      <c r="Q170" s="27"/>
+      <c r="R170" s="27"/>
+      <c r="S170" s="27"/>
+      <c r="T170" s="27"/>
+      <c r="U170" s="27"/>
+      <c r="V170" s="27"/>
+      <c r="W170" s="27"/>
+      <c r="X170" s="27"/>
+      <c r="Y170" s="27"/>
+      <c r="Z170" s="27"/>
+    </row>
+    <row r="171" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C171" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="D170" s="19" t="s">
+      <c r="D171" s="19" t="s">
         <v>346</v>
-      </c>
-    </row>
-    <row r="171" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C171" s="19"/>
-      <c r="D171" s="19" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="172" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C172" s="19"/>
       <c r="D172" s="19" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="173" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C173" s="19"/>
+      <c r="D173" s="19" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="173" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C173" s="19" t="s">
+    <row r="174" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C174" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="D173" s="19" t="s">
+      <c r="D174" s="19" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="174" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D174" s="19" t="s">
+    <row r="175" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D175" s="19" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="175" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C175" s="19" t="s">
+    <row r="176" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C176" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="D175" s="19" t="s">
+      <c r="D176" s="19" t="s">
         <v>352</v>
-      </c>
-    </row>
-    <row r="176" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D176" s="19" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="177" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D177" s="19" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="178" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D178" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="E177" s="19" t="s">
+      <c r="E178" s="19" t="s">
         <v>356</v>
-      </c>
-    </row>
-    <row r="178" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="E178" s="19" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="179" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E179" s="19" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="180" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E180" s="19" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="181" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E181" s="19" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="181" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D181" s="19" t="s">
+    <row r="182" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D182" s="19" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="182" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B182" s="25" t="s">
+    <row r="183" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B183" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="C182" s="26" t="s">
+      <c r="C183" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="D182" s="27"/>
-      <c r="E182" s="27"/>
-      <c r="F182" s="27"/>
-      <c r="G182" s="27"/>
-      <c r="H182" s="27"/>
-      <c r="I182" s="27"/>
-      <c r="J182" s="27"/>
-      <c r="K182" s="27"/>
-      <c r="L182" s="27"/>
-      <c r="M182" s="27"/>
-      <c r="N182" s="27"/>
-      <c r="O182" s="27"/>
-      <c r="P182" s="27"/>
-      <c r="Q182" s="27"/>
-      <c r="R182" s="27"/>
-      <c r="S182" s="27"/>
-      <c r="T182" s="27"/>
-      <c r="U182" s="27"/>
-      <c r="V182" s="27"/>
-      <c r="W182" s="27"/>
-      <c r="X182" s="27"/>
-      <c r="Y182" s="27"/>
-      <c r="Z182" s="27"/>
-    </row>
-    <row r="183" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C183" s="19" t="s">
+      <c r="D183" s="27"/>
+      <c r="E183" s="27"/>
+      <c r="F183" s="27"/>
+      <c r="G183" s="27"/>
+      <c r="H183" s="27"/>
+      <c r="I183" s="27"/>
+      <c r="J183" s="27"/>
+      <c r="K183" s="27"/>
+      <c r="L183" s="27"/>
+      <c r="M183" s="27"/>
+      <c r="N183" s="27"/>
+      <c r="O183" s="27"/>
+      <c r="P183" s="27"/>
+      <c r="Q183" s="27"/>
+      <c r="R183" s="27"/>
+      <c r="S183" s="27"/>
+      <c r="T183" s="27"/>
+      <c r="U183" s="27"/>
+      <c r="V183" s="27"/>
+      <c r="W183" s="27"/>
+      <c r="X183" s="27"/>
+      <c r="Y183" s="27"/>
+      <c r="Z183" s="27"/>
+    </row>
+    <row r="184" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C184" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="D183" s="19" t="s">
+      <c r="D184" s="19" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="184" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D184" s="19" t="s">
+    <row r="185" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D185" s="19" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="198" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C198" s="19" t="s">
+    <row r="199" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C199" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="D198" s="19" t="s">
+      <c r="D199" s="19" t="s">
         <v>363</v>
       </c>
     </row>

--- a/策划案/Java/IOT项目/IOT物联网平台.xlsx
+++ b/策划案/Java/IOT项目/IOT物联网平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="群组页面" sheetId="80" r:id="rId10"/>
     <sheet name="规则模块" sheetId="87" r:id="rId11"/>
     <sheet name="主题" sheetId="89" r:id="rId12"/>
-    <sheet name="后台管理模块" sheetId="93" r:id="rId13"/>
-    <sheet name="部门系统" sheetId="92" state="hidden" r:id="rId14"/>
+    <sheet name="告警主题" sheetId="94" r:id="rId13"/>
+    <sheet name="后台管理模块" sheetId="93" r:id="rId14"/>
+    <sheet name="部门系统" sheetId="92" state="hidden" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="1192">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -1494,10 +1495,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>所属项目，产品名称，协议类型，数据格式，所属行业，设备类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>使用模板</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1506,14 +1503,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>数据格式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>约束</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>四.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1535,10 +1524,6 @@
   </si>
   <si>
     <t>a.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>d.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1570,10 +1555,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>每个产品有且只有一个上行数据模型和下发命令模型</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1795,10 +1776,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>该界面展示设备的基本信息，和影子信息。以及重置秘钥的操作。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>a</t>
     </r>
@@ -1815,14 +1792,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>基础信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>包括设备名称，在线情况，设备Id，认证类型，注册时间，所属产品和节点类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>目前认证类型只支持秘钥，后续会添加指纹等功能。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1852,22 +1821,6 @@
   </si>
   <si>
     <t>用户可以点击自动生成，生成一个随机的秘钥。生成秘钥算法要求重复率较低，长度在20位以内。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -5505,10 +5458,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Json，Protobuf</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>新增</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -5625,14 +5574,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>产品名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以是中文，同一项目下的产品名称不能重复</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -5646,14 +5587,6 @@
   </si>
   <si>
     <t>数据格式绑定在协议下：</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>同一个项目下，产品名不可重复。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品名可为中文。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -6921,6 +6854,270 @@
   </si>
   <si>
     <t>群组名称可编辑。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品可以设置一些自定义属性，以便第三方平台做查询和修改。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义属性字段展示</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义属性和模型属性字段展示一致，不赘述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入界面，自定义属性折起，点击右边的箭头才会打开</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称与产品显示名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称必须是英文名，符合程序变量名规则。显示名可以是中文。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一项目下，产品名称不可重复。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称会用于规则引擎的设备联动。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称的问号显示以上内容</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属项目，产品名称，显示名，协议类型，数据格式，离线阈值，所属行业，设备类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>离线阈值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过多长时间不响服务器发消息，则判定为离线，单位秒。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>问号处也显示以上内容。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备离线后，需要重新登录系统获取token。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>离线阈值（可编辑）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>离线阈值交互</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本信息包含设备标识码，设备名称，设备Id，认证类型，重置秘钥，节点类型和所属产品</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>概述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互相关</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击右边的箭头，可收起</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义属性是在产品中定义的一系列属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>这些属性每个设备都可以不同。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>这些属性既可以在网页中操作，也可以由北向应用使用第三方API接口修改和查询。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑操作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击操作区的编辑，本行值列单元格变为可编辑态，编辑按钮变成确认。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户点击确认，则保存信息，确认按钮重新变为编辑。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出如【产品页面-五.新增属性页面-1.原型】的页面。只不过"新增属性“改成"属性定义”，表单均不可编辑。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他操作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击右上的箭头可以收起</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警主题</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -7550,24 +7747,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="9" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7612,6 +7791,24 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
@@ -8273,6 +8470,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>255508</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>27736</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="1695450"/>
+          <a:ext cx="13333333" cy="6714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>25</xdr:row>
@@ -8502,7 +8742,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -9021,91 +9261,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>484931</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>180407</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="485775" y="2971800"/>
-          <a:ext cx="6752381" cy="4542857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>84084</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>199268</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="495300" y="18240375"/>
-          <a:ext cx="13123809" cy="6057143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>466126</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>241</xdr:row>
       <xdr:rowOff>152075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9116,7 +9280,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9135,20 +9299,96 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>94452</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>170884</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="2981325"/>
+          <a:ext cx="6380952" cy="4523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>588949</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>208829</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="18535650"/>
+          <a:ext cx="12809524" cy="5771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>428281</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>123390</xdr:rowOff>
+      <xdr:colOff>533033</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>209105</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="15" name="图片 14"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9161,8 +9401,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1038225" y="26822400"/>
-          <a:ext cx="2752381" cy="3476190"/>
+          <a:off x="962025" y="27451050"/>
+          <a:ext cx="2933333" cy="3561905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9174,19 +9414,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>230</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>466068</xdr:colOff>
-      <xdr:row>251</xdr:row>
-      <xdr:rowOff>132805</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>179317</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>170571</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPr id="16" name="图片 15"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9199,8 +9439,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="266700" y="48367950"/>
-          <a:ext cx="5257143" cy="4361905"/>
+          <a:off x="447675" y="32956500"/>
+          <a:ext cx="13266667" cy="7028571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9211,20 +9451,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>231</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>494646</xdr:colOff>
-      <xdr:row>252</xdr:row>
-      <xdr:rowOff>18502</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>160457</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>132664</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPr id="17" name="图片 16"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9237,8 +9477,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6257925" y="48444150"/>
-          <a:ext cx="5228571" cy="4380952"/>
+          <a:off x="1952625" y="38023800"/>
+          <a:ext cx="11742857" cy="5485714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9249,20 +9489,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>350844</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>160943</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476040</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>133308</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPr id="18" name="图片 17"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9275,8 +9515,122 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="390525" y="32537400"/>
-          <a:ext cx="12647619" cy="7857143"/>
+          <a:off x="1314450" y="45272325"/>
+          <a:ext cx="1676190" cy="333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>56901</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>95212</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428750" y="45681900"/>
+          <a:ext cx="1990476" cy="304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>189842</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>180424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5915025" y="53816250"/>
+          <a:ext cx="5266667" cy="4409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542261</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>151843</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="53740050"/>
+          <a:ext cx="5314286" cy="4457143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9676,15 +10030,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>551627</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>18379</xdr:rowOff>
+      <xdr:colOff>580202</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>189829</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9701,7 +10055,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9544050" y="33851850"/>
+          <a:off x="9572625" y="35699700"/>
           <a:ext cx="6580952" cy="5371429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9715,13 +10069,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>447025</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>85415</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9789,16 +10143,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>27925</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>104620</xdr:rowOff>
+      <xdr:colOff>304150</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>56995</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9815,7 +10169,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7010400" y="12068175"/>
+          <a:off x="7286625" y="12858750"/>
           <a:ext cx="5200000" cy="1238095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9829,13 +10183,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>455555</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>180070</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9867,13 +10221,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>646063</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>180073</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9903,20 +10257,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>769862</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>199118</xdr:rowOff>
+      <xdr:colOff>607951</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>94271</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9929,8 +10283,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="495300" y="4467225"/>
-          <a:ext cx="13304762" cy="7257143"/>
+          <a:off x="447675" y="4419600"/>
+          <a:ext cx="13190476" cy="7828571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10110,15 +10464,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>732737</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>285062</xdr:colOff>
       <xdr:row>114</xdr:row>
-      <xdr:rowOff>190108</xdr:rowOff>
+      <xdr:rowOff>209158</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10135,7 +10489,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7915275" y="20316825"/>
+          <a:off x="8315325" y="20964525"/>
           <a:ext cx="5504762" cy="3133333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10890,25 +11244,25 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="D3" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="D3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="47" t="s">
-        <v>801</v>
+      <c r="E3" s="41" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10918,26 +11272,26 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="48"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="49" t="s">
-        <v>802</v>
-      </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="43" t="s">
+        <v>793</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -10946,10 +11300,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="41"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -10958,34 +11312,34 @@
       <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="35"/>
+      <c r="E8" s="50"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
         <v>43949</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="D9" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="D9" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="E9" s="35"/>
+      <c r="E9" s="50"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
         <v>43951</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>367</v>
-      </c>
-      <c r="E10" s="35"/>
+        <v>356</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="E10" s="50"/>
     </row>
     <row r="11" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
@@ -10994,34 +11348,34 @@
       <c r="C11" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>623</v>
-      </c>
-      <c r="E11" s="35"/>
+      <c r="D11" s="51" t="s">
+        <v>614</v>
+      </c>
+      <c r="E11" s="50"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
         <v>43966</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>869</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>803</v>
-      </c>
-      <c r="E12" s="35"/>
+        <v>860</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>794</v>
+      </c>
+      <c r="E12" s="50"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
         <v>43976</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>890</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>870</v>
-      </c>
-      <c r="E13" s="35"/>
+        <v>880</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>861</v>
+      </c>
+      <c r="E13" s="50"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="7">
@@ -11030,10 +11384,10 @@
       <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="34" t="s">
-        <v>891</v>
-      </c>
-      <c r="E14" s="35"/>
+      <c r="D14" s="49" t="s">
+        <v>881</v>
+      </c>
+      <c r="E14" s="50"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
@@ -11042,10 +11396,10 @@
       <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="34" t="s">
-        <v>930</v>
-      </c>
-      <c r="E15" s="35"/>
+      <c r="D15" s="49" t="s">
+        <v>916</v>
+      </c>
+      <c r="E15" s="50"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="7">
@@ -11054,10 +11408,10 @@
       <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="34" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E16" s="35"/>
+      <c r="D16" s="49" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E16" s="50"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="7">
@@ -11066,99 +11420,103 @@
       <c r="C17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="34" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E17" s="35"/>
+      <c r="D17" s="49" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E17" s="50"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="7">
         <v>44027</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>1151</v>
-      </c>
-      <c r="E18" s="35"/>
+        <v>1136</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E18" s="50"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="50"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="50"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="35"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="50"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="35"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="50"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="37"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -11171,16 +11529,12 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -11208,8 +11562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W105" sqref="W105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11258,7 +11612,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -11304,7 +11658,7 @@
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="17" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -11372,10 +11726,10 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B30" s="18" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
@@ -11387,7 +11741,7 @@
         <v>208</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -11416,63 +11770,63 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C34" s="19" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C36" s="19" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C37" s="19" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C38" s="19" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C39" s="19" t="s">
-        <v>1157</v>
+        <v>1143</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>1158</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -11504,7 +11858,7 @@
         <v>20</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
@@ -11535,7 +11889,7 @@
         <v>237</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D78" s="27"/>
       <c r="E78" s="27"/>
@@ -11563,48 +11917,48 @@
     </row>
     <row r="79" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C79" s="19" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="80" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C80" s="19" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="81" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C81" s="19"/>
       <c r="D81" s="19" t="s">
-        <v>1156</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="82" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C82" s="19" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="83" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C83" s="19" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="84" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B84" s="25" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C84" s="26" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D84" s="27"/>
       <c r="E84" s="27"/>
@@ -11632,87 +11986,87 @@
     </row>
     <row r="85" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C85" s="19" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="86" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C86" s="19"/>
       <c r="D86" s="19" t="s">
-        <v>1160</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="87" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C87" s="19" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="88" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D88" s="19" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="89" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D89" s="19" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="90" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D90" s="19" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E90" s="19" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="91" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C91" s="19" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="92" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D92" s="19" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="93" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C93" s="19" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="94" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D94" s="19" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="95" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D95" s="19" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="96" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B96" s="25" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="D96" s="26"/>
       <c r="E96" s="27"/>
@@ -11740,36 +12094,36 @@
     </row>
     <row r="97" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C97" s="19" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="98" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D98" s="19" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="99" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C99" s="19" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="100" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D100" s="19" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="101" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B101" s="25" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C101" s="26" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="D101" s="26"/>
       <c r="E101" s="27"/>
@@ -11797,89 +12151,89 @@
     </row>
     <row r="102" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C102" s="19" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="103" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D103" s="19" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="104" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C104" s="19" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="105" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C105" s="19"/>
       <c r="D105" s="19" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="106" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C106" s="19"/>
       <c r="D106" s="19" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="107" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C107" s="19" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
     </row>
     <row r="108" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C108" s="19"/>
       <c r="D108" s="19" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="109" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C109" s="19" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="110" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C110" s="19"/>
       <c r="D110" s="19" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
     </row>
     <row r="111" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C111" s="19"/>
       <c r="D111" s="19" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="112" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C112" s="19" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C113" s="19"/>
       <c r="D113" s="19" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C114" s="19"/>
       <c r="D114" s="19" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.3">
@@ -11890,7 +12244,7 @@
         <v>227</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C116" s="13"/>
       <c r="D116" s="13"/>
@@ -11919,10 +12273,10 @@
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B117" s="25" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D117" s="27"/>
       <c r="E117" s="27"/>
@@ -11954,10 +12308,10 @@
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B135" s="25" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C135" s="26" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D135" s="27"/>
       <c r="E135" s="27"/>
@@ -11985,41 +12339,41 @@
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C136" s="19" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="D136" s="19" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D137" s="19" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C138" s="19" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D139" s="19" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D140" s="19" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A141" s="17" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C141" s="13"/>
       <c r="D141" s="13"/>
@@ -12048,10 +12402,10 @@
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B142" s="25" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="D142" s="27"/>
       <c r="E142" s="27"/>
@@ -12083,7 +12437,7 @@
     </row>
     <row r="177" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B177" s="25" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C177" s="26" t="s">
         <v>103</v>
@@ -12161,7 +12515,7 @@
     </row>
     <row r="185" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B185" s="25" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="C185" s="26" t="s">
         <v>109</v>
@@ -12197,7 +12551,7 @@
     </row>
     <row r="187" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B187" s="25" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C187" s="26" t="s">
         <v>111</v>
@@ -12233,7 +12587,7 @@
     </row>
     <row r="189" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B189" s="25" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="C189" s="26" t="s">
         <v>113</v>
@@ -12274,7 +12628,7 @@
     </row>
     <row r="193" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A193" s="17" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="B193" s="17" t="s">
         <v>101</v>
@@ -12306,10 +12660,10 @@
     </row>
     <row r="194" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B194" s="25" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C194" s="26" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D194" s="27"/>
       <c r="E194" s="27"/>
@@ -12337,10 +12691,10 @@
     </row>
     <row r="228" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B228" s="25" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C228" s="26" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D228" s="27"/>
       <c r="E228" s="27"/>
@@ -12369,37 +12723,37 @@
     <row r="229" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B229" s="18"/>
       <c r="C229" s="19" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D229" s="19" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="230" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D230" s="19" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="231" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C231" s="19" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="D231" s="19" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="232" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C232" s="19"/>
       <c r="D232" s="19" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="233" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B233" s="25" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="C233" s="26" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D233" s="27"/>
       <c r="E233" s="27"/>
@@ -12440,7 +12794,7 @@
     </row>
     <row r="236" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C236" s="18" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="D236" s="19" t="s">
         <v>117</v>
@@ -12469,7 +12823,7 @@
     </row>
     <row r="241" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C241" s="18" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D241" s="19" t="s">
         <v>122</v>
@@ -12487,7 +12841,7 @@
     </row>
     <row r="244" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C244" s="18" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="D244" s="19" t="s">
         <v>125</v>
@@ -12500,7 +12854,7 @@
     </row>
     <row r="246" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C246" s="18" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="D246" s="19" t="s">
         <v>127</v>
@@ -12536,10 +12890,10 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -12571,7 +12925,7 @@
         <v>230</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -12599,20 +12953,20 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C3" s="19" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C4" s="19" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -12641,13 +12995,13 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
       <c r="C7" s="19" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
@@ -12655,134 +13009,134 @@
         <v>91</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C9" s="19"/>
       <c r="D9" s="19" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E10" s="19" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D11" s="19" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D12" s="19"/>
       <c r="E12" s="19" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C13" s="19" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D14" s="19" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E15" s="19" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D16" s="19" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E17" s="19" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C18" s="19" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D19" s="19" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E20" s="19" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E21" s="19" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D22" s="19" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E23" s="19" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C24" s="19" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D25" s="19" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D26" s="19" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D27" s="19" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="E27" s="19"/>
     </row>
@@ -12792,7 +13146,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>228</v>
@@ -12824,25 +13178,25 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B30" s="19" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B31" s="19" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B32" s="19" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -12871,46 +13225,46 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B57" s="18" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C58" s="19" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C59" s="19" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B60" s="18" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C61" s="19" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="17" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="B64" s="17" t="s">
         <v>248</v>
@@ -12942,10 +13296,10 @@
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
@@ -12974,30 +13328,30 @@
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C111" s="19" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D112" s="19" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D113" s="19" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D114" s="19" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A116" s="17" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C116" s="13"/>
       <c r="D116" s="13"/>
@@ -13026,10 +13380,10 @@
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B117" s="25" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="D117" s="27"/>
       <c r="E117" s="27"/>
@@ -13057,10 +13411,10 @@
     </row>
     <row r="153" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B153" s="25" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="C153" s="26" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="D153" s="27"/>
       <c r="E153" s="27"/>
@@ -13088,190 +13442,190 @@
     </row>
     <row r="154" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C154" s="19" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="D154" s="19" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="155" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D155" s="19" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="F155" s="19" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
     </row>
     <row r="156" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D156" s="19" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F156" s="19" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="157" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D157" s="19" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="F157" s="19" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="158" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C158" s="19" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="159" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D159" s="19" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="F159" s="19" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
     </row>
     <row r="160" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D160" s="19" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F160" s="19" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
     </row>
     <row r="161" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C161" s="19" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="D161" s="19" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="162" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D162" s="19" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="F162" s="19" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E163" s="19" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
     </row>
     <row r="164" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E164" s="19" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E165" s="19" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D166" s="19" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="F166" s="19" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E167" s="19" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="168" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E168" s="19" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
     </row>
     <row r="169" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D169" s="19" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="E169" s="19" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
     </row>
     <row r="170" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D170" s="19" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="E170" s="19" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="171" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C171" s="19" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
     </row>
     <row r="172" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D172" s="19" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="F172" s="19" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="173" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D173" s="19" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="F173" s="19" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
     </row>
     <row r="174" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C174" s="19" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="D174" s="19" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
     </row>
     <row r="175" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D175" s="19" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="E175" s="19" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D176" s="19"/>
       <c r="E176" s="19" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
     </row>
     <row r="177" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D177" s="19" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="E177" s="19" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
     </row>
     <row r="178" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E178" s="19" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
     </row>
     <row r="180" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B180" s="25" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="C180" s="26" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="D180" s="27"/>
       <c r="E180" s="27"/>
@@ -13299,61 +13653,61 @@
     </row>
     <row r="181" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C181" s="19" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="D181" s="19" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
     </row>
     <row r="182" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D182" s="19" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="183" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D183" s="19" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
     </row>
     <row r="184" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C184" s="19" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="D184" s="19" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
     </row>
     <row r="185" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D185" s="19" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
     </row>
     <row r="186" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C186" s="19" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="D186" s="19" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="187" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D187" s="19" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="E187" s="19" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
     </row>
     <row r="188" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C188" s="19"/>
       <c r="E188" s="19" t="s">
-        <v>1152</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="189" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C189" s="19"/>
       <c r="E189" s="19" t="s">
-        <v>1153</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="190" spans="2:26" x14ac:dyDescent="0.3">
@@ -13380,58 +13734,58 @@
       <c r="C195" s="19"/>
       <c r="E195" s="19"/>
       <c r="F195" s="19" t="s">
-        <v>1154</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="196" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C196" s="19"/>
       <c r="E196" s="19"/>
       <c r="F196" s="19" t="s">
-        <v>1155</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="197" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D197" s="19" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="E197" s="19" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
     </row>
     <row r="198" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E198" s="19" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
     </row>
     <row r="199" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E199" s="19" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="200" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F200" s="19" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="201" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E201" s="19" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="202" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F202" s="19" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="203" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E203" s="19" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
     </row>
     <row r="204" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E204" s="19"/>
       <c r="F204" s="19" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
     </row>
     <row r="205" spans="3:6" x14ac:dyDescent="0.3">
@@ -13451,185 +13805,185 @@
     </row>
     <row r="210" spans="3:8" x14ac:dyDescent="0.3">
       <c r="F210" s="19" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
     </row>
     <row r="211" spans="3:8" x14ac:dyDescent="0.3">
       <c r="F211" s="19" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
     </row>
     <row r="212" spans="3:8" x14ac:dyDescent="0.3">
       <c r="F212" s="19" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="213" spans="3:8" x14ac:dyDescent="0.3">
       <c r="F213" s="19" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="214" spans="3:8" x14ac:dyDescent="0.3">
       <c r="F214" s="19" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
     </row>
     <row r="215" spans="3:8" x14ac:dyDescent="0.3">
       <c r="F215" s="19" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="H215" s="19" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
     </row>
     <row r="216" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D216" s="19" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="E216" s="19" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
     </row>
     <row r="217" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E217" s="19" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
     <row r="218" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D218" s="19" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="E218" s="19" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
     </row>
     <row r="219" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E219" s="19" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
     </row>
     <row r="220" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E220" s="19" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
     </row>
     <row r="221" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E221" s="19" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
     </row>
     <row r="222" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D222" s="19" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="E222" s="19" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
     </row>
     <row r="223" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E223" s="19" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
     </row>
     <row r="224" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C224" s="19" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="D224" s="19" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
     </row>
     <row r="225" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D225" s="19" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
     </row>
     <row r="226" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C226" s="19" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="D226" s="19" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
     </row>
     <row r="227" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D227" s="19" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
     </row>
     <row r="228" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D228" s="19" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
     </row>
     <row r="229" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E229" s="19" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
     </row>
     <row r="230" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F230" s="19" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
     </row>
     <row r="231" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E231" s="19" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="232" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F232" s="19" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
     </row>
     <row r="233" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E233" s="19" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
     </row>
     <row r="234" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F234" s="12" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
     </row>
     <row r="235" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D235" s="12" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
     </row>
     <row r="236" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E236" s="12" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
     </row>
     <row r="237" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F237" s="12" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
     </row>
     <row r="238" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E238" s="12" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
     </row>
     <row r="239" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F239" s="19" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
     </row>
     <row r="240" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F240" s="19" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="241" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F241" s="19" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
     </row>
     <row r="242" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F242" s="19" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -13657,10 +14011,10 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -13689,12 +14043,12 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -13702,10 +14056,10 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -13734,10 +14088,10 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -13766,10 +14120,10 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B35" s="25" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
@@ -13797,133 +14151,133 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C36" s="19" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C72" s="19" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D73" s="19" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E74" s="19" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D75" s="19" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E76" s="19" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D77" s="19" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D78" s="19" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
     </row>
     <row r="79" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D79" s="19"/>
       <c r="E79" s="19" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
     </row>
     <row r="80" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D80" s="19"/>
       <c r="E80" s="19" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
     </row>
     <row r="81" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D81" s="19" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
     </row>
     <row r="82" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E82" s="19" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
     </row>
     <row r="83" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D83" s="19" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
     </row>
     <row r="84" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D84" s="19"/>
       <c r="E84" s="19" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
     </row>
     <row r="85" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D85" s="19" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
     </row>
     <row r="86" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D86" s="19"/>
       <c r="E86" s="19" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
     </row>
     <row r="87" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D87" s="19"/>
       <c r="E87" s="19" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
     </row>
     <row r="88" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D88" s="19"/>
       <c r="E88" s="19" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
     </row>
     <row r="89" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B89" s="25" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="D89" s="27"/>
       <c r="E89" s="27"/>
@@ -13951,75 +14305,75 @@
     </row>
     <row r="90" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C90" s="19" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
     </row>
     <row r="102" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C102" s="19" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
     </row>
     <row r="103" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D103" s="19" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="E103" s="19" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
     </row>
     <row r="104" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D104" s="19"/>
       <c r="E104" s="12" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
     </row>
     <row r="105" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D105" s="19" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
     </row>
     <row r="106" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D106" s="19"/>
       <c r="E106" s="19" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
     </row>
     <row r="107" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C107" s="19" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="E107" s="19"/>
     </row>
     <row r="108" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D108" s="19" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="E108" s="19"/>
     </row>
     <row r="109" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D109" s="19" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="E109" s="19"/>
     </row>
     <row r="110" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B110" s="25" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="C110" s="26" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="D110" s="27"/>
       <c r="E110" s="27"/>
@@ -14047,71 +14401,71 @@
     </row>
     <row r="111" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C111" s="19" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
     </row>
     <row r="133" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C133" s="19" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
     </row>
     <row r="134" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C134" s="19"/>
       <c r="D134" s="19" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
     </row>
     <row r="135" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C135" s="19"/>
       <c r="D135" s="19" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
     </row>
     <row r="136" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C136" s="19"/>
       <c r="D136" s="19"/>
       <c r="E136" s="19" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
     </row>
     <row r="137" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C137" s="19"/>
       <c r="D137" s="19" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
     </row>
     <row r="138" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C138" s="19" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
     </row>
     <row r="139" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C139" s="19"/>
       <c r="D139" s="19" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
     </row>
     <row r="140" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C140" s="19"/>
       <c r="D140" s="19" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="141" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B141" s="25" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="D141" s="27"/>
       <c r="E141" s="27"/>
@@ -14139,186 +14493,186 @@
     </row>
     <row r="142" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C142" s="19" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="D142" s="19" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
     </row>
     <row r="162" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C162" s="19" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="D162" s="19" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D163" s="19" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="E163" s="19" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
     </row>
     <row r="164" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D164" s="19"/>
       <c r="E164" s="19" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D165" s="19" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="E165" s="19" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E166" s="19" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D167" s="19" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="E167" s="19" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="168" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E168" s="19" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
     </row>
     <row r="169" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D169" s="19" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="E169" s="19" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
     </row>
     <row r="170" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E170" s="19" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
     </row>
     <row r="171" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E171" s="19" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
     </row>
     <row r="172" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F172" s="29" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
     </row>
     <row r="173" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F173" s="29" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
     </row>
     <row r="174" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F174" s="29" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="175" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F175" s="29" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E176" s="19" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F177" s="29" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F178" s="29" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F179" s="29" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E180" s="19" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F181" s="29" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F182" s="30" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F183" s="30" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F184" s="29" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C185" s="19" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="D185" s="19" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="E185" s="19"/>
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D186" s="19" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
     </row>
     <row r="187" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D187" s="19" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C188" s="19" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="D188" s="19" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D189" s="31" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D190" s="19" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A192" s="17" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B192" s="17" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="C192" s="13"/>
       <c r="D192" s="13"/>
@@ -14347,297 +14701,297 @@
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B193" s="18" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="C193" s="19" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C194" s="19" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="D194" s="19" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
     </row>
     <row r="230" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C230" s="19" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="D230" s="19" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
     </row>
     <row r="231" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C231" s="19"/>
       <c r="D231" s="19" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="E231" s="19" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
     </row>
     <row r="232" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C232" s="19"/>
       <c r="D232" s="19"/>
       <c r="E232" s="19" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
     </row>
     <row r="233" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D233" s="19" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="E233" s="19" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="234" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E234" s="19" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
     </row>
     <row r="235" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D235" s="19" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="E235" s="19" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
     </row>
     <row r="236" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E236" s="19" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
     </row>
     <row r="237" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C237" s="19" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="D237" s="19" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
     </row>
     <row r="238" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D238" s="19" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E238" s="19" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
     </row>
     <row r="239" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E239" s="19" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
     </row>
     <row r="240" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D240" s="19" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="E240" s="19" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
     </row>
     <row r="241" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E241" s="19" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
     </row>
     <row r="242" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E242" s="19" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
     </row>
     <row r="243" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E243" s="19" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
     </row>
     <row r="244" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E244" s="19" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
     </row>
     <row r="245" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D245" s="19" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E245" s="19" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
     </row>
     <row r="246" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E246" s="19" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
     </row>
     <row r="247" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E247" s="19" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
     </row>
     <row r="248" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E248" s="19"/>
       <c r="F248" s="12" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
     </row>
     <row r="249" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E249" s="19" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
     </row>
     <row r="250" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E250" s="19"/>
       <c r="F250" s="12" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="251" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E251" s="19" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
     </row>
     <row r="252" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F252" s="19" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
     </row>
     <row r="253" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D253" s="19" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="E253" s="19" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
     </row>
     <row r="254" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E254" s="19" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
     </row>
     <row r="255" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E255" s="19" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
     </row>
     <row r="256" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F256" s="19" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
     </row>
     <row r="257" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E257" s="19" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F258" s="19" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E259" s="19" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F260" s="19" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
     </row>
     <row r="261" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E261" s="19" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="262" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F262" s="19" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E263" s="19" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
     </row>
     <row r="264" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F264" s="19" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E265" s="19" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F266" s="19" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E267" s="19" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F268" s="19" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G269" s="19" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
     </row>
     <row r="270" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F270" s="19" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="271" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G271" s="19" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
     </row>
     <row r="272" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B272" s="18" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="C272" s="19" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
     </row>
     <row r="273" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C273" s="19" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="D273" s="19" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
     </row>
     <row r="293" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C293" s="19" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="D293" s="19" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
     </row>
     <row r="294" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D294" s="19" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
     </row>
     <row r="296" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A296" s="17" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="B296" s="17" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="C296" s="13"/>
       <c r="D296" s="13"/>
@@ -14666,66 +15020,66 @@
     </row>
     <row r="297" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B297" s="19" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="C297" s="19" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B333" s="19" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="C333" s="19" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C334" s="19" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D335" s="19" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C336" s="19" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
     </row>
     <row r="337" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D337" s="19" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
     </row>
     <row r="338" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B338" s="19" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="C338" s="19" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
     </row>
     <row r="339" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D339" s="19" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
     </row>
     <row r="340" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D340" s="19" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
     </row>
     <row r="341" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D341" s="19" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
     </row>
     <row r="342" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E342" s="19" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
     </row>
   </sheetData>
@@ -14742,18 +15096,16 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z224"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="V185" sqref="V185"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="3.125" style="12" customWidth="1"/>
-    <col min="8" max="22" width="11.125" style="12" customWidth="1"/>
-    <col min="23" max="23" width="11" style="12" customWidth="1"/>
-    <col min="24" max="26" width="11.125" style="12" customWidth="1"/>
+    <col min="8" max="26" width="11.125" style="12" customWidth="1"/>
     <col min="27" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
@@ -14762,7 +15114,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -14789,22 +15141,151 @@
       <c r="Y1" s="13"/>
       <c r="Z1" s="13"/>
     </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z237"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="3.125" style="12" customWidth="1"/>
+    <col min="8" max="22" width="11.125" style="12" customWidth="1"/>
+    <col min="23" max="23" width="11" style="12" customWidth="1"/>
+    <col min="24" max="26" width="11.125" style="12" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+    </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>1058</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>1089</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>1084</v>
+        <v>1070</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>1085</v>
+        <v>1071</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -14833,114 +15314,114 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
-        <v>1090</v>
+        <v>1076</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>1091</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
       <c r="C7" s="19" t="s">
-        <v>1104</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C8" s="19" t="s">
-        <v>1092</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C9" s="19" t="s">
-        <v>1132</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
-        <v>1093</v>
+        <v>1079</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>1094</v>
+        <v>1080</v>
       </c>
       <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C11" s="19" t="s">
-        <v>1133</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C12" s="19" t="s">
-        <v>1087</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C13" s="19" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C14" s="19" t="s">
-        <v>1067</v>
+        <v>1053</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>1088</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19" t="s">
-        <v>1095</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19" t="s">
-        <v>1105</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C17" s="19" t="s">
-        <v>1069</v>
+        <v>1055</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>1086</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C18" s="19"/>
       <c r="D18" s="19" t="s">
-        <v>1099</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C19" s="19" t="s">
-        <v>1096</v>
+        <v>1082</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>1097</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C20" s="19"/>
       <c r="D20" s="19" t="s">
-        <v>1098</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C21" s="19" t="s">
-        <v>1100</v>
+        <v>1086</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>1102</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C22" s="19"/>
       <c r="D22" s="19" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
@@ -14948,7 +15429,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>1059</v>
+        <v>1045</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -14988,134 +15469,134 @@
         <v>237</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C60" s="19" t="s">
-        <v>1061</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C61" s="19" t="s">
-        <v>1062</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C62" s="19" t="s">
-        <v>1063</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" s="18" t="s">
-        <v>1064</v>
+        <v>1050</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>1065</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C64" s="19" t="s">
-        <v>1066</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C65" s="19" t="s">
-        <v>1077</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C66" s="18" t="s">
-        <v>1067</v>
+        <v>1053</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>1068</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C67" s="19"/>
       <c r="D67" s="19" t="s">
-        <v>1074</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C68" s="19" t="s">
-        <v>1069</v>
+        <v>1055</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>1070</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C69" s="19"/>
       <c r="D69" s="19" t="s">
-        <v>1075</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C70" s="19" t="s">
-        <v>1071</v>
+        <v>1057</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>1072</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C71" s="19"/>
       <c r="D71" s="19" t="s">
-        <v>1076</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D72" s="19" t="s">
-        <v>1073</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73" s="18" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
       <c r="D73" s="19"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C74" s="19" t="s">
-        <v>1080</v>
+        <v>1066</v>
       </c>
       <c r="D74" s="19"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C75" s="19" t="s">
-        <v>1081</v>
+        <v>1067</v>
       </c>
       <c r="D75" s="19"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76" s="18" t="s">
-        <v>1139</v>
+        <v>1125</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>1142</v>
+        <v>1128</v>
       </c>
       <c r="D76" s="19"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C77" s="19" t="s">
-        <v>1143</v>
+        <v>1129</v>
       </c>
       <c r="D77" s="19"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C78" s="19" t="s">
-        <v>1144</v>
+        <v>1130</v>
       </c>
       <c r="D78" s="19"/>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C79" s="19" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
       <c r="D79" s="19"/>
     </row>
@@ -15124,7 +15605,7 @@
         <v>18</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>1060</v>
+        <v>1046</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
@@ -15164,48 +15645,48 @@
         <v>237</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>1082</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C118" s="19" t="s">
-        <v>1083</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B119" s="18" t="s">
-        <v>1109</v>
+        <v>1095</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>1110</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C120" s="19" t="s">
-        <v>1111</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B121" s="18" t="s">
-        <v>1135</v>
+        <v>1121</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>1146</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C122" s="19" t="s">
-        <v>1147</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C123" s="19" t="s">
-        <v>1148</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C124" s="19" t="s">
-        <v>1149</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.3">
@@ -15213,10 +15694,10 @@
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A126" s="33" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>1108</v>
+        <v>1094</v>
       </c>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
@@ -15245,10 +15726,10 @@
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B127" s="18" t="s">
-        <v>1117</v>
+        <v>1103</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>1118</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.3">
@@ -15304,66 +15785,66 @@
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B162" s="18" t="s">
-        <v>1119</v>
+        <v>1105</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>1120</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C163" s="19" t="s">
-        <v>1121</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C164" s="19" t="s">
-        <v>1122</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C165" s="19" t="s">
-        <v>1123</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B166" s="18" t="s">
-        <v>1124</v>
+        <v>1110</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>1128</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C167" s="19" t="s">
-        <v>1125</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C168" s="19" t="s">
-        <v>1126</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C169" s="19" t="s">
-        <v>1127</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B170" s="18" t="s">
-        <v>1124</v>
+        <v>1110</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>1129</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C171" s="19" t="s">
-        <v>1130</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C172" s="19" t="s">
-        <v>1131</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.3">
@@ -15377,10 +15858,10 @@
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A178" s="33" t="s">
-        <v>1107</v>
+        <v>1093</v>
       </c>
       <c r="B178" s="17" t="s">
-        <v>1108</v>
+        <v>1094</v>
       </c>
       <c r="C178" s="13"/>
       <c r="D178" s="13"/>
@@ -15425,70 +15906,73 @@
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C214" s="19" t="s">
-        <v>1112</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B215" s="18" t="s">
-        <v>1109</v>
+        <v>1095</v>
       </c>
       <c r="C215" s="19" t="s">
-        <v>1113</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C216" s="19" t="s">
-        <v>1134</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B217" s="18" t="s">
-        <v>1109</v>
+        <v>1095</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>1114</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C218" s="19" t="s">
-        <v>1115</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C219" s="19" t="s">
-        <v>1116</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B220" s="18" t="s">
-        <v>1135</v>
+        <v>1121</v>
       </c>
       <c r="C220" s="19" t="s">
-        <v>1136</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C221" s="19" t="s">
-        <v>1137</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C222" s="19" t="s">
-        <v>1138</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B223" s="18" t="s">
-        <v>1139</v>
+        <v>1125</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>1140</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C224" s="19" t="s">
-        <v>1141</v>
-      </c>
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="237" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H237"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -15498,7 +15982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z239"/>
   <sheetViews>
@@ -15550,7 +16034,7 @@
         <v>86</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>951</v>
+        <v>937</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -15590,7 +16074,7 @@
         <v>18</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>952</v>
+        <v>938</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -15619,138 +16103,138 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B37" s="18" t="s">
-        <v>953</v>
+        <v>939</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C38" s="19" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C39" s="19" t="s">
-        <v>956</v>
+        <v>942</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>957</v>
+        <v>943</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
-        <v>959</v>
+        <v>945</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>960</v>
+        <v>946</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C41" s="19" t="s">
-        <v>961</v>
+        <v>947</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>962</v>
+        <v>948</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C42" s="19" t="s">
-        <v>956</v>
+        <v>942</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>963</v>
+        <v>949</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B43" s="18" t="s">
-        <v>964</v>
+        <v>950</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>965</v>
+        <v>951</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C44" s="19" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>966</v>
+        <v>952</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C45" s="19" t="s">
-        <v>968</v>
+        <v>954</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>969</v>
+        <v>955</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
-        <v>967</v>
+        <v>953</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>970</v>
+        <v>956</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C47" s="19" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>966</v>
+        <v>952</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C48" s="19" t="s">
-        <v>968</v>
+        <v>954</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>969</v>
+        <v>955</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B49" s="18" t="s">
-        <v>971</v>
+        <v>957</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>972</v>
+        <v>958</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C50" s="19" t="s">
-        <v>961</v>
+        <v>947</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>977</v>
+        <v>963</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C51" s="19" t="s">
-        <v>968</v>
+        <v>954</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>978</v>
+        <v>964</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C52" s="19" t="s">
-        <v>981</v>
+        <v>967</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>980</v>
+        <v>966</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C53" s="19" t="s">
-        <v>979</v>
+        <v>965</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>982</v>
+        <v>968</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.3">
@@ -15758,7 +16242,7 @@
         <v>81</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>973</v>
+        <v>959</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -15787,115 +16271,115 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B56" s="18" t="s">
-        <v>953</v>
+        <v>939</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>974</v>
+        <v>960</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="18" t="s">
-        <v>959</v>
+        <v>945</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>983</v>
+        <v>969</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C91" s="19" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>984</v>
+        <v>970</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D92" s="19" t="s">
-        <v>985</v>
+        <v>971</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D93" s="19" t="s">
-        <v>986</v>
+        <v>972</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D94" s="19" t="s">
-        <v>987</v>
+        <v>973</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C95" s="19" t="s">
-        <v>956</v>
+        <v>942</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>988</v>
+        <v>974</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D96" s="19" t="s">
-        <v>996</v>
+        <v>982</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>1004</v>
+        <v>990</v>
       </c>
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D97" s="19"/>
       <c r="E97" s="19" t="s">
-        <v>989</v>
+        <v>975</v>
       </c>
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D98" s="19"/>
       <c r="E98" s="19" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D99" s="19" t="s">
-        <v>997</v>
+        <v>983</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>1005</v>
+        <v>991</v>
       </c>
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D100" s="19"/>
       <c r="E100" s="19" t="s">
-        <v>990</v>
+        <v>976</v>
       </c>
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D101" s="19"/>
       <c r="E101" s="19" t="s">
-        <v>1000</v>
+        <v>986</v>
       </c>
     </row>
     <row r="102" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D102" s="19" t="s">
-        <v>998</v>
+        <v>984</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>1006</v>
+        <v>992</v>
       </c>
     </row>
     <row r="103" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D103" s="19"/>
       <c r="E103" s="19" t="s">
-        <v>991</v>
+        <v>977</v>
       </c>
     </row>
     <row r="104" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D104" s="19"/>
       <c r="E104" s="19" t="s">
-        <v>1001</v>
+        <v>987</v>
       </c>
     </row>
     <row r="105" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D105" s="19"/>
       <c r="E105" s="19" t="s">
-        <v>1002</v>
+        <v>988</v>
       </c>
     </row>
     <row r="106" spans="4:5" x14ac:dyDescent="0.3">
@@ -15948,34 +16432,34 @@
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C122" s="19" t="s">
-        <v>992</v>
+        <v>978</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>993</v>
+        <v>979</v>
       </c>
     </row>
     <row r="123" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D123" s="19" t="s">
-        <v>994</v>
+        <v>980</v>
       </c>
       <c r="E123" s="19" t="s">
-        <v>995</v>
+        <v>981</v>
       </c>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D124" s="19" t="s">
-        <v>1003</v>
+        <v>989</v>
       </c>
       <c r="E124" s="19" t="s">
-        <v>1007</v>
+        <v>993</v>
       </c>
     </row>
     <row r="125" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D125" s="19" t="s">
-        <v>1008</v>
+        <v>994</v>
       </c>
       <c r="E125" s="19" t="s">
-        <v>1009</v>
+        <v>995</v>
       </c>
     </row>
     <row r="126" spans="3:5" x14ac:dyDescent="0.3">
@@ -15992,7 +16476,7 @@
         <v>84</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>975</v>
+        <v>961</v>
       </c>
       <c r="C131" s="13"/>
       <c r="D131" s="13"/>
@@ -16021,220 +16505,220 @@
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B132" s="18" t="s">
-        <v>953</v>
+        <v>939</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>974</v>
+        <v>960</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B166" s="18" t="s">
-        <v>1010</v>
+        <v>996</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>1011</v>
+        <v>997</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C167" s="19" t="s">
-        <v>1012</v>
+        <v>998</v>
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C168" s="19" t="s">
-        <v>1051</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C169" s="19" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="D169" s="19" t="s">
-        <v>1031</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C170" s="19"/>
       <c r="D170" s="19" t="s">
-        <v>1032</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C171" s="19" t="s">
-        <v>1036</v>
+        <v>1022</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D172" s="19" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="E172" s="19" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E173" s="19" t="s">
-        <v>1016</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E174" s="19" t="s">
-        <v>1017</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D175" s="19" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
       <c r="E175" s="19" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D176" s="19"/>
       <c r="E176" s="19" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="177" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E177" s="19" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="178" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E178" s="19" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="179" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D179" s="19" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
       <c r="E179" s="19" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="180" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E180" s="19" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="181" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E181" s="19" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="182" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E182" s="19" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="183" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D183" s="19" t="s">
-        <v>1045</v>
+        <v>1031</v>
       </c>
       <c r="E183" s="19" t="s">
-        <v>1046</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="184" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D184" s="19"/>
       <c r="E184" s="19" t="s">
-        <v>1048</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="185" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E185" s="19" t="s">
-        <v>1049</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="186" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E186" s="19" t="s">
-        <v>1047</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="187" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C187" s="19" t="s">
-        <v>1037</v>
+        <v>1023</v>
       </c>
       <c r="D187" s="19" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="188" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D188" s="19" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="E188" s="19" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="189" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D189" s="19" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
       <c r="E189" s="19" t="s">
-        <v>1033</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="190" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D190" s="19" t="s">
-        <v>1034</v>
+        <v>1020</v>
       </c>
       <c r="E190" s="19" t="s">
-        <v>1035</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="191" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C191" s="19" t="s">
-        <v>1038</v>
+        <v>1024</v>
       </c>
       <c r="D191" s="19" t="s">
-        <v>1039</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="192" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D192" s="19" t="s">
-        <v>1040</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="193" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D193" s="19" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="E193" s="19" t="s">
-        <v>1041</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="194" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E194" s="19" t="s">
-        <v>1042</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E195" s="19" t="s">
-        <v>1043</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E196" s="19" t="s">
-        <v>1044</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="197" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E197" s="19" t="s">
-        <v>1050</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="203" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A203" s="17" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B203" s="17" t="s">
-        <v>976</v>
+        <v>962</v>
       </c>
       <c r="C203" s="13"/>
       <c r="D203" s="13"/>
@@ -16263,10 +16747,10 @@
     </row>
     <row r="204" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B204" s="18" t="s">
-        <v>953</v>
+        <v>939</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>974</v>
+        <v>960</v>
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.3">
@@ -16279,17 +16763,17 @@
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C237" s="19" t="s">
-        <v>1052</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C238" s="19" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C239" s="19" t="s">
-        <v>1053</v>
+        <v>1039</v>
       </c>
     </row>
   </sheetData>
@@ -17300,7 +17784,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>915</v>
+        <v>901</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -17329,7 +17813,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -17337,7 +17821,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -17369,7 +17853,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
@@ -17377,7 +17861,7 @@
         <v>237</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>919</v>
+        <v>905</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
@@ -17385,7 +17869,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -17417,7 +17901,7 @@
         <v>20</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>921</v>
+        <v>907</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
@@ -17433,7 +17917,7 @@
         <v>24</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>922</v>
+        <v>908</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
@@ -17441,7 +17925,7 @@
         <v>50</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>923</v>
+        <v>909</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
@@ -17449,7 +17933,7 @@
         <v>52</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>924</v>
+        <v>910</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
@@ -17457,7 +17941,7 @@
         <v>54</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>925</v>
+        <v>911</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
@@ -17465,12 +17949,12 @@
         <v>30</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D56" s="19" t="s">
-        <v>926</v>
+        <v>912</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
@@ -17481,7 +17965,7 @@
         <v>237</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>927</v>
+        <v>913</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
@@ -17489,25 +17973,25 @@
         <v>73</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C60" s="19" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>929</v>
+        <v>915</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D61" s="19" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D62" s="19" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.3">
@@ -17515,7 +17999,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>932</v>
+        <v>918</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
@@ -17547,17 +18031,17 @@
         <v>20</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>933</v>
+        <v>919</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C83" s="19" t="s">
-        <v>934</v>
+        <v>920</v>
       </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C84" s="19" t="s">
-        <v>935</v>
+        <v>921</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
@@ -17565,7 +18049,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>931</v>
+        <v>917</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
@@ -17597,12 +18081,12 @@
         <v>20</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>936</v>
+        <v>922</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C88" s="12" t="s">
-        <v>937</v>
+        <v>923</v>
       </c>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.3">
@@ -17610,7 +18094,7 @@
         <v>44</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>938</v>
+        <v>924</v>
       </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.3">
@@ -17618,31 +18102,31 @@
         <v>69</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B91" s="18" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>940</v>
+        <v>926</v>
       </c>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B92" s="18" t="s">
-        <v>1056</v>
+        <v>1042</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>1057</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="17" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
@@ -17674,7 +18158,7 @@
         <v>20</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>941</v>
+        <v>927</v>
       </c>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.3">
@@ -17682,7 +18166,7 @@
         <v>44</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>942</v>
+        <v>928</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.3">
@@ -17690,7 +18174,7 @@
         <v>227</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>943</v>
+        <v>929</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
@@ -17722,7 +18206,7 @@
         <v>20</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
@@ -17730,7 +18214,7 @@
         <v>237</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>945</v>
+        <v>931</v>
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.3">
@@ -17738,15 +18222,15 @@
         <v>69</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>946</v>
+        <v>932</v>
       </c>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A125" s="17" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
@@ -17778,12 +18262,12 @@
         <v>20</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>947</v>
+        <v>933</v>
       </c>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C127" s="19" t="s">
-        <v>948</v>
+        <v>934</v>
       </c>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.3">
@@ -17791,12 +18275,12 @@
         <v>44</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>949</v>
+        <v>935</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C129" s="19" t="s">
-        <v>950</v>
+        <v>936</v>
       </c>
     </row>
   </sheetData>
@@ -17811,7 +18295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
@@ -17827,7 +18311,7 @@
         <v>100</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -17856,7 +18340,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
@@ -17864,7 +18348,7 @@
         <v>217</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -17893,10 +18377,10 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -17925,46 +18409,46 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B36" s="18" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C37" s="19" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C39" s="19" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C41" s="19" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C42" s="19" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
@@ -17972,7 +18456,7 @@
         <v>226</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -18001,17 +18485,17 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B45" s="19" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B46" s="19" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B47" s="19" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
     </row>
   </sheetData>
@@ -18026,8 +18510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z131"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18039,10 +18523,10 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -18071,20 +18555,20 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -18116,72 +18600,72 @@
         <v>205</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C43" s="19" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D44" s="19" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C45" s="19" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D46" s="19" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D47" s="19" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D48" s="19" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C49" s="19" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D50" s="19" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -18213,78 +18697,78 @@
         <v>205</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="18" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C91" s="19" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D92" s="19" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D93" s="19" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D94" s="19" t="s">
+        <v>826</v>
+      </c>
+      <c r="E94" s="19" t="s">
         <v>835</v>
-      </c>
-      <c r="E94" s="19" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D95" s="19" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D96" s="19" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E97" s="19" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E98" s="19" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100" s="17" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
@@ -18313,10 +18797,10 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B101" s="18" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.3">
@@ -18324,20 +18808,20 @@
         <v>237</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C119" s="19" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D120" s="19" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.3">
@@ -18345,25 +18829,25 @@
         <v>257</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D122" s="19" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C123" s="19" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D124" s="19" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.3">
@@ -18371,37 +18855,37 @@
         <v>97</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D126" s="19" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D127" s="19" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E128" s="19" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E129" s="19" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E130" s="19" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E131" s="19" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
     </row>
   </sheetData>
@@ -18414,10 +18898,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z268"/>
+  <dimension ref="A1:Z294"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="X59" sqref="X59"/>
+    <sheetView topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="S214" sqref="S214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18550,7 +19034,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="D12" s="19"/>
     </row>
@@ -18852,7 +19336,7 @@
     </row>
     <row r="120" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C120" s="18" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D120" s="19" t="s">
         <v>267</v>
@@ -18860,68 +19344,74 @@
     </row>
     <row r="121" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D121" s="19" t="s">
-        <v>268</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="122" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D122" s="19" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
     </row>
     <row r="123" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D123" s="19"/>
       <c r="E123" s="19" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
     </row>
     <row r="124" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D124" s="19" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="E124" s="19" t="s">
-        <v>907</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="125" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D125" s="19"/>
       <c r="E125" s="19" t="s">
-        <v>908</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="126" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D126" s="19" t="s">
-        <v>909</v>
-      </c>
+      <c r="D126" s="19"/>
       <c r="E126" s="19" t="s">
-        <v>910</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="127" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D127" s="19"/>
       <c r="E127" s="19" t="s">
-        <v>911</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="128" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D128" s="19"/>
       <c r="E128" s="19" t="s">
-        <v>912</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="129" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D129" s="19"/>
-      <c r="E129" s="19"/>
+      <c r="D129" s="19" t="s">
+        <v>897</v>
+      </c>
+      <c r="E129" s="19" t="s">
+        <v>898</v>
+      </c>
     </row>
     <row r="130" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D130" s="19"/>
-      <c r="E130" s="19"/>
+      <c r="E130" s="19" t="s">
+        <v>899</v>
+      </c>
     </row>
     <row r="131" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D131" s="19"/>
-      <c r="E131" s="19"/>
+      <c r="E131" s="19" t="s">
+        <v>900</v>
+      </c>
     </row>
     <row r="132" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D132" s="19"/>
@@ -18980,534 +19470,629 @@
       <c r="E145" s="19"/>
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C146" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="D146" s="19" t="s">
-        <v>269</v>
-      </c>
+      <c r="D146" s="19"/>
+      <c r="E146" s="19"/>
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D147" s="19" t="s">
-        <v>270</v>
-      </c>
+      <c r="D147" s="19"/>
+      <c r="E147" s="19"/>
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C148" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="D148" s="19" t="s">
-        <v>271</v>
-      </c>
+      <c r="D148" s="19"/>
+      <c r="E148" s="19"/>
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D149" s="19" t="s">
-        <v>883</v>
+        <v>1161</v>
+      </c>
+      <c r="E149" s="19" t="s">
+        <v>1162</v>
       </c>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C150" s="18" t="s">
+      <c r="D150" s="19"/>
+      <c r="E150" s="19" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D151" s="19"/>
+      <c r="E151" s="19" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D152" s="19"/>
+      <c r="E152" s="19" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C153" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="D153" s="19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="154" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D154" s="19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A156" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="B156" s="17"/>
+      <c r="C156" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13"/>
+      <c r="G156" s="13"/>
+      <c r="H156" s="13"/>
+      <c r="I156" s="13"/>
+      <c r="J156" s="13"/>
+      <c r="K156" s="13"/>
+      <c r="L156" s="13"/>
+      <c r="M156" s="13"/>
+      <c r="N156" s="13"/>
+      <c r="O156" s="13"/>
+      <c r="P156" s="13"/>
+      <c r="Q156" s="13"/>
+      <c r="R156" s="13"/>
+      <c r="S156" s="13"/>
+      <c r="T156" s="13"/>
+      <c r="U156" s="13"/>
+      <c r="V156" s="13"/>
+      <c r="W156" s="13"/>
+      <c r="X156" s="13"/>
+      <c r="Y156" s="13"/>
+      <c r="Z156" s="13"/>
+    </row>
+    <row r="157" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B157" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C157" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="D157" s="27"/>
+      <c r="E157" s="27"/>
+      <c r="F157" s="27"/>
+      <c r="G157" s="27"/>
+      <c r="H157" s="27"/>
+      <c r="I157" s="27"/>
+      <c r="J157" s="27"/>
+      <c r="K157" s="27"/>
+      <c r="L157" s="27"/>
+      <c r="M157" s="27"/>
+      <c r="N157" s="27"/>
+      <c r="O157" s="27"/>
+      <c r="P157" s="27"/>
+      <c r="Q157" s="27"/>
+      <c r="R157" s="27"/>
+      <c r="S157" s="27"/>
+      <c r="T157" s="27"/>
+      <c r="U157" s="27"/>
+      <c r="V157" s="27"/>
+      <c r="W157" s="27"/>
+      <c r="X157" s="27"/>
+      <c r="Y157" s="27"/>
+      <c r="Z157" s="27"/>
+    </row>
+    <row r="210" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B210" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="C210" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="D210" s="27"/>
+      <c r="E210" s="27"/>
+      <c r="F210" s="27"/>
+      <c r="G210" s="27"/>
+      <c r="H210" s="27"/>
+      <c r="I210" s="27"/>
+      <c r="J210" s="27"/>
+      <c r="K210" s="27"/>
+      <c r="L210" s="27"/>
+      <c r="M210" s="27"/>
+      <c r="N210" s="27"/>
+      <c r="O210" s="27"/>
+      <c r="P210" s="27"/>
+      <c r="Q210" s="27"/>
+      <c r="R210" s="27"/>
+      <c r="S210" s="27"/>
+      <c r="T210" s="27"/>
+      <c r="U210" s="27"/>
+      <c r="V210" s="27"/>
+      <c r="W210" s="27"/>
+      <c r="X210" s="27"/>
+      <c r="Y210" s="27"/>
+      <c r="Z210" s="27"/>
+    </row>
+    <row r="211" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C211" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="D211" s="19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="212" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D212" s="19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="213" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D213" s="19" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="214" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C214" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="D214" s="19" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="215" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D215" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="D150" s="19" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D151" s="19" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D152" s="19" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A154" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="B154" s="17"/>
-      <c r="C154" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="D154" s="13"/>
-      <c r="E154" s="13"/>
-      <c r="F154" s="13"/>
-      <c r="G154" s="13"/>
-      <c r="H154" s="13"/>
-      <c r="I154" s="13"/>
-      <c r="J154" s="13"/>
-      <c r="K154" s="13"/>
-      <c r="L154" s="13"/>
-      <c r="M154" s="13"/>
-      <c r="N154" s="13"/>
-      <c r="O154" s="13"/>
-      <c r="P154" s="13"/>
-      <c r="Q154" s="13"/>
-      <c r="R154" s="13"/>
-      <c r="S154" s="13"/>
-      <c r="T154" s="13"/>
-      <c r="U154" s="13"/>
-      <c r="V154" s="13"/>
-      <c r="W154" s="13"/>
-      <c r="X154" s="13"/>
-      <c r="Y154" s="13"/>
-      <c r="Z154" s="13"/>
-    </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B155" s="25" t="s">
+    </row>
+    <row r="216" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C216" s="19" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D216" s="19" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="217" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D217" s="19" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="218" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D218" s="19"/>
+    </row>
+    <row r="219" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D219" s="19" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="221" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B221" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="C221" s="26" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D221" s="27"/>
+      <c r="E221" s="27"/>
+      <c r="F221" s="27"/>
+      <c r="G221" s="27"/>
+      <c r="H221" s="27"/>
+      <c r="I221" s="27"/>
+      <c r="J221" s="27"/>
+      <c r="K221" s="27"/>
+      <c r="L221" s="27"/>
+      <c r="M221" s="27"/>
+      <c r="N221" s="27"/>
+      <c r="O221" s="27"/>
+      <c r="P221" s="27"/>
+      <c r="Q221" s="27"/>
+      <c r="R221" s="27"/>
+      <c r="S221" s="27"/>
+      <c r="T221" s="27"/>
+      <c r="U221" s="27"/>
+      <c r="V221" s="27"/>
+      <c r="W221" s="27"/>
+      <c r="X221" s="27"/>
+      <c r="Y221" s="27"/>
+      <c r="Z221" s="27"/>
+    </row>
+    <row r="222" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C222" s="19" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="223" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C223" s="19" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D223" s="19" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="224" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D224" s="19" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="225" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C225" s="19" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D225" s="19" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="226" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D226" s="19" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="228" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B228" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="C228" s="26" t="s">
+        <v>863</v>
+      </c>
+      <c r="D228" s="27"/>
+      <c r="E228" s="27"/>
+      <c r="F228" s="27"/>
+      <c r="G228" s="27"/>
+      <c r="H228" s="27"/>
+      <c r="I228" s="27"/>
+      <c r="J228" s="27"/>
+      <c r="K228" s="27"/>
+      <c r="L228" s="27"/>
+      <c r="M228" s="27"/>
+      <c r="N228" s="27"/>
+      <c r="O228" s="27"/>
+      <c r="P228" s="27"/>
+      <c r="Q228" s="27"/>
+      <c r="R228" s="27"/>
+      <c r="S228" s="27"/>
+      <c r="T228" s="27"/>
+      <c r="U228" s="27"/>
+      <c r="V228" s="27"/>
+      <c r="W228" s="27"/>
+      <c r="X228" s="27"/>
+      <c r="Y228" s="27"/>
+      <c r="Z228" s="27"/>
+    </row>
+    <row r="229" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C229" s="19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="230" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C230" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="D230" s="19" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="231" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C231" s="19"/>
+      <c r="D231" s="19" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="232" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C232" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="D232" s="19" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="233" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C233" s="19"/>
+      <c r="D233" s="19" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="234" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C234" s="19"/>
+      <c r="D234" s="19"/>
+      <c r="E234" s="19" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="235" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C235" s="19"/>
+      <c r="D235" s="19"/>
+      <c r="E235" s="19" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="236" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C236" s="19"/>
+      <c r="D236" s="19" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="237" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C237" s="19"/>
+      <c r="D237" s="19"/>
+      <c r="E237" s="19" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="238" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C238" s="19"/>
+      <c r="D238" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="239" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C239" s="19"/>
+      <c r="D239" s="19"/>
+      <c r="E239" s="19" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="240" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C240" s="19" t="s">
+        <v>868</v>
+      </c>
+      <c r="D240" s="19" t="s">
+        <v>869</v>
+      </c>
+      <c r="E240" s="19"/>
+    </row>
+    <row r="241" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C241" s="19"/>
+      <c r="D241" s="19" t="s">
+        <v>870</v>
+      </c>
+      <c r="E241" s="19"/>
+    </row>
+    <row r="242" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C242" s="19"/>
+      <c r="D242" s="19"/>
+      <c r="E242" s="19" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="243" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C243" s="19"/>
+      <c r="D243" s="19" t="s">
+        <v>871</v>
+      </c>
+      <c r="E243" s="19"/>
+    </row>
+    <row r="244" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C244" s="19"/>
+      <c r="D244" s="19"/>
+      <c r="E244" s="19" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="245" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C245" s="19"/>
+      <c r="D245" s="19" t="s">
+        <v>873</v>
+      </c>
+      <c r="E245" s="19"/>
+    </row>
+    <row r="246" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C246" s="19"/>
+      <c r="D246" s="19"/>
+      <c r="E246" s="19" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="247" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C247" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D247" s="19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="248" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C248" s="19"/>
+      <c r="D248" s="19" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="249" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C249" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D249" s="19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="250" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D250" s="19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="251" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D251" s="19"/>
+    </row>
+    <row r="252" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D252" s="19"/>
+    </row>
+    <row r="253" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D253" s="19"/>
+    </row>
+    <row r="255" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A255" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="B255" s="17"/>
+      <c r="C255" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="D255" s="13"/>
+      <c r="E255" s="13"/>
+      <c r="F255" s="13"/>
+      <c r="G255" s="13"/>
+      <c r="H255" s="13"/>
+      <c r="I255" s="13"/>
+      <c r="J255" s="13"/>
+      <c r="K255" s="13"/>
+      <c r="L255" s="13"/>
+      <c r="M255" s="13"/>
+      <c r="N255" s="13"/>
+      <c r="O255" s="13"/>
+      <c r="P255" s="13"/>
+      <c r="Q255" s="13"/>
+      <c r="R255" s="13"/>
+      <c r="S255" s="13"/>
+      <c r="T255" s="13"/>
+      <c r="U255" s="13"/>
+      <c r="V255" s="13"/>
+      <c r="W255" s="13"/>
+      <c r="X255" s="13"/>
+      <c r="Y255" s="13"/>
+      <c r="Z255" s="13"/>
+    </row>
+    <row r="256" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B256" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="C155" s="26" t="s">
+      <c r="C256" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="D155" s="27"/>
-      <c r="E155" s="27"/>
-      <c r="F155" s="27"/>
-      <c r="G155" s="27"/>
-      <c r="H155" s="27"/>
-      <c r="I155" s="27"/>
-      <c r="J155" s="27"/>
-      <c r="K155" s="27"/>
-      <c r="L155" s="27"/>
-      <c r="M155" s="27"/>
-      <c r="N155" s="27"/>
-      <c r="O155" s="27"/>
-      <c r="P155" s="27"/>
-      <c r="Q155" s="27"/>
-      <c r="R155" s="27"/>
-      <c r="S155" s="27"/>
-      <c r="T155" s="27"/>
-      <c r="U155" s="27"/>
-      <c r="V155" s="27"/>
-      <c r="W155" s="27"/>
-      <c r="X155" s="27"/>
-      <c r="Y155" s="27"/>
-      <c r="Z155" s="27"/>
-    </row>
-    <row r="196" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B196" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="C196" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="D196" s="27"/>
-      <c r="E196" s="27"/>
-      <c r="F196" s="27"/>
-      <c r="G196" s="27"/>
-      <c r="H196" s="27"/>
-      <c r="I196" s="27"/>
-      <c r="J196" s="27"/>
-      <c r="K196" s="27"/>
-      <c r="L196" s="27"/>
-      <c r="M196" s="27"/>
-      <c r="N196" s="27"/>
-      <c r="O196" s="27"/>
-      <c r="P196" s="27"/>
-      <c r="Q196" s="27"/>
-      <c r="R196" s="27"/>
-      <c r="S196" s="27"/>
-      <c r="T196" s="27"/>
-      <c r="U196" s="27"/>
-      <c r="V196" s="27"/>
-      <c r="W196" s="27"/>
-      <c r="X196" s="27"/>
-      <c r="Y196" s="27"/>
-      <c r="Z196" s="27"/>
-    </row>
-    <row r="197" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C197" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="D197" s="19" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="198" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D198" s="19" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="199" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C199" s="19" t="s">
+      <c r="D256" s="27"/>
+      <c r="E256" s="27"/>
+      <c r="F256" s="27"/>
+      <c r="G256" s="27"/>
+      <c r="H256" s="27"/>
+      <c r="I256" s="27"/>
+      <c r="J256" s="27"/>
+      <c r="K256" s="27"/>
+      <c r="L256" s="27"/>
+      <c r="M256" s="27"/>
+      <c r="N256" s="27"/>
+      <c r="O256" s="27"/>
+      <c r="P256" s="27"/>
+      <c r="Q256" s="27"/>
+      <c r="R256" s="27"/>
+      <c r="S256" s="27"/>
+      <c r="T256" s="27"/>
+      <c r="U256" s="27"/>
+      <c r="V256" s="27"/>
+      <c r="W256" s="27"/>
+      <c r="X256" s="27"/>
+      <c r="Y256" s="27"/>
+      <c r="Z256" s="27"/>
+    </row>
+    <row r="280" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B280" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C280" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D280" s="27"/>
+      <c r="E280" s="27"/>
+      <c r="F280" s="27"/>
+      <c r="G280" s="27"/>
+      <c r="H280" s="27"/>
+      <c r="I280" s="27"/>
+      <c r="J280" s="27"/>
+      <c r="K280" s="27"/>
+      <c r="L280" s="27"/>
+      <c r="M280" s="27"/>
+      <c r="N280" s="27"/>
+      <c r="O280" s="27"/>
+      <c r="P280" s="27"/>
+      <c r="Q280" s="27"/>
+      <c r="R280" s="27"/>
+      <c r="S280" s="27"/>
+      <c r="T280" s="27"/>
+      <c r="U280" s="27"/>
+      <c r="V280" s="27"/>
+      <c r="W280" s="27"/>
+      <c r="X280" s="27"/>
+      <c r="Y280" s="27"/>
+      <c r="Z280" s="27"/>
+    </row>
+    <row r="281" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C281" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="D199" s="19" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="200" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D200" s="19" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="202" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B202" s="25" t="s">
-        <v>284</v>
-      </c>
-      <c r="C202" s="26" t="s">
-        <v>872</v>
-      </c>
-      <c r="D202" s="27"/>
-      <c r="E202" s="27"/>
-      <c r="F202" s="27"/>
-      <c r="G202" s="27"/>
-      <c r="H202" s="27"/>
-      <c r="I202" s="27"/>
-      <c r="J202" s="27"/>
-      <c r="K202" s="27"/>
-      <c r="L202" s="27"/>
-      <c r="M202" s="27"/>
-      <c r="N202" s="27"/>
-      <c r="O202" s="27"/>
-      <c r="P202" s="27"/>
-      <c r="Q202" s="27"/>
-      <c r="R202" s="27"/>
-      <c r="S202" s="27"/>
-      <c r="T202" s="27"/>
-      <c r="U202" s="27"/>
-      <c r="V202" s="27"/>
-      <c r="W202" s="27"/>
-      <c r="X202" s="27"/>
-      <c r="Y202" s="27"/>
-      <c r="Z202" s="27"/>
-    </row>
-    <row r="203" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C203" s="19" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="204" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C204" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="D204" s="19" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="205" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C205" s="19"/>
-      <c r="D205" s="19" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="206" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C206" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="D206" s="19" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="207" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C207" s="19"/>
-      <c r="D207" s="19" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="208" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C208" s="19"/>
-      <c r="D208" s="19"/>
-      <c r="E208" s="19" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="209" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C209" s="19"/>
-      <c r="D209" s="19"/>
-      <c r="E209" s="19" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="210" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C210" s="19"/>
-      <c r="D210" s="19" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="211" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C211" s="19"/>
-      <c r="D211" s="19"/>
-      <c r="E211" s="19" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="212" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C212" s="19"/>
-      <c r="D212" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="213" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C213" s="19"/>
-      <c r="D213" s="19"/>
-      <c r="E213" s="19" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="214" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C214" s="19" t="s">
-        <v>877</v>
-      </c>
-      <c r="D214" s="19" t="s">
-        <v>878</v>
-      </c>
-      <c r="E214" s="19"/>
-    </row>
-    <row r="215" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C215" s="19"/>
-      <c r="D215" s="19" t="s">
-        <v>879</v>
-      </c>
-      <c r="E215" s="19"/>
-    </row>
-    <row r="216" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C216" s="19"/>
-      <c r="D216" s="19"/>
-      <c r="E216" s="19" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="217" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C217" s="19"/>
-      <c r="D217" s="19" t="s">
-        <v>880</v>
-      </c>
-      <c r="E217" s="19"/>
-    </row>
-    <row r="218" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C218" s="19"/>
-      <c r="D218" s="19"/>
-      <c r="E218" s="19" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="219" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C219" s="19"/>
-      <c r="D219" s="19" t="s">
-        <v>882</v>
-      </c>
-      <c r="E219" s="19"/>
-    </row>
-    <row r="220" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C220" s="19"/>
-      <c r="D220" s="19"/>
-      <c r="E220" s="19" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="221" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C221" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="D221" s="19" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="222" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C222" s="19"/>
-      <c r="D222" s="19" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="223" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C223" s="19" t="s">
+      <c r="D281" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="D223" s="19" t="s">
+    </row>
+    <row r="282" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D282" s="19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="224" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D224" s="19" t="s">
+    <row r="283" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C283" s="19" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D225" s="19"/>
-    </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D226" s="19"/>
-    </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D227" s="19"/>
-    </row>
-    <row r="229" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A229" s="17" t="s">
+      <c r="D283" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="B229" s="17"/>
-      <c r="C229" s="17" t="s">
+    </row>
+    <row r="284" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D284" s="19" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="285" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D285" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="D229" s="13"/>
-      <c r="E229" s="13"/>
-      <c r="F229" s="13"/>
-      <c r="G229" s="13"/>
-      <c r="H229" s="13"/>
-      <c r="I229" s="13"/>
-      <c r="J229" s="13"/>
-      <c r="K229" s="13"/>
-      <c r="L229" s="13"/>
-      <c r="M229" s="13"/>
-      <c r="N229" s="13"/>
-      <c r="O229" s="13"/>
-      <c r="P229" s="13"/>
-      <c r="Q229" s="13"/>
-      <c r="R229" s="13"/>
-      <c r="S229" s="13"/>
-      <c r="T229" s="13"/>
-      <c r="U229" s="13"/>
-      <c r="V229" s="13"/>
-      <c r="W229" s="13"/>
-      <c r="X229" s="13"/>
-      <c r="Y229" s="13"/>
-      <c r="Z229" s="13"/>
-    </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B230" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="C230" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="D230" s="27"/>
-      <c r="E230" s="27"/>
-      <c r="F230" s="27"/>
-      <c r="G230" s="27"/>
-      <c r="H230" s="27"/>
-      <c r="I230" s="27"/>
-      <c r="J230" s="27"/>
-      <c r="K230" s="27"/>
-      <c r="L230" s="27"/>
-      <c r="M230" s="27"/>
-      <c r="N230" s="27"/>
-      <c r="O230" s="27"/>
-      <c r="P230" s="27"/>
-      <c r="Q230" s="27"/>
-      <c r="R230" s="27"/>
-      <c r="S230" s="27"/>
-      <c r="T230" s="27"/>
-      <c r="U230" s="27"/>
-      <c r="V230" s="27"/>
-      <c r="W230" s="27"/>
-      <c r="X230" s="27"/>
-      <c r="Y230" s="27"/>
-      <c r="Z230" s="27"/>
-    </row>
-    <row r="254" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B254" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="C254" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="D254" s="27"/>
-      <c r="E254" s="27"/>
-      <c r="F254" s="27"/>
-      <c r="G254" s="27"/>
-      <c r="H254" s="27"/>
-      <c r="I254" s="27"/>
-      <c r="J254" s="27"/>
-      <c r="K254" s="27"/>
-      <c r="L254" s="27"/>
-      <c r="M254" s="27"/>
-      <c r="N254" s="27"/>
-      <c r="O254" s="27"/>
-      <c r="P254" s="27"/>
-      <c r="Q254" s="27"/>
-      <c r="R254" s="27"/>
-      <c r="S254" s="27"/>
-      <c r="T254" s="27"/>
-      <c r="U254" s="27"/>
-      <c r="V254" s="27"/>
-      <c r="W254" s="27"/>
-      <c r="X254" s="27"/>
-      <c r="Y254" s="27"/>
-      <c r="Z254" s="27"/>
-    </row>
-    <row r="255" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C255" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="D255" s="19" t="s">
+    </row>
+    <row r="286" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C286" s="19" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="256" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D256" s="19" t="s">
+      <c r="D286" s="19" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="257" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C257" s="19" t="s">
+    <row r="287" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D287" s="19" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="288" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E288" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="D257" s="19" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="258" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D258" s="19" t="s">
+    </row>
+    <row r="289" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E289" s="19" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="290" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E290" s="19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="291" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D291" s="19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="292" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E292" s="19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="293" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C293" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="D293" s="19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="294" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D294" s="19" t="s">
         <v>307</v>
-      </c>
-    </row>
-    <row r="259" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D259" s="19" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="260" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C260" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="D260" s="19" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="261" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D261" s="19" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="262" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E262" s="19" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="263" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E263" s="19" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="264" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E264" s="19" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="265" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D265" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="266" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E266" s="19" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="267" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C267" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="D267" s="19" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="268" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D268" s="19" t="s">
-        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -19522,8 +20107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z175"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="Q75" sqref="Q75"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="N72" sqref="N72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20195,10 +20780,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z199"/>
+  <dimension ref="A1:Z219"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="M173" sqref="M173"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="P86" sqref="P86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20247,7 +20832,7 @@
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="17" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -20275,10 +20860,10 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
@@ -20304,583 +20889,725 @@
       <c r="Y21" s="27"/>
       <c r="Z21" s="27"/>
     </row>
-    <row r="57" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B57" s="25" t="s">
+    <row r="61" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B61" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="C57" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="27"/>
-      <c r="R57" s="27"/>
-      <c r="S57" s="27"/>
-      <c r="T57" s="27"/>
-      <c r="U57" s="27"/>
-      <c r="V57" s="27"/>
-      <c r="W57" s="27"/>
-      <c r="X57" s="27"/>
-      <c r="Y57" s="27"/>
-      <c r="Z57" s="27"/>
-    </row>
-    <row r="58" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C58" s="19" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="59" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C59" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="60" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D60" s="19" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="61" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D61" s="19" t="s">
-        <v>321</v>
-      </c>
+      <c r="C61" s="26" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="27"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="27"/>
+      <c r="P61" s="27"/>
+      <c r="Q61" s="27"/>
+      <c r="R61" s="27"/>
+      <c r="S61" s="27"/>
+      <c r="T61" s="27"/>
+      <c r="U61" s="27"/>
+      <c r="V61" s="27"/>
+      <c r="W61" s="27"/>
+      <c r="X61" s="27"/>
+      <c r="Y61" s="27"/>
+      <c r="Z61" s="27"/>
     </row>
     <row r="62" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C62" s="19" t="s">
-        <v>322</v>
+        <v>1173</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>323</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="63" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D63" s="19" t="s">
-        <v>324</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="64" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D64" s="19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C65" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D66" s="19" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D67" s="19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D68" s="19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B70" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="27"/>
+      <c r="O70" s="27"/>
+      <c r="P70" s="27"/>
+      <c r="Q70" s="27"/>
+      <c r="R70" s="27"/>
+      <c r="S70" s="27"/>
+      <c r="T70" s="27"/>
+      <c r="U70" s="27"/>
+      <c r="V70" s="27"/>
+      <c r="W70" s="27"/>
+      <c r="X70" s="27"/>
+      <c r="Y70" s="27"/>
+      <c r="Z70" s="27"/>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C71" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D72" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D73" s="19" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C74" s="19" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C75" s="19"/>
+      <c r="D75" s="19" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D76" s="19"/>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B77" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="27"/>
+      <c r="L77" s="27"/>
+      <c r="M77" s="27"/>
+      <c r="N77" s="27"/>
+      <c r="O77" s="27"/>
+      <c r="P77" s="27"/>
+      <c r="Q77" s="27"/>
+      <c r="R77" s="27"/>
+      <c r="S77" s="27"/>
+      <c r="T77" s="27"/>
+      <c r="U77" s="27"/>
+      <c r="V77" s="27"/>
+      <c r="W77" s="27"/>
+      <c r="X77" s="27"/>
+      <c r="Y77" s="27"/>
+      <c r="Z77" s="27"/>
+    </row>
+    <row r="78" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C78" s="19" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D79" s="19" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="80" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D80" s="19" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D81" s="19" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C82" s="19" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D83" s="19" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D84" s="19" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C85" s="19" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D86" s="19" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C87" s="19" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C88" s="19"/>
+      <c r="D88" s="19" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A90" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="B90" s="13"/>
+      <c r="C90" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="13"/>
+      <c r="M90" s="13"/>
+      <c r="N90" s="13"/>
+      <c r="O90" s="13"/>
+      <c r="P90" s="13"/>
+      <c r="Q90" s="13"/>
+      <c r="R90" s="13"/>
+      <c r="S90" s="13"/>
+      <c r="T90" s="13"/>
+      <c r="U90" s="13"/>
+      <c r="V90" s="13"/>
+      <c r="W90" s="13"/>
+      <c r="X90" s="13"/>
+      <c r="Y90" s="13"/>
+      <c r="Z90" s="13"/>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B91" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="C91" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="27"/>
+      <c r="K91" s="27"/>
+      <c r="L91" s="27"/>
+      <c r="M91" s="27"/>
+      <c r="N91" s="27"/>
+      <c r="O91" s="27"/>
+      <c r="P91" s="27"/>
+      <c r="Q91" s="27"/>
+      <c r="R91" s="27"/>
+      <c r="S91" s="27"/>
+      <c r="T91" s="27"/>
+      <c r="U91" s="27"/>
+      <c r="V91" s="27"/>
+      <c r="W91" s="27"/>
+      <c r="X91" s="27"/>
+      <c r="Y91" s="27"/>
+      <c r="Z91" s="27"/>
+    </row>
+    <row r="128" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B128" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C128" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="27"/>
+      <c r="G128" s="27"/>
+      <c r="H128" s="27"/>
+      <c r="I128" s="27"/>
+      <c r="J128" s="27"/>
+      <c r="K128" s="27"/>
+      <c r="L128" s="27"/>
+      <c r="M128" s="27"/>
+      <c r="N128" s="27"/>
+      <c r="O128" s="27"/>
+      <c r="P128" s="27"/>
+      <c r="Q128" s="27"/>
+      <c r="R128" s="27"/>
+      <c r="S128" s="27"/>
+      <c r="T128" s="27"/>
+      <c r="U128" s="27"/>
+      <c r="V128" s="27"/>
+      <c r="W128" s="27"/>
+      <c r="X128" s="27"/>
+      <c r="Y128" s="27"/>
+      <c r="Z128" s="27"/>
+    </row>
+    <row r="129" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C129" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D129" s="19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="130" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C130" s="19"/>
+      <c r="D130" s="19" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="131" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D131" s="19" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="132" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C132" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D132" s="19" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D65" s="19" t="s">
+    <row r="133" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D133" s="19" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="134" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D134" s="19" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="135" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D135" s="19"/>
+      <c r="H135" s="28"/>
+      <c r="I135" s="56" t="s">
+        <v>331</v>
+      </c>
+      <c r="J135" s="55"/>
+      <c r="K135" s="55"/>
+    </row>
+    <row r="136" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D136" s="19"/>
+      <c r="I136" s="55"/>
+      <c r="J136" s="55"/>
+      <c r="K136" s="55"/>
+    </row>
+    <row r="137" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D137" s="19"/>
+      <c r="I137" s="55"/>
+      <c r="J137" s="55"/>
+      <c r="K137" s="55"/>
+    </row>
+    <row r="138" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D138" s="19"/>
+      <c r="I138" s="55"/>
+      <c r="J138" s="55"/>
+      <c r="K138" s="55"/>
+    </row>
+    <row r="139" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D139" s="19"/>
+      <c r="I139" s="55"/>
+      <c r="J139" s="55"/>
+      <c r="K139" s="55"/>
+    </row>
+    <row r="140" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D140" s="19"/>
+      <c r="I140" s="55"/>
+      <c r="J140" s="55"/>
+      <c r="K140" s="55"/>
+    </row>
+    <row r="141" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D141" s="19"/>
+      <c r="I141" s="55"/>
+      <c r="J141" s="55"/>
+      <c r="K141" s="55"/>
+    </row>
+    <row r="142" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C142" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="D142" s="19" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="143" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D143" s="19" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C66" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D67" s="19" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D68" s="19" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A70" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="13"/>
-      <c r="O70" s="13"/>
-      <c r="P70" s="13"/>
-      <c r="Q70" s="13"/>
-      <c r="R70" s="13"/>
-      <c r="S70" s="13"/>
-      <c r="T70" s="13"/>
-      <c r="U70" s="13"/>
-      <c r="V70" s="13"/>
-      <c r="W70" s="13"/>
-      <c r="X70" s="13"/>
-      <c r="Y70" s="13"/>
-      <c r="Z70" s="13"/>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B71" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="27"/>
-      <c r="M71" s="27"/>
-      <c r="N71" s="27"/>
-      <c r="O71" s="27"/>
-      <c r="P71" s="27"/>
-      <c r="Q71" s="27"/>
-      <c r="R71" s="27"/>
-      <c r="S71" s="27"/>
-      <c r="T71" s="27"/>
-      <c r="U71" s="27"/>
-      <c r="V71" s="27"/>
-      <c r="W71" s="27"/>
-      <c r="X71" s="27"/>
-      <c r="Y71" s="27"/>
-      <c r="Z71" s="27"/>
-    </row>
-    <row r="108" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B108" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="C108" s="26" t="s">
+    <row r="144" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D144" s="19" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="145" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D145" s="19"/>
+    </row>
+    <row r="146" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B146" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="C146" s="26" t="s">
+        <v>797</v>
+      </c>
+      <c r="D146" s="27"/>
+      <c r="E146" s="27"/>
+      <c r="F146" s="27"/>
+      <c r="G146" s="27"/>
+      <c r="H146" s="27"/>
+      <c r="I146" s="27"/>
+      <c r="J146" s="27"/>
+      <c r="K146" s="27"/>
+      <c r="L146" s="27"/>
+      <c r="M146" s="27"/>
+      <c r="N146" s="27"/>
+      <c r="O146" s="27"/>
+      <c r="P146" s="27"/>
+      <c r="Q146" s="27"/>
+      <c r="R146" s="27"/>
+      <c r="S146" s="27"/>
+      <c r="T146" s="27"/>
+      <c r="U146" s="27"/>
+      <c r="V146" s="27"/>
+      <c r="W146" s="27"/>
+      <c r="X146" s="27"/>
+      <c r="Y146" s="27"/>
+      <c r="Z146" s="27"/>
+    </row>
+    <row r="147" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C147" s="19" t="s">
+        <v>800</v>
+      </c>
+      <c r="D147" s="19" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="148" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D148" s="19" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C149" s="19" t="s">
+        <v>802</v>
+      </c>
+      <c r="D149" s="19" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D150" s="19" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D151" s="19" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A153" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="B153" s="13"/>
+      <c r="C153" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="13"/>
+      <c r="I153" s="13"/>
+      <c r="J153" s="13"/>
+      <c r="K153" s="13"/>
+      <c r="L153" s="13"/>
+      <c r="M153" s="13"/>
+      <c r="N153" s="13"/>
+      <c r="O153" s="13"/>
+      <c r="P153" s="13"/>
+      <c r="Q153" s="13"/>
+      <c r="R153" s="13"/>
+      <c r="S153" s="13"/>
+      <c r="T153" s="13"/>
+      <c r="U153" s="13"/>
+      <c r="V153" s="13"/>
+      <c r="W153" s="13"/>
+      <c r="X153" s="13"/>
+      <c r="Y153" s="13"/>
+      <c r="Z153" s="13"/>
+    </row>
+    <row r="154" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B154" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="C154" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="D154" s="27"/>
+      <c r="E154" s="27"/>
+      <c r="F154" s="27"/>
+      <c r="G154" s="27"/>
+      <c r="H154" s="27"/>
+      <c r="I154" s="27"/>
+      <c r="J154" s="27"/>
+      <c r="K154" s="27"/>
+      <c r="L154" s="27"/>
+      <c r="M154" s="27"/>
+      <c r="N154" s="27"/>
+      <c r="O154" s="27"/>
+      <c r="P154" s="27"/>
+      <c r="Q154" s="27"/>
+      <c r="R154" s="27"/>
+      <c r="S154" s="27"/>
+      <c r="T154" s="27"/>
+      <c r="U154" s="27"/>
+      <c r="V154" s="27"/>
+      <c r="W154" s="27"/>
+      <c r="X154" s="27"/>
+      <c r="Y154" s="27"/>
+      <c r="Z154" s="27"/>
+    </row>
+    <row r="190" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B190" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="C190" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="27"/>
-      <c r="G108" s="27"/>
-      <c r="H108" s="27"/>
-      <c r="I108" s="27"/>
-      <c r="J108" s="27"/>
-      <c r="K108" s="27"/>
-      <c r="L108" s="27"/>
-      <c r="M108" s="27"/>
-      <c r="N108" s="27"/>
-      <c r="O108" s="27"/>
-      <c r="P108" s="27"/>
-      <c r="Q108" s="27"/>
-      <c r="R108" s="27"/>
-      <c r="S108" s="27"/>
-      <c r="T108" s="27"/>
-      <c r="U108" s="27"/>
-      <c r="V108" s="27"/>
-      <c r="W108" s="27"/>
-      <c r="X108" s="27"/>
-      <c r="Y108" s="27"/>
-      <c r="Z108" s="27"/>
-    </row>
-    <row r="109" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C109" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="D109" s="19" t="s">
+      <c r="D190" s="27"/>
+      <c r="E190" s="27"/>
+      <c r="F190" s="27"/>
+      <c r="G190" s="27"/>
+      <c r="H190" s="27"/>
+      <c r="I190" s="27"/>
+      <c r="J190" s="27"/>
+      <c r="K190" s="27"/>
+      <c r="L190" s="27"/>
+      <c r="M190" s="27"/>
+      <c r="N190" s="27"/>
+      <c r="O190" s="27"/>
+      <c r="P190" s="27"/>
+      <c r="Q190" s="27"/>
+      <c r="R190" s="27"/>
+      <c r="S190" s="27"/>
+      <c r="T190" s="27"/>
+      <c r="U190" s="27"/>
+      <c r="V190" s="27"/>
+      <c r="W190" s="27"/>
+      <c r="X190" s="27"/>
+      <c r="Y190" s="27"/>
+      <c r="Z190" s="27"/>
+    </row>
+    <row r="191" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C191" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="D191" s="19" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="192" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C192" s="19"/>
+      <c r="D192" s="19" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="110" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C110" s="19"/>
-      <c r="D110" s="19" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="111" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D111" s="19" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="112" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C112" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="D112" s="19" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="113" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D113" s="19" t="s">
+    <row r="193" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C193" s="19"/>
+      <c r="D193" s="19" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="194" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C194" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="D194" s="19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="195" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D195" s="19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="196" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C196" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="D196" s="19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="197" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D197" s="19" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="198" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D198" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="E198" s="19" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="199" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E199" s="19" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="200" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E200" s="19" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="201" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E201" s="19" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="202" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D202" s="19" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="203" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B203" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="C203" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="D203" s="27"/>
+      <c r="E203" s="27"/>
+      <c r="F203" s="27"/>
+      <c r="G203" s="27"/>
+      <c r="H203" s="27"/>
+      <c r="I203" s="27"/>
+      <c r="J203" s="27"/>
+      <c r="K203" s="27"/>
+      <c r="L203" s="27"/>
+      <c r="M203" s="27"/>
+      <c r="N203" s="27"/>
+      <c r="O203" s="27"/>
+      <c r="P203" s="27"/>
+      <c r="Q203" s="27"/>
+      <c r="R203" s="27"/>
+      <c r="S203" s="27"/>
+      <c r="T203" s="27"/>
+      <c r="U203" s="27"/>
+      <c r="V203" s="27"/>
+      <c r="W203" s="27"/>
+      <c r="X203" s="27"/>
+      <c r="Y203" s="27"/>
+      <c r="Z203" s="27"/>
+    </row>
+    <row r="204" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C204" s="19" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="114" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D114" s="19" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="115" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D115" s="19"/>
-      <c r="H115" s="28"/>
-      <c r="I115" s="56" t="s">
-        <v>340</v>
-      </c>
-      <c r="J115" s="55"/>
-      <c r="K115" s="55"/>
-    </row>
-    <row r="116" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D116" s="19"/>
-      <c r="I116" s="55"/>
-      <c r="J116" s="55"/>
-      <c r="K116" s="55"/>
-    </row>
-    <row r="117" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D117" s="19"/>
-      <c r="I117" s="55"/>
-      <c r="J117" s="55"/>
-      <c r="K117" s="55"/>
-    </row>
-    <row r="118" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D118" s="19"/>
-      <c r="I118" s="55"/>
-      <c r="J118" s="55"/>
-      <c r="K118" s="55"/>
-    </row>
-    <row r="119" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D119" s="19"/>
-      <c r="I119" s="55"/>
-      <c r="J119" s="55"/>
-      <c r="K119" s="55"/>
-    </row>
-    <row r="120" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D120" s="19"/>
-      <c r="I120" s="55"/>
-      <c r="J120" s="55"/>
-      <c r="K120" s="55"/>
-    </row>
-    <row r="121" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D121" s="19"/>
-      <c r="I121" s="55"/>
-      <c r="J121" s="55"/>
-      <c r="K121" s="55"/>
-    </row>
-    <row r="122" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C122" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="D122" s="19" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="123" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D123" s="19" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="124" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D124" s="19" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="125" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D125" s="19"/>
-    </row>
-    <row r="126" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B126" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="C126" s="26" t="s">
-        <v>806</v>
-      </c>
-      <c r="D126" s="27"/>
-      <c r="E126" s="27"/>
-      <c r="F126" s="27"/>
-      <c r="G126" s="27"/>
-      <c r="H126" s="27"/>
-      <c r="I126" s="27"/>
-      <c r="J126" s="27"/>
-      <c r="K126" s="27"/>
-      <c r="L126" s="27"/>
-      <c r="M126" s="27"/>
-      <c r="N126" s="27"/>
-      <c r="O126" s="27"/>
-      <c r="P126" s="27"/>
-      <c r="Q126" s="27"/>
-      <c r="R126" s="27"/>
-      <c r="S126" s="27"/>
-      <c r="T126" s="27"/>
-      <c r="U126" s="27"/>
-      <c r="V126" s="27"/>
-      <c r="W126" s="27"/>
-      <c r="X126" s="27"/>
-      <c r="Y126" s="27"/>
-      <c r="Z126" s="27"/>
-    </row>
-    <row r="127" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C127" s="19" t="s">
-        <v>809</v>
-      </c>
-      <c r="D127" s="19" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="128" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D128" s="19" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C129" s="19" t="s">
-        <v>811</v>
-      </c>
-      <c r="D129" s="19" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D130" s="19" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D131" s="19" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A133" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="B133" s="13"/>
-      <c r="C133" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="D133" s="13"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="13"/>
-      <c r="G133" s="13"/>
-      <c r="H133" s="13"/>
-      <c r="I133" s="13"/>
-      <c r="J133" s="13"/>
-      <c r="K133" s="13"/>
-      <c r="L133" s="13"/>
-      <c r="M133" s="13"/>
-      <c r="N133" s="13"/>
-      <c r="O133" s="13"/>
-      <c r="P133" s="13"/>
-      <c r="Q133" s="13"/>
-      <c r="R133" s="13"/>
-      <c r="S133" s="13"/>
-      <c r="T133" s="13"/>
-      <c r="U133" s="13"/>
-      <c r="V133" s="13"/>
-      <c r="W133" s="13"/>
-      <c r="X133" s="13"/>
-      <c r="Y133" s="13"/>
-      <c r="Z133" s="13"/>
-    </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B134" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="C134" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="D134" s="27"/>
-      <c r="E134" s="27"/>
-      <c r="F134" s="27"/>
-      <c r="G134" s="27"/>
-      <c r="H134" s="27"/>
-      <c r="I134" s="27"/>
-      <c r="J134" s="27"/>
-      <c r="K134" s="27"/>
-      <c r="L134" s="27"/>
-      <c r="M134" s="27"/>
-      <c r="N134" s="27"/>
-      <c r="O134" s="27"/>
-      <c r="P134" s="27"/>
-      <c r="Q134" s="27"/>
-      <c r="R134" s="27"/>
-      <c r="S134" s="27"/>
-      <c r="T134" s="27"/>
-      <c r="U134" s="27"/>
-      <c r="V134" s="27"/>
-      <c r="W134" s="27"/>
-      <c r="X134" s="27"/>
-      <c r="Y134" s="27"/>
-      <c r="Z134" s="27"/>
-    </row>
-    <row r="170" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B170" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="C170" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="D170" s="27"/>
-      <c r="E170" s="27"/>
-      <c r="F170" s="27"/>
-      <c r="G170" s="27"/>
-      <c r="H170" s="27"/>
-      <c r="I170" s="27"/>
-      <c r="J170" s="27"/>
-      <c r="K170" s="27"/>
-      <c r="L170" s="27"/>
-      <c r="M170" s="27"/>
-      <c r="N170" s="27"/>
-      <c r="O170" s="27"/>
-      <c r="P170" s="27"/>
-      <c r="Q170" s="27"/>
-      <c r="R170" s="27"/>
-      <c r="S170" s="27"/>
-      <c r="T170" s="27"/>
-      <c r="U170" s="27"/>
-      <c r="V170" s="27"/>
-      <c r="W170" s="27"/>
-      <c r="X170" s="27"/>
-      <c r="Y170" s="27"/>
-      <c r="Z170" s="27"/>
-    </row>
-    <row r="171" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C171" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="D171" s="19" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="172" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C172" s="19"/>
-      <c r="D172" s="19" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="173" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C173" s="19"/>
-      <c r="D173" s="19" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="174" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C174" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="D174" s="19" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="175" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D175" s="19" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="176" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C176" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="D176" s="19" t="s">
+      <c r="D204" s="19" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="205" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D205" s="19" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="177" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D177" s="19" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="178" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D178" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="E178" s="19" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="179" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="E179" s="19" t="s">
+    <row r="219" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C219" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D219" s="19" t="s">
         <v>354</v>
-      </c>
-    </row>
-    <row r="180" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="E180" s="19" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="181" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="E181" s="19" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="182" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D182" s="19" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="183" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B183" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="C183" s="26" t="s">
-        <v>359</v>
-      </c>
-      <c r="D183" s="27"/>
-      <c r="E183" s="27"/>
-      <c r="F183" s="27"/>
-      <c r="G183" s="27"/>
-      <c r="H183" s="27"/>
-      <c r="I183" s="27"/>
-      <c r="J183" s="27"/>
-      <c r="K183" s="27"/>
-      <c r="L183" s="27"/>
-      <c r="M183" s="27"/>
-      <c r="N183" s="27"/>
-      <c r="O183" s="27"/>
-      <c r="P183" s="27"/>
-      <c r="Q183" s="27"/>
-      <c r="R183" s="27"/>
-      <c r="S183" s="27"/>
-      <c r="T183" s="27"/>
-      <c r="U183" s="27"/>
-      <c r="V183" s="27"/>
-      <c r="W183" s="27"/>
-      <c r="X183" s="27"/>
-      <c r="Y183" s="27"/>
-      <c r="Z183" s="27"/>
-    </row>
-    <row r="184" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C184" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="D184" s="19" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="185" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D185" s="19" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="199" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C199" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="D199" s="19" t="s">
-        <v>363</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I115:K121"/>
+    <mergeCell ref="I135:K141"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/策划案/Java/IOT项目/IOT物联网平台.xlsx
+++ b/策划案/Java/IOT项目/IOT物联网平台.xlsx
@@ -19,7 +19,7 @@
     <sheet name="群组页面" sheetId="80" r:id="rId10"/>
     <sheet name="规则模块" sheetId="87" r:id="rId11"/>
     <sheet name="主题" sheetId="89" r:id="rId12"/>
-    <sheet name="告警主题" sheetId="94" r:id="rId13"/>
+    <sheet name="告警定义" sheetId="94" r:id="rId13"/>
     <sheet name="后台管理模块" sheetId="93" r:id="rId14"/>
     <sheet name="部门系统" sheetId="92" state="hidden" r:id="rId15"/>
   </sheets>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="1192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="1318">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -3798,10 +3798,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>触发动作有4中类型，下发命令，发送通知</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>下发命令：</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -6813,10 +6809,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>褚智勇</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>完善文档说明</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -7118,6 +7110,802 @@
   </si>
   <si>
     <t>告警主题</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>方便用户查看设备上报信息的总体情况。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种较通用的告警系统，方便用户CP制作产品原型，甚至可以先不开发后台，验证合理后再深入开发北向应用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户创建告警主题，并把告警主题绑定到相关产品上，在规则系统配置告警。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>而后可以在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>告警概览</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中查看特定告警主题下各产品设备的告警状态比例，也可以在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>告警设备查询</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中查看项目下各设备的告警信息。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户可以用多维度的设备群组去给设备上标签，告警概览和告警设备查询均支持群组Id筛选。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警概览</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警设备查询</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型图</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单内容</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题名称：主题的英文名，符合程序变量名规则。在产品绑定时和规则触发告警时，使用这个名字。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示名：中文名称，便于用户查看管理。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>级别个数：该告警有多少个级别，系统最多支持7个级别，每个级别有他特定的颜色。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警设备数：处在告警状态的设备数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备数：绑定该告警主题的所有产品下的设备总数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>概览：点击进入告警主题的详情</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除：点击弹出确认框，用户确认后删除。关联该告警主题的产品的关联数据也一并删除。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题ID，主题名，显示名，等级数，创建时间，简介</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>含如下内容</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑交互</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备概览</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备概览显示特定群组下各产品告警状态比例情况。没有输入群组Id则是对所有相关设备的统计。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含内容</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联设备数，群组ID输入框，查找按钮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>各产品的告警状况统计图</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警状况统计图内容</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示各告警占比的饼图，饼图颜色根据告警等级统一设计（色值可以和美术交流确定）。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>右侧显示告警等级，设备数量，所占比例，小数点精确1位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示产品名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组查找</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入群组ID，点击放大镜查找，则统计的是该群组下和其子孙群组的设备的统计情况。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入群组ID查找后，输入框会有个x号，点击叉号清除文本框，再次发送查找请求，查询所有相关设备的情况。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目选择下拉框，告警主题选择下拉列表，群组ID查找，设备告警信息表单</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能概述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户选择特定项目下特定告警主题，展示这个主题下各设备的告警状况。如果设备告警级别为0则不显示。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果用户输入群组ID，则只查找该群组和其子孙群组下的设备。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备标示名：设备的标示名，点击跳转设备详情</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备显示名：设备的显示名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属产品：设备的所属产品，点击跳转对应产品详情</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警类型：告警主题，点击跳转对应的告警主题详情</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警级别：告警的级别，填充颜色根据级别做变化</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近告警时间：最近一次上报消息触发告警的时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>操作-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备影子：点击弹出设备影子的面板</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>操作-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>忽略：忽略该警告（数据库删除这条告警数据，等下次再触发再显示）</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警主题绑定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击绑定告警，弹出如图窗口</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择要绑定的告警主题，点击确认后绑定。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击叉号，弹窗确认后可取消绑定。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发动作有3种类型，下发命令，发送通知，发送告警</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送告警</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品选择</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警主题名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉列表，这个产品绑定的告警主题</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警级别</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉列表，告警的级别，根据告警的级别数显示下拉列表的内容。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型图</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能概述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个告警主题一个Panel，可伸缩。缩起状态只显示告警状态。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警主题的panel中包含如下内容</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警的主题链接</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一次修改告警等级的时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>各告警等级的触发次数和其占比的统计表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>褚智勇</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警模块</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>各告警等级的占比饼状图</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则组Id和规则优先级</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在获取给设备所有所在群组下所有关联规则后，需要把所有规则排序。排序函数先判断组Id，从小到大；再判断优先级，从大到小。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在一条数据上传后，同组规则只会触发1条。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增告警定义</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含内容</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名，规则与程序变量名相似。这个名字会在规则引擎中被用到。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警显示名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名称，便于用户理解辨识。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介文本，详细描述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警等级</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>该等级是一个表，列包括级别，颜色，显示名，描述。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>级别：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>该条告警是第几级，由系统自动生成，第几行就是第几级。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>该告警等级的颜色，创建时，系统分配默认颜色。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户点击颜色块，会弹出调色板，用来编辑该颜色。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>该等级告警的昵称，如轻度污染，中度污染，重度污染。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>该等级告警的描述，通常填写触发该等级告警的条件描述。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警等级编辑交互</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个告警定义，最多支持7个等级的告警。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加告警级别</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击加号，新增一行数据，自动填充系统默认的颜色。告警等级数+1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除级别</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击删除，删掉本条数据，级别那一列自动更新。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认、撤销和跳转交互</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>该页面只能从2个地方跳转，一个是告警定义列表中点击新增跳转过来的，一个是告警概览中点击修改跳转过来的。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包屑处应反映跳转来源，如右图所示</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认或撤销后都会跳转回之前的页面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击编辑，跳转告警编辑页面，和新增告警页面是同一个页面。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -8470,20 +9258,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>255508</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>27736</xdr:rowOff>
+      <xdr:colOff>303130</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>208712</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="22" name="图片 21"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8496,8 +9284,198 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="457200" y="1695450"/>
-          <a:ext cx="13333333" cy="6714286"/>
+          <a:off x="476250" y="28089225"/>
+          <a:ext cx="13361905" cy="6704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>788944</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>84909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="2362200"/>
+          <a:ext cx="13047619" cy="6523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>798475</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>103958</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="485775" y="11601450"/>
+          <a:ext cx="13000000" cy="6533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142681</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>161887</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191250" y="23755350"/>
+          <a:ext cx="1552381" cy="304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161645</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>190458</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8067675" y="23755350"/>
+          <a:ext cx="2238095" cy="333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>760378</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>189559</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="25365075"/>
+          <a:ext cx="12971428" cy="7523809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9263,13 +10241,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>240</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>466126</xdr:colOff>
-      <xdr:row>241</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>152075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9413,91 +10391,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>179317</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>170571</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 15"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="447675" y="32956500"/>
-          <a:ext cx="13266667" cy="7028571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>160457</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>132664</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="图片 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1952625" y="38023800"/>
-          <a:ext cx="11742857" cy="5485714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476040</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>133308</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9508,7 +10410,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9529,13 +10431,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>56901</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>95212</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9546,7 +10448,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9567,13 +10469,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>189842</xdr:colOff>
-      <xdr:row>277</xdr:row>
+      <xdr:row>288</xdr:row>
       <xdr:rowOff>180424</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9584,7 +10486,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9605,18 +10507,94 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>542261</xdr:colOff>
-      <xdr:row>277</xdr:row>
+      <xdr:row>288</xdr:row>
       <xdr:rowOff>151843</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="53740050"/>
+          <a:ext cx="5314286" cy="4457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>265034</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>94321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="32899350"/>
+          <a:ext cx="13323809" cy="7428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>207887</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>8831</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9629,8 +10607,84 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="285750" y="53740050"/>
-          <a:ext cx="5314286" cy="4457143"/>
+          <a:off x="438150" y="38252400"/>
+          <a:ext cx="13304762" cy="5552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>17868</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>94742</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334375" y="44224575"/>
+          <a:ext cx="9457143" cy="4066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314008</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>142792</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3686175" y="46415325"/>
+          <a:ext cx="2533333" cy="666667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10293,6 +11347,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>246051</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>141999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="485775" y="46796325"/>
+          <a:ext cx="12790476" cy="7009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10622,13 +11714,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>542050</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>84945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10660,13 +11752,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>93264</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>85409</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10696,53 +11788,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>484386</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>37602</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="361950" y="7581900"/>
-          <a:ext cx="11114286" cy="3980952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>712878</xdr:colOff>
-      <xdr:row>209</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>9393</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10753,7 +11807,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10774,13 +11828,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>18396</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>132990</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10791,7 +11845,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10812,13 +11866,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>427787</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>199571</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10829,7 +11883,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10850,13 +11904,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>103937</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>209096</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10867,7 +11921,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10886,20 +11940,58 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>169803</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>151495</xdr:rowOff>
+      <xdr:colOff>112713</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>9419</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="39604950"/>
+          <a:ext cx="12695238" cy="847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>75568</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>161880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10912,8 +12004,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="24555450"/>
-          <a:ext cx="13171428" cy="7238095"/>
+          <a:off x="923925" y="47786925"/>
+          <a:ext cx="5057143" cy="361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>218423</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>76148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="49739550"/>
+          <a:ext cx="5219048" cy="419048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10926,32 +12056,108 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>250</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>112713</xdr:colOff>
-      <xdr:row>193</xdr:row>
-      <xdr:rowOff>9419</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247000</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>209498</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPr id="14" name="图片 13"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="952500" y="39604950"/>
-          <a:ext cx="12695238" cy="847619"/>
+          <a:off x="952500" y="51968400"/>
+          <a:ext cx="5200000" cy="419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>693699</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>46733</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="24555450"/>
+          <a:ext cx="13009524" cy="7133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>265352</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>189952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="7334250"/>
+          <a:ext cx="10780952" cy="4380952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11229,7 +12435,7 @@
   <dimension ref="B1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:E19"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -11262,7 +12468,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11280,7 +12486,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D5" s="44"/>
       <c r="E5" s="45"/>
@@ -11349,7 +12555,7 @@
         <v>202</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E11" s="50"/>
     </row>
@@ -11358,10 +12564,10 @@
         <v>43966</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E12" s="50"/>
     </row>
@@ -11370,10 +12576,10 @@
         <v>43976</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E13" s="50"/>
     </row>
@@ -11385,7 +12591,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E14" s="50"/>
     </row>
@@ -11397,7 +12603,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E15" s="50"/>
     </row>
@@ -11409,7 +12615,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E16" s="50"/>
     </row>
@@ -11421,7 +12627,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E17" s="50"/>
     </row>
@@ -11430,17 +12636,23 @@
         <v>44027</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>1136</v>
+        <v>12</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="E18" s="50"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="9"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="49"/>
+      <c r="B19" s="7">
+        <v>44036</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>1273</v>
+      </c>
       <c r="E19" s="50"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
@@ -11815,10 +13027,10 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C39" s="19" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
@@ -11934,7 +13146,7 @@
     <row r="81" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C81" s="19"/>
       <c r="D81" s="19" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="82" spans="2:26" x14ac:dyDescent="0.3">
@@ -11995,7 +13207,7 @@
     <row r="86" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C86" s="19"/>
       <c r="D86" s="19" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="87" spans="2:26" x14ac:dyDescent="0.3">
@@ -12875,10 +14087,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z242"/>
+  <dimension ref="A1:Z258"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="X195" sqref="X195"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="U61" sqref="U61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12995,7 +14207,7 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
@@ -13231,7 +14443,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" s="18" t="s">
         <v>555</v>
       </c>
@@ -13239,17 +14451,17 @@
         <v>556</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C58" s="19" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C59" s="19" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="18" t="s">
         <v>559</v>
       </c>
@@ -13257,466 +14469,476 @@
         <v>560</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C61" s="19" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A64" s="17" t="s">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="18" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C63" s="19" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C64" s="19" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A66" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B66" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13"/>
-      <c r="Q64" s="13"/>
-      <c r="R64" s="13"/>
-      <c r="S64" s="13"/>
-      <c r="T64" s="13"/>
-      <c r="U64" s="13"/>
-      <c r="V64" s="13"/>
-      <c r="W64" s="13"/>
-      <c r="X64" s="13"/>
-      <c r="Y64" s="13"/>
-      <c r="Z64" s="13"/>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A97" s="17" t="s">
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13"/>
+      <c r="R66" s="13"/>
+      <c r="S66" s="13"/>
+      <c r="T66" s="13"/>
+      <c r="U66" s="13"/>
+      <c r="V66" s="13"/>
+      <c r="W66" s="13"/>
+      <c r="X66" s="13"/>
+      <c r="Y66" s="13"/>
+      <c r="Z66" s="13"/>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A99" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="B97" s="17" t="s">
+      <c r="B99" s="17" t="s">
         <v>501</v>
       </c>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
-      <c r="J97" s="13"/>
-      <c r="K97" s="13"/>
-      <c r="L97" s="13"/>
-      <c r="M97" s="13"/>
-      <c r="N97" s="13"/>
-      <c r="O97" s="13"/>
-      <c r="P97" s="13"/>
-      <c r="Q97" s="13"/>
-      <c r="R97" s="13"/>
-      <c r="S97" s="13"/>
-      <c r="T97" s="13"/>
-      <c r="U97" s="13"/>
-      <c r="V97" s="13"/>
-      <c r="W97" s="13"/>
-      <c r="X97" s="13"/>
-      <c r="Y97" s="13"/>
-      <c r="Z97" s="13"/>
-    </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C111" s="19" t="s">
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="13"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="13"/>
+      <c r="M99" s="13"/>
+      <c r="N99" s="13"/>
+      <c r="O99" s="13"/>
+      <c r="P99" s="13"/>
+      <c r="Q99" s="13"/>
+      <c r="R99" s="13"/>
+      <c r="S99" s="13"/>
+      <c r="T99" s="13"/>
+      <c r="U99" s="13"/>
+      <c r="V99" s="13"/>
+      <c r="W99" s="13"/>
+      <c r="X99" s="13"/>
+      <c r="Y99" s="13"/>
+      <c r="Z99" s="13"/>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C113" s="19" t="s">
         <v>504</v>
-      </c>
-    </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D112" s="19" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D113" s="19" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D114" s="19" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D115" s="19" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D116" s="19" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A116" s="17" t="s">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A118" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="B116" s="17" t="s">
+      <c r="B118" s="17" t="s">
         <v>500</v>
       </c>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13"/>
-      <c r="I116" s="13"/>
-      <c r="J116" s="13"/>
-      <c r="K116" s="13"/>
-      <c r="L116" s="13"/>
-      <c r="M116" s="13"/>
-      <c r="N116" s="13"/>
-      <c r="O116" s="13"/>
-      <c r="P116" s="13"/>
-      <c r="Q116" s="13"/>
-      <c r="R116" s="13"/>
-      <c r="S116" s="13"/>
-      <c r="T116" s="13"/>
-      <c r="U116" s="13"/>
-      <c r="V116" s="13"/>
-      <c r="W116" s="13"/>
-      <c r="X116" s="13"/>
-      <c r="Y116" s="13"/>
-      <c r="Z116" s="13"/>
-    </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B117" s="25" t="s">
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="13"/>
+      <c r="J118" s="13"/>
+      <c r="K118" s="13"/>
+      <c r="L118" s="13"/>
+      <c r="M118" s="13"/>
+      <c r="N118" s="13"/>
+      <c r="O118" s="13"/>
+      <c r="P118" s="13"/>
+      <c r="Q118" s="13"/>
+      <c r="R118" s="13"/>
+      <c r="S118" s="13"/>
+      <c r="T118" s="13"/>
+      <c r="U118" s="13"/>
+      <c r="V118" s="13"/>
+      <c r="W118" s="13"/>
+      <c r="X118" s="13"/>
+      <c r="Y118" s="13"/>
+      <c r="Z118" s="13"/>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B119" s="25" t="s">
         <v>502</v>
       </c>
-      <c r="C117" s="26" t="s">
+      <c r="C119" s="26" t="s">
         <v>503</v>
       </c>
-      <c r="D117" s="27"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="27"/>
-      <c r="G117" s="27"/>
-      <c r="H117" s="27"/>
-      <c r="I117" s="27"/>
-      <c r="J117" s="27"/>
-      <c r="K117" s="27"/>
-      <c r="L117" s="27"/>
-      <c r="M117" s="27"/>
-      <c r="N117" s="27"/>
-      <c r="O117" s="27"/>
-      <c r="P117" s="27"/>
-      <c r="Q117" s="27"/>
-      <c r="R117" s="27"/>
-      <c r="S117" s="27"/>
-      <c r="T117" s="27"/>
-      <c r="U117" s="27"/>
-      <c r="V117" s="27"/>
-      <c r="W117" s="27"/>
-      <c r="X117" s="27"/>
-      <c r="Y117" s="27"/>
-      <c r="Z117" s="27"/>
-    </row>
-    <row r="153" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B153" s="25" t="s">
+      <c r="D119" s="27"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="27"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="27"/>
+      <c r="J119" s="27"/>
+      <c r="K119" s="27"/>
+      <c r="L119" s="27"/>
+      <c r="M119" s="27"/>
+      <c r="N119" s="27"/>
+      <c r="O119" s="27"/>
+      <c r="P119" s="27"/>
+      <c r="Q119" s="27"/>
+      <c r="R119" s="27"/>
+      <c r="S119" s="27"/>
+      <c r="T119" s="27"/>
+      <c r="U119" s="27"/>
+      <c r="V119" s="27"/>
+      <c r="W119" s="27"/>
+      <c r="X119" s="27"/>
+      <c r="Y119" s="27"/>
+      <c r="Z119" s="27"/>
+    </row>
+    <row r="155" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B155" s="25" t="s">
         <v>505</v>
       </c>
-      <c r="C153" s="26" t="s">
+      <c r="C155" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="D153" s="27"/>
-      <c r="E153" s="27"/>
-      <c r="F153" s="27"/>
-      <c r="G153" s="27"/>
-      <c r="H153" s="27"/>
-      <c r="I153" s="27"/>
-      <c r="J153" s="27"/>
-      <c r="K153" s="27"/>
-      <c r="L153" s="27"/>
-      <c r="M153" s="27"/>
-      <c r="N153" s="27"/>
-      <c r="O153" s="27"/>
-      <c r="P153" s="27"/>
-      <c r="Q153" s="27"/>
-      <c r="R153" s="27"/>
-      <c r="S153" s="27"/>
-      <c r="T153" s="27"/>
-      <c r="U153" s="27"/>
-      <c r="V153" s="27"/>
-      <c r="W153" s="27"/>
-      <c r="X153" s="27"/>
-      <c r="Y153" s="27"/>
-      <c r="Z153" s="27"/>
-    </row>
-    <row r="154" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C154" s="19" t="s">
+      <c r="D155" s="27"/>
+      <c r="E155" s="27"/>
+      <c r="F155" s="27"/>
+      <c r="G155" s="27"/>
+      <c r="H155" s="27"/>
+      <c r="I155" s="27"/>
+      <c r="J155" s="27"/>
+      <c r="K155" s="27"/>
+      <c r="L155" s="27"/>
+      <c r="M155" s="27"/>
+      <c r="N155" s="27"/>
+      <c r="O155" s="27"/>
+      <c r="P155" s="27"/>
+      <c r="Q155" s="27"/>
+      <c r="R155" s="27"/>
+      <c r="S155" s="27"/>
+      <c r="T155" s="27"/>
+      <c r="U155" s="27"/>
+      <c r="V155" s="27"/>
+      <c r="W155" s="27"/>
+      <c r="X155" s="27"/>
+      <c r="Y155" s="27"/>
+      <c r="Z155" s="27"/>
+    </row>
+    <row r="156" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C156" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="D154" s="19" t="s">
+      <c r="D156" s="19" t="s">
         <v>513</v>
-      </c>
-    </row>
-    <row r="155" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D155" s="19" t="s">
-        <v>535</v>
-      </c>
-      <c r="F155" s="19" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="156" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D156" s="19" t="s">
-        <v>534</v>
-      </c>
-      <c r="F156" s="19" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="157" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D157" s="19" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F157" s="19" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="158" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C158" s="19" t="s">
-        <v>514</v>
-      </c>
       <c r="D158" s="19" t="s">
-        <v>515</v>
+        <v>534</v>
+      </c>
+      <c r="F158" s="19" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="159" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D159" s="19" t="s">
+        <v>536</v>
+      </c>
+      <c r="F159" s="19" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="160" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C160" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="D160" s="19" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="161" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D161" s="19" t="s">
         <v>535</v>
       </c>
-      <c r="F159" s="19" t="s">
+      <c r="F161" s="19" t="s">
         <v>517</v>
-      </c>
-    </row>
-    <row r="160" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D160" s="19" t="s">
-        <v>534</v>
-      </c>
-      <c r="F160" s="19" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C161" s="19" t="s">
-        <v>510</v>
-      </c>
-      <c r="D161" s="19" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="162" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D162" s="19" t="s">
+        <v>534</v>
+      </c>
+      <c r="F162" s="19" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="163" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C163" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="D163" s="19" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="164" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D164" s="19" t="s">
         <v>535</v>
       </c>
-      <c r="F162" s="19" t="s">
+      <c r="F164" s="19" t="s">
         <v>519</v>
-      </c>
-    </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E163" s="19" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E164" s="19" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E165" s="19" t="s">
-        <v>521</v>
+        <v>877</v>
       </c>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D166" s="19" t="s">
-        <v>537</v>
-      </c>
-      <c r="F166" s="19" t="s">
-        <v>522</v>
+      <c r="E166" s="19" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E167" s="19" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="168" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D168" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="F168" s="19" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="169" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E169" s="19" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E168" s="19" t="s">
+    <row r="170" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E170" s="19" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D169" s="19" t="s">
+    <row r="171" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D171" s="19" t="s">
         <v>538</v>
       </c>
-      <c r="E169" s="19" t="s">
+      <c r="E171" s="19" t="s">
         <v>525</v>
-      </c>
-    </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D170" s="19" t="s">
-        <v>539</v>
-      </c>
-      <c r="E170" s="19" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C171" s="19" t="s">
-        <v>526</v>
-      </c>
-      <c r="D171" s="19" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="172" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D172" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="E172" s="19" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="173" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C173" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="D173" s="19" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="174" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D174" s="19" t="s">
         <v>535</v>
       </c>
-      <c r="F172" s="19" t="s">
+      <c r="F174" s="19" t="s">
         <v>529</v>
-      </c>
-    </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D173" s="19" t="s">
-        <v>540</v>
-      </c>
-      <c r="F173" s="19" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C174" s="19" t="s">
-        <v>541</v>
-      </c>
-      <c r="D174" s="19" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="175" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D175" s="19" t="s">
-        <v>543</v>
-      </c>
-      <c r="E175" s="19" t="s">
-        <v>544</v>
+        <v>540</v>
+      </c>
+      <c r="F175" s="19" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D176" s="19"/>
-      <c r="E176" s="19" t="s">
-        <v>545</v>
+      <c r="C176" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="D176" s="19" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="177" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D177" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="E177" s="19" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="178" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D178" s="19"/>
+      <c r="E178" s="19" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="179" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D179" s="19" t="s">
         <v>546</v>
       </c>
-      <c r="E177" s="19" t="s">
+      <c r="E179" s="19" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="178" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="E178" s="19" t="s">
+    <row r="180" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E180" s="19" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="180" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B180" s="25" t="s">
+    <row r="182" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B182" s="25" t="s">
         <v>562</v>
       </c>
-      <c r="C180" s="26" t="s">
+      <c r="C182" s="26" t="s">
         <v>518</v>
       </c>
-      <c r="D180" s="27"/>
-      <c r="E180" s="27"/>
-      <c r="F180" s="27"/>
-      <c r="G180" s="27"/>
-      <c r="H180" s="27"/>
-      <c r="I180" s="27"/>
-      <c r="J180" s="27"/>
-      <c r="K180" s="27"/>
-      <c r="L180" s="27"/>
-      <c r="M180" s="27"/>
-      <c r="N180" s="27"/>
-      <c r="O180" s="27"/>
-      <c r="P180" s="27"/>
-      <c r="Q180" s="27"/>
-      <c r="R180" s="27"/>
-      <c r="S180" s="27"/>
-      <c r="T180" s="27"/>
-      <c r="U180" s="27"/>
-      <c r="V180" s="27"/>
-      <c r="W180" s="27"/>
-      <c r="X180" s="27"/>
-      <c r="Y180" s="27"/>
-      <c r="Z180" s="27"/>
-    </row>
-    <row r="181" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C181" s="19" t="s">
+      <c r="D182" s="27"/>
+      <c r="E182" s="27"/>
+      <c r="F182" s="27"/>
+      <c r="G182" s="27"/>
+      <c r="H182" s="27"/>
+      <c r="I182" s="27"/>
+      <c r="J182" s="27"/>
+      <c r="K182" s="27"/>
+      <c r="L182" s="27"/>
+      <c r="M182" s="27"/>
+      <c r="N182" s="27"/>
+      <c r="O182" s="27"/>
+      <c r="P182" s="27"/>
+      <c r="Q182" s="27"/>
+      <c r="R182" s="27"/>
+      <c r="S182" s="27"/>
+      <c r="T182" s="27"/>
+      <c r="U182" s="27"/>
+      <c r="V182" s="27"/>
+      <c r="W182" s="27"/>
+      <c r="X182" s="27"/>
+      <c r="Y182" s="27"/>
+      <c r="Z182" s="27"/>
+    </row>
+    <row r="183" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C183" s="19" t="s">
         <v>507</v>
       </c>
-      <c r="D181" s="19" t="s">
+      <c r="D183" s="19" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="182" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D182" s="19" t="s">
+    <row r="184" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D184" s="19" t="s">
         <v>564</v>
-      </c>
-    </row>
-    <row r="183" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D183" s="19" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="184" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C184" s="19" t="s">
-        <v>566</v>
-      </c>
-      <c r="D184" s="19" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="185" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D185" s="19" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="186" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C186" s="19" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D186" s="19" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="187" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D187" s="19" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="188" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C188" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="D188" s="19" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="189" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D189" s="19" t="s">
         <v>572</v>
       </c>
-      <c r="E187" s="19" t="s">
+      <c r="E189" s="19" t="s">
         <v>573</v>
-      </c>
-    </row>
-    <row r="188" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C188" s="19"/>
-      <c r="E188" s="19" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="189" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C189" s="19"/>
-      <c r="E189" s="19" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="190" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C190" s="19"/>
-      <c r="E190" s="19"/>
+      <c r="E190" s="19" t="s">
+        <v>1136</v>
+      </c>
     </row>
     <row r="191" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C191" s="19"/>
-      <c r="E191" s="19"/>
+      <c r="E191" s="19" t="s">
+        <v>1137</v>
+      </c>
     </row>
     <row r="192" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C192" s="19"/>
@@ -13733,66 +14955,68 @@
     <row r="195" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C195" s="19"/>
       <c r="E195" s="19"/>
-      <c r="F195" s="19" t="s">
-        <v>1140</v>
-      </c>
     </row>
     <row r="196" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C196" s="19"/>
       <c r="E196" s="19"/>
-      <c r="F196" s="19" t="s">
-        <v>1141</v>
-      </c>
     </row>
     <row r="197" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D197" s="19" t="s">
+      <c r="C197" s="19"/>
+      <c r="E197" s="19"/>
+      <c r="F197" s="19" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="198" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C198" s="19"/>
+      <c r="E198" s="19"/>
+      <c r="F198" s="19" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="199" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D199" s="19" t="s">
         <v>574</v>
       </c>
-      <c r="E197" s="19" t="s">
+      <c r="E199" s="19" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E198" s="19" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E199" s="19" t="s">
-        <v>576</v>
-      </c>
-    </row>
     <row r="200" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F200" s="19" t="s">
-        <v>577</v>
+      <c r="E200" s="19" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="201" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E201" s="19" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="202" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F202" s="19" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="203" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E203" s="19" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="204" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F204" s="19" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="205" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E205" s="19" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="204" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E204" s="19"/>
-      <c r="F204" s="19" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="205" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E205" s="19"/>
     </row>
     <row r="206" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E206" s="19"/>
+      <c r="F206" s="19" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="207" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E207" s="19"/>
@@ -13800,190 +15024,237 @@
     <row r="208" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E208" s="19"/>
     </row>
-    <row r="209" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E209" s="19"/>
     </row>
-    <row r="210" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F210" s="19" t="s">
+    <row r="210" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E210" s="19"/>
+    </row>
+    <row r="211" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E211" s="19"/>
+    </row>
+    <row r="212" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F212" s="19" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="211" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F211" s="19" t="s">
+    <row r="213" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F213" s="19" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="212" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F212" s="19" t="s">
+    <row r="214" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F214" s="19" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="213" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F213" s="19" t="s">
+    <row r="215" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F215" s="19" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="214" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F214" s="19" t="s">
+    <row r="216" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F216" s="19" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="215" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F215" s="19" t="s">
+    <row r="217" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F217" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="H215" s="19" t="s">
+      <c r="H217" s="19" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="216" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D216" s="19" t="s">
+    <row r="218" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D218" s="19" t="s">
         <v>586</v>
       </c>
-      <c r="E216" s="19" t="s">
+      <c r="E218" s="19" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="217" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="E217" s="19" t="s">
+    <row r="219" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E219" s="19" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="218" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D218" s="19" t="s">
+    <row r="220" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D220" s="19" t="s">
         <v>591</v>
       </c>
-      <c r="E218" s="19" t="s">
+      <c r="E220" s="19" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="219" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="E219" s="19" t="s">
+    <row r="221" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E221" s="19" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="220" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="E220" s="19" t="s">
+    <row r="222" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E222" s="19" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="221" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="E221" s="19" t="s">
+    <row r="223" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E223" s="19" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="222" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D222" s="19" t="s">
+    <row r="224" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D224" s="19" t="s">
         <v>596</v>
       </c>
-      <c r="E222" s="19" t="s">
+      <c r="E224" s="19" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="223" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="E223" s="19" t="s">
+    <row r="225" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E225" s="19" t="s">
         <v>598</v>
-      </c>
-    </row>
-    <row r="224" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C224" s="19" t="s">
-        <v>569</v>
-      </c>
-      <c r="D224" s="19" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="225" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D225" s="19" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="226" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C226" s="19" t="s">
-        <v>602</v>
+        <v>569</v>
       </c>
       <c r="D226" s="19" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="227" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D227" s="19" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="228" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C228" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="D228" s="19" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="229" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D229" s="19" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="230" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D230" s="19" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="228" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D228" s="19" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="229" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E229" s="19" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="230" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F230" s="19" t="s">
-        <v>606</v>
-      </c>
-    </row>
     <row r="231" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E231" s="19" t="s">
-        <v>607</v>
-      </c>
+      <c r="D231" s="19"/>
     </row>
     <row r="232" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F232" s="19" t="s">
-        <v>879</v>
-      </c>
+      <c r="D232" s="19"/>
     </row>
     <row r="233" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E233" s="19" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="234" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F234" s="19" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="235" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E235" s="19" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="236" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F236" s="19" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="237" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E237" s="19" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="238" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F238" s="12" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="234" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F234" s="12" t="s">
+    <row r="239" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D239" s="12" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="235" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D235" s="12" t="s">
+    <row r="243" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E243" s="12" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="236" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E236" s="12" t="s">
+    <row r="244" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F244" s="12" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="237" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F237" s="12" t="s">
+    <row r="245" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E245" s="12" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="238" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E238" s="12" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="239" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F239" s="19" t="s">
+    <row r="246" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F246" s="19" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="247" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F247" s="19" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="240" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F240" s="19" t="s">
+    <row r="248" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F248" s="19" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="241" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F241" s="19" t="s">
+    <row r="249" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F249" s="19" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="242" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F242" s="19" t="s">
-        <v>618</v>
+    <row r="250" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D250" s="19" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="253" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E253" s="19" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="254" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F254" s="19" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="255" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E255" s="19" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="256" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F256" s="19" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="257" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E257" s="19" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="258" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F258" s="19" t="s">
+        <v>1258</v>
       </c>
     </row>
   </sheetData>
@@ -14011,10 +15282,10 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>622</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>623</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -14043,12 +15314,12 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -14056,10 +15327,10 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
+        <v>625</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>626</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>627</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -14088,10 +15359,10 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="B34" s="17" t="s">
         <v>628</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>629</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -14120,10 +15391,10 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B35" s="25" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
@@ -14151,133 +15422,133 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C36" s="19" t="s">
+        <v>632</v>
+      </c>
+      <c r="D36" s="19" t="s">
         <v>633</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C72" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="D72" s="19" t="s">
         <v>642</v>
-      </c>
-      <c r="D72" s="19" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D73" s="19" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E74" s="19" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D75" s="19" t="s">
+        <v>646</v>
+      </c>
+      <c r="E75" s="19" t="s">
         <v>647</v>
-      </c>
-      <c r="E75" s="19" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E76" s="19" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D77" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="E77" s="19" t="s">
         <v>650</v>
-      </c>
-      <c r="E77" s="19" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D78" s="19" t="s">
+        <v>651</v>
+      </c>
+      <c r="E78" s="19" t="s">
         <v>652</v>
-      </c>
-      <c r="E78" s="19" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="79" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D79" s="19"/>
       <c r="E79" s="19" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="80" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D80" s="19"/>
       <c r="E80" s="19" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="81" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D81" s="19" t="s">
+        <v>654</v>
+      </c>
+      <c r="E81" s="19" t="s">
         <v>655</v>
-      </c>
-      <c r="E81" s="19" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="82" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E82" s="19" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="83" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D83" s="19" t="s">
+        <v>657</v>
+      </c>
+      <c r="E83" s="19" t="s">
         <v>658</v>
-      </c>
-      <c r="E83" s="19" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="84" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D84" s="19"/>
       <c r="E84" s="19" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="85" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D85" s="19" t="s">
+        <v>660</v>
+      </c>
+      <c r="E85" s="19" t="s">
         <v>661</v>
-      </c>
-      <c r="E85" s="19" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="86" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D86" s="19"/>
       <c r="E86" s="19" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="87" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D87" s="19"/>
       <c r="E87" s="19" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="88" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D88" s="19"/>
       <c r="E88" s="19" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="89" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B89" s="25" t="s">
+        <v>634</v>
+      </c>
+      <c r="C89" s="26" t="s">
         <v>635</v>
-      </c>
-      <c r="C89" s="26" t="s">
-        <v>636</v>
       </c>
       <c r="D89" s="27"/>
       <c r="E89" s="27"/>
@@ -14305,75 +15576,75 @@
     </row>
     <row r="90" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C90" s="19" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="102" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C102" s="19" t="s">
+        <v>666</v>
+      </c>
+      <c r="D102" s="19" t="s">
         <v>667</v>
-      </c>
-      <c r="D102" s="19" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="103" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D103" s="19" t="s">
+        <v>676</v>
+      </c>
+      <c r="E103" s="19" t="s">
         <v>677</v>
-      </c>
-      <c r="E103" s="19" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="104" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D104" s="19"/>
       <c r="E104" s="12" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="105" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D105" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="E105" s="19" t="s">
         <v>680</v>
-      </c>
-      <c r="E105" s="19" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="106" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D106" s="19"/>
       <c r="E106" s="19" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="107" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C107" s="19" t="s">
+        <v>701</v>
+      </c>
+      <c r="D107" s="19" t="s">
         <v>702</v>
-      </c>
-      <c r="D107" s="19" t="s">
-        <v>703</v>
       </c>
       <c r="E107" s="19"/>
     </row>
     <row r="108" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D108" s="19" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E108" s="19"/>
     </row>
     <row r="109" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D109" s="19" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E109" s="19"/>
     </row>
     <row r="110" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B110" s="25" t="s">
+        <v>637</v>
+      </c>
+      <c r="C110" s="26" t="s">
         <v>638</v>
-      </c>
-      <c r="C110" s="26" t="s">
-        <v>639</v>
       </c>
       <c r="D110" s="27"/>
       <c r="E110" s="27"/>
@@ -14401,71 +15672,71 @@
     </row>
     <row r="111" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C111" s="19" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="133" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C133" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="D133" s="19" t="s">
         <v>669</v>
-      </c>
-      <c r="D133" s="19" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="134" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C134" s="19"/>
       <c r="D134" s="19" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="135" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C135" s="19"/>
       <c r="D135" s="19" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="136" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C136" s="19"/>
       <c r="D136" s="19"/>
       <c r="E136" s="19" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="137" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C137" s="19"/>
       <c r="D137" s="19" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="138" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C138" s="19" t="s">
+        <v>697</v>
+      </c>
+      <c r="D138" s="19" t="s">
         <v>698</v>
-      </c>
-      <c r="D138" s="19" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="139" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C139" s="19"/>
       <c r="D139" s="19" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="140" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C140" s="19"/>
       <c r="D140" s="19" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="141" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B141" s="25" t="s">
+        <v>639</v>
+      </c>
+      <c r="C141" s="26" t="s">
         <v>640</v>
-      </c>
-      <c r="C141" s="26" t="s">
-        <v>641</v>
       </c>
       <c r="D141" s="27"/>
       <c r="E141" s="27"/>
@@ -14493,186 +15764,186 @@
     </row>
     <row r="142" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C142" s="19" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D142" s="19" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="162" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C162" s="19" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D162" s="19" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D163" s="19" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E163" s="19" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="164" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D164" s="19"/>
       <c r="E164" s="19" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D165" s="19" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E165" s="19" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E166" s="19" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D167" s="19" t="s">
+        <v>686</v>
+      </c>
+      <c r="E167" s="19" t="s">
         <v>687</v>
-      </c>
-      <c r="E167" s="19" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="168" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E168" s="19" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="169" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D169" s="19" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E169" s="19" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="170" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E170" s="19" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="171" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E171" s="19" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="172" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F172" s="29" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="173" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F173" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="174" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F174" s="29" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="175" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F175" s="29" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E176" s="19" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F177" s="29" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F178" s="29" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F179" s="29" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E180" s="19" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F181" s="29" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F182" s="30" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F183" s="30" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F184" s="29" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C185" s="19" t="s">
+        <v>709</v>
+      </c>
+      <c r="D185" s="19" t="s">
         <v>710</v>
-      </c>
-      <c r="D185" s="19" t="s">
-        <v>711</v>
       </c>
       <c r="E185" s="19"/>
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D186" s="19" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="187" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D187" s="19" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C188" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="D188" s="19" t="s">
         <v>886</v>
-      </c>
-      <c r="D188" s="19" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D189" s="31" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D190" s="19" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A192" s="17" t="s">
+        <v>713</v>
+      </c>
+      <c r="B192" s="17" t="s">
         <v>714</v>
-      </c>
-      <c r="B192" s="17" t="s">
-        <v>715</v>
       </c>
       <c r="C192" s="13"/>
       <c r="D192" s="13"/>
@@ -14701,297 +15972,297 @@
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B193" s="18" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C193" s="19" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C194" s="19" t="s">
+        <v>716</v>
+      </c>
+      <c r="D194" s="19" t="s">
         <v>717</v>
-      </c>
-      <c r="D194" s="19" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="230" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C230" s="19" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D230" s="19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="231" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C231" s="19"/>
       <c r="D231" s="19" t="s">
+        <v>759</v>
+      </c>
+      <c r="E231" s="19" t="s">
         <v>760</v>
-      </c>
-      <c r="E231" s="19" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="232" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C232" s="19"/>
       <c r="D232" s="19"/>
       <c r="E232" s="19" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="233" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D233" s="19" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E233" s="19" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="234" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E234" s="19" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="235" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D235" s="19" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E235" s="19" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="236" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E236" s="19" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="237" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C237" s="19" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D237" s="19" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="238" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D238" s="19" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E238" s="19" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="239" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E239" s="19" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="240" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D240" s="19" t="s">
+        <v>720</v>
+      </c>
+      <c r="E240" s="19" t="s">
         <v>721</v>
-      </c>
-      <c r="E240" s="19" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="241" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E241" s="19" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="242" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E242" s="19" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="243" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E243" s="19" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="244" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E244" s="19" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="245" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D245" s="19" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E245" s="19" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="246" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E246" s="19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="247" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E247" s="19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="248" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E248" s="19"/>
       <c r="F248" s="12" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="249" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E249" s="19" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="250" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E250" s="19"/>
       <c r="F250" s="12" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="251" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E251" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="252" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F252" s="19" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="253" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D253" s="19" t="s">
+        <v>734</v>
+      </c>
+      <c r="E253" s="19" t="s">
         <v>735</v>
-      </c>
-      <c r="E253" s="19" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="254" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E254" s="19" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="255" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E255" s="19" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="256" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F256" s="19" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="257" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E257" s="19" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F258" s="19" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E259" s="19" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F260" s="19" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="261" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E261" s="19" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="262" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F262" s="19" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E263" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="264" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F264" s="19" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E265" s="19" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F266" s="19" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E267" s="19" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F268" s="19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G269" s="19" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="270" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F270" s="19" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="271" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G271" s="19" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="272" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B272" s="18" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C272" s="19" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="273" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C273" s="19" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D273" s="19" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="293" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C293" s="19" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D293" s="19" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="294" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D294" s="19" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="296" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A296" s="17" t="s">
+        <v>767</v>
+      </c>
+      <c r="B296" s="17" t="s">
         <v>768</v>
-      </c>
-      <c r="B296" s="17" t="s">
-        <v>769</v>
       </c>
       <c r="C296" s="13"/>
       <c r="D296" s="13"/>
@@ -15020,66 +16291,66 @@
     </row>
     <row r="297" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B297" s="19" t="s">
+        <v>769</v>
+      </c>
+      <c r="C297" s="19" t="s">
         <v>770</v>
-      </c>
-      <c r="C297" s="19" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B333" s="19" t="s">
+        <v>771</v>
+      </c>
+      <c r="C333" s="19" t="s">
         <v>772</v>
-      </c>
-      <c r="C333" s="19" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C334" s="19" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D335" s="19" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C336" s="19" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="337" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D337" s="19" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="338" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B338" s="19" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C338" s="19" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="339" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D339" s="19" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="340" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D340" s="19" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="341" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D341" s="19" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="342" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E342" s="19" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
   </sheetData>
@@ -15096,10 +16367,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Z225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="X133" sqref="X133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15141,76 +16412,794 @@
       <c r="Y1" s="13"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B6" s="19" t="s">
+        <v>1194</v>
+      </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="B7" s="19" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B8" s="19" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B10" s="17" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C44" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="19" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="19" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D47" s="19" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D48" s="19" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D49" s="19" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D50" s="19" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D51" s="19"/>
+      <c r="E51" s="19" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D52" s="19"/>
+      <c r="E52" s="19" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A54" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="13"/>
+      <c r="X54" s="13"/>
+      <c r="Y54" s="13"/>
+      <c r="Z54" s="13"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B55" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" s="19"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
+      <c r="E56" s="19"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
+      <c r="E57" s="19"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
+      <c r="E58" s="19"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
+      <c r="E59" s="19"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B60" s="18"/>
+      <c r="C60" s="19"/>
+      <c r="E60" s="19"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+    </row>
+    <row r="74" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+    </row>
+    <row r="76" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88" s="18" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C89" s="19" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D90" s="19" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C91" s="19" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D92" s="19" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C93" s="19" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D94" s="19" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C95" s="19" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C96" s="19"/>
+      <c r="D96" s="19" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C97" s="19"/>
+      <c r="D97" s="19" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C98" s="19"/>
+      <c r="E98" s="19" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C99" s="19"/>
+      <c r="D99" s="19" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C102" s="19"/>
+      <c r="D102" s="19" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E102" s="19"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C104" s="19"/>
+      <c r="D104" s="19" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E104" s="19"/>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B106" s="18" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C107" s="19" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C108" s="19" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D108" s="19" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E108" s="19"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C109" s="19"/>
+      <c r="D109" s="19" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E109" s="19"/>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C110" s="19" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D110" s="19" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E110" s="19"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C111" s="19"/>
+      <c r="D111" s="19" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E111" s="19"/>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B112" s="18" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D112" s="19"/>
+      <c r="E112" s="19"/>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C113" s="19" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C114" s="19" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C115" s="19" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="19"/>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C117" s="19"/>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19"/>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A120" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="13"/>
+      <c r="K120" s="13"/>
+      <c r="L120" s="13"/>
+      <c r="M120" s="13"/>
+      <c r="N120" s="13"/>
+      <c r="O120" s="13"/>
+      <c r="P120" s="13"/>
+      <c r="Q120" s="13"/>
+      <c r="R120" s="13"/>
+      <c r="S120" s="13"/>
+      <c r="T120" s="13"/>
+      <c r="U120" s="13"/>
+      <c r="V120" s="13"/>
+      <c r="W120" s="13"/>
+      <c r="X120" s="13"/>
+      <c r="Y120" s="13"/>
+      <c r="Z120" s="13"/>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B121" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B158" s="18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C158" s="19" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C159" s="19" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D159" s="19" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D160" s="19" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C161" s="19" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D161" s="19" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C162" s="19"/>
+      <c r="D162" s="19" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B163" s="18" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C163" s="19" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B164" s="18"/>
+      <c r="C164" s="19" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B165" s="18"/>
+      <c r="C165" s="19" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D165" s="19" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B166" s="18"/>
+      <c r="C166" s="19"/>
+      <c r="D166" s="19" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D167" s="19" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C168" s="19" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D168" s="19" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C169" s="19"/>
+      <c r="D169" s="19" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E169" s="19" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D170" s="19" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E170" s="19" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D171" s="19" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E171" s="19" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C172" s="19" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D172" s="19" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E172" s="19"/>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D173" s="19" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E173" s="19"/>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D174" s="19" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E174" s="19"/>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D175" s="19"/>
+      <c r="E175" s="19"/>
+    </row>
+    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A177" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="B177" s="17" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C177" s="13"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="13"/>
+      <c r="G177" s="13"/>
+      <c r="H177" s="13"/>
+      <c r="I177" s="13"/>
+      <c r="J177" s="13"/>
+      <c r="K177" s="13"/>
+      <c r="L177" s="13"/>
+      <c r="M177" s="13"/>
+      <c r="N177" s="13"/>
+      <c r="O177" s="13"/>
+      <c r="P177" s="13"/>
+      <c r="Q177" s="13"/>
+      <c r="R177" s="13"/>
+      <c r="S177" s="13"/>
+      <c r="T177" s="13"/>
+      <c r="U177" s="13"/>
+      <c r="V177" s="13"/>
+      <c r="W177" s="13"/>
+      <c r="X177" s="13"/>
+      <c r="Y177" s="13"/>
+      <c r="Z177" s="13"/>
+    </row>
+    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B178" s="18" t="s">
         <v>1191</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>83</v>
+      <c r="C178" s="19" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B212" s="18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C212" s="19" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C213" s="19" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C214" s="19" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B215" s="18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C215" s="19" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C216" s="19" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B217" s="18" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C217" s="19" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C218" s="19" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C219" s="19" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C220" s="19" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C221" s="19" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C222" s="19" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C223" s="19" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C224" s="19" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C225" s="19" t="s">
+        <v>1246</v>
       </c>
     </row>
   </sheetData>
@@ -15272,20 +17261,20 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>1070</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>1071</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -15314,114 +17303,114 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>1076</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
       <c r="C7" s="19" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C8" s="19" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C9" s="19" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>1079</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>1080</v>
       </c>
       <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C11" s="19" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C12" s="19" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C13" s="19" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C14" s="19" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C17" s="19" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C18" s="19"/>
       <c r="D18" s="19" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C19" s="19" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>1082</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C20" s="19"/>
       <c r="D20" s="19" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C21" s="19" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C22" s="19"/>
       <c r="D22" s="19" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
@@ -15429,7 +17418,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -15474,129 +17463,129 @@
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C60" s="19" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C61" s="19" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C62" s="19" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" s="18" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C63" s="19" t="s">
         <v>1050</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C64" s="19" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C65" s="19" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C66" s="18" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D66" s="19" t="s">
         <v>1053</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C67" s="19"/>
       <c r="D67" s="19" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C68" s="19" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D68" s="19" t="s">
         <v>1055</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C69" s="19"/>
       <c r="D69" s="19" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C70" s="19" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D70" s="19" t="s">
         <v>1057</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C71" s="19"/>
       <c r="D71" s="19" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D72" s="19" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73" s="18" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C73" s="19" t="s">
         <v>1064</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>1065</v>
       </c>
       <c r="D73" s="19"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C74" s="19" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D74" s="19"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C75" s="19" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D75" s="19"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76" s="18" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D76" s="19"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C77" s="19" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D77" s="19"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C78" s="19" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D78" s="19"/>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C79" s="19" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D79" s="19"/>
     </row>
@@ -15605,7 +17594,7 @@
         <v>18</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
@@ -15645,48 +17634,48 @@
         <v>237</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C118" s="19" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B119" s="18" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C119" s="19" t="s">
         <v>1095</v>
-      </c>
-      <c r="C119" s="19" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C120" s="19" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B121" s="18" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C122" s="19" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C123" s="19" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C124" s="19" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.3">
@@ -15697,7 +17686,7 @@
         <v>422</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
@@ -15726,10 +17715,10 @@
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B127" s="18" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C127" s="19" t="s">
         <v>1103</v>
-      </c>
-      <c r="C127" s="19" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.3">
@@ -15785,66 +17774,66 @@
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B162" s="18" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C162" s="19" t="s">
         <v>1105</v>
-      </c>
-      <c r="C162" s="19" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C163" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C164" s="19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C165" s="19" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B166" s="18" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C167" s="19" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C168" s="19" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C169" s="19" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B170" s="18" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C171" s="19" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C172" s="19" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.3">
@@ -15858,10 +17847,10 @@
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A178" s="33" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B178" s="17" t="s">
         <v>1093</v>
-      </c>
-      <c r="B178" s="17" t="s">
-        <v>1094</v>
       </c>
       <c r="C178" s="13"/>
       <c r="D178" s="13"/>
@@ -15906,69 +17895,69 @@
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C214" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B215" s="18" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C215" s="19" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C216" s="19" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B217" s="18" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C218" s="19" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C219" s="19" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B220" s="18" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C220" s="19" t="s">
         <v>1121</v>
-      </c>
-      <c r="C220" s="19" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C221" s="19" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C222" s="19" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B223" s="18" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C223" s="19" t="s">
         <v>1125</v>
-      </c>
-      <c r="C223" s="19" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C224" s="19" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="237" spans="8:8" x14ac:dyDescent="0.3">
@@ -16034,7 +18023,7 @@
         <v>86</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -16074,7 +18063,7 @@
         <v>18</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -16103,138 +18092,138 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B37" s="18" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C38" s="19" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C39" s="19" t="s">
+        <v>941</v>
+      </c>
+      <c r="D39" s="19" t="s">
         <v>942</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
+        <v>944</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>945</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C41" s="19" t="s">
+        <v>946</v>
+      </c>
+      <c r="D41" s="19" t="s">
         <v>947</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C42" s="19" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B43" s="18" t="s">
+        <v>949</v>
+      </c>
+      <c r="C43" s="19" t="s">
         <v>950</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C44" s="19" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C45" s="19" t="s">
+        <v>953</v>
+      </c>
+      <c r="D45" s="19" t="s">
         <v>954</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C47" s="19" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C48" s="19" t="s">
+        <v>953</v>
+      </c>
+      <c r="D48" s="19" t="s">
         <v>954</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B49" s="18" t="s">
+        <v>956</v>
+      </c>
+      <c r="C49" s="19" t="s">
         <v>957</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C50" s="19" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C51" s="19" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C52" s="19" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C53" s="19" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.3">
@@ -16242,7 +18231,7 @@
         <v>81</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -16271,115 +18260,115 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B56" s="18" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="18" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C91" s="19" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D92" s="19" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D93" s="19" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D94" s="19" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C95" s="19" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D96" s="19" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D97" s="19"/>
       <c r="E97" s="19" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D98" s="19"/>
       <c r="E98" s="19" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D99" s="19" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D100" s="19"/>
       <c r="E100" s="19" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D101" s="19"/>
       <c r="E101" s="19" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="102" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D102" s="19" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="103" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D103" s="19"/>
       <c r="E103" s="19" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="104" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D104" s="19"/>
       <c r="E104" s="19" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="105" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D105" s="19"/>
       <c r="E105" s="19" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="106" spans="4:5" x14ac:dyDescent="0.3">
@@ -16432,34 +18421,34 @@
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C122" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="D122" s="19" t="s">
         <v>978</v>
-      </c>
-      <c r="D122" s="19" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="123" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D123" s="19" t="s">
+        <v>979</v>
+      </c>
+      <c r="E123" s="19" t="s">
         <v>980</v>
-      </c>
-      <c r="E123" s="19" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D124" s="19" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E124" s="19" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="125" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D125" s="19" t="s">
+        <v>993</v>
+      </c>
+      <c r="E125" s="19" t="s">
         <v>994</v>
-      </c>
-      <c r="E125" s="19" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="126" spans="3:5" x14ac:dyDescent="0.3">
@@ -16476,7 +18465,7 @@
         <v>84</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C131" s="13"/>
       <c r="D131" s="13"/>
@@ -16505,212 +18494,212 @@
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B132" s="18" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B166" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="C166" s="19" t="s">
         <v>996</v>
-      </c>
-      <c r="C166" s="19" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C167" s="19" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C168" s="19" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C169" s="19" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D169" s="19" t="s">
         <v>1016</v>
-      </c>
-      <c r="D169" s="19" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C170" s="19"/>
       <c r="D170" s="19" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C171" s="19" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D172" s="19" t="s">
+        <v>999</v>
+      </c>
+      <c r="E172" s="19" t="s">
         <v>1000</v>
-      </c>
-      <c r="E172" s="19" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E173" s="19" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E174" s="19" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D175" s="19" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E175" s="19" t="s">
         <v>1004</v>
-      </c>
-      <c r="E175" s="19" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D176" s="19"/>
       <c r="E176" s="19" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="177" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E177" s="19" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="178" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E178" s="19" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="179" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D179" s="19" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E179" s="19" t="s">
         <v>1008</v>
-      </c>
-      <c r="E179" s="19" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="180" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E180" s="19" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="181" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E181" s="19" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="182" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E182" s="19" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="183" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D183" s="19" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E183" s="19" t="s">
         <v>1031</v>
-      </c>
-      <c r="E183" s="19" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="184" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D184" s="19"/>
       <c r="E184" s="19" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="185" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E185" s="19" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="186" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E186" s="19" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="187" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C187" s="19" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D187" s="19" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="188" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D188" s="19" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E188" s="19" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="189" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D189" s="19" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E189" s="19" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="190" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D190" s="19" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E190" s="19" t="s">
         <v>1020</v>
-      </c>
-      <c r="E190" s="19" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="191" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C191" s="19" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D191" s="19" t="s">
         <v>1024</v>
-      </c>
-      <c r="D191" s="19" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="192" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D192" s="19" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="193" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D193" s="19" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E193" s="19" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="194" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E194" s="19" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E195" s="19" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E196" s="19" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="197" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E197" s="19" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="203" spans="1:26" x14ac:dyDescent="0.3">
@@ -16718,7 +18707,7 @@
         <v>368</v>
       </c>
       <c r="B203" s="17" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C203" s="13"/>
       <c r="D203" s="13"/>
@@ -16747,10 +18736,10 @@
     </row>
     <row r="204" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B204" s="18" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.3">
@@ -16763,17 +18752,17 @@
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C237" s="19" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C238" s="19" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C239" s="19" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
   </sheetData>
@@ -17784,7 +19773,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -17813,7 +19802,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -17821,7 +19810,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -17853,7 +19842,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
@@ -17861,7 +19850,7 @@
         <v>237</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
@@ -17869,7 +19858,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -17901,7 +19890,7 @@
         <v>20</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
@@ -17917,7 +19906,7 @@
         <v>24</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
@@ -17925,7 +19914,7 @@
         <v>50</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
@@ -17933,7 +19922,7 @@
         <v>52</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
@@ -17941,7 +19930,7 @@
         <v>54</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
@@ -17949,12 +19938,12 @@
         <v>30</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D56" s="19" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
@@ -17965,7 +19954,7 @@
         <v>237</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
@@ -17973,7 +19962,7 @@
         <v>73</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
@@ -17981,17 +19970,17 @@
         <v>473</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D61" s="19" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D62" s="19" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.3">
@@ -17999,7 +19988,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
@@ -18031,17 +20020,17 @@
         <v>20</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C83" s="19" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C84" s="19" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
@@ -18049,7 +20038,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
@@ -18081,12 +20070,12 @@
         <v>20</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C88" s="12" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.3">
@@ -18094,7 +20083,7 @@
         <v>44</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.3">
@@ -18102,7 +20091,7 @@
         <v>69</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.3">
@@ -18110,15 +20099,15 @@
         <v>438</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B92" s="18" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C92" s="19" t="s">
         <v>1042</v>
-      </c>
-      <c r="C92" s="19" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.3">
@@ -18158,7 +20147,7 @@
         <v>20</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.3">
@@ -18166,7 +20155,7 @@
         <v>44</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.3">
@@ -18174,7 +20163,7 @@
         <v>227</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
@@ -18206,7 +20195,7 @@
         <v>20</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
@@ -18214,7 +20203,7 @@
         <v>237</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.3">
@@ -18222,7 +20211,7 @@
         <v>69</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.3">
@@ -18230,7 +20219,7 @@
         <v>416</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
@@ -18262,12 +20251,12 @@
         <v>20</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C127" s="19" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.3">
@@ -18275,12 +20264,12 @@
         <v>44</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C129" s="19" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
   </sheetData>
@@ -18311,7 +20300,7 @@
         <v>100</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -18340,7 +20329,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
@@ -18348,7 +20337,7 @@
         <v>217</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -18377,10 +20366,10 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="B35" s="17" t="s">
         <v>780</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>781</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -18409,46 +20398,46 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B36" s="18" t="s">
+        <v>781</v>
+      </c>
+      <c r="C36" s="19" t="s">
         <v>782</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C37" s="19" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
+        <v>784</v>
+      </c>
+      <c r="C38" s="19" t="s">
         <v>785</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C39" s="19" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
+        <v>787</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>788</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C41" s="19" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C42" s="19" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
@@ -18456,7 +20445,7 @@
         <v>226</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -18485,17 +20474,17 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B45" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B46" s="19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B47" s="19" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
   </sheetData>
@@ -18523,10 +20512,10 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>810</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>811</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -18555,20 +20544,20 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -18605,67 +20594,67 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
+        <v>815</v>
+      </c>
+      <c r="C42" s="19" t="s">
         <v>816</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C43" s="19" t="s">
+        <v>817</v>
+      </c>
+      <c r="D43" s="19" t="s">
         <v>818</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D44" s="19" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C45" s="19" t="s">
+        <v>820</v>
+      </c>
+      <c r="D45" s="19" t="s">
         <v>821</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D46" s="19" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D47" s="19" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D48" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C49" s="19" t="s">
+        <v>825</v>
+      </c>
+      <c r="D49" s="19" t="s">
         <v>826</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D50" s="19" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="B52" s="17" t="s">
         <v>829</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>830</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -18702,73 +20691,73 @@
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="18" t="s">
+        <v>815</v>
+      </c>
+      <c r="C90" s="19" t="s">
         <v>816</v>
-      </c>
-      <c r="C90" s="19" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C91" s="19" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D92" s="19" t="s">
+        <v>831</v>
+      </c>
+      <c r="E92" s="19" t="s">
         <v>832</v>
-      </c>
-      <c r="E92" s="19" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D93" s="19" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D94" s="19" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D95" s="19" t="s">
+        <v>835</v>
+      </c>
+      <c r="E95" s="19" t="s">
         <v>836</v>
-      </c>
-      <c r="E95" s="19" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D96" s="19" t="s">
+        <v>837</v>
+      </c>
+      <c r="E96" s="19" t="s">
         <v>838</v>
-      </c>
-      <c r="E96" s="19" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E97" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E98" s="19" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100" s="17" t="s">
+        <v>841</v>
+      </c>
+      <c r="B100" s="17" t="s">
         <v>842</v>
-      </c>
-      <c r="B100" s="17" t="s">
-        <v>843</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
@@ -18797,10 +20786,10 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B101" s="18" t="s">
+        <v>843</v>
+      </c>
+      <c r="C101" s="19" t="s">
         <v>844</v>
-      </c>
-      <c r="C101" s="19" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.3">
@@ -18808,20 +20797,20 @@
         <v>237</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C119" s="19" t="s">
+        <v>845</v>
+      </c>
+      <c r="D119" s="19" t="s">
         <v>846</v>
-      </c>
-      <c r="D119" s="19" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D120" s="19" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.3">
@@ -18829,12 +20818,12 @@
         <v>257</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D122" s="19" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.3">
@@ -18842,12 +20831,12 @@
         <v>296</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D124" s="19" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.3">
@@ -18855,37 +20844,37 @@
         <v>97</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D126" s="19" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D127" s="19" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E128" s="19" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E129" s="19" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E130" s="19" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E131" s="19" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
   </sheetData>
@@ -18898,10 +20887,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z294"/>
+  <dimension ref="A1:Z305"/>
   <sheetViews>
-    <sheetView topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="S214" sqref="S214"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="D226" sqref="D226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19034,7 +21023,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D12" s="19"/>
     </row>
@@ -19344,73 +21333,73 @@
     </row>
     <row r="121" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D121" s="19" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="122" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D122" s="19" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="123" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D123" s="19"/>
       <c r="E123" s="19" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="124" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D124" s="19" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E124" s="19" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="125" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D125" s="19"/>
       <c r="E125" s="19" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="126" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D126" s="19"/>
       <c r="E126" s="19" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="127" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D127" s="19"/>
       <c r="E127" s="19" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="128" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D128" s="19"/>
       <c r="E128" s="19" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="129" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D129" s="19" t="s">
+        <v>896</v>
+      </c>
+      <c r="E129" s="19" t="s">
         <v>897</v>
-      </c>
-      <c r="E129" s="19" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="130" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D130" s="19"/>
       <c r="E130" s="19" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="131" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D131" s="19"/>
       <c r="E131" s="19" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="132" spans="4:5" x14ac:dyDescent="0.3">
@@ -19483,28 +21472,28 @@
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D149" s="19" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E149" s="19" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D150" s="19"/>
       <c r="E150" s="19" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D151" s="19"/>
       <c r="E151" s="19" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D152" s="19"/>
       <c r="E152" s="19" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.3">
@@ -19583,515 +21572,556 @@
       <c r="Y157" s="27"/>
       <c r="Z157" s="27"/>
     </row>
-    <row r="210" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B210" s="25" t="s">
+    <row r="211" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B211" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="C210" s="26" t="s">
+      <c r="C211" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="D210" s="27"/>
-      <c r="E210" s="27"/>
-      <c r="F210" s="27"/>
-      <c r="G210" s="27"/>
-      <c r="H210" s="27"/>
-      <c r="I210" s="27"/>
-      <c r="J210" s="27"/>
-      <c r="K210" s="27"/>
-      <c r="L210" s="27"/>
-      <c r="M210" s="27"/>
-      <c r="N210" s="27"/>
-      <c r="O210" s="27"/>
-      <c r="P210" s="27"/>
-      <c r="Q210" s="27"/>
-      <c r="R210" s="27"/>
-      <c r="S210" s="27"/>
-      <c r="T210" s="27"/>
-      <c r="U210" s="27"/>
-      <c r="V210" s="27"/>
-      <c r="W210" s="27"/>
-      <c r="X210" s="27"/>
-      <c r="Y210" s="27"/>
-      <c r="Z210" s="27"/>
-    </row>
-    <row r="211" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C211" s="19" t="s">
+      <c r="D211" s="27"/>
+      <c r="E211" s="27"/>
+      <c r="F211" s="27"/>
+      <c r="G211" s="27"/>
+      <c r="H211" s="27"/>
+      <c r="I211" s="27"/>
+      <c r="J211" s="27"/>
+      <c r="K211" s="27"/>
+      <c r="L211" s="27"/>
+      <c r="M211" s="27"/>
+      <c r="N211" s="27"/>
+      <c r="O211" s="27"/>
+      <c r="P211" s="27"/>
+      <c r="Q211" s="27"/>
+      <c r="R211" s="27"/>
+      <c r="S211" s="27"/>
+      <c r="T211" s="27"/>
+      <c r="U211" s="27"/>
+      <c r="V211" s="27"/>
+      <c r="W211" s="27"/>
+      <c r="X211" s="27"/>
+      <c r="Y211" s="27"/>
+      <c r="Z211" s="27"/>
+    </row>
+    <row r="212" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C212" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="D211" s="19" t="s">
+      <c r="D212" s="19" t="s">
         <v>273</v>
-      </c>
-    </row>
-    <row r="212" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D212" s="19" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="213" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D213" s="19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="214" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D214" s="19" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="215" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C215" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="D215" s="19" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="216" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D216" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="217" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C217" s="19" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D217" s="19" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="214" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C214" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="D214" s="19" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="215" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D215" s="19" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="216" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C216" s="19" t="s">
+    <row r="218" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D218" s="19" t="s">
         <v>1167</v>
       </c>
-      <c r="D216" s="19" t="s">
+    </row>
+    <row r="219" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D219" s="19"/>
+    </row>
+    <row r="220" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D220" s="19" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="217" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D217" s="19" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="218" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D218" s="19"/>
-    </row>
-    <row r="219" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D219" s="19" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="221" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B221" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="C221" s="26" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D221" s="27"/>
-      <c r="E221" s="27"/>
-      <c r="F221" s="27"/>
-      <c r="G221" s="27"/>
-      <c r="H221" s="27"/>
-      <c r="I221" s="27"/>
-      <c r="J221" s="27"/>
-      <c r="K221" s="27"/>
-      <c r="L221" s="27"/>
-      <c r="M221" s="27"/>
-      <c r="N221" s="27"/>
-      <c r="O221" s="27"/>
-      <c r="P221" s="27"/>
-      <c r="Q221" s="27"/>
-      <c r="R221" s="27"/>
-      <c r="S221" s="27"/>
-      <c r="T221" s="27"/>
-      <c r="U221" s="27"/>
-      <c r="V221" s="27"/>
-      <c r="W221" s="27"/>
-      <c r="X221" s="27"/>
-      <c r="Y221" s="27"/>
-      <c r="Z221" s="27"/>
     </row>
     <row r="222" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C222" s="19" t="s">
-        <v>1149</v>
+        <v>1247</v>
+      </c>
+      <c r="D222" s="19" t="s">
+        <v>1248</v>
       </c>
     </row>
     <row r="223" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C223" s="19" t="s">
-        <v>1148</v>
-      </c>
       <c r="D223" s="19" t="s">
-        <v>1150</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="224" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D224" s="19" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="225" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D225" s="19" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="226" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D226" s="19"/>
+    </row>
+    <row r="227" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D227" s="19"/>
+    </row>
+    <row r="228" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D228" s="19"/>
+    </row>
+    <row r="229" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D229" s="19"/>
+    </row>
+    <row r="230" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D230" s="19"/>
+    </row>
+    <row r="231" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D231" s="19"/>
+    </row>
+    <row r="232" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B232" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="C232" s="26" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D232" s="27"/>
+      <c r="E232" s="27"/>
+      <c r="F232" s="27"/>
+      <c r="G232" s="27"/>
+      <c r="H232" s="27"/>
+      <c r="I232" s="27"/>
+      <c r="J232" s="27"/>
+      <c r="K232" s="27"/>
+      <c r="L232" s="27"/>
+      <c r="M232" s="27"/>
+      <c r="N232" s="27"/>
+      <c r="O232" s="27"/>
+      <c r="P232" s="27"/>
+      <c r="Q232" s="27"/>
+      <c r="R232" s="27"/>
+      <c r="S232" s="27"/>
+      <c r="T232" s="27"/>
+      <c r="U232" s="27"/>
+      <c r="V232" s="27"/>
+      <c r="W232" s="27"/>
+      <c r="X232" s="27"/>
+      <c r="Y232" s="27"/>
+      <c r="Z232" s="27"/>
+    </row>
+    <row r="233" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C233" s="19" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="234" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C234" s="19" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D234" s="19" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="235" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D235" s="19" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="236" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C236" s="19" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D236" s="19" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="225" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C225" s="19" t="s">
+    <row r="237" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D237" s="19" t="s">
         <v>1152</v>
       </c>
-      <c r="D225" s="19" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="226" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D226" s="19" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="228" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B228" s="25" t="s">
+    </row>
+    <row r="239" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B239" s="25" t="s">
         <v>422</v>
       </c>
-      <c r="C228" s="26" t="s">
-        <v>863</v>
-      </c>
-      <c r="D228" s="27"/>
-      <c r="E228" s="27"/>
-      <c r="F228" s="27"/>
-      <c r="G228" s="27"/>
-      <c r="H228" s="27"/>
-      <c r="I228" s="27"/>
-      <c r="J228" s="27"/>
-      <c r="K228" s="27"/>
-      <c r="L228" s="27"/>
-      <c r="M228" s="27"/>
-      <c r="N228" s="27"/>
-      <c r="O228" s="27"/>
-      <c r="P228" s="27"/>
-      <c r="Q228" s="27"/>
-      <c r="R228" s="27"/>
-      <c r="S228" s="27"/>
-      <c r="T228" s="27"/>
-      <c r="U228" s="27"/>
-      <c r="V228" s="27"/>
-      <c r="W228" s="27"/>
-      <c r="X228" s="27"/>
-      <c r="Y228" s="27"/>
-      <c r="Z228" s="27"/>
-    </row>
-    <row r="229" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C229" s="19" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="230" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C230" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="D230" s="19" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="231" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C231" s="19"/>
-      <c r="D231" s="19" t="s">
+      <c r="C239" s="26" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="232" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C232" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="D232" s="19" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="233" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C233" s="19"/>
-      <c r="D233" s="19" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="234" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C234" s="19"/>
-      <c r="D234" s="19"/>
-      <c r="E234" s="19" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="235" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C235" s="19"/>
-      <c r="D235" s="19"/>
-      <c r="E235" s="19" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="236" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C236" s="19"/>
-      <c r="D236" s="19" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="237" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C237" s="19"/>
-      <c r="D237" s="19"/>
-      <c r="E237" s="19" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="238" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C238" s="19"/>
-      <c r="D238" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="239" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C239" s="19"/>
-      <c r="D239" s="19"/>
-      <c r="E239" s="19" t="s">
-        <v>866</v>
-      </c>
+      <c r="D239" s="27"/>
+      <c r="E239" s="27"/>
+      <c r="F239" s="27"/>
+      <c r="G239" s="27"/>
+      <c r="H239" s="27"/>
+      <c r="I239" s="27"/>
+      <c r="J239" s="27"/>
+      <c r="K239" s="27"/>
+      <c r="L239" s="27"/>
+      <c r="M239" s="27"/>
+      <c r="N239" s="27"/>
+      <c r="O239" s="27"/>
+      <c r="P239" s="27"/>
+      <c r="Q239" s="27"/>
+      <c r="R239" s="27"/>
+      <c r="S239" s="27"/>
+      <c r="T239" s="27"/>
+      <c r="U239" s="27"/>
+      <c r="V239" s="27"/>
+      <c r="W239" s="27"/>
+      <c r="X239" s="27"/>
+      <c r="Y239" s="27"/>
+      <c r="Z239" s="27"/>
     </row>
     <row r="240" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C240" s="19" t="s">
-        <v>868</v>
-      </c>
-      <c r="D240" s="19" t="s">
-        <v>869</v>
-      </c>
-      <c r="E240" s="19"/>
-    </row>
-    <row r="241" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C241" s="19"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="241" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C241" s="19" t="s">
+        <v>281</v>
+      </c>
       <c r="D241" s="19" t="s">
-        <v>870</v>
-      </c>
-      <c r="E241" s="19"/>
-    </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="242" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C242" s="19"/>
-      <c r="D242" s="19"/>
-      <c r="E242" s="19" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C243" s="19"/>
+      <c r="D242" s="19" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="243" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C243" s="19" t="s">
+        <v>257</v>
+      </c>
       <c r="D243" s="19" t="s">
-        <v>871</v>
-      </c>
-      <c r="E243" s="19"/>
-    </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.3">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="244" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C244" s="19"/>
-      <c r="D244" s="19"/>
-      <c r="E244" s="19" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D244" s="19" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="245" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C245" s="19"/>
-      <c r="D245" s="19" t="s">
-        <v>873</v>
-      </c>
-      <c r="E245" s="19"/>
-    </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D245" s="19"/>
+      <c r="E245" s="19" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="246" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C246" s="19"/>
       <c r="D246" s="19"/>
       <c r="E246" s="19" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="247" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C247" s="19" t="s">
+    <row r="247" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C247" s="19"/>
+      <c r="D247" s="19" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="248" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C248" s="19"/>
+      <c r="D248" s="19"/>
+      <c r="E248" s="19" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="249" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C249" s="19"/>
+      <c r="D249" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="250" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C250" s="19"/>
+      <c r="D250" s="19"/>
+      <c r="E250" s="19" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="251" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C251" s="19" t="s">
+        <v>867</v>
+      </c>
+      <c r="D251" s="19" t="s">
+        <v>868</v>
+      </c>
+      <c r="E251" s="19"/>
+    </row>
+    <row r="252" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C252" s="19"/>
+      <c r="D252" s="19" t="s">
+        <v>869</v>
+      </c>
+      <c r="E252" s="19"/>
+    </row>
+    <row r="253" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C253" s="19"/>
+      <c r="D253" s="19"/>
+      <c r="E253" s="19" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="254" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C254" s="19"/>
+      <c r="D254" s="19" t="s">
+        <v>870</v>
+      </c>
+      <c r="E254" s="19"/>
+    </row>
+    <row r="255" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C255" s="19"/>
+      <c r="D255" s="19"/>
+      <c r="E255" s="19" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="256" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C256" s="19"/>
+      <c r="D256" s="19" t="s">
+        <v>872</v>
+      </c>
+      <c r="E256" s="19"/>
+    </row>
+    <row r="257" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C257" s="19"/>
+      <c r="D257" s="19"/>
+      <c r="E257" s="19" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="258" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C258" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="D247" s="19" t="s">
+      <c r="D258" s="19" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C248" s="19"/>
-      <c r="D248" s="19" t="s">
+    <row r="259" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C259" s="19"/>
+      <c r="D259" s="19" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="249" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C249" s="19" t="s">
+    <row r="260" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C260" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="D249" s="19" t="s">
+      <c r="D260" s="19" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D250" s="19" t="s">
+    <row r="261" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D261" s="19" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="251" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D251" s="19"/>
-    </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D252" s="19"/>
-    </row>
-    <row r="253" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D253" s="19"/>
-    </row>
-    <row r="255" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A255" s="17" t="s">
+    <row r="262" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D262" s="19"/>
+    </row>
+    <row r="263" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D263" s="19"/>
+    </row>
+    <row r="264" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D264" s="19"/>
+    </row>
+    <row r="266" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A266" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="B255" s="17"/>
-      <c r="C255" s="17" t="s">
+      <c r="B266" s="17"/>
+      <c r="C266" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="D255" s="13"/>
-      <c r="E255" s="13"/>
-      <c r="F255" s="13"/>
-      <c r="G255" s="13"/>
-      <c r="H255" s="13"/>
-      <c r="I255" s="13"/>
-      <c r="J255" s="13"/>
-      <c r="K255" s="13"/>
-      <c r="L255" s="13"/>
-      <c r="M255" s="13"/>
-      <c r="N255" s="13"/>
-      <c r="O255" s="13"/>
-      <c r="P255" s="13"/>
-      <c r="Q255" s="13"/>
-      <c r="R255" s="13"/>
-      <c r="S255" s="13"/>
-      <c r="T255" s="13"/>
-      <c r="U255" s="13"/>
-      <c r="V255" s="13"/>
-      <c r="W255" s="13"/>
-      <c r="X255" s="13"/>
-      <c r="Y255" s="13"/>
-      <c r="Z255" s="13"/>
-    </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B256" s="25" t="s">
+      <c r="D266" s="13"/>
+      <c r="E266" s="13"/>
+      <c r="F266" s="13"/>
+      <c r="G266" s="13"/>
+      <c r="H266" s="13"/>
+      <c r="I266" s="13"/>
+      <c r="J266" s="13"/>
+      <c r="K266" s="13"/>
+      <c r="L266" s="13"/>
+      <c r="M266" s="13"/>
+      <c r="N266" s="13"/>
+      <c r="O266" s="13"/>
+      <c r="P266" s="13"/>
+      <c r="Q266" s="13"/>
+      <c r="R266" s="13"/>
+      <c r="S266" s="13"/>
+      <c r="T266" s="13"/>
+      <c r="U266" s="13"/>
+      <c r="V266" s="13"/>
+      <c r="W266" s="13"/>
+      <c r="X266" s="13"/>
+      <c r="Y266" s="13"/>
+      <c r="Z266" s="13"/>
+    </row>
+    <row r="267" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B267" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="C256" s="26" t="s">
+      <c r="C267" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="D256" s="27"/>
-      <c r="E256" s="27"/>
-      <c r="F256" s="27"/>
-      <c r="G256" s="27"/>
-      <c r="H256" s="27"/>
-      <c r="I256" s="27"/>
-      <c r="J256" s="27"/>
-      <c r="K256" s="27"/>
-      <c r="L256" s="27"/>
-      <c r="M256" s="27"/>
-      <c r="N256" s="27"/>
-      <c r="O256" s="27"/>
-      <c r="P256" s="27"/>
-      <c r="Q256" s="27"/>
-      <c r="R256" s="27"/>
-      <c r="S256" s="27"/>
-      <c r="T256" s="27"/>
-      <c r="U256" s="27"/>
-      <c r="V256" s="27"/>
-      <c r="W256" s="27"/>
-      <c r="X256" s="27"/>
-      <c r="Y256" s="27"/>
-      <c r="Z256" s="27"/>
-    </row>
-    <row r="280" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B280" s="25" t="s">
+      <c r="D267" s="27"/>
+      <c r="E267" s="27"/>
+      <c r="F267" s="27"/>
+      <c r="G267" s="27"/>
+      <c r="H267" s="27"/>
+      <c r="I267" s="27"/>
+      <c r="J267" s="27"/>
+      <c r="K267" s="27"/>
+      <c r="L267" s="27"/>
+      <c r="M267" s="27"/>
+      <c r="N267" s="27"/>
+      <c r="O267" s="27"/>
+      <c r="P267" s="27"/>
+      <c r="Q267" s="27"/>
+      <c r="R267" s="27"/>
+      <c r="S267" s="27"/>
+      <c r="T267" s="27"/>
+      <c r="U267" s="27"/>
+      <c r="V267" s="27"/>
+      <c r="W267" s="27"/>
+      <c r="X267" s="27"/>
+      <c r="Y267" s="27"/>
+      <c r="Z267" s="27"/>
+    </row>
+    <row r="291" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B291" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="C280" s="26" t="s">
+      <c r="C291" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="D280" s="27"/>
-      <c r="E280" s="27"/>
-      <c r="F280" s="27"/>
-      <c r="G280" s="27"/>
-      <c r="H280" s="27"/>
-      <c r="I280" s="27"/>
-      <c r="J280" s="27"/>
-      <c r="K280" s="27"/>
-      <c r="L280" s="27"/>
-      <c r="M280" s="27"/>
-      <c r="N280" s="27"/>
-      <c r="O280" s="27"/>
-      <c r="P280" s="27"/>
-      <c r="Q280" s="27"/>
-      <c r="R280" s="27"/>
-      <c r="S280" s="27"/>
-      <c r="T280" s="27"/>
-      <c r="U280" s="27"/>
-      <c r="V280" s="27"/>
-      <c r="W280" s="27"/>
-      <c r="X280" s="27"/>
-      <c r="Y280" s="27"/>
-      <c r="Z280" s="27"/>
-    </row>
-    <row r="281" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C281" s="19" t="s">
+      <c r="D291" s="27"/>
+      <c r="E291" s="27"/>
+      <c r="F291" s="27"/>
+      <c r="G291" s="27"/>
+      <c r="H291" s="27"/>
+      <c r="I291" s="27"/>
+      <c r="J291" s="27"/>
+      <c r="K291" s="27"/>
+      <c r="L291" s="27"/>
+      <c r="M291" s="27"/>
+      <c r="N291" s="27"/>
+      <c r="O291" s="27"/>
+      <c r="P291" s="27"/>
+      <c r="Q291" s="27"/>
+      <c r="R291" s="27"/>
+      <c r="S291" s="27"/>
+      <c r="T291" s="27"/>
+      <c r="U291" s="27"/>
+      <c r="V291" s="27"/>
+      <c r="W291" s="27"/>
+      <c r="X291" s="27"/>
+      <c r="Y291" s="27"/>
+      <c r="Z291" s="27"/>
+    </row>
+    <row r="292" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C292" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="D281" s="19" t="s">
+      <c r="D292" s="19" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="282" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D282" s="19" t="s">
+    <row r="293" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D293" s="19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="283" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C283" s="19" t="s">
+    <row r="294" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C294" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="D283" s="19" t="s">
+      <c r="D294" s="19" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="284" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D284" s="19" t="s">
+    <row r="295" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D295" s="19" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="285" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D285" s="19" t="s">
+    <row r="296" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D296" s="19" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="286" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C286" s="19" t="s">
+    <row r="297" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C297" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="D286" s="19" t="s">
+      <c r="D297" s="19" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="287" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D287" s="19" t="s">
+    <row r="298" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D298" s="19" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="288" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="E288" s="19" t="s">
+    <row r="299" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E299" s="19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="289" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E289" s="19" t="s">
+    <row r="300" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E300" s="19" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="290" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E290" s="19" t="s">
+    <row r="301" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E301" s="19" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="291" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D291" s="19" t="s">
+    <row r="302" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D302" s="19" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="292" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E292" s="19" t="s">
+    <row r="303" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E303" s="19" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="293" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C293" s="19" t="s">
+    <row r="304" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C304" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="D293" s="19" t="s">
+      <c r="D304" s="19" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="294" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D294" s="19" t="s">
+    <row r="305" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D305" s="19" t="s">
         <v>307</v>
       </c>
     </row>
@@ -20780,10 +22810,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z219"/>
+  <dimension ref="A1:Z265"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="P86" sqref="P86"/>
+    <sheetView topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="D266" sqref="D266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20894,7 +22924,7 @@
         <v>237</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="D61" s="27"/>
       <c r="E61" s="27"/>
@@ -20922,15 +22952,15 @@
     </row>
     <row r="62" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C62" s="19" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="63" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D63" s="19" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="64" spans="2:26" x14ac:dyDescent="0.3">
@@ -21012,16 +23042,16 @@
     </row>
     <row r="74" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C74" s="19" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="75" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C75" s="19"/>
       <c r="D75" s="19" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="76" spans="2:26" x14ac:dyDescent="0.3">
@@ -21032,7 +23062,7 @@
         <v>422</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D77" s="27"/>
       <c r="E77" s="27"/>
@@ -21060,70 +23090,70 @@
     </row>
     <row r="78" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C78" s="19" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="79" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D79" s="19" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="80" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D80" s="19" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D81" s="19" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C82" s="19" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D83" s="19" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D84" s="19" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C85" s="19" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D86" s="19" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C87" s="19" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C88" s="19"/>
       <c r="D88" s="19" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.3">
@@ -21231,7 +23261,7 @@
     <row r="130" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C130" s="19"/>
       <c r="D130" s="19" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="131" spans="3:11" x14ac:dyDescent="0.3">
@@ -21317,7 +23347,7 @@
     </row>
     <row r="144" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D144" s="19" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.3">
@@ -21328,7 +23358,7 @@
         <v>308</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D146" s="27"/>
       <c r="E146" s="27"/>
@@ -21356,33 +23386,33 @@
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C147" s="19" t="s">
+        <v>799</v>
+      </c>
+      <c r="D147" s="19" t="s">
         <v>800</v>
-      </c>
-      <c r="D147" s="19" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D148" s="19" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C149" s="19" t="s">
+        <v>801</v>
+      </c>
+      <c r="D149" s="19" t="s">
         <v>802</v>
-      </c>
-      <c r="D149" s="19" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D150" s="19" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D151" s="19" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.3">
@@ -21597,12 +23627,102 @@
         <v>352</v>
       </c>
     </row>
-    <row r="219" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C219" s="19" t="s">
         <v>324</v>
       </c>
       <c r="D219" s="19" t="s">
         <v>354</v>
+      </c>
+    </row>
+    <row r="222" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A222" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B222" s="13"/>
+      <c r="C222" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="D222" s="13"/>
+      <c r="E222" s="13"/>
+      <c r="F222" s="13"/>
+      <c r="G222" s="13"/>
+      <c r="H222" s="13"/>
+      <c r="I222" s="13"/>
+      <c r="J222" s="13"/>
+      <c r="K222" s="13"/>
+      <c r="L222" s="13"/>
+      <c r="M222" s="13"/>
+      <c r="N222" s="13"/>
+      <c r="O222" s="13"/>
+      <c r="P222" s="13"/>
+      <c r="Q222" s="13"/>
+      <c r="R222" s="13"/>
+      <c r="S222" s="13"/>
+      <c r="T222" s="13"/>
+      <c r="U222" s="13"/>
+      <c r="V222" s="13"/>
+      <c r="W222" s="13"/>
+      <c r="X222" s="13"/>
+      <c r="Y222" s="13"/>
+      <c r="Z222" s="13"/>
+    </row>
+    <row r="223" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B223" s="18" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C223" s="19" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B259" s="18" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C259" s="19" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C260" s="19" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C261" s="19" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C262" s="19" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D262" s="19" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C263" s="19" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D263" s="19" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C264" s="19" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D264" s="19" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C265" s="19" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D265" s="19" t="s">
+        <v>1274</v>
       </c>
     </row>
   </sheetData>

--- a/策划案/Java/IOT项目/IOT物联网平台.xlsx
+++ b/策划案/Java/IOT项目/IOT物联网平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="12"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="1318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="1328">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -7860,19 +7860,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>点击加号，新增一行数据，自动填充系统默认的颜色。告警等级数+1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>b.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>删除级别</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击删除，删掉本条数据，级别那一列自动更新。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -7907,6 +7899,56 @@
   <si>
     <t>点击编辑，跳转告警编辑页面，和新增告警页面是同一个页面。</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警详情</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目下拉列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警放在项目下，初始状态下为用户第一个创建的项目。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改项目，显示不同项目下的告警定义。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击加号，新增一行数据，自动填充系统默认的颜色。告警等级数+1。</t>
+  </si>
+  <si>
+    <t>系统默认颜色，前端可以写个Json或者直接写在JS代码里，按最高等级和当前等级2个维度配置。</t>
+  </si>
+  <si>
+    <t>新增时，如果用户没有编辑过颜色，则所有行颜色更新。如果用户编辑过，则只给新增的那一列填充默认颜色。</t>
+  </si>
+  <si>
+    <t>推荐用户最后再更新颜色。</t>
+  </si>
+  <si>
+    <t>当新增等级超过7个时，弹出响应提示信息。</t>
+  </si>
+  <si>
+    <t>点击删除，删掉本条数据，级别那一列自动更新</t>
+  </si>
+  <si>
+    <t>颜色那一列，如果用户没有编辑过，则自动更新。</t>
   </si>
 </sst>
 </file>
@@ -9260,13 +9302,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>303130</xdr:colOff>
-      <xdr:row>209</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>208712</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9296,91 +9338,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>788944</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>84909</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="428625" y="2362200"/>
-          <a:ext cx="13047619" cy="6523809"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>798475</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>103958</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="485775" y="11601450"/>
-          <a:ext cx="13000000" cy="6533333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>142681</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>161887</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9391,7 +9357,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9412,13 +9378,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>161645</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>190458</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9429,7 +9395,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9450,18 +9416,94 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>760378</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>189559</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="25365075"/>
+          <a:ext cx="12971428" cy="7523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>788950</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>27759</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="2305050"/>
+          <a:ext cx="13000000" cy="6523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>779426</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>27762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9474,8 +9516,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="476250" y="25365075"/>
-          <a:ext cx="12971428" cy="7523809"/>
+          <a:off x="476250" y="12182475"/>
+          <a:ext cx="12990476" cy="6504762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10241,13 +10283,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>240</xdr:row>
+      <xdr:row>242</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>466126</xdr:colOff>
-      <xdr:row>252</xdr:row>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>152075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10393,13 +10435,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476040</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>133308</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10431,13 +10473,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>56901</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>95212</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10469,13 +10511,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>267</xdr:row>
+      <xdr:row>269</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>189842</xdr:colOff>
-      <xdr:row>288</xdr:row>
+      <xdr:row>290</xdr:row>
       <xdr:rowOff>180424</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10507,13 +10549,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>267</xdr:row>
+      <xdr:row>269</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>542261</xdr:colOff>
-      <xdr:row>288</xdr:row>
+      <xdr:row>290</xdr:row>
       <xdr:rowOff>151843</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10543,20 +10585,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>265034</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>94321</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>351243</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>113792</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="5" name="图片 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10569,83 +10611,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="476250" y="32899350"/>
-          <a:ext cx="13323809" cy="7428571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>207887</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>8831</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="438150" y="38252400"/>
-          <a:ext cx="13304762" cy="5552381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>211</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>17868</xdr:colOff>
-      <xdr:row>230</xdr:row>
-      <xdr:rowOff>94742</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8334375" y="44224575"/>
+          <a:off x="7820025" y="44662725"/>
           <a:ext cx="9457143" cy="4066667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10659,18 +10625,94 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>314008</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>142792</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3686175" y="46415325"/>
+          <a:ext cx="2533333" cy="666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>569902</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>75462</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="32937450"/>
+          <a:ext cx="12780952" cy="5904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>570063</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>142184</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10683,8 +10725,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3686175" y="46415325"/>
-          <a:ext cx="2533333" cy="666667"/>
+          <a:off x="1762125" y="38833425"/>
+          <a:ext cx="11495238" cy="5523809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14089,8 +14131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z258"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="U61" sqref="U61"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="E253" sqref="E253:G258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16367,10 +16409,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z225"/>
+  <dimension ref="A1:Z233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="X133" sqref="X133"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C226" sqref="C226:C233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16566,63 +16608,69 @@
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D53" s="19"/>
+      <c r="C53" s="18" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>1318</v>
+      </c>
       <c r="E53" s="19"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A54" s="17" t="s">
+      <c r="D54" s="19" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E54" s="19"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D55" s="19" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E55" s="19"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A57" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B57" s="17" t="s">
         <v>1279</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13"/>
-      <c r="Q54" s="13"/>
-      <c r="R54" s="13"/>
-      <c r="S54" s="13"/>
-      <c r="T54" s="13"/>
-      <c r="U54" s="13"/>
-      <c r="V54" s="13"/>
-      <c r="W54" s="13"/>
-      <c r="X54" s="13"/>
-      <c r="Y54" s="13"/>
-      <c r="Z54" s="13"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B55" s="18" t="s">
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="13"/>
+      <c r="U57" s="13"/>
+      <c r="V57" s="13"/>
+      <c r="W57" s="13"/>
+      <c r="X57" s="13"/>
+      <c r="Y57" s="13"/>
+      <c r="Z57" s="13"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B58" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C58" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E55" s="19"/>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
-      <c r="E56" s="19"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
-      <c r="E57" s="19"/>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
       <c r="E58" s="19"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.3">
@@ -16636,15 +16684,18 @@
       <c r="E60" s="19"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D61" s="19"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="19"/>
       <c r="E61" s="19"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D62" s="19"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="19"/>
       <c r="E62" s="19"/>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D63" s="19"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
       <c r="E63" s="19"/>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
@@ -16699,506 +16750,553 @@
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B88" s="18" t="s">
+    <row r="77" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+    </row>
+    <row r="78" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+    </row>
+    <row r="79" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B91" s="18" t="s">
         <v>1280</v>
       </c>
-      <c r="C88" s="19" t="s">
+      <c r="C91" s="19" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C89" s="19" t="s">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C92" s="19" t="s">
         <v>1282</v>
       </c>
-      <c r="D89" s="19" t="s">
+      <c r="D92" s="19" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D90" s="19" t="s">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D93" s="19" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C91" s="19" t="s">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C94" s="19" t="s">
         <v>1285</v>
       </c>
-      <c r="D91" s="19" t="s">
+      <c r="D94" s="19" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D92" s="19" t="s">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D95" s="19" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C93" s="19" t="s">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C96" s="19" t="s">
         <v>1288</v>
       </c>
-      <c r="D93" s="19" t="s">
+      <c r="D96" s="19" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D94" s="19" t="s">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D97" s="19" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C95" s="19" t="s">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C98" s="19" t="s">
         <v>1291</v>
       </c>
-      <c r="D95" s="19" t="s">
+      <c r="D98" s="19" t="s">
         <v>1292</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C96" s="19"/>
-      <c r="D96" s="19" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C97" s="19"/>
-      <c r="D97" s="19" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C98" s="19"/>
-      <c r="E98" s="19" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C99" s="19"/>
       <c r="D99" s="19" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19" t="s">
-        <v>1297</v>
+      <c r="D100" s="19" t="s">
+        <v>1294</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
       <c r="E101" s="19" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C102" s="19"/>
       <c r="D102" s="19" t="s">
-        <v>1299</v>
-      </c>
-      <c r="E102" s="19"/>
+        <v>1295</v>
+      </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C103" s="19"/>
       <c r="D103" s="19"/>
       <c r="E103" s="19" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C104" s="19"/>
-      <c r="D104" s="19" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19" t="s">
+        <v>1298</v>
+      </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19" t="s">
+      <c r="D105" s="19" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E105" s="19"/>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C107" s="19"/>
+      <c r="D107" s="19" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E107" s="19"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B106" s="18" t="s">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B109" s="18" t="s">
         <v>1303</v>
       </c>
-      <c r="C106" s="19" t="s">
+      <c r="C109" s="19" t="s">
         <v>1304</v>
       </c>
-      <c r="D106" s="19"/>
-      <c r="E106" s="19"/>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C107" s="19" t="s">
-        <v>1305</v>
-      </c>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C108" s="19" t="s">
-        <v>1306</v>
-      </c>
-      <c r="D108" s="19" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E108" s="19"/>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C109" s="19"/>
-      <c r="D109" s="19" t="s">
-        <v>1308</v>
-      </c>
+      <c r="D109" s="19"/>
       <c r="E109" s="19"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C110" s="19" t="s">
-        <v>1309</v>
-      </c>
-      <c r="D110" s="19" t="s">
-        <v>1310</v>
-      </c>
+        <v>1305</v>
+      </c>
+      <c r="D110" s="19"/>
       <c r="E110" s="19"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C111" s="19"/>
+      <c r="C111" s="19" t="s">
+        <v>1306</v>
+      </c>
       <c r="D111" s="19" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="E111" s="19"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B112" s="18" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C112" s="19" t="s">
-        <v>1313</v>
-      </c>
-      <c r="D112" s="19"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="19" t="s">
+        <v>1321</v>
+      </c>
       <c r="E112" s="19"/>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C113" s="19" t="s">
-        <v>1314</v>
-      </c>
-      <c r="D113" s="19"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19" t="s">
+        <v>1322</v>
+      </c>
       <c r="E113" s="19"/>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C114" s="19" t="s">
-        <v>1315</v>
-      </c>
-      <c r="D114" s="19"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19" t="s">
+        <v>1323</v>
+      </c>
       <c r="E114" s="19"/>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C115" s="19" t="s">
-        <v>1316</v>
-      </c>
-      <c r="D115" s="19"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19" t="s">
+        <v>1324</v>
+      </c>
       <c r="E115" s="19"/>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C116" s="19"/>
-      <c r="D116" s="19"/>
+      <c r="D116" s="19" t="s">
+        <v>1325</v>
+      </c>
       <c r="E116" s="19"/>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C117" s="19"/>
-      <c r="D117" s="19"/>
+      <c r="C117" s="19" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D117" s="19" t="s">
+        <v>1309</v>
+      </c>
       <c r="E117" s="19"/>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C118" s="19"/>
-      <c r="D118" s="19"/>
+      <c r="D118" s="19" t="s">
+        <v>1326</v>
+      </c>
       <c r="E118" s="19"/>
     </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C119" s="19"/>
+      <c r="D119" s="19" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E119" s="19"/>
+    </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A120" s="17" t="s">
+      <c r="B120" s="18" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D120" s="19"/>
+      <c r="E120" s="19"/>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C121" s="19" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C122" s="19" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C123" s="19" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19"/>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A128" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B120" s="17" t="s">
+      <c r="B128" s="17" t="s">
         <v>1197</v>
       </c>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="13"/>
-      <c r="J120" s="13"/>
-      <c r="K120" s="13"/>
-      <c r="L120" s="13"/>
-      <c r="M120" s="13"/>
-      <c r="N120" s="13"/>
-      <c r="O120" s="13"/>
-      <c r="P120" s="13"/>
-      <c r="Q120" s="13"/>
-      <c r="R120" s="13"/>
-      <c r="S120" s="13"/>
-      <c r="T120" s="13"/>
-      <c r="U120" s="13"/>
-      <c r="V120" s="13"/>
-      <c r="W120" s="13"/>
-      <c r="X120" s="13"/>
-      <c r="Y120" s="13"/>
-      <c r="Z120" s="13"/>
-    </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B121" s="18" t="s">
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="13"/>
+      <c r="I128" s="13"/>
+      <c r="J128" s="13"/>
+      <c r="K128" s="13"/>
+      <c r="L128" s="13"/>
+      <c r="M128" s="13"/>
+      <c r="N128" s="13"/>
+      <c r="O128" s="13"/>
+      <c r="P128" s="13"/>
+      <c r="Q128" s="13"/>
+      <c r="R128" s="13"/>
+      <c r="S128" s="13"/>
+      <c r="T128" s="13"/>
+      <c r="U128" s="13"/>
+      <c r="V128" s="13"/>
+      <c r="W128" s="13"/>
+      <c r="X128" s="13"/>
+      <c r="Y128" s="13"/>
+      <c r="Z128" s="13"/>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B129" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C121" s="19" t="s">
+      <c r="C129" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B158" s="18" t="s">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B166" s="18" t="s">
         <v>1200</v>
       </c>
-      <c r="C158" s="19" t="s">
+      <c r="C166" s="19" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C159" s="19" t="s">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C167" s="19" t="s">
         <v>1211</v>
       </c>
-      <c r="D159" s="19" t="s">
+      <c r="D167" s="19" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D160" s="19" t="s">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D168" s="19" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C161" s="19" t="s">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C169" s="19" t="s">
         <v>1216</v>
       </c>
-      <c r="D161" s="19" t="s">
+      <c r="D169" s="19" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C162" s="19"/>
-      <c r="D162" s="19" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B163" s="18" t="s">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C170" s="19"/>
+      <c r="D170" s="19" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B171" s="18" t="s">
         <v>1201</v>
       </c>
-      <c r="C163" s="19" t="s">
+      <c r="C171" s="19" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B164" s="18"/>
-      <c r="C164" s="19" t="s">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B172" s="18"/>
+      <c r="C172" s="19" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B165" s="18"/>
-      <c r="C165" s="19" t="s">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B173" s="18"/>
+      <c r="C173" s="19" t="s">
         <v>1220</v>
       </c>
-      <c r="D165" s="19" t="s">
+      <c r="D173" s="19" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B166" s="18"/>
-      <c r="C166" s="19"/>
-      <c r="D166" s="19" t="s">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B174" s="18"/>
+      <c r="C174" s="19"/>
+      <c r="D174" s="19" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D167" s="19" t="s">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D175" s="19" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C168" s="19" t="s">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C176" s="19" t="s">
         <v>1212</v>
       </c>
-      <c r="D168" s="19" t="s">
+      <c r="D176" s="19" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C169" s="19"/>
-      <c r="D169" s="19" t="s">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C177" s="19"/>
+      <c r="D177" s="19" t="s">
         <v>1225</v>
       </c>
-      <c r="E169" s="19" t="s">
+      <c r="E177" s="19" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D170" s="19" t="s">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D178" s="19" t="s">
         <v>1227</v>
       </c>
-      <c r="E170" s="19" t="s">
+      <c r="E178" s="19" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D171" s="19" t="s">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D179" s="19" t="s">
         <v>1229</v>
       </c>
-      <c r="E171" s="19" t="s">
+      <c r="E179" s="19" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C172" s="19" t="s">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C180" s="19" t="s">
         <v>1231</v>
       </c>
-      <c r="D172" s="19" t="s">
+      <c r="D180" s="19" t="s">
         <v>1232</v>
       </c>
-      <c r="E172" s="19"/>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D173" s="19" t="s">
+      <c r="E180" s="19"/>
+    </row>
+    <row r="181" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D181" s="19" t="s">
         <v>1233</v>
       </c>
-      <c r="E173" s="19"/>
-    </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D174" s="19" t="s">
+      <c r="E181" s="19"/>
+    </row>
+    <row r="182" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D182" s="19" t="s">
         <v>1234</v>
       </c>
-      <c r="E174" s="19"/>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D175" s="19"/>
-      <c r="E175" s="19"/>
-    </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A177" s="17" t="s">
+      <c r="E182" s="19"/>
+    </row>
+    <row r="183" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D183" s="19"/>
+      <c r="E183" s="19"/>
+    </row>
+    <row r="185" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A185" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="B177" s="17" t="s">
+      <c r="B185" s="17" t="s">
         <v>1198</v>
       </c>
-      <c r="C177" s="13"/>
-      <c r="D177" s="13"/>
-      <c r="E177" s="13"/>
-      <c r="F177" s="13"/>
-      <c r="G177" s="13"/>
-      <c r="H177" s="13"/>
-      <c r="I177" s="13"/>
-      <c r="J177" s="13"/>
-      <c r="K177" s="13"/>
-      <c r="L177" s="13"/>
-      <c r="M177" s="13"/>
-      <c r="N177" s="13"/>
-      <c r="O177" s="13"/>
-      <c r="P177" s="13"/>
-      <c r="Q177" s="13"/>
-      <c r="R177" s="13"/>
-      <c r="S177" s="13"/>
-      <c r="T177" s="13"/>
-      <c r="U177" s="13"/>
-      <c r="V177" s="13"/>
-      <c r="W177" s="13"/>
-      <c r="X177" s="13"/>
-      <c r="Y177" s="13"/>
-      <c r="Z177" s="13"/>
-    </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B178" s="18" t="s">
+      <c r="C185" s="13"/>
+      <c r="D185" s="13"/>
+      <c r="E185" s="13"/>
+      <c r="F185" s="13"/>
+      <c r="G185" s="13"/>
+      <c r="H185" s="13"/>
+      <c r="I185" s="13"/>
+      <c r="J185" s="13"/>
+      <c r="K185" s="13"/>
+      <c r="L185" s="13"/>
+      <c r="M185" s="13"/>
+      <c r="N185" s="13"/>
+      <c r="O185" s="13"/>
+      <c r="P185" s="13"/>
+      <c r="Q185" s="13"/>
+      <c r="R185" s="13"/>
+      <c r="S185" s="13"/>
+      <c r="T185" s="13"/>
+      <c r="U185" s="13"/>
+      <c r="V185" s="13"/>
+      <c r="W185" s="13"/>
+      <c r="X185" s="13"/>
+      <c r="Y185" s="13"/>
+      <c r="Z185" s="13"/>
+    </row>
+    <row r="186" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B186" s="18" t="s">
         <v>1191</v>
       </c>
-      <c r="C178" s="19" t="s">
+      <c r="C186" s="19" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B212" s="18" t="s">
+    <row r="220" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B220" s="18" t="s">
         <v>1200</v>
       </c>
-      <c r="C212" s="19" t="s">
+      <c r="C220" s="19" t="s">
         <v>1236</v>
-      </c>
-    </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C213" s="19" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C214" s="19" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B215" s="18" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C215" s="19" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C216" s="19" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B217" s="18" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C217" s="19" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C218" s="19" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C219" s="19" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C220" s="19" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C221" s="19" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C222" s="19" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B223" s="18" t="s">
+        <v>308</v>
+      </c>
       <c r="C223" s="19" t="s">
-        <v>1244</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C224" s="19" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B225" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="C225" s="19" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C226" s="19" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C227" s="19" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C228" s="19" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C229" s="19" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C230" s="19" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C231" s="19" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C232" s="19" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C225" s="19" t="s">
+    <row r="233" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C233" s="19" t="s">
         <v>1246</v>
       </c>
     </row>
@@ -19733,10 +19831,6 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B21:B27"/>
     <mergeCell ref="C38:C41"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="B38:B43"/>
@@ -19744,6 +19838,10 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B21:B27"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20887,10 +20985,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z305"/>
+  <dimension ref="A1:Z307"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="D226" sqref="D226"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C229" sqref="C229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21572,117 +21670,111 @@
       <c r="Y157" s="27"/>
       <c r="Z157" s="27"/>
     </row>
-    <row r="211" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B211" s="25" t="s">
+    <row r="213" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B213" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="C211" s="26" t="s">
+      <c r="C213" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="D211" s="27"/>
-      <c r="E211" s="27"/>
-      <c r="F211" s="27"/>
-      <c r="G211" s="27"/>
-      <c r="H211" s="27"/>
-      <c r="I211" s="27"/>
-      <c r="J211" s="27"/>
-      <c r="K211" s="27"/>
-      <c r="L211" s="27"/>
-      <c r="M211" s="27"/>
-      <c r="N211" s="27"/>
-      <c r="O211" s="27"/>
-      <c r="P211" s="27"/>
-      <c r="Q211" s="27"/>
-      <c r="R211" s="27"/>
-      <c r="S211" s="27"/>
-      <c r="T211" s="27"/>
-      <c r="U211" s="27"/>
-      <c r="V211" s="27"/>
-      <c r="W211" s="27"/>
-      <c r="X211" s="27"/>
-      <c r="Y211" s="27"/>
-      <c r="Z211" s="27"/>
-    </row>
-    <row r="212" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C212" s="19" t="s">
+      <c r="D213" s="27"/>
+      <c r="E213" s="27"/>
+      <c r="F213" s="27"/>
+      <c r="G213" s="27"/>
+      <c r="H213" s="27"/>
+      <c r="I213" s="27"/>
+      <c r="J213" s="27"/>
+      <c r="K213" s="27"/>
+      <c r="L213" s="27"/>
+      <c r="M213" s="27"/>
+      <c r="N213" s="27"/>
+      <c r="O213" s="27"/>
+      <c r="P213" s="27"/>
+      <c r="Q213" s="27"/>
+      <c r="R213" s="27"/>
+      <c r="S213" s="27"/>
+      <c r="T213" s="27"/>
+      <c r="U213" s="27"/>
+      <c r="V213" s="27"/>
+      <c r="W213" s="27"/>
+      <c r="X213" s="27"/>
+      <c r="Y213" s="27"/>
+      <c r="Z213" s="27"/>
+    </row>
+    <row r="214" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C214" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="D212" s="19" t="s">
+      <c r="D214" s="19" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="213" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D213" s="19" t="s">
+    <row r="215" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D215" s="19" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="214" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D214" s="19" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="215" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C215" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="D215" s="19" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="216" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D216" s="19" t="s">
-        <v>279</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="217" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C217" s="19" t="s">
-        <v>1165</v>
+        <v>277</v>
       </c>
       <c r="D217" s="19" t="s">
-        <v>1166</v>
+        <v>278</v>
       </c>
     </row>
     <row r="218" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D218" s="19" t="s">
-        <v>1167</v>
+        <v>279</v>
       </c>
     </row>
     <row r="219" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D219" s="19"/>
+      <c r="C219" s="19" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D219" s="19" t="s">
+        <v>1166</v>
+      </c>
     </row>
     <row r="220" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D220" s="19" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="221" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D221" s="19"/>
+    </row>
+    <row r="222" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D222" s="19" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="222" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C222" s="19" t="s">
+    <row r="224" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C224" s="19" t="s">
         <v>1247</v>
       </c>
-      <c r="D222" s="19" t="s">
+      <c r="D224" s="19" t="s">
         <v>1248</v>
-      </c>
-    </row>
-    <row r="223" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D223" s="19" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="224" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D224" s="19" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="225" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D225" s="19" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="226" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D226" s="19" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="227" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D227" s="19" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="226" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D226" s="19"/>
-    </row>
-    <row r="227" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D227" s="19"/>
     </row>
     <row r="228" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D228" s="19"/>
@@ -21697,212 +21789,204 @@
       <c r="D231" s="19"/>
     </row>
     <row r="232" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B232" s="25" t="s">
+      <c r="D232" s="19"/>
+    </row>
+    <row r="233" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D233" s="19"/>
+    </row>
+    <row r="234" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B234" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="C232" s="26" t="s">
+      <c r="C234" s="26" t="s">
         <v>1145</v>
       </c>
-      <c r="D232" s="27"/>
-      <c r="E232" s="27"/>
-      <c r="F232" s="27"/>
-      <c r="G232" s="27"/>
-      <c r="H232" s="27"/>
-      <c r="I232" s="27"/>
-      <c r="J232" s="27"/>
-      <c r="K232" s="27"/>
-      <c r="L232" s="27"/>
-      <c r="M232" s="27"/>
-      <c r="N232" s="27"/>
-      <c r="O232" s="27"/>
-      <c r="P232" s="27"/>
-      <c r="Q232" s="27"/>
-      <c r="R232" s="27"/>
-      <c r="S232" s="27"/>
-      <c r="T232" s="27"/>
-      <c r="U232" s="27"/>
-      <c r="V232" s="27"/>
-      <c r="W232" s="27"/>
-      <c r="X232" s="27"/>
-      <c r="Y232" s="27"/>
-      <c r="Z232" s="27"/>
-    </row>
-    <row r="233" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C233" s="19" t="s">
+      <c r="D234" s="27"/>
+      <c r="E234" s="27"/>
+      <c r="F234" s="27"/>
+      <c r="G234" s="27"/>
+      <c r="H234" s="27"/>
+      <c r="I234" s="27"/>
+      <c r="J234" s="27"/>
+      <c r="K234" s="27"/>
+      <c r="L234" s="27"/>
+      <c r="M234" s="27"/>
+      <c r="N234" s="27"/>
+      <c r="O234" s="27"/>
+      <c r="P234" s="27"/>
+      <c r="Q234" s="27"/>
+      <c r="R234" s="27"/>
+      <c r="S234" s="27"/>
+      <c r="T234" s="27"/>
+      <c r="U234" s="27"/>
+      <c r="V234" s="27"/>
+      <c r="W234" s="27"/>
+      <c r="X234" s="27"/>
+      <c r="Y234" s="27"/>
+      <c r="Z234" s="27"/>
+    </row>
+    <row r="235" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C235" s="19" t="s">
         <v>1147</v>
-      </c>
-    </row>
-    <row r="234" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C234" s="19" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D234" s="19" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="235" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D235" s="19" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="236" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C236" s="19" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="D236" s="19" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="237" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D237" s="19" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="238" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C238" s="19" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D238" s="19" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="239" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D239" s="19" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="239" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B239" s="25" t="s">
+    <row r="241" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B241" s="25" t="s">
         <v>422</v>
       </c>
-      <c r="C239" s="26" t="s">
+      <c r="C241" s="26" t="s">
         <v>862</v>
       </c>
-      <c r="D239" s="27"/>
-      <c r="E239" s="27"/>
-      <c r="F239" s="27"/>
-      <c r="G239" s="27"/>
-      <c r="H239" s="27"/>
-      <c r="I239" s="27"/>
-      <c r="J239" s="27"/>
-      <c r="K239" s="27"/>
-      <c r="L239" s="27"/>
-      <c r="M239" s="27"/>
-      <c r="N239" s="27"/>
-      <c r="O239" s="27"/>
-      <c r="P239" s="27"/>
-      <c r="Q239" s="27"/>
-      <c r="R239" s="27"/>
-      <c r="S239" s="27"/>
-      <c r="T239" s="27"/>
-      <c r="U239" s="27"/>
-      <c r="V239" s="27"/>
-      <c r="W239" s="27"/>
-      <c r="X239" s="27"/>
-      <c r="Y239" s="27"/>
-      <c r="Z239" s="27"/>
-    </row>
-    <row r="240" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C240" s="19" t="s">
+      <c r="D241" s="27"/>
+      <c r="E241" s="27"/>
+      <c r="F241" s="27"/>
+      <c r="G241" s="27"/>
+      <c r="H241" s="27"/>
+      <c r="I241" s="27"/>
+      <c r="J241" s="27"/>
+      <c r="K241" s="27"/>
+      <c r="L241" s="27"/>
+      <c r="M241" s="27"/>
+      <c r="N241" s="27"/>
+      <c r="O241" s="27"/>
+      <c r="P241" s="27"/>
+      <c r="Q241" s="27"/>
+      <c r="R241" s="27"/>
+      <c r="S241" s="27"/>
+      <c r="T241" s="27"/>
+      <c r="U241" s="27"/>
+      <c r="V241" s="27"/>
+      <c r="W241" s="27"/>
+      <c r="X241" s="27"/>
+      <c r="Y241" s="27"/>
+      <c r="Z241" s="27"/>
+    </row>
+    <row r="242" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C242" s="19" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="241" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C241" s="19" t="s">
+    <row r="243" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C243" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="D241" s="19" t="s">
+      <c r="D243" s="19" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="242" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C242" s="19"/>
-      <c r="D242" s="19" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="243" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C243" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="D243" s="19" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="244" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C244" s="19"/>
       <c r="D244" s="19" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="245" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C245" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="D245" s="19" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="246" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C246" s="19"/>
+      <c r="D246" s="19" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="245" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C245" s="19"/>
-      <c r="D245" s="19"/>
-      <c r="E245" s="19" t="s">
+    <row r="247" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C247" s="19"/>
+      <c r="D247" s="19"/>
+      <c r="E247" s="19" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="246" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C246" s="19"/>
-      <c r="D246" s="19"/>
-      <c r="E246" s="19" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="247" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C247" s="19"/>
-      <c r="D247" s="19" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="248" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C248" s="19"/>
       <c r="D248" s="19"/>
       <c r="E248" s="19" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="249" spans="3:5" x14ac:dyDescent="0.3">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="249" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C249" s="19"/>
       <c r="D249" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="250" spans="3:5" x14ac:dyDescent="0.3">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="250" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C250" s="19"/>
       <c r="D250" s="19"/>
       <c r="E250" s="19" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="251" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C251" s="19"/>
+      <c r="D251" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="252" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C252" s="19"/>
+      <c r="D252" s="19"/>
+      <c r="E252" s="19" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="251" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C251" s="19" t="s">
+    <row r="253" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C253" s="19" t="s">
         <v>867</v>
       </c>
-      <c r="D251" s="19" t="s">
+      <c r="D253" s="19" t="s">
         <v>868</v>
       </c>
-      <c r="E251" s="19"/>
-    </row>
-    <row r="252" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C252" s="19"/>
-      <c r="D252" s="19" t="s">
-        <v>869</v>
-      </c>
-      <c r="E252" s="19"/>
-    </row>
-    <row r="253" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C253" s="19"/>
-      <c r="D253" s="19"/>
-      <c r="E253" s="19" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="254" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E253" s="19"/>
+    </row>
+    <row r="254" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C254" s="19"/>
       <c r="D254" s="19" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E254" s="19"/>
     </row>
-    <row r="255" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C255" s="19"/>
       <c r="D255" s="19"/>
       <c r="E255" s="19" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="256" spans="3:5" x14ac:dyDescent="0.3">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="256" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C256" s="19"/>
       <c r="D256" s="19" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E256" s="19"/>
     </row>
@@ -21910,218 +21994,232 @@
       <c r="C257" s="19"/>
       <c r="D257" s="19"/>
       <c r="E257" s="19" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="258" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C258" s="19" t="s">
-        <v>283</v>
-      </c>
+      <c r="C258" s="19"/>
       <c r="D258" s="19" t="s">
-        <v>284</v>
-      </c>
+        <v>872</v>
+      </c>
+      <c r="E258" s="19"/>
     </row>
     <row r="259" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C259" s="19"/>
-      <c r="D259" s="19" t="s">
-        <v>285</v>
+      <c r="D259" s="19"/>
+      <c r="E259" s="19" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="260" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C260" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D260" s="19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="261" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C261" s="19"/>
+      <c r="D261" s="19" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="262" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C262" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="D260" s="19" t="s">
+      <c r="D262" s="19" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="261" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D261" s="19" t="s">
+    <row r="263" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D263" s="19" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="262" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D262" s="19"/>
-    </row>
-    <row r="263" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D263" s="19"/>
     </row>
     <row r="264" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D264" s="19"/>
     </row>
+    <row r="265" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D265" s="19"/>
+    </row>
     <row r="266" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A266" s="17" t="s">
+      <c r="D266" s="19"/>
+    </row>
+    <row r="268" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A268" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="B266" s="17"/>
-      <c r="C266" s="17" t="s">
+      <c r="B268" s="17"/>
+      <c r="C268" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="D266" s="13"/>
-      <c r="E266" s="13"/>
-      <c r="F266" s="13"/>
-      <c r="G266" s="13"/>
-      <c r="H266" s="13"/>
-      <c r="I266" s="13"/>
-      <c r="J266" s="13"/>
-      <c r="K266" s="13"/>
-      <c r="L266" s="13"/>
-      <c r="M266" s="13"/>
-      <c r="N266" s="13"/>
-      <c r="O266" s="13"/>
-      <c r="P266" s="13"/>
-      <c r="Q266" s="13"/>
-      <c r="R266" s="13"/>
-      <c r="S266" s="13"/>
-      <c r="T266" s="13"/>
-      <c r="U266" s="13"/>
-      <c r="V266" s="13"/>
-      <c r="W266" s="13"/>
-      <c r="X266" s="13"/>
-      <c r="Y266" s="13"/>
-      <c r="Z266" s="13"/>
-    </row>
-    <row r="267" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B267" s="25" t="s">
+      <c r="D268" s="13"/>
+      <c r="E268" s="13"/>
+      <c r="F268" s="13"/>
+      <c r="G268" s="13"/>
+      <c r="H268" s="13"/>
+      <c r="I268" s="13"/>
+      <c r="J268" s="13"/>
+      <c r="K268" s="13"/>
+      <c r="L268" s="13"/>
+      <c r="M268" s="13"/>
+      <c r="N268" s="13"/>
+      <c r="O268" s="13"/>
+      <c r="P268" s="13"/>
+      <c r="Q268" s="13"/>
+      <c r="R268" s="13"/>
+      <c r="S268" s="13"/>
+      <c r="T268" s="13"/>
+      <c r="U268" s="13"/>
+      <c r="V268" s="13"/>
+      <c r="W268" s="13"/>
+      <c r="X268" s="13"/>
+      <c r="Y268" s="13"/>
+      <c r="Z268" s="13"/>
+    </row>
+    <row r="269" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B269" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="C267" s="26" t="s">
+      <c r="C269" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="D267" s="27"/>
-      <c r="E267" s="27"/>
-      <c r="F267" s="27"/>
-      <c r="G267" s="27"/>
-      <c r="H267" s="27"/>
-      <c r="I267" s="27"/>
-      <c r="J267" s="27"/>
-      <c r="K267" s="27"/>
-      <c r="L267" s="27"/>
-      <c r="M267" s="27"/>
-      <c r="N267" s="27"/>
-      <c r="O267" s="27"/>
-      <c r="P267" s="27"/>
-      <c r="Q267" s="27"/>
-      <c r="R267" s="27"/>
-      <c r="S267" s="27"/>
-      <c r="T267" s="27"/>
-      <c r="U267" s="27"/>
-      <c r="V267" s="27"/>
-      <c r="W267" s="27"/>
-      <c r="X267" s="27"/>
-      <c r="Y267" s="27"/>
-      <c r="Z267" s="27"/>
-    </row>
-    <row r="291" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B291" s="25" t="s">
+      <c r="D269" s="27"/>
+      <c r="E269" s="27"/>
+      <c r="F269" s="27"/>
+      <c r="G269" s="27"/>
+      <c r="H269" s="27"/>
+      <c r="I269" s="27"/>
+      <c r="J269" s="27"/>
+      <c r="K269" s="27"/>
+      <c r="L269" s="27"/>
+      <c r="M269" s="27"/>
+      <c r="N269" s="27"/>
+      <c r="O269" s="27"/>
+      <c r="P269" s="27"/>
+      <c r="Q269" s="27"/>
+      <c r="R269" s="27"/>
+      <c r="S269" s="27"/>
+      <c r="T269" s="27"/>
+      <c r="U269" s="27"/>
+      <c r="V269" s="27"/>
+      <c r="W269" s="27"/>
+      <c r="X269" s="27"/>
+      <c r="Y269" s="27"/>
+      <c r="Z269" s="27"/>
+    </row>
+    <row r="293" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B293" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="C291" s="26" t="s">
+      <c r="C293" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="D291" s="27"/>
-      <c r="E291" s="27"/>
-      <c r="F291" s="27"/>
-      <c r="G291" s="27"/>
-      <c r="H291" s="27"/>
-      <c r="I291" s="27"/>
-      <c r="J291" s="27"/>
-      <c r="K291" s="27"/>
-      <c r="L291" s="27"/>
-      <c r="M291" s="27"/>
-      <c r="N291" s="27"/>
-      <c r="O291" s="27"/>
-      <c r="P291" s="27"/>
-      <c r="Q291" s="27"/>
-      <c r="R291" s="27"/>
-      <c r="S291" s="27"/>
-      <c r="T291" s="27"/>
-      <c r="U291" s="27"/>
-      <c r="V291" s="27"/>
-      <c r="W291" s="27"/>
-      <c r="X291" s="27"/>
-      <c r="Y291" s="27"/>
-      <c r="Z291" s="27"/>
-    </row>
-    <row r="292" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C292" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="D292" s="19" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="293" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D293" s="19" t="s">
-        <v>292</v>
-      </c>
+      <c r="D293" s="27"/>
+      <c r="E293" s="27"/>
+      <c r="F293" s="27"/>
+      <c r="G293" s="27"/>
+      <c r="H293" s="27"/>
+      <c r="I293" s="27"/>
+      <c r="J293" s="27"/>
+      <c r="K293" s="27"/>
+      <c r="L293" s="27"/>
+      <c r="M293" s="27"/>
+      <c r="N293" s="27"/>
+      <c r="O293" s="27"/>
+      <c r="P293" s="27"/>
+      <c r="Q293" s="27"/>
+      <c r="R293" s="27"/>
+      <c r="S293" s="27"/>
+      <c r="T293" s="27"/>
+      <c r="U293" s="27"/>
+      <c r="V293" s="27"/>
+      <c r="W293" s="27"/>
+      <c r="X293" s="27"/>
+      <c r="Y293" s="27"/>
+      <c r="Z293" s="27"/>
     </row>
     <row r="294" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C294" s="19" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D294" s="19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="295" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D295" s="19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="296" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C296" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D296" s="19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="297" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D297" s="19" t="s">
         <v>302</v>
-      </c>
-    </row>
-    <row r="296" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D296" s="19" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="297" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C297" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="D297" s="19" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="298" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D298" s="19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="299" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C299" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="D299" s="19" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="300" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D300" s="19" t="s">
         <v>299</v>
-      </c>
-    </row>
-    <row r="299" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="E299" s="19" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="300" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="E300" s="19" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="301" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E301" s="19" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="302" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D302" s="19" t="s">
-        <v>303</v>
+      <c r="E302" s="19" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="303" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E303" s="19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="304" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D304" s="19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E305" s="19" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="304" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C304" s="19" t="s">
+    <row r="306" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C306" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="D304" s="19" t="s">
+      <c r="D306" s="19" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="305" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D305" s="19" t="s">
+    <row r="307" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D307" s="19" t="s">
         <v>307</v>
       </c>
     </row>
@@ -22137,7 +22235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z175"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="N72" sqref="N72"/>
     </sheetView>
   </sheetViews>
@@ -22812,8 +22910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z265"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="D266" sqref="D266"/>
+    <sheetView topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="C262" sqref="C262:D265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23637,11 +23735,11 @@
     </row>
     <row r="222" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A222" s="17" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="B222" s="13"/>
       <c r="C222" s="17" t="s">
-        <v>333</v>
+        <v>1316</v>
       </c>
       <c r="D222" s="13"/>
       <c r="E222" s="13"/>

--- a/策划案/Java/IOT项目/IOT物联网平台.xlsx
+++ b/策划案/Java/IOT项目/IOT物联网平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
@@ -9182,15 +9182,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>273</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>646974</xdr:colOff>
+      <xdr:colOff>675549</xdr:colOff>
       <xdr:row>291</xdr:row>
-      <xdr:rowOff>37627</xdr:rowOff>
+      <xdr:rowOff>123352</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9207,7 +9207,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="742950" y="56397525"/>
+          <a:off x="771525" y="57321450"/>
           <a:ext cx="5809524" cy="3780952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11755,44 +11755,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>542050</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>84945</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="295275" y="7467600"/>
-          <a:ext cx="7000000" cy="6238095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>99</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -11811,7 +11773,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11849,7 +11811,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11887,7 +11849,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11907,13 +11869,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>235</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>427787</xdr:colOff>
+      <xdr:colOff>275387</xdr:colOff>
       <xdr:row>252</xdr:row>
       <xdr:rowOff>199571</xdr:rowOff>
     </xdr:to>
@@ -11925,14 +11887,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6410325" y="46863000"/>
+          <a:off x="6257925" y="49377600"/>
           <a:ext cx="6704762" cy="3628571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11963,7 +11925,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12001,7 +11963,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12039,7 +12001,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12077,7 +12039,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12115,7 +12077,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12153,7 +12115,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12191,7 +12153,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12200,6 +12162,44 @@
         <a:xfrm>
           <a:off x="476250" y="7334250"/>
           <a:ext cx="10780952" cy="4380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>65955</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>180255</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="14116050"/>
+          <a:ext cx="5761905" cy="5761905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14131,8 +14131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="E253" sqref="E253:G258"/>
+    <sheetView topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="N231" sqref="N231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15311,8 +15311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z342"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="V284" sqref="V284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19831,9 +19831,6 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B38:B43"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B14"/>
@@ -19842,6 +19839,9 @@
     <mergeCell ref="B31:B37"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B21:B27"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B38:B43"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/策划案/Java/IOT项目/IOT物联网平台.xlsx
+++ b/策划案/Java/IOT项目/IOT物联网平台.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="1328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="1329">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -4180,10 +4180,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>删除，则删除主题</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>点击跳转主题详情界面</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -7949,6 +7945,14 @@
   </si>
   <si>
     <t>颜色那一列，如果用户没有编辑过，则自动更新。</t>
+  </si>
+  <si>
+    <t>各系统关系</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除，则删除主题，自动删除其下的订阅</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8577,6 +8581,24 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="9" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8621,24 +8643,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
@@ -10109,6 +10113,48 @@
         <a:xfrm>
           <a:off x="304800" y="9925050"/>
           <a:ext cx="6610350" cy="11934310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="22469475"/>
+          <a:ext cx="9010650" cy="12611100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12492,12 +12538,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -12506,11 +12552,11 @@
       <c r="C3" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="41" t="s">
-        <v>791</v>
+      <c r="E3" s="47" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12520,26 +12566,26 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="42"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="48"/>
     </row>
     <row r="5" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="43" t="s">
-        <v>792</v>
-      </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45"/>
+      <c r="C5" s="49" t="s">
+        <v>791</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="54"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -12548,10 +12594,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="35"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -12560,10 +12606,10 @@
       <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="50"/>
+      <c r="E8" s="35"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
@@ -12572,10 +12618,10 @@
       <c r="C9" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="E9" s="50"/>
+      <c r="E9" s="35"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
@@ -12584,10 +12630,10 @@
       <c r="C10" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="34" t="s">
         <v>358</v>
       </c>
-      <c r="E10" s="50"/>
+      <c r="E10" s="35"/>
     </row>
     <row r="11" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
@@ -12596,34 +12642,34 @@
       <c r="C11" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="39" t="s">
         <v>613</v>
       </c>
-      <c r="E11" s="50"/>
+      <c r="E11" s="35"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
         <v>43966</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>859</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>793</v>
-      </c>
-      <c r="E12" s="50"/>
+        <v>858</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>792</v>
+      </c>
+      <c r="E12" s="35"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
         <v>43976</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>879</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>860</v>
-      </c>
-      <c r="E13" s="50"/>
+        <v>878</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>859</v>
+      </c>
+      <c r="E13" s="35"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="7">
@@ -12632,10 +12678,10 @@
       <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="49" t="s">
-        <v>880</v>
-      </c>
-      <c r="E14" s="50"/>
+      <c r="D14" s="34" t="s">
+        <v>879</v>
+      </c>
+      <c r="E14" s="35"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
@@ -12644,10 +12690,10 @@
       <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="49" t="s">
-        <v>915</v>
-      </c>
-      <c r="E15" s="50"/>
+      <c r="D15" s="34" t="s">
+        <v>914</v>
+      </c>
+      <c r="E15" s="35"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="7">
@@ -12656,10 +12702,10 @@
       <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="49" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E16" s="50"/>
+      <c r="D16" s="34" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E16" s="35"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="7">
@@ -12668,10 +12714,10 @@
       <c r="C17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="49" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E17" s="50"/>
+      <c r="D17" s="34" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E17" s="35"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="7">
@@ -12680,97 +12726,93 @@
       <c r="C18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="49" t="s">
-        <v>1135</v>
-      </c>
-      <c r="E18" s="50"/>
+      <c r="D18" s="34" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E18" s="35"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="7">
         <v>44036</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D19" s="34" t="s">
         <v>1272</v>
       </c>
-      <c r="D19" s="49" t="s">
-        <v>1273</v>
-      </c>
-      <c r="E19" s="50"/>
+      <c r="E19" s="35"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="50"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="50"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="50"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="37"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -12783,12 +12825,16 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -13069,10 +13115,10 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C39" s="19" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D39" s="19" t="s">
         <v>1141</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
@@ -13188,7 +13234,7 @@
     <row r="81" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C81" s="19"/>
       <c r="D81" s="19" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="82" spans="2:26" x14ac:dyDescent="0.3">
@@ -13249,7 +13295,7 @@
     <row r="86" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C86" s="19"/>
       <c r="D86" s="19" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="87" spans="2:26" x14ac:dyDescent="0.3">
@@ -14249,7 +14295,7 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
@@ -14518,20 +14564,20 @@
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="18" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C62" s="19" t="s">
         <v>1275</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C63" s="19" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C64" s="19" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.3">
@@ -14786,7 +14832,7 @@
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E165" s="19" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.3">
@@ -14973,13 +15019,13 @@
     <row r="190" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C190" s="19"/>
       <c r="E190" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="191" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C191" s="19"/>
       <c r="E191" s="19" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="192" spans="2:26" x14ac:dyDescent="0.3">
@@ -15006,14 +15052,14 @@
       <c r="C197" s="19"/>
       <c r="E197" s="19"/>
       <c r="F197" s="19" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="198" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C198" s="19"/>
       <c r="E198" s="19"/>
       <c r="F198" s="19" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="199" spans="3:6" x14ac:dyDescent="0.3">
@@ -15026,7 +15072,7 @@
     </row>
     <row r="200" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E200" s="19" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="201" spans="3:6" x14ac:dyDescent="0.3">
@@ -15180,7 +15226,7 @@
     </row>
     <row r="229" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D229" s="19" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="230" spans="3:6" x14ac:dyDescent="0.3">
@@ -15211,7 +15257,7 @@
     </row>
     <row r="236" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F236" s="19" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="237" spans="3:6" x14ac:dyDescent="0.3">
@@ -15266,12 +15312,12 @@
     </row>
     <row r="250" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D250" s="19" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="253" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E253" s="19" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="254" spans="4:6" x14ac:dyDescent="0.3">
@@ -15281,22 +15327,22 @@
     </row>
     <row r="255" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E255" s="19" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="256" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F256" s="19" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="257" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E257" s="19" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="258" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F258" s="19" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
   </sheetData>
@@ -15311,8 +15357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="V284" sqref="V284"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15529,7 +15575,7 @@
     <row r="80" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D80" s="19"/>
       <c r="E80" s="19" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="81" spans="2:26" x14ac:dyDescent="0.3">
@@ -15582,7 +15628,7 @@
     <row r="88" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D88" s="19"/>
       <c r="E88" s="19" t="s">
-        <v>664</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="89" spans="2:26" x14ac:dyDescent="0.3">
@@ -15626,58 +15672,58 @@
     </row>
     <row r="102" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C102" s="19" t="s">
+        <v>665</v>
+      </c>
+      <c r="D102" s="19" t="s">
         <v>666</v>
-      </c>
-      <c r="D102" s="19" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="103" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D103" s="19" t="s">
+        <v>675</v>
+      </c>
+      <c r="E103" s="19" t="s">
         <v>676</v>
-      </c>
-      <c r="E103" s="19" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="104" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D104" s="19"/>
       <c r="E104" s="12" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="105" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D105" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="E105" s="19" t="s">
         <v>679</v>
-      </c>
-      <c r="E105" s="19" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="106" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D106" s="19"/>
       <c r="E106" s="19" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="107" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C107" s="19" t="s">
+        <v>700</v>
+      </c>
+      <c r="D107" s="19" t="s">
         <v>701</v>
-      </c>
-      <c r="D107" s="19" t="s">
-        <v>702</v>
       </c>
       <c r="E107" s="19"/>
     </row>
     <row r="108" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D108" s="19" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E108" s="19"/>
     </row>
     <row r="109" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D109" s="19" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E109" s="19"/>
     </row>
@@ -15722,55 +15768,55 @@
     </row>
     <row r="133" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C133" s="19" t="s">
+        <v>667</v>
+      </c>
+      <c r="D133" s="19" t="s">
         <v>668</v>
-      </c>
-      <c r="D133" s="19" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="134" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C134" s="19"/>
       <c r="D134" s="19" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="135" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C135" s="19"/>
       <c r="D135" s="19" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="136" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C136" s="19"/>
       <c r="D136" s="19"/>
       <c r="E136" s="19" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="137" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C137" s="19"/>
       <c r="D137" s="19" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="138" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C138" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="D138" s="19" t="s">
         <v>697</v>
-      </c>
-      <c r="D138" s="19" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="139" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C139" s="19"/>
       <c r="D139" s="19" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="140" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C140" s="19"/>
       <c r="D140" s="19" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="141" spans="2:26" x14ac:dyDescent="0.3">
@@ -15817,47 +15863,47 @@
         <v>641</v>
       </c>
       <c r="D162" s="19" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D163" s="19" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E163" s="19" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="164" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D164" s="19"/>
       <c r="E164" s="19" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D165" s="19" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E165" s="19" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E166" s="19" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D167" s="19" t="s">
+        <v>685</v>
+      </c>
+      <c r="E167" s="19" t="s">
         <v>686</v>
-      </c>
-      <c r="E167" s="19" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="168" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E168" s="19" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="169" spans="3:6" x14ac:dyDescent="0.3">
@@ -15865,127 +15911,127 @@
         <v>651</v>
       </c>
       <c r="E169" s="19" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="170" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E170" s="19" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="171" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E171" s="19" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="172" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F172" s="29" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="173" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F173" s="29" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="174" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F174" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="175" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F175" s="29" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E176" s="19" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F177" s="29" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F178" s="29" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F179" s="29" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E180" s="19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F181" s="29" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F182" s="30" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F183" s="30" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F184" s="29" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C185" s="19" t="s">
+        <v>708</v>
+      </c>
+      <c r="D185" s="19" t="s">
         <v>709</v>
-      </c>
-      <c r="D185" s="19" t="s">
-        <v>710</v>
       </c>
       <c r="E185" s="19"/>
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D186" s="19" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="187" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D187" s="19" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C188" s="19" t="s">
+        <v>884</v>
+      </c>
+      <c r="D188" s="19" t="s">
         <v>885</v>
-      </c>
-      <c r="D188" s="19" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D189" s="31" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D190" s="19" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A192" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="B192" s="17" t="s">
         <v>713</v>
-      </c>
-      <c r="B192" s="17" t="s">
-        <v>714</v>
       </c>
       <c r="C192" s="13"/>
       <c r="D192" s="13"/>
@@ -16017,73 +16063,73 @@
         <v>629</v>
       </c>
       <c r="C193" s="19" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C194" s="19" t="s">
+        <v>715</v>
+      </c>
+      <c r="D194" s="19" t="s">
         <v>716</v>
-      </c>
-      <c r="D194" s="19" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="230" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C230" s="19" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D230" s="19" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="231" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C231" s="19"/>
       <c r="D231" s="19" t="s">
+        <v>758</v>
+      </c>
+      <c r="E231" s="19" t="s">
         <v>759</v>
-      </c>
-      <c r="E231" s="19" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="232" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C232" s="19"/>
       <c r="D232" s="19"/>
       <c r="E232" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="233" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D233" s="19" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E233" s="19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="234" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E234" s="19" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="235" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D235" s="19" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E235" s="19" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="236" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E236" s="19" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="237" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C237" s="19" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D237" s="19" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="238" spans="3:5" x14ac:dyDescent="0.3">
@@ -16096,35 +16142,35 @@
     </row>
     <row r="239" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E239" s="19" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="240" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D240" s="19" t="s">
+        <v>719</v>
+      </c>
+      <c r="E240" s="19" t="s">
         <v>720</v>
-      </c>
-      <c r="E240" s="19" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="241" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E241" s="19" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="242" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E242" s="19" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="243" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E243" s="19" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="244" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E244" s="19" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="245" spans="4:6" x14ac:dyDescent="0.3">
@@ -16132,147 +16178,147 @@
         <v>649</v>
       </c>
       <c r="E245" s="19" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="246" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E246" s="19" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="247" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E247" s="19" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="248" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E248" s="19"/>
       <c r="F248" s="12" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="249" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E249" s="19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="250" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E250" s="19"/>
       <c r="F250" s="12" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="251" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E251" s="19" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="252" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F252" s="19" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="253" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D253" s="19" t="s">
+        <v>733</v>
+      </c>
+      <c r="E253" s="19" t="s">
         <v>734</v>
-      </c>
-      <c r="E253" s="19" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="254" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E254" s="19" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="255" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E255" s="19" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="256" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F256" s="19" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="257" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E257" s="19" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F258" s="19" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E259" s="19" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F260" s="19" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="261" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E261" s="19" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="262" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F262" s="19" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E263" s="19" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="264" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F264" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E265" s="19" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F266" s="19" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E267" s="19" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F268" s="19" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G269" s="19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="270" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F270" s="19" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="271" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G271" s="19" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="272" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B272" s="18" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C272" s="19" t="s">
         <v>640</v>
@@ -16291,20 +16337,20 @@
         <v>641</v>
       </c>
       <c r="D293" s="19" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="294" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D294" s="19" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="296" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A296" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="B296" s="17" t="s">
         <v>767</v>
-      </c>
-      <c r="B296" s="17" t="s">
-        <v>768</v>
       </c>
       <c r="C296" s="13"/>
       <c r="D296" s="13"/>
@@ -16333,66 +16379,66 @@
     </row>
     <row r="297" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B297" s="19" t="s">
+        <v>768</v>
+      </c>
+      <c r="C297" s="19" t="s">
         <v>769</v>
-      </c>
-      <c r="C297" s="19" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B333" s="19" t="s">
+        <v>770</v>
+      </c>
+      <c r="C333" s="19" t="s">
         <v>771</v>
-      </c>
-      <c r="C333" s="19" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C334" s="19" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D335" s="19" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C336" s="19" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="337" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D337" s="19" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="338" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B338" s="19" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C338" s="19" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="339" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D339" s="19" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="340" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D340" s="19" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="341" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D341" s="19" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="342" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E342" s="19" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
   </sheetData>
@@ -16456,18 +16502,18 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>1192</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -16504,17 +16550,17 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7" s="19" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
@@ -16522,7 +16568,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -16562,69 +16608,69 @@
         <v>237</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D45" s="19" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="46" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46" s="19" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D47" s="19" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D48" s="19" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D49" s="19" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D50" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D51" s="19"/>
       <c r="E51" s="19" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D52" s="19"/>
       <c r="E52" s="19" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C53" s="18" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D53" s="19" t="s">
         <v>1317</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>1318</v>
       </c>
       <c r="E53" s="19"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D54" s="19" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E54" s="19"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D55" s="19" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E55" s="19"/>
     </row>
@@ -16637,7 +16683,7 @@
         <v>81</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -16764,101 +16810,101 @@
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91" s="18" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C91" s="19" t="s">
         <v>1280</v>
-      </c>
-      <c r="C91" s="19" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C92" s="19" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D92" s="19" t="s">
         <v>1282</v>
-      </c>
-      <c r="D92" s="19" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D93" s="19" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C94" s="19" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D94" s="19" t="s">
         <v>1285</v>
-      </c>
-      <c r="D94" s="19" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D95" s="19" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C96" s="19" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D96" s="19" t="s">
         <v>1288</v>
-      </c>
-      <c r="D96" s="19" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D97" s="19" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C98" s="19" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D98" s="19" t="s">
         <v>1291</v>
-      </c>
-      <c r="D98" s="19" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C99" s="19"/>
       <c r="D99" s="19" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C100" s="19"/>
       <c r="D100" s="19" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C101" s="19"/>
       <c r="E101" s="19" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C102" s="19"/>
       <c r="D102" s="19" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C103" s="19"/>
       <c r="D103" s="19"/>
       <c r="E103" s="19" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C104" s="19"/>
       <c r="D104" s="19"/>
       <c r="E104" s="19" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C105" s="19"/>
       <c r="D105" s="19" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E105" s="19"/>
     </row>
@@ -16866,13 +16912,13 @@
       <c r="C106" s="19"/>
       <c r="D106" s="19"/>
       <c r="E106" s="19" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C107" s="19"/>
       <c r="D107" s="19" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E107" s="19"/>
     </row>
@@ -16880,120 +16926,120 @@
       <c r="C108" s="19"/>
       <c r="D108" s="19"/>
       <c r="E108" s="19" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B109" s="18" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C109" s="19" t="s">
         <v>1303</v>
-      </c>
-      <c r="C109" s="19" t="s">
-        <v>1304</v>
       </c>
       <c r="D109" s="19"/>
       <c r="E109" s="19"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C110" s="19" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D110" s="19"/>
       <c r="E110" s="19"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C111" s="19" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D111" s="19" t="s">
         <v>1306</v>
-      </c>
-      <c r="D111" s="19" t="s">
-        <v>1307</v>
       </c>
       <c r="E111" s="19"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C112" s="19"/>
       <c r="D112" s="19" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E112" s="19"/>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C113" s="19"/>
       <c r="D113" s="19" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E113" s="19"/>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C114" s="19"/>
       <c r="D114" s="19" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E114" s="19"/>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C115" s="19"/>
       <c r="D115" s="19" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E115" s="19"/>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C116" s="19"/>
       <c r="D116" s="19" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E116" s="19"/>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C117" s="19" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D117" s="19" t="s">
         <v>1308</v>
-      </c>
-      <c r="D117" s="19" t="s">
-        <v>1309</v>
       </c>
       <c r="E117" s="19"/>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C118" s="19"/>
       <c r="D118" s="19" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E118" s="19"/>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C119" s="19"/>
       <c r="D119" s="19" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="E119" s="19"/>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B120" s="18" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C120" s="19" t="s">
         <v>1310</v>
-      </c>
-      <c r="C120" s="19" t="s">
-        <v>1311</v>
       </c>
       <c r="D120" s="19"/>
       <c r="E120" s="19"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C121" s="19" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D121" s="19"/>
       <c r="E121" s="19"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C122" s="19" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="D122" s="19"/>
       <c r="E122" s="19"/>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C123" s="19" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="D123" s="19"/>
       <c r="E123" s="19"/>
@@ -17018,7 +17064,7 @@
         <v>84</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
@@ -17055,125 +17101,125 @@
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B166" s="18" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C167" s="19" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D167" s="19" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D168" s="19" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C169" s="19" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D169" s="19" t="s">
         <v>1216</v>
-      </c>
-      <c r="D169" s="19" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C170" s="19"/>
       <c r="D170" s="19" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B171" s="18" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B172" s="18"/>
       <c r="C172" s="19" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B173" s="18"/>
       <c r="C173" s="19" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D173" s="19" t="s">
         <v>1220</v>
-      </c>
-      <c r="D173" s="19" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B174" s="18"/>
       <c r="C174" s="19"/>
       <c r="D174" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D175" s="19" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C176" s="19" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D176" s="19" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C177" s="19"/>
       <c r="D177" s="19" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E177" s="19" t="s">
         <v>1225</v>
-      </c>
-      <c r="E177" s="19" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D178" s="19" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E178" s="19" t="s">
         <v>1227</v>
-      </c>
-      <c r="E178" s="19" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D179" s="19" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E179" s="19" t="s">
         <v>1229</v>
-      </c>
-      <c r="E179" s="19" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C180" s="19" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D180" s="19" t="s">
         <v>1231</v>
-      </c>
-      <c r="D180" s="19" t="s">
-        <v>1232</v>
       </c>
       <c r="E180" s="19"/>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D181" s="19" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E181" s="19"/>
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D182" s="19" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E182" s="19"/>
     </row>
@@ -17186,7 +17232,7 @@
         <v>368</v>
       </c>
       <c r="B185" s="17" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C185" s="13"/>
       <c r="D185" s="13"/>
@@ -17215,28 +17261,28 @@
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B186" s="18" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B220" s="18" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C220" s="19" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C221" s="19" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C222" s="19" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.3">
@@ -17244,12 +17290,12 @@
         <v>308</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C224" s="19" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.3">
@@ -17257,47 +17303,47 @@
         <v>422</v>
       </c>
       <c r="C225" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C226" s="19" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C227" s="19" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C228" s="19" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C229" s="19" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C230" s="19" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C231" s="19" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C232" s="19" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C233" s="19" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
   </sheetData>
@@ -17359,20 +17405,20 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>1069</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>1070</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -17401,114 +17447,114 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>1075</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
       <c r="C7" s="19" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C8" s="19" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C9" s="19" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>1078</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>1079</v>
       </c>
       <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C11" s="19" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C12" s="19" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C13" s="19" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C14" s="19" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C17" s="19" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C18" s="19"/>
       <c r="D18" s="19" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C19" s="19" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>1081</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C20" s="19"/>
       <c r="D20" s="19" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C21" s="19" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C22" s="19"/>
       <c r="D22" s="19" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
@@ -17516,7 +17562,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -17561,129 +17607,129 @@
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C60" s="19" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C61" s="19" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C62" s="19" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" s="18" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C63" s="19" t="s">
         <v>1049</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C64" s="19" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C65" s="19" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C66" s="18" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D66" s="19" t="s">
         <v>1052</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C67" s="19"/>
       <c r="D67" s="19" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C68" s="19" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D68" s="19" t="s">
         <v>1054</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C69" s="19"/>
       <c r="D69" s="19" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C70" s="19" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D70" s="19" t="s">
         <v>1056</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C71" s="19"/>
       <c r="D71" s="19" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D72" s="19" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73" s="18" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C73" s="19" t="s">
         <v>1063</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>1064</v>
       </c>
       <c r="D73" s="19"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C74" s="19" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D74" s="19"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C75" s="19" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D75" s="19"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76" s="18" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D76" s="19"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C77" s="19" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D77" s="19"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C78" s="19" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D78" s="19"/>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C79" s="19" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D79" s="19"/>
     </row>
@@ -17692,7 +17738,7 @@
         <v>18</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
@@ -17732,48 +17778,48 @@
         <v>237</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C118" s="19" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B119" s="18" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C119" s="19" t="s">
         <v>1094</v>
-      </c>
-      <c r="C119" s="19" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C120" s="19" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B121" s="18" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C122" s="19" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C123" s="19" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C124" s="19" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.3">
@@ -17784,7 +17830,7 @@
         <v>422</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
@@ -17813,10 +17859,10 @@
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B127" s="18" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C127" s="19" t="s">
         <v>1102</v>
-      </c>
-      <c r="C127" s="19" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.3">
@@ -17872,66 +17918,66 @@
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B162" s="18" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C162" s="19" t="s">
         <v>1104</v>
-      </c>
-      <c r="C162" s="19" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C163" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C164" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C165" s="19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B166" s="18" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C167" s="19" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C168" s="19" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C169" s="19" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B170" s="18" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C171" s="19" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C172" s="19" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.3">
@@ -17945,10 +17991,10 @@
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A178" s="33" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B178" s="17" t="s">
         <v>1092</v>
-      </c>
-      <c r="B178" s="17" t="s">
-        <v>1093</v>
       </c>
       <c r="C178" s="13"/>
       <c r="D178" s="13"/>
@@ -17993,69 +18039,69 @@
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C214" s="19" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B215" s="18" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C215" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C216" s="19" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B217" s="18" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C218" s="19" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C219" s="19" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B220" s="18" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C220" s="19" t="s">
         <v>1120</v>
-      </c>
-      <c r="C220" s="19" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C221" s="19" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C222" s="19" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B223" s="18" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C223" s="19" t="s">
         <v>1124</v>
-      </c>
-      <c r="C223" s="19" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C224" s="19" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="237" spans="8:8" x14ac:dyDescent="0.3">
@@ -18121,7 +18167,7 @@
         <v>86</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -18161,7 +18207,7 @@
         <v>18</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -18190,138 +18236,138 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B37" s="18" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C38" s="19" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C39" s="19" t="s">
+        <v>940</v>
+      </c>
+      <c r="D39" s="19" t="s">
         <v>941</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
+        <v>943</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>944</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C41" s="19" t="s">
+        <v>945</v>
+      </c>
+      <c r="D41" s="19" t="s">
         <v>946</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C42" s="19" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B43" s="18" t="s">
+        <v>948</v>
+      </c>
+      <c r="C43" s="19" t="s">
         <v>949</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C44" s="19" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C45" s="19" t="s">
+        <v>952</v>
+      </c>
+      <c r="D45" s="19" t="s">
         <v>953</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C47" s="19" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C48" s="19" t="s">
+        <v>952</v>
+      </c>
+      <c r="D48" s="19" t="s">
         <v>953</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B49" s="18" t="s">
+        <v>955</v>
+      </c>
+      <c r="C49" s="19" t="s">
         <v>956</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C50" s="19" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C51" s="19" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C52" s="19" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C53" s="19" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.3">
@@ -18329,7 +18375,7 @@
         <v>81</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -18358,115 +18404,115 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B56" s="18" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="18" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C91" s="19" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D92" s="19" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D93" s="19" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D94" s="19" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C95" s="19" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D96" s="19" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D97" s="19"/>
       <c r="E97" s="19" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D98" s="19"/>
       <c r="E98" s="19" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D99" s="19" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D100" s="19"/>
       <c r="E100" s="19" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D101" s="19"/>
       <c r="E101" s="19" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="102" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D102" s="19" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="103" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D103" s="19"/>
       <c r="E103" s="19" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="104" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D104" s="19"/>
       <c r="E104" s="19" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="105" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D105" s="19"/>
       <c r="E105" s="19" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="106" spans="4:5" x14ac:dyDescent="0.3">
@@ -18519,34 +18565,34 @@
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C122" s="19" t="s">
+        <v>976</v>
+      </c>
+      <c r="D122" s="19" t="s">
         <v>977</v>
-      </c>
-      <c r="D122" s="19" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="123" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D123" s="19" t="s">
+        <v>978</v>
+      </c>
+      <c r="E123" s="19" t="s">
         <v>979</v>
-      </c>
-      <c r="E123" s="19" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D124" s="19" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E124" s="19" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="125" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D125" s="19" t="s">
+        <v>992</v>
+      </c>
+      <c r="E125" s="19" t="s">
         <v>993</v>
-      </c>
-      <c r="E125" s="19" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="126" spans="3:5" x14ac:dyDescent="0.3">
@@ -18563,7 +18609,7 @@
         <v>84</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C131" s="13"/>
       <c r="D131" s="13"/>
@@ -18592,212 +18638,212 @@
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B132" s="18" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B166" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="C166" s="19" t="s">
         <v>995</v>
-      </c>
-      <c r="C166" s="19" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C167" s="19" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C168" s="19" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C169" s="19" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D169" s="19" t="s">
         <v>1015</v>
-      </c>
-      <c r="D169" s="19" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C170" s="19"/>
       <c r="D170" s="19" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C171" s="19" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D172" s="19" t="s">
+        <v>998</v>
+      </c>
+      <c r="E172" s="19" t="s">
         <v>999</v>
-      </c>
-      <c r="E172" s="19" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E173" s="19" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E174" s="19" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D175" s="19" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E175" s="19" t="s">
         <v>1003</v>
-      </c>
-      <c r="E175" s="19" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D176" s="19"/>
       <c r="E176" s="19" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="177" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E177" s="19" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="178" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E178" s="19" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="179" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D179" s="19" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E179" s="19" t="s">
         <v>1007</v>
-      </c>
-      <c r="E179" s="19" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="180" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E180" s="19" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="181" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E181" s="19" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="182" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E182" s="19" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="183" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D183" s="19" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E183" s="19" t="s">
         <v>1030</v>
-      </c>
-      <c r="E183" s="19" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="184" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D184" s="19"/>
       <c r="E184" s="19" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="185" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E185" s="19" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="186" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E186" s="19" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="187" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C187" s="19" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D187" s="19" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="188" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D188" s="19" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E188" s="19" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="189" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D189" s="19" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E189" s="19" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="190" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D190" s="19" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E190" s="19" t="s">
         <v>1019</v>
-      </c>
-      <c r="E190" s="19" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="191" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C191" s="19" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D191" s="19" t="s">
         <v>1023</v>
-      </c>
-      <c r="D191" s="19" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="192" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D192" s="19" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="193" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D193" s="19" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E193" s="19" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="194" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E194" s="19" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E195" s="19" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E196" s="19" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="197" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E197" s="19" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="203" spans="1:26" x14ac:dyDescent="0.3">
@@ -18805,7 +18851,7 @@
         <v>368</v>
       </c>
       <c r="B203" s="17" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C203" s="13"/>
       <c r="D203" s="13"/>
@@ -18834,10 +18880,10 @@
     </row>
     <row r="204" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B204" s="18" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.3">
@@ -18850,17 +18896,17 @@
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C237" s="19" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C238" s="19" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C239" s="19" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
   </sheetData>
@@ -19855,7 +19901,7 @@
   </sheetPr>
   <dimension ref="A1:Z129"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L142" sqref="L142"/>
     </sheetView>
   </sheetViews>
@@ -19871,7 +19917,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -19900,7 +19946,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -19908,7 +19954,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -19940,7 +19986,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
@@ -19948,7 +19994,7 @@
         <v>237</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
@@ -19956,7 +20002,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -19988,7 +20034,7 @@
         <v>20</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
@@ -20004,7 +20050,7 @@
         <v>24</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
@@ -20012,7 +20058,7 @@
         <v>50</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
@@ -20020,7 +20066,7 @@
         <v>52</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
@@ -20028,7 +20074,7 @@
         <v>54</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
@@ -20036,12 +20082,12 @@
         <v>30</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D56" s="19" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
@@ -20052,7 +20098,7 @@
         <v>237</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
@@ -20060,7 +20106,7 @@
         <v>73</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
@@ -20068,17 +20114,17 @@
         <v>473</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D61" s="19" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D62" s="19" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.3">
@@ -20086,7 +20132,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
@@ -20118,17 +20164,17 @@
         <v>20</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C83" s="19" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C84" s="19" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
@@ -20136,7 +20182,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
@@ -20168,12 +20214,12 @@
         <v>20</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C88" s="12" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.3">
@@ -20181,7 +20227,7 @@
         <v>44</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.3">
@@ -20189,7 +20235,7 @@
         <v>69</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.3">
@@ -20197,15 +20243,15 @@
         <v>438</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B92" s="18" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C92" s="19" t="s">
         <v>1041</v>
-      </c>
-      <c r="C92" s="19" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.3">
@@ -20245,7 +20291,7 @@
         <v>20</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.3">
@@ -20253,7 +20299,7 @@
         <v>44</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.3">
@@ -20261,7 +20307,7 @@
         <v>227</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
@@ -20293,7 +20339,7 @@
         <v>20</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
@@ -20301,7 +20347,7 @@
         <v>237</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.3">
@@ -20309,7 +20355,7 @@
         <v>69</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.3">
@@ -20317,7 +20363,7 @@
         <v>416</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
@@ -20349,12 +20395,12 @@
         <v>20</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C127" s="19" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.3">
@@ -20362,12 +20408,12 @@
         <v>44</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C129" s="19" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
   </sheetData>
@@ -20380,10 +20426,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z47"/>
+  <dimension ref="A1:Z106"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="X28" sqref="X28"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="T118" sqref="T118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20464,10 +20510,10 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="B35" s="17" t="s">
         <v>779</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>780</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -20496,46 +20542,46 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B36" s="18" t="s">
+        <v>780</v>
+      </c>
+      <c r="C36" s="19" t="s">
         <v>781</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C37" s="19" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
+        <v>783</v>
+      </c>
+      <c r="C38" s="19" t="s">
         <v>784</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C39" s="19" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
+        <v>786</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>787</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C41" s="19" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C42" s="19" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
@@ -20543,7 +20589,7 @@
         <v>226</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -20572,18 +20618,50 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B45" s="19" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B46" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B47" s="19" t="s">
-        <v>807</v>
-      </c>
+        <v>806</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A106" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="13"/>
+      <c r="K106" s="13"/>
+      <c r="L106" s="13"/>
+      <c r="M106" s="13"/>
+      <c r="N106" s="13"/>
+      <c r="O106" s="13"/>
+      <c r="P106" s="13"/>
+      <c r="Q106" s="13"/>
+      <c r="R106" s="13"/>
+      <c r="S106" s="13"/>
+      <c r="T106" s="13"/>
+      <c r="U106" s="13"/>
+      <c r="V106" s="13"/>
+      <c r="W106" s="13"/>
+      <c r="X106" s="13"/>
+      <c r="Y106" s="13"/>
+      <c r="Z106" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -20597,7 +20675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
@@ -20610,10 +20688,10 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
+        <v>808</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>809</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>810</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -20642,20 +20720,20 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -20692,67 +20770,67 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="C42" s="19" t="s">
         <v>815</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C43" s="19" t="s">
+        <v>816</v>
+      </c>
+      <c r="D43" s="19" t="s">
         <v>817</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D44" s="19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C45" s="19" t="s">
+        <v>819</v>
+      </c>
+      <c r="D45" s="19" t="s">
         <v>820</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D46" s="19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D47" s="19" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D48" s="19" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C49" s="19" t="s">
+        <v>824</v>
+      </c>
+      <c r="D49" s="19" t="s">
         <v>825</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D50" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="B52" s="17" t="s">
         <v>828</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>829</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -20789,73 +20867,73 @@
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="C90" s="19" t="s">
         <v>815</v>
-      </c>
-      <c r="C90" s="19" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C91" s="19" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D92" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="E92" s="19" t="s">
         <v>831</v>
-      </c>
-      <c r="E92" s="19" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D93" s="19" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D94" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D95" s="19" t="s">
+        <v>834</v>
+      </c>
+      <c r="E95" s="19" t="s">
         <v>835</v>
-      </c>
-      <c r="E95" s="19" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D96" s="19" t="s">
+        <v>836</v>
+      </c>
+      <c r="E96" s="19" t="s">
         <v>837</v>
-      </c>
-      <c r="E96" s="19" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E97" s="19" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E98" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100" s="17" t="s">
+        <v>840</v>
+      </c>
+      <c r="B100" s="17" t="s">
         <v>841</v>
-      </c>
-      <c r="B100" s="17" t="s">
-        <v>842</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
@@ -20884,10 +20962,10 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B101" s="18" t="s">
+        <v>842</v>
+      </c>
+      <c r="C101" s="19" t="s">
         <v>843</v>
-      </c>
-      <c r="C101" s="19" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.3">
@@ -20895,20 +20973,20 @@
         <v>237</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C119" s="19" t="s">
+        <v>844</v>
+      </c>
+      <c r="D119" s="19" t="s">
         <v>845</v>
-      </c>
-      <c r="D119" s="19" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D120" s="19" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.3">
@@ -20916,12 +20994,12 @@
         <v>257</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D122" s="19" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.3">
@@ -20929,12 +21007,12 @@
         <v>296</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D124" s="19" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.3">
@@ -20942,37 +21020,37 @@
         <v>97</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D126" s="19" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D127" s="19" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E128" s="19" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E129" s="19" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E130" s="19" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E131" s="19" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
   </sheetData>
@@ -21121,7 +21199,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D12" s="19"/>
     </row>
@@ -21431,73 +21509,73 @@
     </row>
     <row r="121" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D121" s="19" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="122" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D122" s="19" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="123" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D123" s="19"/>
       <c r="E123" s="19" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="124" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D124" s="19" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E124" s="19" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="125" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D125" s="19"/>
       <c r="E125" s="19" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="126" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D126" s="19"/>
       <c r="E126" s="19" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="127" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D127" s="19"/>
       <c r="E127" s="19" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="128" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D128" s="19"/>
       <c r="E128" s="19" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="129" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D129" s="19" t="s">
+        <v>895</v>
+      </c>
+      <c r="E129" s="19" t="s">
         <v>896</v>
-      </c>
-      <c r="E129" s="19" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="130" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D130" s="19"/>
       <c r="E130" s="19" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="131" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D131" s="19"/>
       <c r="E131" s="19" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="132" spans="4:5" x14ac:dyDescent="0.3">
@@ -21570,28 +21648,28 @@
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D149" s="19" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E149" s="19" t="s">
         <v>1159</v>
-      </c>
-      <c r="E149" s="19" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D150" s="19"/>
       <c r="E150" s="19" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D151" s="19"/>
       <c r="E151" s="19" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D152" s="19"/>
       <c r="E152" s="19" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.3">
@@ -21716,7 +21794,7 @@
     </row>
     <row r="216" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D216" s="19" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="217" spans="2:26" x14ac:dyDescent="0.3">
@@ -21734,15 +21812,15 @@
     </row>
     <row r="219" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C219" s="19" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D219" s="19" t="s">
         <v>1165</v>
-      </c>
-      <c r="D219" s="19" t="s">
-        <v>1166</v>
       </c>
     </row>
     <row r="220" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D220" s="19" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="221" spans="2:26" x14ac:dyDescent="0.3">
@@ -21750,30 +21828,30 @@
     </row>
     <row r="222" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D222" s="19" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="224" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C224" s="19" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D224" s="19" t="s">
         <v>1247</v>
-      </c>
-      <c r="D224" s="19" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="225" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D225" s="19" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="226" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D226" s="19" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="227" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D227" s="19" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="228" spans="2:26" x14ac:dyDescent="0.3">
@@ -21799,7 +21877,7 @@
         <v>308</v>
       </c>
       <c r="C234" s="26" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D234" s="27"/>
       <c r="E234" s="27"/>
@@ -21827,33 +21905,33 @@
     </row>
     <row r="235" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C235" s="19" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="236" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C236" s="19" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D236" s="19" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="237" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D237" s="19" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="238" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C238" s="19" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D238" s="19" t="s">
         <v>1150</v>
-      </c>
-      <c r="D238" s="19" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="239" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D239" s="19" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="241" spans="2:26" x14ac:dyDescent="0.3">
@@ -21861,7 +21939,7 @@
         <v>422</v>
       </c>
       <c r="C241" s="26" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D241" s="27"/>
       <c r="E241" s="27"/>
@@ -21903,7 +21981,7 @@
     <row r="244" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C244" s="19"/>
       <c r="D244" s="19" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="245" spans="2:26" x14ac:dyDescent="0.3">
@@ -21911,40 +21989,40 @@
         <v>257</v>
       </c>
       <c r="D245" s="19" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="246" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C246" s="19"/>
       <c r="D246" s="19" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="247" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C247" s="19"/>
       <c r="D247" s="19"/>
       <c r="E247" s="19" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="248" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C248" s="19"/>
       <c r="D248" s="19"/>
       <c r="E248" s="19" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="249" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C249" s="19"/>
       <c r="D249" s="19" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="250" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C250" s="19"/>
       <c r="D250" s="19"/>
       <c r="E250" s="19" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="251" spans="2:26" x14ac:dyDescent="0.3">
@@ -21957,22 +22035,22 @@
       <c r="C252" s="19"/>
       <c r="D252" s="19"/>
       <c r="E252" s="19" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="253" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C253" s="19" t="s">
+        <v>866</v>
+      </c>
+      <c r="D253" s="19" t="s">
         <v>867</v>
-      </c>
-      <c r="D253" s="19" t="s">
-        <v>868</v>
       </c>
       <c r="E253" s="19"/>
     </row>
     <row r="254" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C254" s="19"/>
       <c r="D254" s="19" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E254" s="19"/>
     </row>
@@ -21980,13 +22058,13 @@
       <c r="C255" s="19"/>
       <c r="D255" s="19"/>
       <c r="E255" s="19" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="256" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C256" s="19"/>
       <c r="D256" s="19" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E256" s="19"/>
     </row>
@@ -21994,13 +22072,13 @@
       <c r="C257" s="19"/>
       <c r="D257" s="19"/>
       <c r="E257" s="19" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="258" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C258" s="19"/>
       <c r="D258" s="19" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E258" s="19"/>
     </row>
@@ -22008,7 +22086,7 @@
       <c r="C259" s="19"/>
       <c r="D259" s="19"/>
       <c r="E259" s="19" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="260" spans="1:26" x14ac:dyDescent="0.3">
@@ -23022,7 +23100,7 @@
         <v>237</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D61" s="27"/>
       <c r="E61" s="27"/>
@@ -23050,15 +23128,15 @@
     </row>
     <row r="62" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C62" s="19" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D62" s="19" t="s">
         <v>1171</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="63" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D63" s="19" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="64" spans="2:26" x14ac:dyDescent="0.3">
@@ -23140,16 +23218,16 @@
     </row>
     <row r="74" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C74" s="19" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D74" s="19" t="s">
         <v>1173</v>
-      </c>
-      <c r="D74" s="19" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="75" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C75" s="19"/>
       <c r="D75" s="19" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="76" spans="2:26" x14ac:dyDescent="0.3">
@@ -23160,7 +23238,7 @@
         <v>422</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D77" s="27"/>
       <c r="E77" s="27"/>
@@ -23188,70 +23266,70 @@
     </row>
     <row r="78" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C78" s="19" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D78" s="19" t="s">
         <v>1171</v>
-      </c>
-      <c r="D78" s="19" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="79" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D79" s="19" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="80" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D80" s="19" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D81" s="19" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C82" s="19" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D82" s="19" t="s">
         <v>1179</v>
-      </c>
-      <c r="D82" s="19" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D83" s="19" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D84" s="19" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C85" s="19" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D85" s="19" t="s">
         <v>1183</v>
-      </c>
-      <c r="D85" s="19" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D86" s="19" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C87" s="19" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D87" s="19" t="s">
         <v>1186</v>
-      </c>
-      <c r="D87" s="19" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C88" s="19"/>
       <c r="D88" s="19" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.3">
@@ -23359,7 +23437,7 @@
     <row r="130" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C130" s="19"/>
       <c r="D130" s="19" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="131" spans="3:11" x14ac:dyDescent="0.3">
@@ -23445,7 +23523,7 @@
     </row>
     <row r="144" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D144" s="19" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.3">
@@ -23456,7 +23534,7 @@
         <v>308</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D146" s="27"/>
       <c r="E146" s="27"/>
@@ -23484,33 +23562,33 @@
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C147" s="19" t="s">
+        <v>798</v>
+      </c>
+      <c r="D147" s="19" t="s">
         <v>799</v>
-      </c>
-      <c r="D147" s="19" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D148" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C149" s="19" t="s">
+        <v>800</v>
+      </c>
+      <c r="D149" s="19" t="s">
         <v>801</v>
-      </c>
-      <c r="D149" s="19" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D150" s="19" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D151" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.3">
@@ -23739,7 +23817,7 @@
       </c>
       <c r="B222" s="13"/>
       <c r="C222" s="17" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D222" s="13"/>
       <c r="E222" s="13"/>
@@ -23767,60 +23845,60 @@
     </row>
     <row r="223" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B223" s="18" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C223" s="19" t="s">
         <v>1259</v>
-      </c>
-      <c r="C223" s="19" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B259" s="18" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C259" s="19" t="s">
         <v>1261</v>
-      </c>
-      <c r="C259" s="19" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C260" s="19" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C261" s="19" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C262" s="19" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D262" s="19" t="s">
         <v>1265</v>
-      </c>
-      <c r="D262" s="19" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C263" s="19" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D263" s="19" t="s">
         <v>1267</v>
-      </c>
-      <c r="D263" s="19" t="s">
-        <v>1268</v>
       </c>
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C264" s="19" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D264" s="19" t="s">
         <v>1269</v>
-      </c>
-      <c r="D264" s="19" t="s">
-        <v>1270</v>
       </c>
     </row>
     <row r="265" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C265" s="19" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D265" s="19" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
   </sheetData>

--- a/策划案/Java/IOT项目/IOT物联网平台.xlsx
+++ b/策划案/Java/IOT项目/IOT物联网平台.xlsx
@@ -18,10 +18,11 @@
     <sheet name="Sheet1" sheetId="84" state="hidden" r:id="rId9"/>
     <sheet name="群组页面" sheetId="80" r:id="rId10"/>
     <sheet name="规则模块" sheetId="87" r:id="rId11"/>
-    <sheet name="主题" sheetId="89" r:id="rId12"/>
-    <sheet name="告警定义" sheetId="94" r:id="rId13"/>
-    <sheet name="后台管理模块" sheetId="93" r:id="rId14"/>
-    <sheet name="部门系统" sheetId="92" state="hidden" r:id="rId15"/>
+    <sheet name="Sheet2" sheetId="95" r:id="rId12"/>
+    <sheet name="主题" sheetId="89" r:id="rId13"/>
+    <sheet name="告警定义" sheetId="94" r:id="rId14"/>
+    <sheet name="后台管理模块" sheetId="93" r:id="rId15"/>
+    <sheet name="部门系统" sheetId="92" state="hidden" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="1329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="1330">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -7952,6 +7953,10 @@
   </si>
   <si>
     <t>删除，则删除主题，自动删除其下的订阅</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>z/K</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -8581,24 +8586,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="9" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8643,6 +8630,24 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
@@ -11914,82 +11919,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>235</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>275387</xdr:colOff>
-      <xdr:row>252</xdr:row>
-      <xdr:rowOff>199571</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6257925" y="49377600"/>
-          <a:ext cx="6704762" cy="3628571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>235</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>103937</xdr:colOff>
-      <xdr:row>252</xdr:row>
-      <xdr:rowOff>209096</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13230225" y="46872525"/>
-          <a:ext cx="6704762" cy="3628571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>191</xdr:row>
@@ -12009,7 +11938,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12047,7 +11976,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12085,7 +12014,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12123,7 +12052,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12161,7 +12090,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12199,7 +12128,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12237,7 +12166,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12246,6 +12175,44 @@
         <a:xfrm>
           <a:off x="209550" y="14116050"/>
           <a:ext cx="5761905" cy="5761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>723062</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>104325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="49101375"/>
+          <a:ext cx="6704762" cy="3600000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12538,12 +12505,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -12552,10 +12519,10 @@
       <c r="C3" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="41" t="s">
         <v>790</v>
       </c>
     </row>
@@ -12566,26 +12533,26 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="48"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="43" t="s">
         <v>791</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -12594,10 +12561,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="41"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -12606,10 +12573,10 @@
       <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="35"/>
+      <c r="E8" s="50"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
@@ -12618,10 +12585,10 @@
       <c r="C9" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="E9" s="35"/>
+      <c r="E9" s="50"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
@@ -12630,10 +12597,10 @@
       <c r="C10" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="E10" s="35"/>
+      <c r="E10" s="50"/>
     </row>
     <row r="11" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
@@ -12642,10 +12609,10 @@
       <c r="C11" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="51" t="s">
         <v>613</v>
       </c>
-      <c r="E11" s="35"/>
+      <c r="E11" s="50"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
@@ -12654,10 +12621,10 @@
       <c r="C12" s="8" t="s">
         <v>858</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="49" t="s">
         <v>792</v>
       </c>
-      <c r="E12" s="35"/>
+      <c r="E12" s="50"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
@@ -12666,10 +12633,10 @@
       <c r="C13" s="8" t="s">
         <v>878</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="49" t="s">
         <v>859</v>
       </c>
-      <c r="E13" s="35"/>
+      <c r="E13" s="50"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="7">
@@ -12678,10 +12645,10 @@
       <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="49" t="s">
         <v>879</v>
       </c>
-      <c r="E14" s="35"/>
+      <c r="E14" s="50"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
@@ -12690,10 +12657,10 @@
       <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="49" t="s">
         <v>914</v>
       </c>
-      <c r="E15" s="35"/>
+      <c r="E15" s="50"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="7">
@@ -12702,10 +12669,10 @@
       <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="49" t="s">
         <v>1039</v>
       </c>
-      <c r="E16" s="35"/>
+      <c r="E16" s="50"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="7">
@@ -12714,10 +12681,10 @@
       <c r="C17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="49" t="s">
         <v>1090</v>
       </c>
-      <c r="E17" s="35"/>
+      <c r="E17" s="50"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="7">
@@ -12726,10 +12693,10 @@
       <c r="C18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="49" t="s">
         <v>1134</v>
       </c>
-      <c r="E18" s="35"/>
+      <c r="E18" s="50"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="7">
@@ -12738,81 +12705,85 @@
       <c r="C19" s="8" t="s">
         <v>1271</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="49" t="s">
         <v>1272</v>
       </c>
-      <c r="E19" s="35"/>
+      <c r="E19" s="50"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="50"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="50"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="35"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="50"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="35"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="50"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="37"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -12825,16 +12796,12 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -14178,7 +14145,7 @@
   <dimension ref="A1:Z258"/>
   <sheetViews>
     <sheetView topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="N231" sqref="N231"/>
+      <selection activeCell="X233" sqref="X233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15355,9 +15322,214 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:L9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>7</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f>D5+E$2</f>
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:L5" si="0">E5+F$2</f>
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>E5+E2</f>
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <f>F5+F2</f>
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="G6:L6" si="1">G5+G2</f>
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
@@ -16453,7 +16625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z233"/>
   <sheetViews>
@@ -17354,7 +17526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z237"/>
   <sheetViews>
@@ -18115,7 +18287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z239"/>
   <sheetViews>
@@ -19877,6 +20049,9 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B38:B43"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B14"/>
@@ -19885,9 +20060,6 @@
     <mergeCell ref="B31:B37"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B21:B27"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B38:B43"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/策划案/Java/IOT项目/IOT物联网平台.xlsx
+++ b/策划案/Java/IOT项目/IOT物联网平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="11"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
@@ -18,11 +18,10 @@
     <sheet name="Sheet1" sheetId="84" state="hidden" r:id="rId9"/>
     <sheet name="群组页面" sheetId="80" r:id="rId10"/>
     <sheet name="规则模块" sheetId="87" r:id="rId11"/>
-    <sheet name="Sheet2" sheetId="95" r:id="rId12"/>
-    <sheet name="主题" sheetId="89" r:id="rId13"/>
-    <sheet name="告警定义" sheetId="94" r:id="rId14"/>
-    <sheet name="后台管理模块" sheetId="93" r:id="rId15"/>
-    <sheet name="部门系统" sheetId="92" state="hidden" r:id="rId16"/>
+    <sheet name="主题" sheetId="89" r:id="rId12"/>
+    <sheet name="告警定义" sheetId="94" r:id="rId13"/>
+    <sheet name="后台管理模块" sheetId="93" r:id="rId14"/>
+    <sheet name="部门系统" sheetId="92" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="1330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="1331">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -2192,10 +2191,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>群组操作&amp;群组概览</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>c</t>
     </r>
@@ -2349,39 +2344,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>规则</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -7956,7 +7919,35 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>z/K</t>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承规则</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示从父级节点继承的规则。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠标移上规则，弹框提示该规则在哪个群组绑定。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组操作&amp;群组概览</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -9851,44 +9842,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>312653</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>37257</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="476250" y="11734800"/>
-          <a:ext cx="13371428" cy="6742857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>95</xdr:row>
@@ -9908,7 +9861,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9946,7 +9899,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9984,7 +9937,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10022,7 +9975,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10031,6 +9984,44 @@
         <a:xfrm>
           <a:off x="485775" y="25622250"/>
           <a:ext cx="13390476" cy="6771428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>769896</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>113477</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="11763375"/>
+          <a:ext cx="13028571" cy="6580952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11530,13 +11521,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>655613</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>103930</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11612,13 +11603,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>580369</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>113898</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11649,14 +11640,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>285062</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:colOff>399362</xdr:colOff>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>209158</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11674,7 +11665,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8315325" y="20964525"/>
+          <a:off x="8429625" y="20964525"/>
           <a:ext cx="5504762" cy="3133333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11688,13 +11679,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>160272</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>208659</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11724,20 +11715,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>807964</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>84836</xdr:rowOff>
+      <xdr:colOff>379397</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>104017</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11750,8 +11741,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="209550" y="8896350"/>
-          <a:ext cx="13285714" cy="7114286"/>
+          <a:off x="247650" y="8915400"/>
+          <a:ext cx="12819047" cy="6066667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11765,17 +11756,17 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>314181</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>123781</xdr:rowOff>
+      <xdr:rowOff>114256</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPr id="11" name="图片 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11788,7 +11779,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1676400" y="8991600"/>
+          <a:off x="1676400" y="8982075"/>
           <a:ext cx="1152381" cy="352381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12523,7 +12514,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12541,7 +12532,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D5" s="44"/>
       <c r="E5" s="45"/>
@@ -12610,7 +12601,7 @@
         <v>202</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E11" s="50"/>
     </row>
@@ -12619,10 +12610,10 @@
         <v>43966</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="E12" s="50"/>
     </row>
@@ -12631,10 +12622,10 @@
         <v>43976</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="E13" s="50"/>
     </row>
@@ -12646,7 +12637,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E14" s="50"/>
     </row>
@@ -12658,7 +12649,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="E15" s="50"/>
     </row>
@@ -12670,7 +12661,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="E16" s="50"/>
     </row>
@@ -12682,7 +12673,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E17" s="50"/>
     </row>
@@ -12694,7 +12685,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="E18" s="50"/>
     </row>
@@ -12703,10 +12694,10 @@
         <v>44036</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="D19" s="49" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="E19" s="50"/>
     </row>
@@ -12827,10 +12818,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z247"/>
+  <dimension ref="A1:Z250"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W105" sqref="W105"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="U56" sqref="U56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13082,10 +13073,10 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C39" s="19" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
@@ -13093,7 +13084,7 @@
         <v>368</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>380</v>
+        <v>1330</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -13156,7 +13147,7 @@
         <v>237</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D78" s="27"/>
       <c r="E78" s="27"/>
@@ -13195,37 +13186,37 @@
         <v>366</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="81" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C81" s="19"/>
       <c r="D81" s="19" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="82" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C82" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="D82" s="19" t="s">
         <v>381</v>
-      </c>
-      <c r="D82" s="19" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="83" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C83" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="D83" s="19" t="s">
         <v>385</v>
-      </c>
-      <c r="D83" s="19" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="84" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B84" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="C84" s="26" t="s">
         <v>387</v>
-      </c>
-      <c r="C84" s="26" t="s">
-        <v>388</v>
       </c>
       <c r="D84" s="27"/>
       <c r="E84" s="27"/>
@@ -13253,882 +13244,903 @@
     </row>
     <row r="85" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C85" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="D85" s="19" t="s">
         <v>389</v>
-      </c>
-      <c r="D85" s="19" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="86" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C86" s="19"/>
       <c r="D86" s="19" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="87" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C87" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="D87" s="19" t="s">
         <v>391</v>
-      </c>
-      <c r="D87" s="19" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="88" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D88" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="E88" s="19" t="s">
         <v>393</v>
-      </c>
-      <c r="E88" s="19" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="89" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D89" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="E89" s="19" t="s">
         <v>395</v>
-      </c>
-      <c r="E89" s="19" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="90" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D90" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="E90" s="19" t="s">
         <v>397</v>
-      </c>
-      <c r="E90" s="19" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="91" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C91" s="19" t="s">
-        <v>399</v>
+        <v>1326</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>400</v>
-      </c>
+        <v>1327</v>
+      </c>
+      <c r="E91" s="19"/>
     </row>
     <row r="92" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D92" s="19" t="s">
-        <v>437</v>
-      </c>
+        <v>1328</v>
+      </c>
+      <c r="E92" s="19"/>
     </row>
     <row r="93" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C93" s="19" t="s">
-        <v>401</v>
-      </c>
       <c r="D93" s="19" t="s">
-        <v>402</v>
-      </c>
+        <v>1329</v>
+      </c>
+      <c r="E93" s="19"/>
     </row>
     <row r="94" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C94" s="19" t="s">
+        <v>425</v>
+      </c>
       <c r="D94" s="19" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="95" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D95" s="19" t="s">
-        <v>404</v>
+        <v>434</v>
       </c>
     </row>
     <row r="96" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B96" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="C96" s="26" t="s">
-        <v>439</v>
-      </c>
-      <c r="D96" s="26"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="27"/>
-      <c r="J96" s="27"/>
-      <c r="K96" s="27"/>
-      <c r="L96" s="27"/>
-      <c r="M96" s="27"/>
-      <c r="N96" s="27"/>
-      <c r="O96" s="27"/>
-      <c r="P96" s="27"/>
-      <c r="Q96" s="27"/>
-      <c r="R96" s="27"/>
-      <c r="S96" s="27"/>
-      <c r="T96" s="27"/>
-      <c r="U96" s="27"/>
-      <c r="V96" s="27"/>
-      <c r="W96" s="27"/>
-      <c r="X96" s="27"/>
-      <c r="Y96" s="27"/>
-      <c r="Z96" s="27"/>
+      <c r="C96" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="97" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C97" s="19" t="s">
-        <v>440</v>
-      </c>
       <c r="D97" s="19" t="s">
-        <v>441</v>
+        <v>400</v>
       </c>
     </row>
     <row r="98" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D98" s="19" t="s">
-        <v>442</v>
+        <v>401</v>
       </c>
     </row>
     <row r="99" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C99" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="D99" s="19" t="s">
-        <v>443</v>
-      </c>
+      <c r="B99" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="C99" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="D99" s="26"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="27"/>
+      <c r="J99" s="27"/>
+      <c r="K99" s="27"/>
+      <c r="L99" s="27"/>
+      <c r="M99" s="27"/>
+      <c r="N99" s="27"/>
+      <c r="O99" s="27"/>
+      <c r="P99" s="27"/>
+      <c r="Q99" s="27"/>
+      <c r="R99" s="27"/>
+      <c r="S99" s="27"/>
+      <c r="T99" s="27"/>
+      <c r="U99" s="27"/>
+      <c r="V99" s="27"/>
+      <c r="W99" s="27"/>
+      <c r="X99" s="27"/>
+      <c r="Y99" s="27"/>
+      <c r="Z99" s="27"/>
     </row>
     <row r="100" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C100" s="19" t="s">
+        <v>437</v>
+      </c>
       <c r="D100" s="19" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="101" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B101" s="25" t="s">
-        <v>445</v>
-      </c>
-      <c r="C101" s="26" t="s">
-        <v>446</v>
-      </c>
-      <c r="D101" s="26"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="27"/>
-      <c r="I101" s="27"/>
-      <c r="J101" s="27"/>
-      <c r="K101" s="27"/>
-      <c r="L101" s="27"/>
-      <c r="M101" s="27"/>
-      <c r="N101" s="27"/>
-      <c r="O101" s="27"/>
-      <c r="P101" s="27"/>
-      <c r="Q101" s="27"/>
-      <c r="R101" s="27"/>
-      <c r="S101" s="27"/>
-      <c r="T101" s="27"/>
-      <c r="U101" s="27"/>
-      <c r="V101" s="27"/>
-      <c r="W101" s="27"/>
-      <c r="X101" s="27"/>
-      <c r="Y101" s="27"/>
-      <c r="Z101" s="27"/>
+      <c r="D101" s="19" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="102" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C102" s="19" t="s">
-        <v>447</v>
+        <v>409</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="103" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D103" s="19" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="104" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C104" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="D104" s="19" t="s">
-        <v>450</v>
-      </c>
+      <c r="B104" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="C104" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="D104" s="26"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="27"/>
+      <c r="J104" s="27"/>
+      <c r="K104" s="27"/>
+      <c r="L104" s="27"/>
+      <c r="M104" s="27"/>
+      <c r="N104" s="27"/>
+      <c r="O104" s="27"/>
+      <c r="P104" s="27"/>
+      <c r="Q104" s="27"/>
+      <c r="R104" s="27"/>
+      <c r="S104" s="27"/>
+      <c r="T104" s="27"/>
+      <c r="U104" s="27"/>
+      <c r="V104" s="27"/>
+      <c r="W104" s="27"/>
+      <c r="X104" s="27"/>
+      <c r="Y104" s="27"/>
+      <c r="Z104" s="27"/>
     </row>
     <row r="105" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C105" s="19"/>
+      <c r="C105" s="19" t="s">
+        <v>444</v>
+      </c>
       <c r="D105" s="19" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="106" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C106" s="19"/>
       <c r="D106" s="19" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="107" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C107" s="19" t="s">
-        <v>453</v>
+        <v>376</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="108" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C108" s="19"/>
       <c r="D108" s="19" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="109" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C109" s="19" t="s">
-        <v>456</v>
-      </c>
+      <c r="C109" s="19"/>
       <c r="D109" s="19" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="110" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C110" s="19"/>
+      <c r="C110" s="19" t="s">
+        <v>450</v>
+      </c>
       <c r="D110" s="19" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="111" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C111" s="19"/>
       <c r="D111" s="19" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="112" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C112" s="19" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C113" s="19"/>
       <c r="D113" s="19" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C114" s="19"/>
       <c r="D114" s="19" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D115" s="19"/>
+      <c r="C115" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="D115" s="19" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A116" s="17" t="s">
+      <c r="C116" s="19"/>
+      <c r="D116" s="19" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C117" s="19"/>
+      <c r="D117" s="19" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D118" s="19"/>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A119" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="B116" s="17" t="s">
+      <c r="B119" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="13"/>
+      <c r="J119" s="13"/>
+      <c r="K119" s="13"/>
+      <c r="L119" s="13"/>
+      <c r="M119" s="13"/>
+      <c r="N119" s="13"/>
+      <c r="O119" s="13"/>
+      <c r="P119" s="13"/>
+      <c r="Q119" s="13"/>
+      <c r="R119" s="13"/>
+      <c r="S119" s="13"/>
+      <c r="T119" s="13"/>
+      <c r="U119" s="13"/>
+      <c r="V119" s="13"/>
+      <c r="W119" s="13"/>
+      <c r="X119" s="13"/>
+      <c r="Y119" s="13"/>
+      <c r="Z119" s="13"/>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B120" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="C120" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="D120" s="27"/>
+      <c r="E120" s="27"/>
+      <c r="F120" s="27"/>
+      <c r="G120" s="27"/>
+      <c r="H120" s="27"/>
+      <c r="I120" s="27"/>
+      <c r="J120" s="27"/>
+      <c r="K120" s="27"/>
+      <c r="L120" s="27"/>
+      <c r="M120" s="27"/>
+      <c r="N120" s="27"/>
+      <c r="O120" s="27"/>
+      <c r="P120" s="27"/>
+      <c r="Q120" s="27"/>
+      <c r="R120" s="27"/>
+      <c r="S120" s="27"/>
+      <c r="T120" s="27"/>
+      <c r="U120" s="27"/>
+      <c r="V120" s="27"/>
+      <c r="W120" s="27"/>
+      <c r="X120" s="27"/>
+      <c r="Y120" s="27"/>
+      <c r="Z120" s="27"/>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B132" s="18"/>
+      <c r="C132" s="19"/>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B138" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13"/>
-      <c r="I116" s="13"/>
-      <c r="J116" s="13"/>
-      <c r="K116" s="13"/>
-      <c r="L116" s="13"/>
-      <c r="M116" s="13"/>
-      <c r="N116" s="13"/>
-      <c r="O116" s="13"/>
-      <c r="P116" s="13"/>
-      <c r="Q116" s="13"/>
-      <c r="R116" s="13"/>
-      <c r="S116" s="13"/>
-      <c r="T116" s="13"/>
-      <c r="U116" s="13"/>
-      <c r="V116" s="13"/>
-      <c r="W116" s="13"/>
-      <c r="X116" s="13"/>
-      <c r="Y116" s="13"/>
-      <c r="Z116" s="13"/>
-    </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B117" s="25" t="s">
+      <c r="C138" s="26" t="s">
         <v>406</v>
       </c>
-      <c r="C117" s="26" t="s">
+      <c r="D138" s="27"/>
+      <c r="E138" s="27"/>
+      <c r="F138" s="27"/>
+      <c r="G138" s="27"/>
+      <c r="H138" s="27"/>
+      <c r="I138" s="27"/>
+      <c r="J138" s="27"/>
+      <c r="K138" s="27"/>
+      <c r="L138" s="27"/>
+      <c r="M138" s="27"/>
+      <c r="N138" s="27"/>
+      <c r="O138" s="27"/>
+      <c r="P138" s="27"/>
+      <c r="Q138" s="27"/>
+      <c r="R138" s="27"/>
+      <c r="S138" s="27"/>
+      <c r="T138" s="27"/>
+      <c r="U138" s="27"/>
+      <c r="V138" s="27"/>
+      <c r="W138" s="27"/>
+      <c r="X138" s="27"/>
+      <c r="Y138" s="27"/>
+      <c r="Z138" s="27"/>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C139" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="D139" s="19" t="s">
         <v>407</v>
-      </c>
-      <c r="D117" s="27"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="27"/>
-      <c r="G117" s="27"/>
-      <c r="H117" s="27"/>
-      <c r="I117" s="27"/>
-      <c r="J117" s="27"/>
-      <c r="K117" s="27"/>
-      <c r="L117" s="27"/>
-      <c r="M117" s="27"/>
-      <c r="N117" s="27"/>
-      <c r="O117" s="27"/>
-      <c r="P117" s="27"/>
-      <c r="Q117" s="27"/>
-      <c r="R117" s="27"/>
-      <c r="S117" s="27"/>
-      <c r="T117" s="27"/>
-      <c r="U117" s="27"/>
-      <c r="V117" s="27"/>
-      <c r="W117" s="27"/>
-      <c r="X117" s="27"/>
-      <c r="Y117" s="27"/>
-      <c r="Z117" s="27"/>
-    </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B129" s="18"/>
-      <c r="C129" s="19"/>
-    </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B135" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="C135" s="26" t="s">
-        <v>409</v>
-      </c>
-      <c r="D135" s="27"/>
-      <c r="E135" s="27"/>
-      <c r="F135" s="27"/>
-      <c r="G135" s="27"/>
-      <c r="H135" s="27"/>
-      <c r="I135" s="27"/>
-      <c r="J135" s="27"/>
-      <c r="K135" s="27"/>
-      <c r="L135" s="27"/>
-      <c r="M135" s="27"/>
-      <c r="N135" s="27"/>
-      <c r="O135" s="27"/>
-      <c r="P135" s="27"/>
-      <c r="Q135" s="27"/>
-      <c r="R135" s="27"/>
-      <c r="S135" s="27"/>
-      <c r="T135" s="27"/>
-      <c r="U135" s="27"/>
-      <c r="V135" s="27"/>
-      <c r="W135" s="27"/>
-      <c r="X135" s="27"/>
-      <c r="Y135" s="27"/>
-      <c r="Z135" s="27"/>
-    </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C136" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="D136" s="19" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D137" s="19" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C138" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="D138" s="19" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D139" s="19" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D140" s="19" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C141" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="D141" s="19" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D142" s="19" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="143" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D143" s="19" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A144" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="B144" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="C144" s="13"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="13"/>
+      <c r="I144" s="13"/>
+      <c r="J144" s="13"/>
+      <c r="K144" s="13"/>
+      <c r="L144" s="13"/>
+      <c r="M144" s="13"/>
+      <c r="N144" s="13"/>
+      <c r="O144" s="13"/>
+      <c r="P144" s="13"/>
+      <c r="Q144" s="13"/>
+      <c r="R144" s="13"/>
+      <c r="S144" s="13"/>
+      <c r="T144" s="13"/>
+      <c r="U144" s="13"/>
+      <c r="V144" s="13"/>
+      <c r="W144" s="13"/>
+      <c r="X144" s="13"/>
+      <c r="Y144" s="13"/>
+      <c r="Z144" s="13"/>
+    </row>
+    <row r="145" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B145" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="C145" s="26" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A141" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="B141" s="17" t="s">
+      <c r="D145" s="27"/>
+      <c r="E145" s="27"/>
+      <c r="F145" s="27"/>
+      <c r="G145" s="27"/>
+      <c r="H145" s="27"/>
+      <c r="I145" s="27"/>
+      <c r="J145" s="27"/>
+      <c r="K145" s="27"/>
+      <c r="L145" s="27"/>
+      <c r="M145" s="27"/>
+      <c r="N145" s="27"/>
+      <c r="O145" s="27"/>
+      <c r="P145" s="27"/>
+      <c r="Q145" s="27"/>
+      <c r="R145" s="27"/>
+      <c r="S145" s="27"/>
+      <c r="T145" s="27"/>
+      <c r="U145" s="27"/>
+      <c r="V145" s="27"/>
+      <c r="W145" s="27"/>
+      <c r="X145" s="27"/>
+      <c r="Y145" s="27"/>
+      <c r="Z145" s="27"/>
+    </row>
+    <row r="151" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B151" s="18"/>
+      <c r="C151" s="19"/>
+    </row>
+    <row r="180" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B180" s="25" t="s">
         <v>417</v>
       </c>
-      <c r="C141" s="13"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="13"/>
-      <c r="F141" s="13"/>
-      <c r="G141" s="13"/>
-      <c r="H141" s="13"/>
-      <c r="I141" s="13"/>
-      <c r="J141" s="13"/>
-      <c r="K141" s="13"/>
-      <c r="L141" s="13"/>
-      <c r="M141" s="13"/>
-      <c r="N141" s="13"/>
-      <c r="O141" s="13"/>
-      <c r="P141" s="13"/>
-      <c r="Q141" s="13"/>
-      <c r="R141" s="13"/>
-      <c r="S141" s="13"/>
-      <c r="T141" s="13"/>
-      <c r="U141" s="13"/>
-      <c r="V141" s="13"/>
-      <c r="W141" s="13"/>
-      <c r="X141" s="13"/>
-      <c r="Y141" s="13"/>
-      <c r="Z141" s="13"/>
-    </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B142" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="C142" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="D142" s="27"/>
-      <c r="E142" s="27"/>
-      <c r="F142" s="27"/>
-      <c r="G142" s="27"/>
-      <c r="H142" s="27"/>
-      <c r="I142" s="27"/>
-      <c r="J142" s="27"/>
-      <c r="K142" s="27"/>
-      <c r="L142" s="27"/>
-      <c r="M142" s="27"/>
-      <c r="N142" s="27"/>
-      <c r="O142" s="27"/>
-      <c r="P142" s="27"/>
-      <c r="Q142" s="27"/>
-      <c r="R142" s="27"/>
-      <c r="S142" s="27"/>
-      <c r="T142" s="27"/>
-      <c r="U142" s="27"/>
-      <c r="V142" s="27"/>
-      <c r="W142" s="27"/>
-      <c r="X142" s="27"/>
-      <c r="Y142" s="27"/>
-      <c r="Z142" s="27"/>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B148" s="18"/>
-      <c r="C148" s="19"/>
-    </row>
-    <row r="177" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B177" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="C177" s="26" t="s">
+      <c r="C180" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="D177" s="27"/>
-      <c r="E177" s="27"/>
-      <c r="F177" s="27"/>
-      <c r="G177" s="27"/>
-      <c r="H177" s="27"/>
-      <c r="I177" s="27"/>
-      <c r="J177" s="27"/>
-      <c r="K177" s="27"/>
-      <c r="L177" s="27"/>
-      <c r="M177" s="27"/>
-      <c r="N177" s="27"/>
-      <c r="O177" s="27"/>
-      <c r="P177" s="27"/>
-      <c r="Q177" s="27"/>
-      <c r="R177" s="27"/>
-      <c r="S177" s="27"/>
-      <c r="T177" s="27"/>
-      <c r="U177" s="27"/>
-      <c r="V177" s="27"/>
-      <c r="W177" s="27"/>
-      <c r="X177" s="27"/>
-      <c r="Y177" s="27"/>
-      <c r="Z177" s="27"/>
-    </row>
-    <row r="178" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C178" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D178" s="19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="179" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C179" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D179" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="180" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C180" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D180" s="19" t="s">
-        <v>105</v>
-      </c>
+      <c r="D180" s="27"/>
+      <c r="E180" s="27"/>
+      <c r="F180" s="27"/>
+      <c r="G180" s="27"/>
+      <c r="H180" s="27"/>
+      <c r="I180" s="27"/>
+      <c r="J180" s="27"/>
+      <c r="K180" s="27"/>
+      <c r="L180" s="27"/>
+      <c r="M180" s="27"/>
+      <c r="N180" s="27"/>
+      <c r="O180" s="27"/>
+      <c r="P180" s="27"/>
+      <c r="Q180" s="27"/>
+      <c r="R180" s="27"/>
+      <c r="S180" s="27"/>
+      <c r="T180" s="27"/>
+      <c r="U180" s="27"/>
+      <c r="V180" s="27"/>
+      <c r="W180" s="27"/>
+      <c r="X180" s="27"/>
+      <c r="Y180" s="27"/>
+      <c r="Z180" s="27"/>
     </row>
     <row r="181" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C181" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D181" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="182" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C182" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D182" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="183" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C183" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D183" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="184" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C184" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D181" s="19" t="s">
+      <c r="D184" s="19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="182" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D182" s="19" t="s">
+    <row r="185" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D185" s="19" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="183" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D183" s="19" t="s">
+    <row r="186" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D186" s="19" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="184" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="E184" s="19" t="s">
+    <row r="187" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E187" s="19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="185" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B185" s="25" t="s">
+    <row r="188" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B188" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="C188" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D188" s="27"/>
+      <c r="E188" s="27"/>
+      <c r="F188" s="27"/>
+      <c r="G188" s="27"/>
+      <c r="H188" s="27"/>
+      <c r="I188" s="27"/>
+      <c r="J188" s="27"/>
+      <c r="K188" s="27"/>
+      <c r="L188" s="27"/>
+      <c r="M188" s="27"/>
+      <c r="N188" s="27"/>
+      <c r="O188" s="27"/>
+      <c r="P188" s="27"/>
+      <c r="Q188" s="27"/>
+      <c r="R188" s="27"/>
+      <c r="S188" s="27"/>
+      <c r="T188" s="27"/>
+      <c r="U188" s="27"/>
+      <c r="V188" s="27"/>
+      <c r="W188" s="27"/>
+      <c r="X188" s="27"/>
+      <c r="Y188" s="27"/>
+      <c r="Z188" s="27"/>
+    </row>
+    <row r="189" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C189" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="190" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B190" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="C190" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D190" s="27"/>
+      <c r="E190" s="27"/>
+      <c r="F190" s="27"/>
+      <c r="G190" s="27"/>
+      <c r="H190" s="27"/>
+      <c r="I190" s="27"/>
+      <c r="J190" s="27"/>
+      <c r="K190" s="27"/>
+      <c r="L190" s="27"/>
+      <c r="M190" s="27"/>
+      <c r="N190" s="27"/>
+      <c r="O190" s="27"/>
+      <c r="P190" s="27"/>
+      <c r="Q190" s="27"/>
+      <c r="R190" s="27"/>
+      <c r="S190" s="27"/>
+      <c r="T190" s="27"/>
+      <c r="U190" s="27"/>
+      <c r="V190" s="27"/>
+      <c r="W190" s="27"/>
+      <c r="X190" s="27"/>
+      <c r="Y190" s="27"/>
+      <c r="Z190" s="27"/>
+    </row>
+    <row r="191" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C191" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="192" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B192" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="C192" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D192" s="27"/>
+      <c r="E192" s="27"/>
+      <c r="F192" s="27"/>
+      <c r="G192" s="27"/>
+      <c r="H192" s="27"/>
+      <c r="I192" s="27"/>
+      <c r="J192" s="27"/>
+      <c r="K192" s="27"/>
+      <c r="L192" s="27"/>
+      <c r="M192" s="27"/>
+      <c r="N192" s="27"/>
+      <c r="O192" s="27"/>
+      <c r="P192" s="27"/>
+      <c r="Q192" s="27"/>
+      <c r="R192" s="27"/>
+      <c r="S192" s="27"/>
+      <c r="T192" s="27"/>
+      <c r="U192" s="27"/>
+      <c r="V192" s="27"/>
+      <c r="W192" s="27"/>
+      <c r="X192" s="27"/>
+      <c r="Y192" s="27"/>
+      <c r="Z192" s="27"/>
+    </row>
+    <row r="193" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C193" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="194" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C194" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="196" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A196" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="B196" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C196" s="13"/>
+      <c r="D196" s="13"/>
+      <c r="E196" s="13"/>
+      <c r="F196" s="13"/>
+      <c r="G196" s="13"/>
+      <c r="H196" s="13"/>
+      <c r="I196" s="13"/>
+      <c r="J196" s="13"/>
+      <c r="K196" s="13"/>
+      <c r="L196" s="13"/>
+      <c r="M196" s="13"/>
+      <c r="N196" s="13"/>
+      <c r="O196" s="13"/>
+      <c r="P196" s="13"/>
+      <c r="Q196" s="13"/>
+      <c r="R196" s="13"/>
+      <c r="S196" s="13"/>
+      <c r="T196" s="13"/>
+      <c r="U196" s="13"/>
+      <c r="V196" s="13"/>
+      <c r="W196" s="13"/>
+      <c r="X196" s="13"/>
+      <c r="Y196" s="13"/>
+      <c r="Z196" s="13"/>
+    </row>
+    <row r="197" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B197" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="C197" s="26" t="s">
         <v>421</v>
       </c>
-      <c r="C185" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="D185" s="27"/>
-      <c r="E185" s="27"/>
-      <c r="F185" s="27"/>
-      <c r="G185" s="27"/>
-      <c r="H185" s="27"/>
-      <c r="I185" s="27"/>
-      <c r="J185" s="27"/>
-      <c r="K185" s="27"/>
-      <c r="L185" s="27"/>
-      <c r="M185" s="27"/>
-      <c r="N185" s="27"/>
-      <c r="O185" s="27"/>
-      <c r="P185" s="27"/>
-      <c r="Q185" s="27"/>
-      <c r="R185" s="27"/>
-      <c r="S185" s="27"/>
-      <c r="T185" s="27"/>
-      <c r="U185" s="27"/>
-      <c r="V185" s="27"/>
-      <c r="W185" s="27"/>
-      <c r="X185" s="27"/>
-      <c r="Y185" s="27"/>
-      <c r="Z185" s="27"/>
-    </row>
-    <row r="186" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C186" s="19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="187" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B187" s="25" t="s">
+      <c r="D197" s="27"/>
+      <c r="E197" s="27"/>
+      <c r="F197" s="27"/>
+      <c r="G197" s="27"/>
+      <c r="H197" s="27"/>
+      <c r="I197" s="27"/>
+      <c r="J197" s="27"/>
+      <c r="K197" s="27"/>
+      <c r="L197" s="27"/>
+      <c r="M197" s="27"/>
+      <c r="N197" s="27"/>
+      <c r="O197" s="27"/>
+      <c r="P197" s="27"/>
+      <c r="Q197" s="27"/>
+      <c r="R197" s="27"/>
+      <c r="S197" s="27"/>
+      <c r="T197" s="27"/>
+      <c r="U197" s="27"/>
+      <c r="V197" s="27"/>
+      <c r="W197" s="27"/>
+      <c r="X197" s="27"/>
+      <c r="Y197" s="27"/>
+      <c r="Z197" s="27"/>
+    </row>
+    <row r="231" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B231" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="C231" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="D231" s="27"/>
+      <c r="E231" s="27"/>
+      <c r="F231" s="27"/>
+      <c r="G231" s="27"/>
+      <c r="H231" s="27"/>
+      <c r="I231" s="27"/>
+      <c r="J231" s="27"/>
+      <c r="K231" s="27"/>
+      <c r="L231" s="27"/>
+      <c r="M231" s="27"/>
+      <c r="N231" s="27"/>
+      <c r="O231" s="27"/>
+      <c r="P231" s="27"/>
+      <c r="Q231" s="27"/>
+      <c r="R231" s="27"/>
+      <c r="S231" s="27"/>
+      <c r="T231" s="27"/>
+      <c r="U231" s="27"/>
+      <c r="V231" s="27"/>
+      <c r="W231" s="27"/>
+      <c r="X231" s="27"/>
+      <c r="Y231" s="27"/>
+      <c r="Z231" s="27"/>
+    </row>
+    <row r="232" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B232" s="18"/>
+      <c r="C232" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="D232" s="19" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="233" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D233" s="19" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="234" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C234" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="D234" s="19" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="235" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C235" s="19"/>
+      <c r="D235" s="19" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="236" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B236" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="C236" s="26" t="s">
         <v>422</v>
       </c>
-      <c r="C187" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D187" s="27"/>
-      <c r="E187" s="27"/>
-      <c r="F187" s="27"/>
-      <c r="G187" s="27"/>
-      <c r="H187" s="27"/>
-      <c r="I187" s="27"/>
-      <c r="J187" s="27"/>
-      <c r="K187" s="27"/>
-      <c r="L187" s="27"/>
-      <c r="M187" s="27"/>
-      <c r="N187" s="27"/>
-      <c r="O187" s="27"/>
-      <c r="P187" s="27"/>
-      <c r="Q187" s="27"/>
-      <c r="R187" s="27"/>
-      <c r="S187" s="27"/>
-      <c r="T187" s="27"/>
-      <c r="U187" s="27"/>
-      <c r="V187" s="27"/>
-      <c r="W187" s="27"/>
-      <c r="X187" s="27"/>
-      <c r="Y187" s="27"/>
-      <c r="Z187" s="27"/>
-    </row>
-    <row r="188" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C188" s="19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="189" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B189" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="C189" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D189" s="27"/>
-      <c r="E189" s="27"/>
-      <c r="F189" s="27"/>
-      <c r="G189" s="27"/>
-      <c r="H189" s="27"/>
-      <c r="I189" s="27"/>
-      <c r="J189" s="27"/>
-      <c r="K189" s="27"/>
-      <c r="L189" s="27"/>
-      <c r="M189" s="27"/>
-      <c r="N189" s="27"/>
-      <c r="O189" s="27"/>
-      <c r="P189" s="27"/>
-      <c r="Q189" s="27"/>
-      <c r="R189" s="27"/>
-      <c r="S189" s="27"/>
-      <c r="T189" s="27"/>
-      <c r="U189" s="27"/>
-      <c r="V189" s="27"/>
-      <c r="W189" s="27"/>
-      <c r="X189" s="27"/>
-      <c r="Y189" s="27"/>
-      <c r="Z189" s="27"/>
-    </row>
-    <row r="190" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C190" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="191" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C191" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A193" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="B193" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C193" s="13"/>
-      <c r="D193" s="13"/>
-      <c r="E193" s="13"/>
-      <c r="F193" s="13"/>
-      <c r="G193" s="13"/>
-      <c r="H193" s="13"/>
-      <c r="I193" s="13"/>
-      <c r="J193" s="13"/>
-      <c r="K193" s="13"/>
-      <c r="L193" s="13"/>
-      <c r="M193" s="13"/>
-      <c r="N193" s="13"/>
-      <c r="O193" s="13"/>
-      <c r="P193" s="13"/>
-      <c r="Q193" s="13"/>
-      <c r="R193" s="13"/>
-      <c r="S193" s="13"/>
-      <c r="T193" s="13"/>
-      <c r="U193" s="13"/>
-      <c r="V193" s="13"/>
-      <c r="W193" s="13"/>
-      <c r="X193" s="13"/>
-      <c r="Y193" s="13"/>
-      <c r="Z193" s="13"/>
-    </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B194" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="C194" s="26" t="s">
-        <v>424</v>
-      </c>
-      <c r="D194" s="27"/>
-      <c r="E194" s="27"/>
-      <c r="F194" s="27"/>
-      <c r="G194" s="27"/>
-      <c r="H194" s="27"/>
-      <c r="I194" s="27"/>
-      <c r="J194" s="27"/>
-      <c r="K194" s="27"/>
-      <c r="L194" s="27"/>
-      <c r="M194" s="27"/>
-      <c r="N194" s="27"/>
-      <c r="O194" s="27"/>
-      <c r="P194" s="27"/>
-      <c r="Q194" s="27"/>
-      <c r="R194" s="27"/>
-      <c r="S194" s="27"/>
-      <c r="T194" s="27"/>
-      <c r="U194" s="27"/>
-      <c r="V194" s="27"/>
-      <c r="W194" s="27"/>
-      <c r="X194" s="27"/>
-      <c r="Y194" s="27"/>
-      <c r="Z194" s="27"/>
-    </row>
-    <row r="228" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B228" s="25" t="s">
-        <v>419</v>
-      </c>
-      <c r="C228" s="26" t="s">
-        <v>431</v>
-      </c>
-      <c r="D228" s="27"/>
-      <c r="E228" s="27"/>
-      <c r="F228" s="27"/>
-      <c r="G228" s="27"/>
-      <c r="H228" s="27"/>
-      <c r="I228" s="27"/>
-      <c r="J228" s="27"/>
-      <c r="K228" s="27"/>
-      <c r="L228" s="27"/>
-      <c r="M228" s="27"/>
-      <c r="N228" s="27"/>
-      <c r="O228" s="27"/>
-      <c r="P228" s="27"/>
-      <c r="Q228" s="27"/>
-      <c r="R228" s="27"/>
-      <c r="S228" s="27"/>
-      <c r="T228" s="27"/>
-      <c r="U228" s="27"/>
-      <c r="V228" s="27"/>
-      <c r="W228" s="27"/>
-      <c r="X228" s="27"/>
-      <c r="Y228" s="27"/>
-      <c r="Z228" s="27"/>
-    </row>
-    <row r="229" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B229" s="18"/>
-      <c r="C229" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="D229" s="19" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="230" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D230" s="19" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="231" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C231" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="D231" s="19" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="232" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C232" s="19"/>
-      <c r="D232" s="19" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="233" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B233" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="C233" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="D233" s="27"/>
-      <c r="E233" s="27"/>
-      <c r="F233" s="27"/>
-      <c r="G233" s="27"/>
-      <c r="H233" s="27"/>
-      <c r="I233" s="27"/>
-      <c r="J233" s="27"/>
-      <c r="K233" s="27"/>
-      <c r="L233" s="27"/>
-      <c r="M233" s="27"/>
-      <c r="N233" s="27"/>
-      <c r="O233" s="27"/>
-      <c r="P233" s="27"/>
-      <c r="Q233" s="27"/>
-      <c r="R233" s="27"/>
-      <c r="S233" s="27"/>
-      <c r="T233" s="27"/>
-      <c r="U233" s="27"/>
-      <c r="V233" s="27"/>
-      <c r="W233" s="27"/>
-      <c r="X233" s="27"/>
-      <c r="Y233" s="27"/>
-      <c r="Z233" s="27"/>
-    </row>
-    <row r="234" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C234" s="18" t="s">
+      <c r="D236" s="27"/>
+      <c r="E236" s="27"/>
+      <c r="F236" s="27"/>
+      <c r="G236" s="27"/>
+      <c r="H236" s="27"/>
+      <c r="I236" s="27"/>
+      <c r="J236" s="27"/>
+      <c r="K236" s="27"/>
+      <c r="L236" s="27"/>
+      <c r="M236" s="27"/>
+      <c r="N236" s="27"/>
+      <c r="O236" s="27"/>
+      <c r="P236" s="27"/>
+      <c r="Q236" s="27"/>
+      <c r="R236" s="27"/>
+      <c r="S236" s="27"/>
+      <c r="T236" s="27"/>
+      <c r="U236" s="27"/>
+      <c r="V236" s="27"/>
+      <c r="W236" s="27"/>
+      <c r="X236" s="27"/>
+      <c r="Y236" s="27"/>
+      <c r="Z236" s="27"/>
+    </row>
+    <row r="237" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C237" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="D234" s="19" t="s">
+      <c r="D237" s="19" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="235" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D235" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="236" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C236" s="18" t="s">
-        <v>426</v>
-      </c>
-      <c r="D236" s="19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="237" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C237" s="18"/>
-      <c r="D237" s="19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="238" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D238" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="239" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C239" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="D239" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="240" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C240" s="18"/>
+      <c r="D240" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="241" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D241" s="19" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="239" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D239" s="19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="240" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D240" s="19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="241" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C241" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="D241" s="19" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="242" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D242" s="19" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="243" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D243" s="19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="244" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C244" s="18" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D244" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="245" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D245" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="246" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D246" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="247" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C247" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="D247" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="248" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D248" s="19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="246" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C246" s="18" t="s">
-        <v>429</v>
-      </c>
-      <c r="D246" s="19" t="s">
+    <row r="249" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C249" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="D249" s="19" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="247" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D247" s="19" t="s">
+    <row r="250" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D250" s="19" t="s">
         <v>128</v>
       </c>
     </row>
@@ -14144,8 +14156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z258"/>
   <sheetViews>
-    <sheetView topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="X233" sqref="X233"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14157,10 +14169,10 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -14192,7 +14204,7 @@
         <v>230</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -14220,20 +14232,20 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C3" s="19" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C4" s="19" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -14262,13 +14274,13 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
       <c r="C7" s="19" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
@@ -14276,134 +14288,134 @@
         <v>91</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C9" s="19"/>
       <c r="D9" s="19" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E10" s="19" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D11" s="19" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D12" s="19"/>
       <c r="E12" s="19" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C13" s="19" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D14" s="19" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E15" s="19" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D16" s="19" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E17" s="19" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C18" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>476</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D19" s="19" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E20" s="19" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E21" s="19" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D22" s="19" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E23" s="19" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C24" s="19" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D25" s="19" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D26" s="19" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D27" s="19" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E27" s="19"/>
     </row>
@@ -14413,7 +14425,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>228</v>
@@ -14445,25 +14457,25 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B30" s="19" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B31" s="19" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B32" s="19" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -14492,64 +14504,64 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" s="18" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C58" s="19" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C59" s="19" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="18" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C61" s="19" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="18" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C63" s="19" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C64" s="19" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" s="17" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B66" s="17" t="s">
         <v>248</v>
@@ -14581,10 +14593,10 @@
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99" s="17" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
@@ -14613,22 +14625,22 @@
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C113" s="19" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D114" s="19" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D115" s="19" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D116" s="19" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.3">
@@ -14636,7 +14648,7 @@
         <v>368</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C118" s="13"/>
       <c r="D118" s="13"/>
@@ -14665,10 +14677,10 @@
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B119" s="25" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C119" s="26" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D119" s="27"/>
       <c r="E119" s="27"/>
@@ -14696,10 +14708,10 @@
     </row>
     <row r="155" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B155" s="25" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C155" s="26" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D155" s="27"/>
       <c r="E155" s="27"/>
@@ -14727,190 +14739,190 @@
     </row>
     <row r="156" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C156" s="19" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D156" s="19" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="157" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D157" s="19" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F157" s="19" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="158" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D158" s="19" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F158" s="19" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="159" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D159" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F159" s="19" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="160" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C160" s="19" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D160" s="19" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="161" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D161" s="19" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F161" s="19" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="162" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D162" s="19" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F162" s="19" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C163" s="19" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D163" s="19" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="164" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D164" s="19" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F164" s="19" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E165" s="19" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E166" s="19" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E167" s="19" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="168" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D168" s="19" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F168" s="19" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="169" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E169" s="19" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="170" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E170" s="19" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="171" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D171" s="19" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E171" s="19" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="172" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D172" s="19" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E172" s="19" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="173" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C173" s="19" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D173" s="19" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="174" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D174" s="19" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F174" s="19" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="175" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D175" s="19" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F175" s="19" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C176" s="19" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D176" s="19" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="177" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D177" s="19" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E177" s="19" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="178" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D178" s="19"/>
       <c r="E178" s="19" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="179" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D179" s="19" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E179" s="19" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="180" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E180" s="19" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="182" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B182" s="25" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C182" s="26" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D182" s="27"/>
       <c r="E182" s="27"/>
@@ -14938,61 +14950,61 @@
     </row>
     <row r="183" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C183" s="19" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D183" s="19" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="184" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D184" s="19" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="185" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D185" s="19" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="186" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C186" s="19" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D186" s="19" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="187" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D187" s="19" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="188" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C188" s="19" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D188" s="19" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="189" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D189" s="19" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E189" s="19" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="190" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C190" s="19"/>
       <c r="E190" s="19" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="191" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C191" s="19"/>
       <c r="E191" s="19" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="192" spans="2:26" x14ac:dyDescent="0.3">
@@ -15019,58 +15031,58 @@
       <c r="C197" s="19"/>
       <c r="E197" s="19"/>
       <c r="F197" s="19" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="198" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C198" s="19"/>
       <c r="E198" s="19"/>
       <c r="F198" s="19" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="199" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D199" s="19" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E199" s="19" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="200" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E200" s="19" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="201" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E201" s="19" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="202" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F202" s="19" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="203" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E203" s="19" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="204" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F204" s="19" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="205" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E205" s="19" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="206" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E206" s="19"/>
       <c r="F206" s="19" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="207" spans="3:6" x14ac:dyDescent="0.3">
@@ -15090,115 +15102,115 @@
     </row>
     <row r="212" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F212" s="19" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="213" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F213" s="19" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="214" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F214" s="19" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="215" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F215" s="19" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="216" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F216" s="19" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="217" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F217" s="19" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H217" s="19" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="218" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D218" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="E218" s="19" t="s">
         <v>586</v>
-      </c>
-      <c r="E218" s="19" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="219" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E219" s="19" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="220" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D220" s="19" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E220" s="19" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="221" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E221" s="19" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="222" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E222" s="19" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="223" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E223" s="19" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="224" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D224" s="19" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E224" s="19" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="225" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E225" s="19" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="226" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C226" s="19" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D226" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="227" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D227" s="19" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="228" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C228" s="19" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D228" s="19" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="229" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D229" s="19" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="230" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D230" s="19" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="231" spans="3:6" x14ac:dyDescent="0.3">
@@ -15209,107 +15221,107 @@
     </row>
     <row r="233" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E233" s="19" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="234" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F234" s="19" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="235" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E235" s="19" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="236" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F236" s="19" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="237" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E237" s="19" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="238" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F238" s="12" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="239" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D239" s="12" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="243" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E243" s="12" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="244" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F244" s="12" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="245" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E245" s="12" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="246" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F246" s="19" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="247" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F247" s="19" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="248" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F248" s="19" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="249" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F249" s="19" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="250" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D250" s="19" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="253" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E253" s="19" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="254" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F254" s="19" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="255" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E255" s="19" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="256" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F256" s="19" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="257" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E257" s="19" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="258" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F258" s="19" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
     </row>
   </sheetData>
@@ -15322,214 +15334,9 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:L9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>6</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>6</v>
-      </c>
-      <c r="K4">
-        <v>7</v>
-      </c>
-      <c r="L4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f>D5+E$2</f>
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ref="F5:L5" si="0">E5+F$2</f>
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <f>E5+E2</f>
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <f>F5+F2</f>
-        <v>6</v>
-      </c>
-      <c r="H6">
-        <f t="shared" ref="G6:L6" si="1">G5+G2</f>
-        <v>14</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z342"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
@@ -15542,10 +15349,10 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -15574,12 +15381,12 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -15587,10 +15394,10 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -15619,10 +15426,10 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -15651,10 +15458,10 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B35" s="25" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
@@ -15682,133 +15489,133 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C36" s="19" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C72" s="19" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D73" s="19" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E74" s="19" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D75" s="19" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E76" s="19" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D77" s="19" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D78" s="19" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="79" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D79" s="19"/>
       <c r="E79" s="19" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="80" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D80" s="19"/>
       <c r="E80" s="19" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="81" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D81" s="19" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="82" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E82" s="19" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="83" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D83" s="19" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="84" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D84" s="19"/>
       <c r="E84" s="19" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="85" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D85" s="19" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="86" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D86" s="19"/>
       <c r="E86" s="19" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="87" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D87" s="19"/>
       <c r="E87" s="19" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="88" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D88" s="19"/>
       <c r="E88" s="19" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="89" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B89" s="25" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D89" s="27"/>
       <c r="E89" s="27"/>
@@ -15836,75 +15643,75 @@
     </row>
     <row r="90" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C90" s="19" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="102" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C102" s="19" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="103" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D103" s="19" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E103" s="19" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="104" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D104" s="19"/>
       <c r="E104" s="12" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="105" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D105" s="19" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="106" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D106" s="19"/>
       <c r="E106" s="19" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="107" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C107" s="19" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E107" s="19"/>
     </row>
     <row r="108" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D108" s="19" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E108" s="19"/>
     </row>
     <row r="109" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D109" s="19" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E109" s="19"/>
     </row>
     <row r="110" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B110" s="25" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C110" s="26" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D110" s="27"/>
       <c r="E110" s="27"/>
@@ -15932,71 +15739,71 @@
     </row>
     <row r="111" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C111" s="19" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="133" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C133" s="19" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="134" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C134" s="19"/>
       <c r="D134" s="19" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="135" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C135" s="19"/>
       <c r="D135" s="19" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="136" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C136" s="19"/>
       <c r="D136" s="19"/>
       <c r="E136" s="19" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="137" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C137" s="19"/>
       <c r="D137" s="19" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="138" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C138" s="19" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="139" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C139" s="19"/>
       <c r="D139" s="19" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="140" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C140" s="19"/>
       <c r="D140" s="19" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="141" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B141" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D141" s="27"/>
       <c r="E141" s="27"/>
@@ -16024,186 +15831,186 @@
     </row>
     <row r="142" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C142" s="19" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D142" s="19" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="162" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C162" s="19" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D162" s="19" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D163" s="19" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E163" s="19" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="164" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D164" s="19"/>
       <c r="E164" s="19" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D165" s="19" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E165" s="19" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E166" s="19" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D167" s="19" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E167" s="19" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="168" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E168" s="19" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="169" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D169" s="19" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E169" s="19" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="170" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E170" s="19" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="171" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E171" s="19" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="172" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F172" s="29" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="173" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F173" s="29" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="174" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F174" s="29" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="175" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F175" s="29" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E176" s="19" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F177" s="29" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F178" s="29" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F179" s="29" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E180" s="19" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F181" s="29" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F182" s="30" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F183" s="30" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F184" s="29" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C185" s="19" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D185" s="19" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E185" s="19"/>
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D186" s="19" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="187" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D187" s="19" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C188" s="19" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="D188" s="19" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D189" s="31" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D190" s="19" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A192" s="17" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B192" s="17" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C192" s="13"/>
       <c r="D192" s="13"/>
@@ -16232,297 +16039,297 @@
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B193" s="18" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C193" s="19" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C194" s="19" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D194" s="19" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="230" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C230" s="19" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D230" s="19" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="231" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C231" s="19"/>
       <c r="D231" s="19" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E231" s="19" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="232" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C232" s="19"/>
       <c r="D232" s="19"/>
       <c r="E232" s="19" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="233" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D233" s="19" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="E233" s="19" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="234" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E234" s="19" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="235" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D235" s="19" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E235" s="19" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="236" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E236" s="19" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="237" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C237" s="19" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D237" s="19" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="238" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D238" s="19" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E238" s="19" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="239" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E239" s="19" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="240" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D240" s="19" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E240" s="19" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="241" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E241" s="19" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="242" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E242" s="19" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="243" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E243" s="19" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="244" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E244" s="19" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="245" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D245" s="19" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E245" s="19" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="246" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E246" s="19" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="247" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E247" s="19" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="248" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E248" s="19"/>
       <c r="F248" s="12" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="249" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E249" s="19" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="250" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E250" s="19"/>
       <c r="F250" s="12" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="251" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E251" s="19" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="252" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F252" s="19" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="253" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D253" s="19" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E253" s="19" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="254" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E254" s="19" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="255" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E255" s="19" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="256" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F256" s="19" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="257" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E257" s="19" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F258" s="19" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E259" s="19" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F260" s="19" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="261" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E261" s="19" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="262" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F262" s="19" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E263" s="19" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="264" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F264" s="19" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E265" s="19" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F266" s="19" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E267" s="19" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F268" s="19" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G269" s="19" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="270" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F270" s="19" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="271" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G271" s="19" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="272" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B272" s="18" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C272" s="19" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="273" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C273" s="19" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D273" s="19" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="293" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C293" s="19" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D293" s="19" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="294" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D294" s="19" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="296" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A296" s="17" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B296" s="17" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C296" s="13"/>
       <c r="D296" s="13"/>
@@ -16551,66 +16358,66 @@
     </row>
     <row r="297" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B297" s="19" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C297" s="19" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B333" s="19" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C333" s="19" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C334" s="19" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D335" s="19" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C336" s="19" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="337" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D337" s="19" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="338" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B338" s="19" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C338" s="19" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="339" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D339" s="19" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="340" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D340" s="19" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="341" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D341" s="19" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="342" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E342" s="19" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
   </sheetData>
@@ -16625,7 +16432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z233"/>
   <sheetViews>
@@ -16674,18 +16481,18 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -16722,17 +16529,17 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7" s="19" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
@@ -16740,7 +16547,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -16780,69 +16587,69 @@
         <v>237</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D45" s="19" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="46" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46" s="19" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D47" s="19" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D48" s="19" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D49" s="19" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D50" s="19" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D51" s="19"/>
       <c r="E51" s="19" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D52" s="19"/>
       <c r="E52" s="19" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C53" s="18" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="E53" s="19"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D54" s="19" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="E54" s="19"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D55" s="19" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="E55" s="19"/>
     </row>
@@ -16855,7 +16662,7 @@
         <v>81</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -16982,101 +16789,101 @@
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91" s="18" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C92" s="19" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D93" s="19" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C94" s="19" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D95" s="19" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C96" s="19" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D97" s="19" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C98" s="19" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C99" s="19"/>
       <c r="D99" s="19" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C100" s="19"/>
       <c r="D100" s="19" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C101" s="19"/>
       <c r="E101" s="19" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C102" s="19"/>
       <c r="D102" s="19" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C103" s="19"/>
       <c r="D103" s="19"/>
       <c r="E103" s="19" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C104" s="19"/>
       <c r="D104" s="19"/>
       <c r="E104" s="19" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C105" s="19"/>
       <c r="D105" s="19" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="E105" s="19"/>
     </row>
@@ -17084,13 +16891,13 @@
       <c r="C106" s="19"/>
       <c r="D106" s="19"/>
       <c r="E106" s="19" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C107" s="19"/>
       <c r="D107" s="19" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="E107" s="19"/>
     </row>
@@ -17098,120 +16905,120 @@
       <c r="C108" s="19"/>
       <c r="D108" s="19"/>
       <c r="E108" s="19" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B109" s="18" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="D109" s="19"/>
       <c r="E109" s="19"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C110" s="19" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="D110" s="19"/>
       <c r="E110" s="19"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C111" s="19" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="E111" s="19"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C112" s="19"/>
       <c r="D112" s="19" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="E112" s="19"/>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C113" s="19"/>
       <c r="D113" s="19" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="E113" s="19"/>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C114" s="19"/>
       <c r="D114" s="19" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="E114" s="19"/>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C115" s="19"/>
       <c r="D115" s="19" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="E115" s="19"/>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C116" s="19"/>
       <c r="D116" s="19" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="E116" s="19"/>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C117" s="19" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="E117" s="19"/>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C118" s="19"/>
       <c r="D118" s="19" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="E118" s="19"/>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C119" s="19"/>
       <c r="D119" s="19" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="E119" s="19"/>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B120" s="18" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="D120" s="19"/>
       <c r="E120" s="19"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C121" s="19" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="D121" s="19"/>
       <c r="E121" s="19"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C122" s="19" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="D122" s="19"/>
       <c r="E122" s="19"/>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C123" s="19" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D123" s="19"/>
       <c r="E123" s="19"/>
@@ -17236,7 +17043,7 @@
         <v>84</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
@@ -17273,125 +17080,125 @@
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B166" s="18" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C167" s="19" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="D167" s="19" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D168" s="19" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C169" s="19" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="D169" s="19" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C170" s="19"/>
       <c r="D170" s="19" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B171" s="18" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B172" s="18"/>
       <c r="C172" s="19" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B173" s="18"/>
       <c r="C173" s="19" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="D173" s="19" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B174" s="18"/>
       <c r="C174" s="19"/>
       <c r="D174" s="19" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D175" s="19" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C176" s="19" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="D176" s="19" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C177" s="19"/>
       <c r="D177" s="19" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="E177" s="19" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D178" s="19" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="E178" s="19" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D179" s="19" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="E179" s="19" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C180" s="19" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="D180" s="19" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="E180" s="19"/>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D181" s="19" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="E181" s="19"/>
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D182" s="19" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="E182" s="19"/>
     </row>
@@ -17404,7 +17211,7 @@
         <v>368</v>
       </c>
       <c r="B185" s="17" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C185" s="13"/>
       <c r="D185" s="13"/>
@@ -17433,28 +17240,28 @@
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B186" s="18" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B220" s="18" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="C220" s="19" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C221" s="19" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C222" s="19" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.3">
@@ -17462,60 +17269,60 @@
         <v>308</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C224" s="19" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B225" s="18" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C225" s="19" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C226" s="19" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C227" s="19" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C228" s="19" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C229" s="19" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C230" s="19" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C231" s="19" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C232" s="19" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C233" s="19" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
     </row>
   </sheetData>
@@ -17526,12 +17333,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z237"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17577,20 +17384,20 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -17619,114 +17426,114 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
       <c r="C7" s="19" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C8" s="19" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C9" s="19" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C11" s="19" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C12" s="19" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C13" s="19" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C14" s="19" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C17" s="19" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C18" s="19"/>
       <c r="D18" s="19" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C19" s="19" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C20" s="19"/>
       <c r="D20" s="19" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C21" s="19" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C22" s="19"/>
       <c r="D22" s="19" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
@@ -17734,7 +17541,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -17779,129 +17586,129 @@
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C60" s="19" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C61" s="19" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C62" s="19" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" s="18" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C64" s="19" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C65" s="19" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C66" s="18" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C67" s="19"/>
       <c r="D67" s="19" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C68" s="19" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C69" s="19"/>
       <c r="D69" s="19" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C70" s="19" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C71" s="19"/>
       <c r="D71" s="19" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D72" s="19" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73" s="18" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="D73" s="19"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C74" s="19" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="D74" s="19"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C75" s="19" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="D75" s="19"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76" s="18" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C76" s="19" t="s">
         <v>1123</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>1126</v>
       </c>
       <c r="D76" s="19"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C77" s="19" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="D77" s="19"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C78" s="19" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="D78" s="19"/>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C79" s="19" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="D79" s="19"/>
     </row>
@@ -17910,7 +17717,7 @@
         <v>18</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
@@ -17950,48 +17757,48 @@
         <v>237</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C118" s="19" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B119" s="18" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C120" s="19" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B121" s="18" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C122" s="19" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C123" s="19" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C124" s="19" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.3">
@@ -17999,10 +17806,10 @@
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A126" s="33" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
@@ -18031,10 +17838,10 @@
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B127" s="18" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.3">
@@ -18090,66 +17897,66 @@
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B162" s="18" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C163" s="19" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C164" s="19" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C165" s="19" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B166" s="18" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C167" s="19" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C168" s="19" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C169" s="19" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B170" s="18" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C171" s="19" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C172" s="19" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.3">
@@ -18163,10 +17970,10 @@
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A178" s="33" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="B178" s="17" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="C178" s="13"/>
       <c r="D178" s="13"/>
@@ -18211,69 +18018,69 @@
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C214" s="19" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B215" s="18" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="C215" s="19" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C216" s="19" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B217" s="18" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C218" s="19" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C219" s="19" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B220" s="18" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="C220" s="19" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C221" s="19" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C222" s="19" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B223" s="18" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C224" s="19" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="237" spans="8:8" x14ac:dyDescent="0.3">
@@ -18287,12 +18094,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z239"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X76" sqref="X76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18339,7 +18146,7 @@
         <v>86</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -18379,7 +18186,7 @@
         <v>18</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -18408,138 +18215,138 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B37" s="18" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C38" s="19" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C39" s="19" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C41" s="19" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C42" s="19" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B43" s="18" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C44" s="19" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C45" s="19" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
+        <v>948</v>
+      </c>
+      <c r="C46" s="19" t="s">
         <v>951</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C47" s="19" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C48" s="19" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B49" s="18" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C50" s="19" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C51" s="19" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C52" s="19" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C53" s="19" t="s">
+        <v>960</v>
+      </c>
+      <c r="D53" s="19" t="s">
         <v>963</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.3">
@@ -18547,7 +18354,7 @@
         <v>81</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -18576,115 +18383,115 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B56" s="18" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="18" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C91" s="19" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D92" s="19" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D93" s="19" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D94" s="19" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C95" s="19" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D96" s="19" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D97" s="19"/>
       <c r="E97" s="19" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D98" s="19"/>
       <c r="E98" s="19" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D99" s="19" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D100" s="19"/>
       <c r="E100" s="19" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D101" s="19"/>
       <c r="E101" s="19" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="102" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D102" s="19" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="103" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D103" s="19"/>
       <c r="E103" s="19" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="104" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D104" s="19"/>
       <c r="E104" s="19" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="105" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D105" s="19"/>
       <c r="E105" s="19" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="106" spans="4:5" x14ac:dyDescent="0.3">
@@ -18737,34 +18544,34 @@
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C122" s="19" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="123" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D123" s="19" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="E123" s="19" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D124" s="19" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="E124" s="19" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="125" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D125" s="19" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="E125" s="19" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="126" spans="3:5" x14ac:dyDescent="0.3">
@@ -18781,7 +18588,7 @@
         <v>84</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C131" s="13"/>
       <c r="D131" s="13"/>
@@ -18810,212 +18617,212 @@
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B132" s="18" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B166" s="18" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C167" s="19" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C168" s="19" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C169" s="19" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="D169" s="19" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C170" s="19"/>
       <c r="D170" s="19" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C171" s="19" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D172" s="19" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="E172" s="19" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E173" s="19" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E174" s="19" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D175" s="19" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="E175" s="19" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D176" s="19"/>
       <c r="E176" s="19" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="177" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E177" s="19" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="178" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E178" s="19" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="179" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D179" s="19" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E179" s="19" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="180" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E180" s="19" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="181" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E181" s="19" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="182" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E182" s="19" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="183" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D183" s="19" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="E183" s="19" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="184" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D184" s="19"/>
       <c r="E184" s="19" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="185" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E185" s="19" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="186" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E186" s="19" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="187" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C187" s="19" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="D187" s="19" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="188" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D188" s="19" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="E188" s="19" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="189" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D189" s="19" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="E189" s="19" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="190" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D190" s="19" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E190" s="19" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="191" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C191" s="19" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="D191" s="19" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="192" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D192" s="19" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="193" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D193" s="19" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="E193" s="19" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="194" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E194" s="19" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E195" s="19" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E196" s="19" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="197" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E197" s="19" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="203" spans="1:26" x14ac:dyDescent="0.3">
@@ -19023,7 +18830,7 @@
         <v>368</v>
       </c>
       <c r="B203" s="17" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C203" s="13"/>
       <c r="D203" s="13"/>
@@ -19052,10 +18859,10 @@
     </row>
     <row r="204" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B204" s="18" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.3">
@@ -19068,17 +18875,17 @@
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C237" s="19" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C238" s="19" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C239" s="19" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
   </sheetData>
@@ -20049,9 +19856,6 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B38:B43"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B14"/>
@@ -20060,6 +19864,9 @@
     <mergeCell ref="B31:B37"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B21:B27"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B38:B43"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20089,7 +19896,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -20118,7 +19925,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -20126,7 +19933,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -20158,7 +19965,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
@@ -20166,7 +19973,7 @@
         <v>237</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
@@ -20174,7 +19981,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -20206,7 +20013,7 @@
         <v>20</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
@@ -20222,7 +20029,7 @@
         <v>24</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
@@ -20230,7 +20037,7 @@
         <v>50</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
@@ -20238,7 +20045,7 @@
         <v>52</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
@@ -20246,7 +20053,7 @@
         <v>54</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
@@ -20254,12 +20061,12 @@
         <v>30</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D56" s="19" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
@@ -20270,7 +20077,7 @@
         <v>237</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
@@ -20278,25 +20085,25 @@
         <v>73</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C60" s="19" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D61" s="19" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D62" s="19" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.3">
@@ -20304,7 +20111,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
@@ -20336,17 +20143,17 @@
         <v>20</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C83" s="19" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C84" s="19" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
@@ -20354,7 +20161,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
@@ -20386,12 +20193,12 @@
         <v>20</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C88" s="12" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.3">
@@ -20399,7 +20206,7 @@
         <v>44</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.3">
@@ -20407,23 +20214,23 @@
         <v>69</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B91" s="18" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B92" s="18" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.3">
@@ -20431,7 +20238,7 @@
         <v>368</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
@@ -20463,7 +20270,7 @@
         <v>20</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.3">
@@ -20471,7 +20278,7 @@
         <v>44</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.3">
@@ -20479,7 +20286,7 @@
         <v>227</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
@@ -20511,7 +20318,7 @@
         <v>20</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
@@ -20519,7 +20326,7 @@
         <v>237</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.3">
@@ -20527,15 +20334,15 @@
         <v>69</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A125" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
@@ -20567,12 +20374,12 @@
         <v>20</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C127" s="19" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.3">
@@ -20580,12 +20387,12 @@
         <v>44</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C129" s="19" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
   </sheetData>
@@ -20616,7 +20423,7 @@
         <v>100</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -20645,7 +20452,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
@@ -20653,7 +20460,7 @@
         <v>217</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -20682,10 +20489,10 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -20714,46 +20521,46 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B36" s="18" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C37" s="19" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C39" s="19" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C41" s="19" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C42" s="19" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
@@ -20761,7 +20568,7 @@
         <v>226</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -20790,17 +20597,17 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B45" s="19" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B46" s="19" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B47" s="19" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.3">
@@ -20808,7 +20615,7 @@
         <v>84</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
@@ -20860,10 +20667,10 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -20892,20 +20699,20 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
+        <v>807</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>810</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>813</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -20942,67 +20749,67 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C43" s="19" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D44" s="19" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C45" s="19" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D46" s="19" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D47" s="19" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D48" s="19" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C49" s="19" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D50" s="19" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -21039,73 +20846,73 @@
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="18" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C91" s="19" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D92" s="19" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D93" s="19" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D94" s="19" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D95" s="19" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D96" s="19" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E97" s="19" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E98" s="19" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100" s="17" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
@@ -21134,10 +20941,10 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B101" s="18" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.3">
@@ -21145,20 +20952,20 @@
         <v>237</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C119" s="19" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D120" s="19" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.3">
@@ -21166,12 +20973,12 @@
         <v>257</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D122" s="19" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.3">
@@ -21179,12 +20986,12 @@
         <v>296</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D124" s="19" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.3">
@@ -21192,37 +20999,37 @@
         <v>97</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D126" s="19" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D127" s="19" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E128" s="19" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E129" s="19" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E130" s="19" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E131" s="19" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
   </sheetData>
@@ -21237,7 +21044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z307"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="C229" sqref="C229"/>
     </sheetView>
   </sheetViews>
@@ -21371,7 +21178,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D12" s="19"/>
     </row>
@@ -21681,73 +21488,73 @@
     </row>
     <row r="121" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D121" s="19" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="122" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D122" s="19" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="123" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D123" s="19"/>
       <c r="E123" s="19" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="124" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D124" s="19" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E124" s="19" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="125" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D125" s="19"/>
       <c r="E125" s="19" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="126" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D126" s="19"/>
       <c r="E126" s="19" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="127" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D127" s="19"/>
       <c r="E127" s="19" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="128" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D128" s="19"/>
       <c r="E128" s="19" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="129" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D129" s="19" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="E129" s="19" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="130" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D130" s="19"/>
       <c r="E130" s="19" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="131" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D131" s="19"/>
       <c r="E131" s="19" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="132" spans="4:5" x14ac:dyDescent="0.3">
@@ -21820,28 +21627,28 @@
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D149" s="19" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="E149" s="19" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D150" s="19"/>
       <c r="E150" s="19" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D151" s="19"/>
       <c r="E151" s="19" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D152" s="19"/>
       <c r="E152" s="19" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.3">
@@ -21966,7 +21773,7 @@
     </row>
     <row r="216" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D216" s="19" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="217" spans="2:26" x14ac:dyDescent="0.3">
@@ -21984,15 +21791,15 @@
     </row>
     <row r="219" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C219" s="19" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="D219" s="19" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="220" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D220" s="19" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="221" spans="2:26" x14ac:dyDescent="0.3">
@@ -22000,30 +21807,30 @@
     </row>
     <row r="222" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D222" s="19" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="224" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C224" s="19" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="D224" s="19" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="225" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D225" s="19" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="226" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D226" s="19" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="227" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D227" s="19" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="228" spans="2:26" x14ac:dyDescent="0.3">
@@ -22049,7 +21856,7 @@
         <v>308</v>
       </c>
       <c r="C234" s="26" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="D234" s="27"/>
       <c r="E234" s="27"/>
@@ -22077,41 +21884,41 @@
     </row>
     <row r="235" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C235" s="19" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="236" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C236" s="19" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="D236" s="19" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="237" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D237" s="19" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="238" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C238" s="19" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="D238" s="19" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="239" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D239" s="19" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="241" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B241" s="25" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C241" s="26" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D241" s="27"/>
       <c r="E241" s="27"/>
@@ -22153,7 +21960,7 @@
     <row r="244" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C244" s="19"/>
       <c r="D244" s="19" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="245" spans="2:26" x14ac:dyDescent="0.3">
@@ -22161,40 +21968,40 @@
         <v>257</v>
       </c>
       <c r="D245" s="19" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="246" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C246" s="19"/>
       <c r="D246" s="19" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="247" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C247" s="19"/>
       <c r="D247" s="19"/>
       <c r="E247" s="19" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="248" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C248" s="19"/>
       <c r="D248" s="19"/>
       <c r="E248" s="19" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="249" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C249" s="19"/>
       <c r="D249" s="19" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="250" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C250" s="19"/>
       <c r="D250" s="19"/>
       <c r="E250" s="19" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="251" spans="2:26" x14ac:dyDescent="0.3">
@@ -22207,22 +22014,22 @@
       <c r="C252" s="19"/>
       <c r="D252" s="19"/>
       <c r="E252" s="19" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="253" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C253" s="19" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D253" s="19" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E253" s="19"/>
     </row>
     <row r="254" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C254" s="19"/>
       <c r="D254" s="19" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="E254" s="19"/>
     </row>
@@ -22230,13 +22037,13 @@
       <c r="C255" s="19"/>
       <c r="D255" s="19"/>
       <c r="E255" s="19" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="256" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C256" s="19"/>
       <c r="D256" s="19" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="E256" s="19"/>
     </row>
@@ -22244,13 +22051,13 @@
       <c r="C257" s="19"/>
       <c r="D257" s="19"/>
       <c r="E257" s="19" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="258" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C258" s="19"/>
       <c r="D258" s="19" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="E258" s="19"/>
     </row>
@@ -22258,7 +22065,7 @@
       <c r="C259" s="19"/>
       <c r="D259" s="19"/>
       <c r="E259" s="19" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="260" spans="1:26" x14ac:dyDescent="0.3">
@@ -23160,8 +22967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z265"/>
   <sheetViews>
-    <sheetView topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="C262" sqref="C262:D265"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N269" sqref="N269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23272,7 +23079,7 @@
         <v>237</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="D61" s="27"/>
       <c r="E61" s="27"/>
@@ -23300,15 +23107,15 @@
     </row>
     <row r="62" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C62" s="19" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="63" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D63" s="19" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="64" spans="2:26" x14ac:dyDescent="0.3">
@@ -23390,16 +23197,16 @@
     </row>
     <row r="74" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C74" s="19" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="75" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C75" s="19"/>
       <c r="D75" s="19" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="76" spans="2:26" x14ac:dyDescent="0.3">
@@ -23407,10 +23214,10 @@
     </row>
     <row r="77" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B77" s="25" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="D77" s="27"/>
       <c r="E77" s="27"/>
@@ -23438,70 +23245,70 @@
     </row>
     <row r="78" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C78" s="19" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="79" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D79" s="19" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="80" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D80" s="19" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D81" s="19" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C82" s="19" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D83" s="19" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D84" s="19" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C85" s="19" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D86" s="19" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C87" s="19" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C88" s="19"/>
       <c r="D88" s="19" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.3">
@@ -23609,7 +23416,7 @@
     <row r="130" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C130" s="19"/>
       <c r="D130" s="19" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="131" spans="3:11" x14ac:dyDescent="0.3">
@@ -23695,7 +23502,7 @@
     </row>
     <row r="144" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D144" s="19" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.3">
@@ -23706,7 +23513,7 @@
         <v>308</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D146" s="27"/>
       <c r="E146" s="27"/>
@@ -23734,33 +23541,33 @@
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C147" s="19" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D148" s="19" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C149" s="19" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D149" s="19" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D150" s="19" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D151" s="19" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.3">
@@ -23989,7 +23796,7 @@
       </c>
       <c r="B222" s="13"/>
       <c r="C222" s="17" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="D222" s="13"/>
       <c r="E222" s="13"/>
@@ -24017,60 +23824,60 @@
     </row>
     <row r="223" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B223" s="18" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B259" s="18" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="C259" s="19" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C260" s="19" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C261" s="19" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C262" s="19" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="D262" s="19" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C263" s="19" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="D263" s="19" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C264" s="19" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="D264" s="19" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="265" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C265" s="19" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D265" s="19" t="s">
         <v>1270</v>
-      </c>
-      <c r="D265" s="19" t="s">
-        <v>1273</v>
       </c>
     </row>
   </sheetData>

--- a/策划案/Java/IOT项目/IOT物联网平台.xlsx
+++ b/策划案/Java/IOT项目/IOT物联网平台.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="1331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="1351">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -6427,6 +6427,131 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>2.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以使用超级管理员系统，对平台账号进行管理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门管理员</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门管理员，可以创建修改群组和规则。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>倾向于对系统机制的研发调试，可以创建修改项目和产品，也可以创建和修改主题和订阅</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级角色拥有一起低级角色的权限。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作员</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以注册设备，删除设备，把设备加入群组，移除群组。向群组绑定规则。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级管理员可创建公司</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善后台管理模块</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色详情</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击详情或用户名链接</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转对应角色详情页面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户Id，用户名字，重置秘钥，角色，所属部门</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置秘钥操作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改操作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始状态，修改按钮为不可用状态，当用户修改了相关信息，修改按钮变为如图状态。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击撤销返回到部门成员列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -6440,11 +6565,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>部门权限</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限的管理以部门为单位，系统中的元素，诸如项目、设备、群组等，都关联到部门下。</t>
+    <t>原型图</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -6452,16 +6573,61 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>角色</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以使用超级管理员系统，对平台账号进行管理</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
+    <t>表单包含内容</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单包含角色名，角色Id和各模块的操作码。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作码：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个4位2进制数，以十六进制数字展示。从首位到末位分别表示增删改查，1表示授权，0表示不授权。比如可以增伤改查，那就是1*8+1*4+1*2+1=15，16进制表示为F。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开右上角的编辑模式，表中文字变成文本框。用户修改表单后，修改按钮变成可用状态。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击修改，保存数据，退出编辑模式。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击撤销，直接退出编辑模式。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击新增，弹出如图新增角色窗口。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>用户输入角色名后，点击确认，则新增一条数据色，初始各权限设置为0</t>
     </r>
     <r>
       <rPr>
@@ -6473,201 +6639,6 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门管理员</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门管理员，可以创建修改群组和规则。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>倾向于对系统机制的研发调试，可以创建修改项目和产品，也可以创建和修改主题和订阅</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级角色拥有一起低级角色的权限。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作员</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以注册设备，删除设备，把设备加入群组，移除群组。向群组绑定规则。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门的根结点是公司，由超级管理员创建。公司下有多个子部门。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级管理员可创建公司</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>完善后台管理模块</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色详情</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击详情或用户名链接</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转对应角色详情页面</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户Id，用户名字，重置秘钥，角色，所属部门</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>重置秘钥操作</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改操作</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始状态，修改按钮为不可用状态，当用户修改了相关信息，修改按钮变为如图状态。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击撤销返回到部门成员列表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>原型图</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>表单包含内容</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>表单包含角色名，角色Id和各模块的操作码。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作码：</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个4位2进制数，以十六进制数字展示。从首位到末位分别表示增删改查，1表示授权，0表示不授权。比如可以增伤改查，那就是1*8+1*4+1*2+1=15，16进制表示为F。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开右上角的编辑模式，表中文字变成文本框。用户修改表单后，修改按钮变成可用状态。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击修改，保存数据，退出编辑模式。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击撤销，直接退出编辑模式。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击新增，弹出如图新增角色窗口。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>用户输入角色名后，点击确认，则新增一条数据色，初始各权限设置为0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>各模块权限暂时按只能看到当前部门和当年部门子部门来做，日后发现有问题再做更改。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -7948,6 +7919,141 @@
   </si>
   <si>
     <t>群组操作&amp;群组概览</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门绑定的群组，各节点在单向图中不可相互到达（不可以同时添加某节点和某节点的子孙节点）。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门成员，可以查看和编辑其绑定的群组和其子孙群组</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备/设备群组</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果用户有部门，且部门不绑定任何群组，该部门下的用户无法看到任何群组和设备。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门可以与若干个群组相关联，这是看到群组和设备的先决条件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门成员，可以查看其绑定群组和子孙群组的设备。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果该成员的角色是运维人员，则允许绑定和解绑设备。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门用户，可以看到当前部门和其父级部门的项目。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品、规则、主题都是放在项目下，能看到项目，就能看到这些元素。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目下的元素——产品，规则，主题</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有系统管理员，才能编辑这些元素。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门管理员，可以编辑规则的条件值。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门Id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统中每个用户都有个部门Id，创建之初部门Id为0。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id为0，表示该用户是个人用户，只能访问到他创建的项目，产品，设备等信息。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id为-1，表示该用户是超级管理员，可以修改平台一切信息。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id为正整数，表示该用户是部门用户，系统中各元素的访问权限受所在部门约束。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -8577,6 +8683,24 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="9" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8621,24 +8745,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
@@ -9534,15 +9640,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>199450</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>113948</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>666175</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>190148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9559,7 +9665,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14049375" y="1066800"/>
+          <a:off x="13830300" y="8896350"/>
           <a:ext cx="4600000" cy="2819048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9572,15 +9678,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>180401</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>85373</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>647126</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>161573</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9597,7 +9703,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14039850" y="3971925"/>
+          <a:off x="13820775" y="11801475"/>
           <a:ext cx="4590476" cy="2819048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9611,13 +9717,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>217401</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>103927</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9649,51 +9755,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>284082</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>46781</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="476250" y="5238750"/>
-          <a:ext cx="13342857" cy="6752381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>341225</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>56305</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9704,7 +9772,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9725,18 +9793,56 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>312653</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>37257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="25774650"/>
+          <a:ext cx="13371428" cy="6742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>655606</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>132531</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9749,8 +9855,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="476250" y="25774650"/>
-          <a:ext cx="13371428" cy="6742857"/>
+          <a:off x="390525" y="8877300"/>
+          <a:ext cx="12952381" cy="6552381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10022,6 +10128,44 @@
         <a:xfrm>
           <a:off x="428625" y="11763375"/>
           <a:ext cx="13028571" cy="6580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>722277</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>84906</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="11763375"/>
+          <a:ext cx="12980952" cy="6552381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12496,12 +12640,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -12510,10 +12654,10 @@
       <c r="C3" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="47" t="s">
         <v>787</v>
       </c>
     </row>
@@ -12524,26 +12668,26 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="42"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="48"/>
     </row>
     <row r="5" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="49" t="s">
         <v>788</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="54"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -12552,10 +12696,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="35"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -12564,10 +12708,10 @@
       <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="50"/>
+      <c r="E8" s="35"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
@@ -12576,10 +12720,10 @@
       <c r="C9" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="E9" s="50"/>
+      <c r="E9" s="35"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
@@ -12588,10 +12732,10 @@
       <c r="C10" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="34" t="s">
         <v>358</v>
       </c>
-      <c r="E10" s="50"/>
+      <c r="E10" s="35"/>
     </row>
     <row r="11" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
@@ -12600,10 +12744,10 @@
       <c r="C11" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="39" t="s">
         <v>610</v>
       </c>
-      <c r="E11" s="50"/>
+      <c r="E11" s="35"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
@@ -12612,10 +12756,10 @@
       <c r="C12" s="8" t="s">
         <v>855</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="34" t="s">
         <v>789</v>
       </c>
-      <c r="E12" s="50"/>
+      <c r="E12" s="35"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
@@ -12624,10 +12768,10 @@
       <c r="C13" s="8" t="s">
         <v>875</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="34" t="s">
         <v>856</v>
       </c>
-      <c r="E13" s="50"/>
+      <c r="E13" s="35"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="7">
@@ -12636,10 +12780,10 @@
       <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="34" t="s">
         <v>876</v>
       </c>
-      <c r="E14" s="50"/>
+      <c r="E14" s="35"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
@@ -12648,10 +12792,10 @@
       <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="34" t="s">
         <v>911</v>
       </c>
-      <c r="E15" s="50"/>
+      <c r="E15" s="35"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="7">
@@ -12660,10 +12804,10 @@
       <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="34" t="s">
         <v>1036</v>
       </c>
-      <c r="E16" s="50"/>
+      <c r="E16" s="35"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="7">
@@ -12672,10 +12816,10 @@
       <c r="C17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="49" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E17" s="50"/>
+      <c r="D17" s="34" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E17" s="35"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="7">
@@ -12684,97 +12828,93 @@
       <c r="C18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="49" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E18" s="50"/>
+      <c r="D18" s="34" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E18" s="35"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="7">
         <v>44036</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>1268</v>
-      </c>
-      <c r="D19" s="49" t="s">
-        <v>1269</v>
-      </c>
-      <c r="E19" s="50"/>
+        <v>1263</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E19" s="35"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="50"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="50"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="50"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="37"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -12787,12 +12927,16 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -13073,10 +13217,10 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C39" s="19" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
@@ -13084,7 +13228,7 @@
         <v>368</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -13192,7 +13336,7 @@
     <row r="81" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C81" s="19"/>
       <c r="D81" s="19" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="82" spans="2:26" x14ac:dyDescent="0.3">
@@ -13253,7 +13397,7 @@
     <row r="86" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C86" s="19"/>
       <c r="D86" s="19" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="87" spans="2:26" x14ac:dyDescent="0.3">
@@ -13290,22 +13434,22 @@
     </row>
     <row r="91" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C91" s="19" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="E91" s="19"/>
     </row>
     <row r="92" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D92" s="19" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="E92" s="19"/>
     </row>
     <row r="93" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D93" s="19" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="E93" s="19"/>
     </row>
@@ -14543,20 +14687,20 @@
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="18" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C63" s="19" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C64" s="19" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.3">
@@ -14998,13 +15142,13 @@
     <row r="190" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C190" s="19"/>
       <c r="E190" s="19" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="191" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C191" s="19"/>
       <c r="E191" s="19" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="192" spans="2:26" x14ac:dyDescent="0.3">
@@ -15031,14 +15175,14 @@
       <c r="C197" s="19"/>
       <c r="E197" s="19"/>
       <c r="F197" s="19" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="198" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C198" s="19"/>
       <c r="E198" s="19"/>
       <c r="F198" s="19" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="199" spans="3:6" x14ac:dyDescent="0.3">
@@ -15205,7 +15349,7 @@
     </row>
     <row r="229" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D229" s="19" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="230" spans="3:6" x14ac:dyDescent="0.3">
@@ -15291,12 +15435,12 @@
     </row>
     <row r="250" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D250" s="19" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="253" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E253" s="19" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="254" spans="4:6" x14ac:dyDescent="0.3">
@@ -15306,22 +15450,22 @@
     </row>
     <row r="255" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E255" s="19" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="256" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F256" s="19" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="257" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E257" s="19" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="258" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F258" s="19" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
     </row>
   </sheetData>
@@ -15607,7 +15751,7 @@
     <row r="88" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D88" s="19"/>
       <c r="E88" s="19" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="89" spans="2:26" x14ac:dyDescent="0.3">
@@ -16481,18 +16625,18 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -16529,17 +16673,17 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7" s="19" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
@@ -16547,7 +16691,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -16587,69 +16731,69 @@
         <v>237</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D45" s="19" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="46" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46" s="19" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D47" s="19" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D48" s="19" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D49" s="19" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D50" s="19" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D51" s="19"/>
       <c r="E51" s="19" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D52" s="19"/>
       <c r="E52" s="19" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C53" s="18" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="E53" s="19"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D54" s="19" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
       <c r="E54" s="19"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D55" s="19" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
       <c r="E55" s="19"/>
     </row>
@@ -16662,7 +16806,7 @@
         <v>81</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -16789,101 +16933,101 @@
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91" s="18" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C92" s="19" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D93" s="19" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C94" s="19" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D95" s="19" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C96" s="19" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D97" s="19" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C98" s="19" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C99" s="19"/>
       <c r="D99" s="19" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C100" s="19"/>
       <c r="D100" s="19" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C101" s="19"/>
       <c r="E101" s="19" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C102" s="19"/>
       <c r="D102" s="19" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C103" s="19"/>
       <c r="D103" s="19"/>
       <c r="E103" s="19" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C104" s="19"/>
       <c r="D104" s="19"/>
       <c r="E104" s="19" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C105" s="19"/>
       <c r="D105" s="19" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="E105" s="19"/>
     </row>
@@ -16891,13 +17035,13 @@
       <c r="C106" s="19"/>
       <c r="D106" s="19"/>
       <c r="E106" s="19" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C107" s="19"/>
       <c r="D107" s="19" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="E107" s="19"/>
     </row>
@@ -16905,120 +17049,120 @@
       <c r="C108" s="19"/>
       <c r="D108" s="19"/>
       <c r="E108" s="19" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B109" s="18" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="D109" s="19"/>
       <c r="E109" s="19"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C110" s="19" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="D110" s="19"/>
       <c r="E110" s="19"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C111" s="19" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="E111" s="19"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C112" s="19"/>
       <c r="D112" s="19" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="E112" s="19"/>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C113" s="19"/>
       <c r="D113" s="19" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="E113" s="19"/>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C114" s="19"/>
       <c r="D114" s="19" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="E114" s="19"/>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C115" s="19"/>
       <c r="D115" s="19" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="E115" s="19"/>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C116" s="19"/>
       <c r="D116" s="19" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="E116" s="19"/>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C117" s="19" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="E117" s="19"/>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C118" s="19"/>
       <c r="D118" s="19" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="E118" s="19"/>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C119" s="19"/>
       <c r="D119" s="19" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="E119" s="19"/>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B120" s="18" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="D120" s="19"/>
       <c r="E120" s="19"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C121" s="19" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="D121" s="19"/>
       <c r="E121" s="19"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C122" s="19" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="D122" s="19"/>
       <c r="E122" s="19"/>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C123" s="19" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
       <c r="D123" s="19"/>
       <c r="E123" s="19"/>
@@ -17043,7 +17187,7 @@
         <v>84</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
@@ -17080,125 +17224,125 @@
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B166" s="18" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C167" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="D167" s="19" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D168" s="19" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C169" s="19" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="D169" s="19" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C170" s="19"/>
       <c r="D170" s="19" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B171" s="18" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B172" s="18"/>
       <c r="C172" s="19" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B173" s="18"/>
       <c r="C173" s="19" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="D173" s="19" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B174" s="18"/>
       <c r="C174" s="19"/>
       <c r="D174" s="19" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D175" s="19" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C176" s="19" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="D176" s="19" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C177" s="19"/>
       <c r="D177" s="19" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="E177" s="19" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D178" s="19" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="E178" s="19" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D179" s="19" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="E179" s="19" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C180" s="19" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="D180" s="19" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="E180" s="19"/>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D181" s="19" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="E181" s="19"/>
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D182" s="19" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="E182" s="19"/>
     </row>
@@ -17211,7 +17355,7 @@
         <v>368</v>
       </c>
       <c r="B185" s="17" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="C185" s="13"/>
       <c r="D185" s="13"/>
@@ -17240,28 +17384,28 @@
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B186" s="18" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B220" s="18" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="C220" s="19" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C221" s="19" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C222" s="19" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.3">
@@ -17269,12 +17413,12 @@
         <v>308</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C224" s="19" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.3">
@@ -17282,47 +17426,47 @@
         <v>419</v>
       </c>
       <c r="C225" s="19" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C226" s="19" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C227" s="19" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C228" s="19" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C229" s="19" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C230" s="19" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C231" s="19" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C232" s="19" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C233" s="19" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
     </row>
   </sheetData>
@@ -17335,10 +17479,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z237"/>
+  <dimension ref="A1:Z254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="V37" sqref="V37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17426,665 +17570,783 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
-        <v>1071</v>
+        <v>1345</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>1072</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
       <c r="C7" s="19" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B9" s="18"/>
+      <c r="C9" s="19" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B11" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D13" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D14" s="19" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C15" s="18" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D16" s="19" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D17" s="19" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D18" s="19" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D20" s="19" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="19" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="19" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D23" s="19" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D24" s="19" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D25" s="19"/>
+      <c r="E25" s="19" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="19"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="18" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D27" s="19"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="19" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C29" s="19" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C30" s="19" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C31" s="19" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C34" s="19" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C35" s="19"/>
+      <c r="D35" s="19" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C36" s="19" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C37" s="19"/>
+      <c r="D37" s="19" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C38" s="19" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C39" s="19"/>
+      <c r="D39" s="19" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="13"/>
+      <c r="Z41" s="13"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B42" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C77" s="19" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C78" s="19" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C79" s="19" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B80" s="18" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C81" s="19" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C82" s="19" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C83" s="18" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C84" s="19"/>
+      <c r="D84" s="19" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C85" s="19" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C86" s="19"/>
+      <c r="D86" s="19" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C87" s="19" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C88" s="19"/>
+      <c r="D88" s="19" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D89" s="19" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B90" s="18" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D90" s="19"/>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C91" s="19" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D91" s="19"/>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C92" s="19" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D92" s="19"/>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B93" s="18" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D93" s="19"/>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C94" s="19" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D94" s="19"/>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C95" s="19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D95" s="19"/>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C96" s="19" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D96" s="19"/>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A98" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="13"/>
+      <c r="M98" s="13"/>
+      <c r="N98" s="13"/>
+      <c r="O98" s="13"/>
+      <c r="P98" s="13"/>
+      <c r="Q98" s="13"/>
+      <c r="R98" s="13"/>
+      <c r="S98" s="13"/>
+      <c r="T98" s="13"/>
+      <c r="U98" s="13"/>
+      <c r="V98" s="13"/>
+      <c r="W98" s="13"/>
+      <c r="X98" s="13"/>
+      <c r="Y98" s="13"/>
+      <c r="Z98" s="13"/>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B99" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B134" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C134" s="19" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C135" s="19" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B136" s="18" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C136" s="19" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C137" s="19" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B138" s="18" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C138" s="19" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C139" s="19" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C140" s="19" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C141" s="19" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C142" s="19"/>
+    </row>
+    <row r="143" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A143" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="B143" s="17" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C8" s="19" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C9" s="19" t="s">
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="13"/>
+      <c r="G143" s="13"/>
+      <c r="H143" s="13"/>
+      <c r="I143" s="13"/>
+      <c r="J143" s="13"/>
+      <c r="K143" s="13"/>
+      <c r="L143" s="13"/>
+      <c r="M143" s="13"/>
+      <c r="N143" s="13"/>
+      <c r="O143" s="13"/>
+      <c r="P143" s="13"/>
+      <c r="Q143" s="13"/>
+      <c r="R143" s="13"/>
+      <c r="S143" s="13"/>
+      <c r="T143" s="13"/>
+      <c r="U143" s="13"/>
+      <c r="V143" s="13"/>
+      <c r="W143" s="13"/>
+      <c r="X143" s="13"/>
+      <c r="Y143" s="13"/>
+      <c r="Z143" s="13"/>
+    </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B144" s="18" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C144" s="19" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C146" s="19"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C148" s="19"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C150" s="19"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C152" s="19"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C154" s="19"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C156" s="19"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C158" s="19"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C160" s="19"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C162" s="19"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C164" s="19"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C166" s="19"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C168" s="19"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C170" s="19"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C172" s="19"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C174" s="19"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C176" s="19"/>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C178" s="19"/>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B179" s="18" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C179" s="19" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C180" s="19" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C181" s="19" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C182" s="19" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B183" s="18" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C183" s="19" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C184" s="19" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C185" s="19" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C186" s="19" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B187" s="18" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C187" s="19" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C188" s="19" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C189" s="19" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C190" s="19"/>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C192" s="19"/>
+    </row>
+    <row r="193" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C193" s="19"/>
+    </row>
+    <row r="195" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A195" s="33" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B195" s="17" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C195" s="13"/>
+      <c r="D195" s="13"/>
+      <c r="E195" s="13"/>
+      <c r="F195" s="13"/>
+      <c r="G195" s="13"/>
+      <c r="H195" s="13"/>
+      <c r="I195" s="13"/>
+      <c r="J195" s="13"/>
+      <c r="K195" s="13"/>
+      <c r="L195" s="13"/>
+      <c r="M195" s="13"/>
+      <c r="N195" s="13"/>
+      <c r="O195" s="13"/>
+      <c r="P195" s="13"/>
+      <c r="Q195" s="13"/>
+      <c r="R195" s="13"/>
+      <c r="S195" s="13"/>
+      <c r="T195" s="13"/>
+      <c r="U195" s="13"/>
+      <c r="V195" s="13"/>
+      <c r="W195" s="13"/>
+      <c r="X195" s="13"/>
+      <c r="Y195" s="13"/>
+      <c r="Z195" s="13"/>
+    </row>
+    <row r="196" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B196" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C196" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B230" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C230" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C231" s="19" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B232" s="18" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C232" s="19" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C233" s="19" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B234" s="18" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C234" s="19" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C235" s="19" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C236" s="19" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B237" s="18" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C237" s="19" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C238" s="19" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B10" s="18" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C11" s="19" t="s">
+    <row r="239" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C239" s="19" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C12" s="19" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C13" s="19" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C14" s="19" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C17" s="19" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C18" s="19"/>
-      <c r="D18" s="19" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C19" s="19" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C20" s="19"/>
-      <c r="D20" s="19" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C21" s="19" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C22" s="19"/>
-      <c r="D22" s="19" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B25" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B59" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C60" s="19" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C61" s="19" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C62" s="19" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B63" s="18" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C64" s="19" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C65" s="19" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C66" s="18" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C67" s="19"/>
-      <c r="D67" s="19" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C68" s="19" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C69" s="19"/>
-      <c r="D69" s="19" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C70" s="19" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C71" s="19"/>
-      <c r="D71" s="19" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D72" s="19" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="18" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D73" s="19"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C74" s="19" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D74" s="19"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C75" s="19" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D75" s="19"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B76" s="18" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D76" s="19"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C77" s="19" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D77" s="19"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C78" s="19" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D78" s="19"/>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C79" s="19" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D79" s="19"/>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A81" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="13"/>
-      <c r="O81" s="13"/>
-      <c r="P81" s="13"/>
-      <c r="Q81" s="13"/>
-      <c r="R81" s="13"/>
-      <c r="S81" s="13"/>
-      <c r="T81" s="13"/>
-      <c r="U81" s="13"/>
-      <c r="V81" s="13"/>
-      <c r="W81" s="13"/>
-      <c r="X81" s="13"/>
-      <c r="Y81" s="13"/>
-      <c r="Z81" s="13"/>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B82" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B117" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="C117" s="19" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C118" s="19" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B119" s="18" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C119" s="19" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C120" s="19" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B121" s="18" t="s">
+    <row r="240" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B240" s="18" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C240" s="19" t="s">
         <v>1116</v>
       </c>
-      <c r="C121" s="19" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C122" s="19" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C123" s="19" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C124" s="19" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C125" s="19"/>
-    </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A126" s="33" t="s">
-        <v>419</v>
-      </c>
-      <c r="B126" s="17" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C126" s="13"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="13"/>
-      <c r="I126" s="13"/>
-      <c r="J126" s="13"/>
-      <c r="K126" s="13"/>
-      <c r="L126" s="13"/>
-      <c r="M126" s="13"/>
-      <c r="N126" s="13"/>
-      <c r="O126" s="13"/>
-      <c r="P126" s="13"/>
-      <c r="Q126" s="13"/>
-      <c r="R126" s="13"/>
-      <c r="S126" s="13"/>
-      <c r="T126" s="13"/>
-      <c r="U126" s="13"/>
-      <c r="V126" s="13"/>
-      <c r="W126" s="13"/>
-      <c r="X126" s="13"/>
-      <c r="Y126" s="13"/>
-      <c r="Z126" s="13"/>
-    </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B127" s="18" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C127" s="19" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C129" s="19"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C131" s="19"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C133" s="19"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C135" s="19"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C137" s="19"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C139" s="19"/>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C141" s="19"/>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C143" s="19"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C145" s="19"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C147" s="19"/>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C149" s="19"/>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C151" s="19"/>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C153" s="19"/>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C155" s="19"/>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C157" s="19"/>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C159" s="19"/>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C161" s="19"/>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B162" s="18" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C162" s="19" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C163" s="19" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C164" s="19" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C165" s="19" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B166" s="18" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C166" s="19" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C167" s="19" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C168" s="19" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C169" s="19" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B170" s="18" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C170" s="19" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C171" s="19" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C172" s="19" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C173" s="19"/>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C175" s="19"/>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C176" s="19"/>
-    </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A178" s="33" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B178" s="17" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C178" s="13"/>
-      <c r="D178" s="13"/>
-      <c r="E178" s="13"/>
-      <c r="F178" s="13"/>
-      <c r="G178" s="13"/>
-      <c r="H178" s="13"/>
-      <c r="I178" s="13"/>
-      <c r="J178" s="13"/>
-      <c r="K178" s="13"/>
-      <c r="L178" s="13"/>
-      <c r="M178" s="13"/>
-      <c r="N178" s="13"/>
-      <c r="O178" s="13"/>
-      <c r="P178" s="13"/>
-      <c r="Q178" s="13"/>
-      <c r="R178" s="13"/>
-      <c r="S178" s="13"/>
-      <c r="T178" s="13"/>
-      <c r="U178" s="13"/>
-      <c r="V178" s="13"/>
-      <c r="W178" s="13"/>
-      <c r="X178" s="13"/>
-      <c r="Y178" s="13"/>
-      <c r="Z178" s="13"/>
-    </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B179" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C179" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B213" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="C213" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C214" s="19" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B215" s="18" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C215" s="19" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C216" s="19" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B217" s="18" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C217" s="19" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C218" s="19" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C219" s="19" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B220" s="18" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C220" s="19" t="s">
+    </row>
+    <row r="241" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C241" s="19" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C221" s="19" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C222" s="19" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B223" s="18" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C223" s="19" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C224" s="19" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="237" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H237"/>
+    <row r="254" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="H254"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -18098,8 +18360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z239"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X76" sqref="X76"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19856,6 +20118,9 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B38:B43"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B14"/>
@@ -19864,9 +20129,6 @@
     <mergeCell ref="B31:B37"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B21:B27"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B38:B43"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20615,7 +20877,7 @@
         <v>84</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
@@ -21488,7 +21750,7 @@
     </row>
     <row r="121" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D121" s="19" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="122" spans="2:26" x14ac:dyDescent="0.3">
@@ -21510,31 +21772,31 @@
         <v>891</v>
       </c>
       <c r="E124" s="19" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="125" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D125" s="19"/>
       <c r="E125" s="19" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="126" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D126" s="19"/>
       <c r="E126" s="19" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="127" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D127" s="19"/>
       <c r="E127" s="19" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="128" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D128" s="19"/>
       <c r="E128" s="19" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="129" spans="4:5" x14ac:dyDescent="0.3">
@@ -21627,28 +21889,28 @@
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D149" s="19" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="E149" s="19" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D150" s="19"/>
       <c r="E150" s="19" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D151" s="19"/>
       <c r="E151" s="19" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D152" s="19"/>
       <c r="E152" s="19" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.3">
@@ -21773,7 +22035,7 @@
     </row>
     <row r="216" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D216" s="19" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="217" spans="2:26" x14ac:dyDescent="0.3">
@@ -21791,15 +22053,15 @@
     </row>
     <row r="219" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C219" s="19" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="D219" s="19" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="220" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D220" s="19" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="221" spans="2:26" x14ac:dyDescent="0.3">
@@ -21807,30 +22069,30 @@
     </row>
     <row r="222" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D222" s="19" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="224" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C224" s="19" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="D224" s="19" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="225" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D225" s="19" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="226" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D226" s="19" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="227" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D227" s="19" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="228" spans="2:26" x14ac:dyDescent="0.3">
@@ -21856,7 +22118,7 @@
         <v>308</v>
       </c>
       <c r="C234" s="26" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="D234" s="27"/>
       <c r="E234" s="27"/>
@@ -21884,33 +22146,33 @@
     </row>
     <row r="235" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C235" s="19" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="236" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C236" s="19" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="D236" s="19" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="237" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D237" s="19" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="238" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C238" s="19" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="D238" s="19" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="239" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D239" s="19" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="241" spans="2:26" x14ac:dyDescent="0.3">
@@ -23079,7 +23341,7 @@
         <v>237</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="D61" s="27"/>
       <c r="E61" s="27"/>
@@ -23107,15 +23369,15 @@
     </row>
     <row r="62" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C62" s="19" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="63" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D63" s="19" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="64" spans="2:26" x14ac:dyDescent="0.3">
@@ -23197,16 +23459,16 @@
     </row>
     <row r="74" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C74" s="19" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="75" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C75" s="19"/>
       <c r="D75" s="19" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="76" spans="2:26" x14ac:dyDescent="0.3">
@@ -23217,7 +23479,7 @@
         <v>419</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="D77" s="27"/>
       <c r="E77" s="27"/>
@@ -23245,70 +23507,70 @@
     </row>
     <row r="78" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C78" s="19" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="79" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D79" s="19" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="80" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D80" s="19" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D81" s="19" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C82" s="19" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D83" s="19" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D84" s="19" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C85" s="19" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D86" s="19" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C87" s="19" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C88" s="19"/>
       <c r="D88" s="19" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.3">
@@ -23502,7 +23764,7 @@
     </row>
     <row r="144" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D144" s="19" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.3">
@@ -23796,7 +24058,7 @@
       </c>
       <c r="B222" s="13"/>
       <c r="C222" s="17" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
       <c r="D222" s="13"/>
       <c r="E222" s="13"/>
@@ -23824,60 +24086,60 @@
     </row>
     <row r="223" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B223" s="18" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B259" s="18" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="C259" s="19" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C260" s="19" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C261" s="19" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C262" s="19" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="D262" s="19" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C263" s="19" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="D263" s="19" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C264" s="19" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="D264" s="19" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="265" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C265" s="19" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="D265" s="19" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
     </row>
   </sheetData>

--- a/策划案/Java/IOT项目/IOT物联网平台.xlsx
+++ b/策划案/Java/IOT项目/IOT物联网平台.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="1394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="1397">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -8222,48 +8222,51 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>继承项目</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示该部门继承父级的项目</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6.</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门项目</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示挂在该部门下的项目，如果该用户是系统管理员，则显示加号，可把项目添加进部门。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击添加部门，弹出右图所示窗口。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权群组</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示授权的群组，如果是系统管理员，可以更改部门的授权群组。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.</t>
+    <t>项目与授权群组</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目的继承性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个部门节点会继承其父级部门的所有项目。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门可绑定项目</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个部门都可以绑定项目，如果是系统管理员，可以点击加号可弹出右图窗口，把项目绑定到部门节点上。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果父级节点已绑定该项目，则不可被绑定到该节点上。所以右图窗口会排除父级绑定的项目。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定群组</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每绑定一个部门，则需要绑定一个其部门下的对应群组。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始状态下，绑定群组下拉列表显示为未绑定，此时该部门看不到项目下的任何设备。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -8828,7 +8831,7 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -8893,6 +8896,27 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="9" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8937,24 +8961,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
@@ -10001,16 +10007,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>122957</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>113880</xdr:rowOff>
+      <xdr:colOff>284882</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>56730</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10027,7 +10033,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8401050" y="19173825"/>
+          <a:off x="8562975" y="19535775"/>
           <a:ext cx="6942857" cy="3361905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10040,19 +10046,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>646078</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>37279</xdr:rowOff>
+      <xdr:colOff>703225</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>180151</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPr id="6" name="图片 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10065,8 +10071,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="361950" y="10020300"/>
-          <a:ext cx="12971428" cy="6571429"/>
+          <a:off x="390525" y="9934575"/>
+          <a:ext cx="13000000" cy="6590476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12850,12 +12856,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -12864,10 +12870,10 @@
       <c r="C3" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="48" t="s">
         <v>785</v>
       </c>
     </row>
@@ -12878,26 +12884,26 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="42"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="49"/>
     </row>
     <row r="5" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="50" t="s">
         <v>786</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="55"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -12906,10 +12912,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="35"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -12918,10 +12924,10 @@
       <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="50"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
@@ -12930,10 +12936,10 @@
       <c r="C9" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="E9" s="50"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
@@ -12942,10 +12948,10 @@
       <c r="C10" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="E10" s="50"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
@@ -12954,10 +12960,10 @@
       <c r="C11" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="40" t="s">
         <v>608</v>
       </c>
-      <c r="E11" s="50"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
@@ -12966,10 +12972,10 @@
       <c r="C12" s="8" t="s">
         <v>853</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="35" t="s">
         <v>787</v>
       </c>
-      <c r="E12" s="50"/>
+      <c r="E12" s="36"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
@@ -12978,10 +12984,10 @@
       <c r="C13" s="8" t="s">
         <v>873</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="35" t="s">
         <v>854</v>
       </c>
-      <c r="E13" s="50"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="7">
@@ -12990,10 +12996,10 @@
       <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="35" t="s">
         <v>874</v>
       </c>
-      <c r="E14" s="50"/>
+      <c r="E14" s="36"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
@@ -13002,10 +13008,10 @@
       <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="35" t="s">
         <v>909</v>
       </c>
-      <c r="E15" s="50"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="7">
@@ -13014,10 +13020,10 @@
       <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="35" t="s">
         <v>1034</v>
       </c>
-      <c r="E16" s="50"/>
+      <c r="E16" s="36"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="7">
@@ -13026,10 +13032,10 @@
       <c r="C17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="35" t="s">
         <v>1046</v>
       </c>
-      <c r="E17" s="50"/>
+      <c r="E17" s="36"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="7">
@@ -13038,10 +13044,10 @@
       <c r="C18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="35" t="s">
         <v>1084</v>
       </c>
-      <c r="E18" s="50"/>
+      <c r="E18" s="36"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="7">
@@ -13050,85 +13056,81 @@
       <c r="C19" s="8" t="s">
         <v>1221</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="35" t="s">
         <v>1222</v>
       </c>
-      <c r="E19" s="50"/>
+      <c r="E19" s="36"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="50"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="50"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="50"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="36"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -13141,12 +13143,16 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -17691,8 +17697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="X125" sqref="X125"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="Q89" sqref="Q89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18118,6 +18124,9 @@
         <v>83</v>
       </c>
     </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C48" s="34"/>
+    </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="18" t="s">
         <v>1355</v>
@@ -18268,12 +18277,14 @@
       <c r="C102" s="19" t="s">
         <v>1386</v>
       </c>
+      <c r="D102" s="19" t="s">
+        <v>1387</v>
+      </c>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B103" s="18" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C103" s="19" t="s">
+      <c r="B103" s="18"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19" t="s">
         <v>1388</v>
       </c>
     </row>
@@ -18281,23 +18292,39 @@
       <c r="C104" s="19" t="s">
         <v>1389</v>
       </c>
+      <c r="D104" s="19" t="s">
+        <v>1390</v>
+      </c>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C105" s="19" t="s">
-        <v>1390</v>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19" t="s">
+        <v>1391</v>
       </c>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B106" s="18" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C106" s="19" t="s">
-        <v>1391</v>
+      <c r="B106" s="18"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19" t="s">
+        <v>1392</v>
       </c>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C107" s="19" t="s">
-        <v>1392</v>
+        <v>1393</v>
+      </c>
+      <c r="D107" s="19" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D108" s="19" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D109" s="19" t="s">
+        <v>1396</v>
       </c>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.3">
@@ -19549,7 +19576,7 @@
       </c>
     </row>
     <row r="5" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="56" t="s">
         <v>149</v>
       </c>
       <c r="C5" s="22" t="s">
@@ -19574,7 +19601,7 @@
       <c r="N5" s="22"/>
     </row>
     <row r="6" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="55"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="22" t="s">
         <v>131</v>
       </c>
@@ -19597,7 +19624,7 @@
       <c r="N6" s="22"/>
     </row>
     <row r="7" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="55"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="22" t="s">
         <v>132</v>
       </c>
@@ -19620,7 +19647,7 @@
       <c r="N7" s="22"/>
     </row>
     <row r="8" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="56" t="s">
         <v>150</v>
       </c>
       <c r="C8" s="22" t="s">
@@ -19645,7 +19672,7 @@
       <c r="N8" s="22"/>
     </row>
     <row r="9" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="55"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="22" t="s">
         <v>134</v>
       </c>
@@ -19668,7 +19695,7 @@
       <c r="N9" s="22"/>
     </row>
     <row r="10" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="55"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="22" t="s">
         <v>135</v>
       </c>
@@ -19694,7 +19721,7 @@
       </c>
     </row>
     <row r="11" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="56" t="s">
         <v>151</v>
       </c>
       <c r="C11" s="22" t="s">
@@ -19718,7 +19745,7 @@
       </c>
     </row>
     <row r="12" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="55"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="22" t="s">
         <v>137</v>
       </c>
@@ -19737,7 +19764,7 @@
       <c r="N12" s="22"/>
     </row>
     <row r="13" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B13" s="55"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="22" t="s">
         <v>144</v>
       </c>
@@ -19756,7 +19783,7 @@
       <c r="N13" s="22"/>
     </row>
     <row r="14" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="55"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="22" t="s">
         <v>145</v>
       </c>
@@ -19775,7 +19802,7 @@
       <c r="N14" s="22"/>
     </row>
     <row r="15" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="56" t="s">
         <v>152</v>
       </c>
       <c r="C15" s="22" t="s">
@@ -19796,7 +19823,7 @@
       <c r="N15" s="22"/>
     </row>
     <row r="16" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="55"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="22" t="s">
         <v>154</v>
       </c>
@@ -19815,7 +19842,7 @@
       <c r="N16" s="22"/>
     </row>
     <row r="17" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B17" s="55"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="22" t="s">
         <v>155</v>
       </c>
@@ -19834,7 +19861,7 @@
       <c r="N17" s="22"/>
     </row>
     <row r="18" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="55"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="22" t="s">
         <v>158</v>
       </c>
@@ -19853,7 +19880,7 @@
       <c r="N18" s="22"/>
     </row>
     <row r="19" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="55"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="22" t="s">
         <v>159</v>
       </c>
@@ -19872,7 +19899,7 @@
       <c r="N19" s="22"/>
     </row>
     <row r="20" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="55"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="24" t="s">
         <v>200</v>
       </c>
@@ -19891,7 +19918,7 @@
       <c r="N20" s="22"/>
     </row>
     <row r="21" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="56" t="s">
         <v>160</v>
       </c>
       <c r="C21" s="22" t="s">
@@ -19912,7 +19939,7 @@
       <c r="N21" s="22"/>
     </row>
     <row r="22" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B22" s="55"/>
+      <c r="B22" s="56"/>
       <c r="C22" s="22" t="s">
         <v>162</v>
       </c>
@@ -19931,7 +19958,7 @@
       <c r="N22" s="22"/>
     </row>
     <row r="23" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="55"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="22" t="s">
         <v>163</v>
       </c>
@@ -19950,7 +19977,7 @@
       <c r="N23" s="22"/>
     </row>
     <row r="24" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B24" s="55"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="22" t="s">
         <v>164</v>
       </c>
@@ -19969,7 +19996,7 @@
       <c r="N24" s="22"/>
     </row>
     <row r="25" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B25" s="55"/>
+      <c r="B25" s="56"/>
       <c r="C25" s="24" t="s">
         <v>201</v>
       </c>
@@ -19988,7 +20015,7 @@
       <c r="N25" s="22"/>
     </row>
     <row r="26" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B26" s="55"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="22" t="s">
         <v>165</v>
       </c>
@@ -20007,7 +20034,7 @@
       <c r="N26" s="22"/>
     </row>
     <row r="27" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="55"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="22" t="s">
         <v>166</v>
       </c>
@@ -20026,7 +20053,7 @@
       <c r="N27" s="22"/>
     </row>
     <row r="28" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="56" t="s">
         <v>167</v>
       </c>
       <c r="C28" s="22" t="s">
@@ -20047,7 +20074,7 @@
       <c r="N28" s="22"/>
     </row>
     <row r="29" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B29" s="55"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="22" t="s">
         <v>169</v>
       </c>
@@ -20066,7 +20093,7 @@
       <c r="N29" s="22"/>
     </row>
     <row r="30" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B30" s="55"/>
+      <c r="B30" s="56"/>
       <c r="C30" s="22" t="s">
         <v>170</v>
       </c>
@@ -20085,7 +20112,7 @@
       <c r="N30" s="22"/>
     </row>
     <row r="31" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="56" t="s">
         <v>173</v>
       </c>
       <c r="C31" s="22" t="s">
@@ -20106,7 +20133,7 @@
       <c r="N31" s="22"/>
     </row>
     <row r="32" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B32" s="55"/>
+      <c r="B32" s="56"/>
       <c r="C32" s="22" t="s">
         <v>175</v>
       </c>
@@ -20125,7 +20152,7 @@
       <c r="N32" s="22"/>
     </row>
     <row r="33" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B33" s="55"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="22" t="s">
         <v>176</v>
       </c>
@@ -20144,7 +20171,7 @@
       <c r="N33" s="22"/>
     </row>
     <row r="34" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B34" s="55"/>
+      <c r="B34" s="56"/>
       <c r="C34" s="22" t="s">
         <v>177</v>
       </c>
@@ -20163,7 +20190,7 @@
       <c r="N34" s="22"/>
     </row>
     <row r="35" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B35" s="55"/>
+      <c r="B35" s="56"/>
       <c r="C35" s="22" t="s">
         <v>178</v>
       </c>
@@ -20184,7 +20211,7 @@
       <c r="N35" s="22"/>
     </row>
     <row r="36" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B36" s="55"/>
+      <c r="B36" s="56"/>
       <c r="C36" s="22" t="s">
         <v>178</v>
       </c>
@@ -20205,7 +20232,7 @@
       <c r="N36" s="22"/>
     </row>
     <row r="37" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B37" s="55"/>
+      <c r="B37" s="56"/>
       <c r="C37" s="22" t="s">
         <v>178</v>
       </c>
@@ -20226,10 +20253,10 @@
       <c r="N37" s="22"/>
     </row>
     <row r="38" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="56" t="s">
         <v>185</v>
       </c>
       <c r="D38" s="22" t="s">
@@ -20249,8 +20276,8 @@
       <c r="N38" s="22"/>
     </row>
     <row r="39" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
       <c r="D39" s="22" t="s">
         <v>193</v>
       </c>
@@ -20268,8 +20295,8 @@
       <c r="N39" s="22"/>
     </row>
     <row r="40" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
       <c r="D40" s="22" t="s">
         <v>194</v>
       </c>
@@ -20287,8 +20314,8 @@
       <c r="N40" s="22"/>
     </row>
     <row r="41" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="22" t="s">
         <v>195</v>
       </c>
@@ -20306,8 +20333,8 @@
       <c r="N41" s="22"/>
     </row>
     <row r="42" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B42" s="55"/>
-      <c r="C42" s="55" t="s">
+      <c r="B42" s="56"/>
+      <c r="C42" s="56" t="s">
         <v>186</v>
       </c>
       <c r="D42" s="22" t="s">
@@ -20327,8 +20354,8 @@
       <c r="N42" s="22"/>
     </row>
     <row r="43" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
       <c r="D43" s="22" t="s">
         <v>197</v>
       </c>
@@ -20346,7 +20373,7 @@
       <c r="N43" s="22"/>
     </row>
     <row r="44" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="56" t="s">
         <v>179</v>
       </c>
       <c r="C44" s="22" t="s">
@@ -20367,7 +20394,7 @@
       <c r="N44" s="22"/>
     </row>
     <row r="45" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B45" s="55"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="22" t="s">
         <v>188</v>
       </c>
@@ -20386,7 +20413,7 @@
       <c r="N45" s="22"/>
     </row>
     <row r="46" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B46" s="55"/>
+      <c r="B46" s="56"/>
       <c r="C46" s="22" t="s">
         <v>189</v>
       </c>
@@ -20405,7 +20432,7 @@
       <c r="N46" s="22"/>
     </row>
     <row r="47" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B47" s="55"/>
+      <c r="B47" s="56"/>
       <c r="C47" s="22" t="s">
         <v>190</v>
       </c>
@@ -20424,7 +20451,7 @@
       <c r="N47" s="22"/>
     </row>
     <row r="48" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B48" s="55"/>
+      <c r="B48" s="56"/>
       <c r="C48" s="22" t="s">
         <v>191</v>
       </c>
@@ -24123,47 +24150,47 @@
     <row r="135" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D135" s="19"/>
       <c r="H135" s="28"/>
-      <c r="I135" s="56" t="s">
+      <c r="I135" s="57" t="s">
         <v>329</v>
       </c>
-      <c r="J135" s="55"/>
-      <c r="K135" s="55"/>
+      <c r="J135" s="56"/>
+      <c r="K135" s="56"/>
     </row>
     <row r="136" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D136" s="19"/>
-      <c r="I136" s="55"/>
-      <c r="J136" s="55"/>
-      <c r="K136" s="55"/>
+      <c r="I136" s="56"/>
+      <c r="J136" s="56"/>
+      <c r="K136" s="56"/>
     </row>
     <row r="137" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D137" s="19"/>
-      <c r="I137" s="55"/>
-      <c r="J137" s="55"/>
-      <c r="K137" s="55"/>
+      <c r="I137" s="56"/>
+      <c r="J137" s="56"/>
+      <c r="K137" s="56"/>
     </row>
     <row r="138" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D138" s="19"/>
-      <c r="I138" s="55"/>
-      <c r="J138" s="55"/>
-      <c r="K138" s="55"/>
+      <c r="I138" s="56"/>
+      <c r="J138" s="56"/>
+      <c r="K138" s="56"/>
     </row>
     <row r="139" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D139" s="19"/>
-      <c r="I139" s="55"/>
-      <c r="J139" s="55"/>
-      <c r="K139" s="55"/>
+      <c r="I139" s="56"/>
+      <c r="J139" s="56"/>
+      <c r="K139" s="56"/>
     </row>
     <row r="140" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D140" s="19"/>
-      <c r="I140" s="55"/>
-      <c r="J140" s="55"/>
-      <c r="K140" s="55"/>
+      <c r="I140" s="56"/>
+      <c r="J140" s="56"/>
+      <c r="K140" s="56"/>
     </row>
     <row r="141" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D141" s="19"/>
-      <c r="I141" s="55"/>
-      <c r="J141" s="55"/>
-      <c r="K141" s="55"/>
+      <c r="I141" s="56"/>
+      <c r="J141" s="56"/>
+      <c r="K141" s="56"/>
     </row>
     <row r="142" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C142" s="19" t="s">

--- a/策划案/Java/IOT项目/IOT物联网平台.xlsx
+++ b/策划案/Java/IOT项目/IOT物联网平台.xlsx
@@ -20,7 +20,7 @@
     <sheet name="规则模块" sheetId="87" r:id="rId11"/>
     <sheet name="主题" sheetId="89" r:id="rId12"/>
     <sheet name="告警定义" sheetId="94" r:id="rId13"/>
-    <sheet name="后台管理模块" sheetId="93" r:id="rId14"/>
+    <sheet name="账号系统" sheetId="93" r:id="rId14"/>
     <sheet name="部门系统" sheetId="92" state="hidden" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="1397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="1433">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -4884,24 +4884,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">IOT物联网平台设计文档
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF5F5F5F"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>该文档属于策划案，不是产品规格说明书，仅用于指导开发，并不面向用户阅读</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>添加总览页面和主题模块</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -6285,14 +6267,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>禁止登陆/恢复激活</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击禁止登陆或恢复激活，要有弹框2次确认，用户确认后执行相关操作。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>二.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -6310,10 +6284,6 @@
   </si>
   <si>
     <t>完善后台管理模块</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -6342,117 +6312,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>用户Id，用户名字，重置秘钥，角色，所属部门</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>重置秘钥操作</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>修改操作</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始状态，修改按钮为不可用状态，当用户修改了相关信息，修改按钮变为如图状态。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击撤销返回到部门成员列表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>原型图</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>表单包含内容</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>表单包含角色名，角色Id和各模块的操作码。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作码：</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个4位2进制数，以十六进制数字展示。从首位到末位分别表示增删改查，1表示授权，0表示不授权。比如可以增伤改查，那就是1*8+1*4+1*2+1=15，16进制表示为F。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开右上角的编辑模式，表中文字变成文本框。用户修改表单后，修改按钮变成可用状态。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击修改，保存数据，退出编辑模式。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击撤销，直接退出编辑模式。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击新增，弹出如图新增角色窗口。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>用户输入角色名后，点击确认，则新增一条数据色，初始各权限设置为0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击重置密码，弹出如图窗口，初始确认为不可点击状态，输入符合长度的密码后，变为可点击态。点击确认重置密码，后关闭窗口。点击x和撤销直接关闭窗口。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -6477,35 +6341,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>如果直接点击1级菜单，导航显示角色信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-&gt;ID:XXXXX</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5.</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>直接点击角色信息，展示自己的角色状态。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -6527,10 +6362,6 @@
   </si>
   <si>
     <t>操作员只能查看自己部门，并且没有任何操作权限。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>完善文档说明</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -7362,10 +7193,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>褚智勇</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>告警模块</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -7735,10 +7562,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>部门绑定的群组，各节点在单向图中不可相互到达（不可以同时添加某节点和某节点的子孙节点）。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>2</t>
     </r>
@@ -7783,10 +7606,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>部门可以与若干个群组相关联，这是看到群组和设备的先决条件</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>部门成员，可以查看其绑定群组和子孙群组的设备。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -7795,14 +7614,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>部门用户，可以看到当前部门和其父级部门的项目。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品、规则、主题都是放在项目下，能看到项目，就能看到这些元素。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>项目</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -7839,10 +7650,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>一个用户身上可以有多个角色，多角色的权限叠加。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>a.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -7951,10 +7758,6 @@
   </si>
   <si>
     <t>项目下的产品、规则、主题等元素，也是同时可见。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑该部门的</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -8267,6 +8070,313 @@
   </si>
   <si>
     <t>初始状态下，绑定群组下拉列表显示为未绑定，此时该部门看不到项目下的任何设备。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员可创建编辑所在部门的项目</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目的读权限和使用权限是不同的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门用户，可以使用期部门和其父部门的项目。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门用户，可以读取其部门和其子孙部门以及父部门的项目。不可读取其兄弟分支的项目。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用权限</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>a)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>b)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取权限</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>所谓使用，就是把设备绑定到对应项目的某个产品下，或者在项目下创建规则、和主题。</t>
+  </si>
+  <si>
+    <t>产品、规则、主题都是放在项目下，有项目的使用权限，就可以使用这些元素。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>所谓读取，就是能够看到该项目下的一些统计信息，如告警信息。可以看到项目的信息。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑该部门结构</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门可以与若干个项目关联，并设置其对应的关联群组</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以做一切操作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限从高到低。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3）</t>
+  </si>
+  <si>
+    <t>创建编辑项目、产品、规则、告警、主题</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单包含内容</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户Id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击用户名进入用户详情，超级管理员可在详情页面中修改用户信息。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属部门</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户所属的部门。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在修改状态下时，该控件变为树状控件。拉取的树以操作者的部门为根结点。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有部门管理员和超级管理员可以修改列表中用户的部门，且只能修改同部门下非部门管理员和其子部门下的用户的部门。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色身份</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户的角色身份，在这个页面无法修改。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作区域</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单展示所选部门下（包括其子孙部门）的所有用户列表。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单排序规则为如下：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>按树的秩（深度）倒序排列</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>按身份Id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正序排列</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3)</t>
+  </si>
+  <si>
+    <t>3)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>按用户名正序排列</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序规则</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4)</t>
+  </si>
+  <si>
+    <t>4)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>当行数据为自己的数据时，要有个图标做区分。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己的数据放在前面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：点击修改后，该行进入编辑态，修改变为确认。用户点击确认后保存数据，确认变回修改。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情：点击后跳转用户详情界面。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作区有3个按钮，修改，详情。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于自己的数据行，操作按钮有详情。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于非自己的数据行，如果无权对该用户做部门相关操作，也只显示详情按钮。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于非自己的数据行，如果有权对该用户做部门相关操作，则显示修改，详情。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户查找</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在用户查找那里输入用户名或用户Id，点击搜索图标，则表单显示查找结果。查找用户范围为部门下（和其子孙部门）的用户</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户Id，用户名字，重置秘钥，角色，所属部门，用户状态，用户简介</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果直接点击我的信息，则导航显示我的信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有自己的信息，以及超级管理员，这个界面才会显示修改按钮。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击修改按钮，页面进入编辑状态。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于超级管理员，用户的名字、角色、状态、用户简介都可以修改。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于自己，只能修改名字和简介。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户状态：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前包含2种，正常和禁止登录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于自己，显示为修改密码，弹出窗口要输入原秘钥。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于超级管理员，显示为重置秘钥，弹出窗口不必输入原秘钥。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>褚智勇</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IOT物联网平台设计文档
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF5F5F5F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该文档属于策划案，不是用户手册，仅用于指导开发，并不面向用户阅读</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新梳理修改部门系统</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -8831,7 +8941,7 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -8899,6 +9009,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="9" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="58" fontId="2" fillId="2" borderId="0" xfId="9" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9856,15 +9967,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>647125</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>209198</xdr:rowOff>
+      <xdr:colOff>485200</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>180623</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9881,7 +9992,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13811250" y="9963150"/>
+          <a:off x="13649325" y="11401425"/>
           <a:ext cx="4600000" cy="2819048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9893,20 +10004,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>169776</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>84877</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>227732</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>161505</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPr id="7" name="图片 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9919,8 +10030,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="314325" y="21802725"/>
-          <a:ext cx="13390476" cy="6780952"/>
+          <a:off x="8505825" y="21526500"/>
+          <a:ext cx="6942857" cy="3361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>36451</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>132420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="11344275"/>
+          <a:ext cx="13190476" cy="7438095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9933,32 +10082,32 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>341225</xdr:colOff>
-      <xdr:row>241</xdr:row>
-      <xdr:rowOff>56305</xdr:rowOff>
+      <xdr:colOff>122177</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>141949</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="17" name="图片 16"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="476250" y="38557200"/>
-          <a:ext cx="13400000" cy="6761905"/>
+          <a:off x="476250" y="25631775"/>
+          <a:ext cx="13180952" cy="7409524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9971,56 +10120,18 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>312653</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>37257</xdr:rowOff>
+      <xdr:colOff>131701</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>84798</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="476250" y="25774650"/>
-          <a:ext cx="13371428" cy="6742857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>284882</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>56730</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPr id="22" name="图片 21"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10033,46 +10144,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8562975" y="19535775"/>
-          <a:ext cx="6942857" cy="3361905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>703225</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>180151</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="390525" y="9934575"/>
-          <a:ext cx="13000000" cy="6590476"/>
+          <a:off x="476250" y="41071800"/>
+          <a:ext cx="13190476" cy="7419048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12838,10 +12911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E30"/>
+  <dimension ref="B1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -12856,12 +12929,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -12870,10 +12943,10 @@
       <c r="C3" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="49" t="s">
         <v>785</v>
       </c>
     </row>
@@ -12884,26 +12957,26 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="49"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="50"/>
     </row>
     <row r="5" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>786</v>
-      </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="51" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -12912,10 +12985,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="42"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -12924,10 +12997,10 @@
       <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="36"/>
+      <c r="E8" s="37"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
@@ -12936,10 +13009,10 @@
       <c r="C9" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="E9" s="36"/>
+      <c r="E9" s="37"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
@@ -12948,10 +13021,10 @@
       <c r="C10" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="E10" s="36"/>
+      <c r="E10" s="37"/>
     </row>
     <row r="11" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
@@ -12960,34 +13033,34 @@
       <c r="C11" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="41" t="s">
         <v>608</v>
       </c>
-      <c r="E11" s="36"/>
+      <c r="E11" s="37"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
         <v>43966</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>853</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>787</v>
-      </c>
-      <c r="E12" s="36"/>
+        <v>852</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>786</v>
+      </c>
+      <c r="E12" s="37"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
         <v>43976</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>873</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>854</v>
-      </c>
-      <c r="E13" s="36"/>
+        <v>872</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>853</v>
+      </c>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="7">
@@ -12996,10 +13069,10 @@
       <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="35" t="s">
-        <v>874</v>
-      </c>
-      <c r="E14" s="36"/>
+      <c r="D14" s="36" t="s">
+        <v>873</v>
+      </c>
+      <c r="E14" s="37"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
@@ -13008,10 +13081,10 @@
       <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="35" t="s">
-        <v>909</v>
-      </c>
-      <c r="E15" s="36"/>
+      <c r="D15" s="36" t="s">
+        <v>908</v>
+      </c>
+      <c r="E15" s="37"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="7">
@@ -13020,118 +13093,112 @@
       <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="35" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E16" s="36"/>
+      <c r="D16" s="36" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E16" s="37"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="7">
-        <v>44025</v>
+        <v>44027</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="35" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E17" s="36"/>
+      <c r="D17" s="36" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E17" s="37"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="7">
-        <v>44027</v>
+        <v>44036</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="35" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E18" s="36"/>
+      <c r="D18" s="36" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E18" s="37"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="7">
-        <v>44036</v>
+        <v>44067</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>1222</v>
-      </c>
-      <c r="E19" s="36"/>
+        <v>1430</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="36"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="9"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="36"/>
-    </row>
-    <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="39" t="s">
+      <c r="D26" s="36"/>
+      <c r="E26" s="37"/>
+    </row>
+    <row r="27" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="27">
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -13142,17 +13209,16 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -13433,10 +13499,10 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C39" s="19" t="s">
-        <v>1090</v>
+        <v>1064</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>1091</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
@@ -13444,7 +13510,7 @@
         <v>366</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>1283</v>
+        <v>1256</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -13552,7 +13618,7 @@
     <row r="81" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C81" s="19"/>
       <c r="D81" s="19" t="s">
-        <v>1089</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="82" spans="2:26" x14ac:dyDescent="0.3">
@@ -13613,7 +13679,7 @@
     <row r="86" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C86" s="19"/>
       <c r="D86" s="19" t="s">
-        <v>1093</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="87" spans="2:26" x14ac:dyDescent="0.3">
@@ -13650,22 +13716,22 @@
     </row>
     <row r="91" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C91" s="19" t="s">
-        <v>1279</v>
+        <v>1252</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>1280</v>
+        <v>1253</v>
       </c>
       <c r="E91" s="19"/>
     </row>
     <row r="92" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D92" s="19" t="s">
-        <v>1281</v>
+        <v>1254</v>
       </c>
       <c r="E92" s="19"/>
     </row>
     <row r="93" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D93" s="19" t="s">
-        <v>1282</v>
+        <v>1255</v>
       </c>
       <c r="E93" s="19"/>
     </row>
@@ -14634,7 +14700,7 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
@@ -14903,20 +14969,20 @@
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="18" t="s">
-        <v>1224</v>
+        <v>1197</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>1225</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C63" s="19" t="s">
-        <v>1226</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C64" s="19" t="s">
-        <v>1227</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.3">
@@ -15171,7 +15237,7 @@
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E165" s="19" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.3">
@@ -15358,13 +15424,13 @@
     <row r="190" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C190" s="19"/>
       <c r="E190" s="19" t="s">
-        <v>1085</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="191" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C191" s="19"/>
       <c r="E191" s="19" t="s">
-        <v>1086</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="192" spans="2:26" x14ac:dyDescent="0.3">
@@ -15391,14 +15457,14 @@
       <c r="C197" s="19"/>
       <c r="E197" s="19"/>
       <c r="F197" s="19" t="s">
-        <v>1087</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="198" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C198" s="19"/>
       <c r="E198" s="19"/>
       <c r="F198" s="19" t="s">
-        <v>1088</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="199" spans="3:6" x14ac:dyDescent="0.3">
@@ -15411,7 +15477,7 @@
     </row>
     <row r="200" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E200" s="19" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="201" spans="3:6" x14ac:dyDescent="0.3">
@@ -15565,7 +15631,7 @@
     </row>
     <row r="229" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D229" s="19" t="s">
-        <v>1201</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="230" spans="3:6" x14ac:dyDescent="0.3">
@@ -15596,7 +15662,7 @@
     </row>
     <row r="236" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F236" s="19" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="237" spans="3:6" x14ac:dyDescent="0.3">
@@ -15651,12 +15717,12 @@
     </row>
     <row r="250" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D250" s="19" t="s">
-        <v>1202</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="253" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E253" s="19" t="s">
-        <v>1203</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="254" spans="4:6" x14ac:dyDescent="0.3">
@@ -15666,22 +15732,22 @@
     </row>
     <row r="255" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E255" s="19" t="s">
-        <v>1204</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="256" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F256" s="19" t="s">
-        <v>1205</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="257" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E257" s="19" t="s">
-        <v>1206</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="258" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F258" s="19" t="s">
-        <v>1207</v>
+        <v>1181</v>
       </c>
     </row>
   </sheetData>
@@ -15967,7 +16033,7 @@
     <row r="88" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D88" s="19"/>
       <c r="E88" s="19" t="s">
-        <v>1278</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="89" spans="2:26" x14ac:dyDescent="0.3">
@@ -16129,7 +16195,7 @@
       <c r="C136" s="19"/>
       <c r="D136" s="19"/>
       <c r="E136" s="19" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="137" spans="2:26" x14ac:dyDescent="0.3">
@@ -16315,17 +16381,17 @@
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F182" s="30" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F183" s="30" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F184" s="29" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.3">
@@ -16349,20 +16415,20 @@
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C188" s="19" t="s">
+        <v>878</v>
+      </c>
+      <c r="D188" s="19" t="s">
         <v>879</v>
-      </c>
-      <c r="D188" s="19" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D189" s="31" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D190" s="19" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.3">
@@ -16772,12 +16838,12 @@
     </row>
     <row r="341" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D341" s="19" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="342" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E342" s="19" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
   </sheetData>
@@ -16796,8 +16862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z233"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="X151" sqref="X151"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Y199" sqref="Y199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16841,18 +16907,18 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
-        <v>1140</v>
+        <v>1114</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>1139</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
-        <v>1141</v>
+        <v>1115</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>1142</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -16889,17 +16955,17 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
-        <v>1143</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7" s="19" t="s">
-        <v>1144</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
-        <v>1145</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
@@ -16907,7 +16973,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>1138</v>
+        <v>1112</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -16947,69 +17013,69 @@
         <v>237</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>1151</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D45" s="19" t="s">
-        <v>1152</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="46" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46" s="19" t="s">
-        <v>1153</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D47" s="19" t="s">
-        <v>1154</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D48" s="19" t="s">
-        <v>1155</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D49" s="19" t="s">
-        <v>1156</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D50" s="19" t="s">
-        <v>1157</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D51" s="19"/>
       <c r="E51" s="19" t="s">
-        <v>1158</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D52" s="19"/>
       <c r="E52" s="19" t="s">
-        <v>1159</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C53" s="18" t="s">
-        <v>1266</v>
+        <v>1239</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>1267</v>
+        <v>1240</v>
       </c>
       <c r="E53" s="19"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D54" s="19" t="s">
-        <v>1268</v>
+        <v>1241</v>
       </c>
       <c r="E54" s="19"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D55" s="19" t="s">
-        <v>1269</v>
+        <v>1242</v>
       </c>
       <c r="E55" s="19"/>
     </row>
@@ -17022,7 +17088,7 @@
         <v>81</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>1228</v>
+        <v>1201</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -17149,101 +17215,101 @@
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91" s="18" t="s">
-        <v>1229</v>
+        <v>1202</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>1230</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C92" s="19" t="s">
-        <v>1231</v>
+        <v>1204</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>1232</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D93" s="19" t="s">
-        <v>1233</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C94" s="19" t="s">
-        <v>1234</v>
+        <v>1207</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>1235</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D95" s="19" t="s">
-        <v>1236</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C96" s="19" t="s">
-        <v>1237</v>
+        <v>1210</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>1238</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D97" s="19" t="s">
-        <v>1239</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C98" s="19" t="s">
-        <v>1240</v>
+        <v>1213</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>1241</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C99" s="19"/>
       <c r="D99" s="19" t="s">
-        <v>1242</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C100" s="19"/>
       <c r="D100" s="19" t="s">
-        <v>1243</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C101" s="19"/>
       <c r="E101" s="19" t="s">
-        <v>1245</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C102" s="19"/>
       <c r="D102" s="19" t="s">
-        <v>1244</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C103" s="19"/>
       <c r="D103" s="19"/>
       <c r="E103" s="19" t="s">
-        <v>1246</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C104" s="19"/>
       <c r="D104" s="19"/>
       <c r="E104" s="19" t="s">
-        <v>1247</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C105" s="19"/>
       <c r="D105" s="19" t="s">
-        <v>1248</v>
+        <v>1221</v>
       </c>
       <c r="E105" s="19"/>
     </row>
@@ -17251,13 +17317,13 @@
       <c r="C106" s="19"/>
       <c r="D106" s="19"/>
       <c r="E106" s="19" t="s">
-        <v>1249</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C107" s="19"/>
       <c r="D107" s="19" t="s">
-        <v>1250</v>
+        <v>1223</v>
       </c>
       <c r="E107" s="19"/>
     </row>
@@ -17265,120 +17331,120 @@
       <c r="C108" s="19"/>
       <c r="D108" s="19"/>
       <c r="E108" s="19" t="s">
-        <v>1251</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B109" s="18" t="s">
-        <v>1252</v>
+        <v>1225</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>1253</v>
+        <v>1226</v>
       </c>
       <c r="D109" s="19"/>
       <c r="E109" s="19"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C110" s="19" t="s">
-        <v>1254</v>
+        <v>1227</v>
       </c>
       <c r="D110" s="19"/>
       <c r="E110" s="19"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C111" s="19" t="s">
-        <v>1255</v>
+        <v>1228</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>1256</v>
+        <v>1229</v>
       </c>
       <c r="E111" s="19"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C112" s="19"/>
       <c r="D112" s="19" t="s">
-        <v>1270</v>
+        <v>1243</v>
       </c>
       <c r="E112" s="19"/>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C113" s="19"/>
       <c r="D113" s="19" t="s">
-        <v>1271</v>
+        <v>1244</v>
       </c>
       <c r="E113" s="19"/>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C114" s="19"/>
       <c r="D114" s="19" t="s">
-        <v>1272</v>
+        <v>1245</v>
       </c>
       <c r="E114" s="19"/>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C115" s="19"/>
       <c r="D115" s="19" t="s">
-        <v>1273</v>
+        <v>1246</v>
       </c>
       <c r="E115" s="19"/>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C116" s="19"/>
       <c r="D116" s="19" t="s">
-        <v>1274</v>
+        <v>1247</v>
       </c>
       <c r="E116" s="19"/>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C117" s="19" t="s">
-        <v>1257</v>
+        <v>1230</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>1258</v>
+        <v>1231</v>
       </c>
       <c r="E117" s="19"/>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C118" s="19"/>
       <c r="D118" s="19" t="s">
-        <v>1275</v>
+        <v>1248</v>
       </c>
       <c r="E118" s="19"/>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C119" s="19"/>
       <c r="D119" s="19" t="s">
-        <v>1276</v>
+        <v>1249</v>
       </c>
       <c r="E119" s="19"/>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B120" s="18" t="s">
-        <v>1259</v>
+        <v>1232</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>1260</v>
+        <v>1233</v>
       </c>
       <c r="D120" s="19"/>
       <c r="E120" s="19"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C121" s="19" t="s">
-        <v>1261</v>
+        <v>1234</v>
       </c>
       <c r="D121" s="19"/>
       <c r="E121" s="19"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C122" s="19" t="s">
-        <v>1262</v>
+        <v>1235</v>
       </c>
       <c r="D122" s="19"/>
       <c r="E122" s="19"/>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C123" s="19" t="s">
-        <v>1263</v>
+        <v>1236</v>
       </c>
       <c r="D123" s="19"/>
       <c r="E123" s="19"/>
@@ -17403,7 +17469,7 @@
         <v>84</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>1146</v>
+        <v>1120</v>
       </c>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
@@ -17440,125 +17506,125 @@
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B166" s="18" t="s">
-        <v>1149</v>
+        <v>1123</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>1162</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C167" s="19" t="s">
-        <v>1160</v>
+        <v>1134</v>
       </c>
       <c r="D167" s="19" t="s">
-        <v>1164</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D168" s="19" t="s">
-        <v>1163</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C169" s="19" t="s">
-        <v>1165</v>
+        <v>1139</v>
       </c>
       <c r="D169" s="19" t="s">
-        <v>1166</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C170" s="19"/>
       <c r="D170" s="19" t="s">
-        <v>1264</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B171" s="18" t="s">
-        <v>1150</v>
+        <v>1124</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>1167</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B172" s="18"/>
       <c r="C172" s="19" t="s">
-        <v>1168</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B173" s="18"/>
       <c r="C173" s="19" t="s">
-        <v>1169</v>
+        <v>1143</v>
       </c>
       <c r="D173" s="19" t="s">
-        <v>1170</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B174" s="18"/>
       <c r="C174" s="19"/>
       <c r="D174" s="19" t="s">
-        <v>1171</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D175" s="19" t="s">
-        <v>1172</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C176" s="19" t="s">
-        <v>1161</v>
+        <v>1135</v>
       </c>
       <c r="D176" s="19" t="s">
-        <v>1173</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C177" s="19"/>
       <c r="D177" s="19" t="s">
-        <v>1174</v>
+        <v>1148</v>
       </c>
       <c r="E177" s="19" t="s">
-        <v>1175</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D178" s="19" t="s">
-        <v>1176</v>
+        <v>1150</v>
       </c>
       <c r="E178" s="19" t="s">
-        <v>1177</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D179" s="19" t="s">
-        <v>1178</v>
+        <v>1152</v>
       </c>
       <c r="E179" s="19" t="s">
-        <v>1179</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C180" s="19" t="s">
-        <v>1180</v>
+        <v>1154</v>
       </c>
       <c r="D180" s="19" t="s">
-        <v>1181</v>
+        <v>1155</v>
       </c>
       <c r="E180" s="19"/>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D181" s="19" t="s">
-        <v>1182</v>
+        <v>1156</v>
       </c>
       <c r="E181" s="19"/>
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D182" s="19" t="s">
-        <v>1183</v>
+        <v>1157</v>
       </c>
       <c r="E182" s="19"/>
     </row>
@@ -17571,7 +17637,7 @@
         <v>366</v>
       </c>
       <c r="B185" s="17" t="s">
-        <v>1147</v>
+        <v>1121</v>
       </c>
       <c r="C185" s="13"/>
       <c r="D185" s="13"/>
@@ -17600,28 +17666,28 @@
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B186" s="18" t="s">
-        <v>1140</v>
+        <v>1114</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>1148</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B220" s="18" t="s">
-        <v>1149</v>
+        <v>1123</v>
       </c>
       <c r="C220" s="19" t="s">
-        <v>1185</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C221" s="19" t="s">
-        <v>1186</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C222" s="19" t="s">
-        <v>1187</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.3">
@@ -17629,12 +17695,12 @@
         <v>306</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>1170</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C224" s="19" t="s">
-        <v>1184</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.3">
@@ -17642,47 +17708,47 @@
         <v>417</v>
       </c>
       <c r="C225" s="19" t="s">
-        <v>1151</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C226" s="19" t="s">
-        <v>1188</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C227" s="19" t="s">
-        <v>1189</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C228" s="19" t="s">
-        <v>1190</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C229" s="19" t="s">
-        <v>1191</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C230" s="19" t="s">
-        <v>1192</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C231" s="19" t="s">
-        <v>1193</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C232" s="19" t="s">
-        <v>1194</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C233" s="19" t="s">
-        <v>1195</v>
+        <v>1169</v>
       </c>
     </row>
   </sheetData>
@@ -17695,10 +17761,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z267"/>
+  <dimension ref="A1:Z262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="Q89" sqref="Q89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17744,20 +17810,20 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -17786,66 +17852,66 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
-        <v>1303</v>
+        <v>1272</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>1330</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
       <c r="C7" s="19" t="s">
-        <v>1331</v>
+        <v>1299</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>1332</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B8" s="18"/>
       <c r="D8" s="19" t="s">
-        <v>1304</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B9" s="18"/>
       <c r="D9" s="19" t="s">
-        <v>1305</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B10" s="18"/>
       <c r="D10" s="19" t="s">
-        <v>1306</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B11" s="18"/>
       <c r="D11" s="19" t="s">
-        <v>1381</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B12" s="18"/>
       <c r="C12" s="19" t="s">
-        <v>1310</v>
+        <v>1278</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>1333</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19" t="s">
-        <v>1334</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
@@ -17853,853 +17919,959 @@
         <v>237</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B16" s="18"/>
       <c r="C16" s="18" t="s">
-        <v>1284</v>
+        <v>1257</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D17" s="19" t="s">
         <v>344</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D18" s="19" t="s">
-        <v>1285</v>
+        <v>1258</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="18" t="s">
-        <v>1300</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D20" s="19" t="s">
-        <v>1297</v>
-      </c>
-      <c r="E20" s="19"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D21" s="19" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E21" s="19"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D22" s="19" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E22" s="19"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="18" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D19" s="19"/>
+      <c r="E19" s="35" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D20" s="19"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="19" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D21" s="19"/>
+      <c r="F21" s="19" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D22" s="19"/>
+      <c r="E22" s="35" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D23" s="19"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="19" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D24" s="19"/>
+      <c r="F24" s="19" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="18" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D26" s="19" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D27" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D28" s="19" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C29" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D24" s="19" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="19" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="19" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D27" s="19" t="s">
-        <v>1288</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D28" s="19" t="s">
-        <v>1290</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D29" s="19"/>
-      <c r="E29" s="19" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="18" t="s">
+      <c r="D29" s="19" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D30" s="19" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E31" s="19" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D32" s="19" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D33" s="19" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D34" s="19"/>
+      <c r="E34" s="19" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="C30" s="19" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D30" s="19"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C31" s="19" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C32" s="19" t="s">
-        <v>1308</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C33" s="19" t="s">
-        <v>1310</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C34" s="19"/>
-      <c r="D34" s="19" t="s">
-        <v>1327</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C35" s="19"/>
-      <c r="D35" s="19" t="s">
-        <v>1329</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C35" s="19" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D35" s="19"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C36" s="19" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C37" s="19" t="s">
-        <v>1312</v>
+        <v>1276</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C38" s="19"/>
       <c r="D38" s="19" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C39" s="19"/>
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C39" s="19" t="s">
+        <v>1278</v>
+      </c>
       <c r="D39" s="19" t="s">
-        <v>1321</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B40" s="19"/>
-      <c r="C40" s="19" t="s">
-        <v>1314</v>
-      </c>
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C40" s="19"/>
       <c r="D40" s="19" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B41" s="19"/>
+        <v>1295</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C41" s="19"/>
       <c r="D41" s="19" t="s">
-        <v>1319</v>
+        <v>1297</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B42" s="19"/>
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C42" s="19"/>
       <c r="D42" s="19" t="s">
-        <v>1321</v>
+        <v>1379</v>
       </c>
       <c r="E42" s="19" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C44" s="19" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C45" s="19"/>
+      <c r="D45" s="19" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C46" s="19"/>
+      <c r="D46" s="19" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="19"/>
+      <c r="C47" s="19" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B50" s="19"/>
+      <c r="C50" s="19" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C51" s="19"/>
+      <c r="D51" s="19" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A53" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="13"/>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="13"/>
+      <c r="W53" s="13"/>
+      <c r="X53" s="13"/>
+      <c r="Y53" s="13"/>
+      <c r="Z53" s="13"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B54" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C55" s="34"/>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B91" s="18" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B43" s="19"/>
-      <c r="C43" s="19" t="s">
-        <v>1316</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C44" s="19"/>
-      <c r="D44" s="19" t="s">
+      <c r="C91" s="19" t="s">
         <v>1323</v>
       </c>
-      <c r="E44" s="19" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A46" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="17" t="s">
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C92" s="19" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C93" s="19" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C94" s="19" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C95" s="19" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C96" s="19" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C97" s="19"/>
+      <c r="D97" s="19" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C98" s="19"/>
+      <c r="D98" s="19" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C99" s="19"/>
+      <c r="E99" s="19" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C100" s="19"/>
+      <c r="D100" s="19" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E100" s="19"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C101" s="19"/>
+      <c r="E101" s="19" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C102" s="19"/>
+      <c r="E102" s="19" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C103" s="19" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C104" s="19"/>
+      <c r="D104" s="19" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E104" s="19" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D105" s="19" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E105" s="19" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B106" s="18" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C107" s="19" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C108" s="19" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B109" s="18" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C110" s="19" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B111" s="18" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C112" s="19" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D112" s="19" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B113" s="18"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C114" s="19" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D114" s="19" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C115" s="19"/>
+      <c r="D115" s="19" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B116" s="18"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="19" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C117" s="19" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D117" s="19" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D118" s="19" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D119" s="19" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A121" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B121" s="17" t="s">
         <v>1038</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="13"/>
-      <c r="W46" s="13"/>
-      <c r="X46" s="13"/>
-      <c r="Y46" s="13"/>
-      <c r="Z46" s="13"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B47" s="18" t="s">
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="13"/>
+      <c r="I121" s="13"/>
+      <c r="J121" s="13"/>
+      <c r="K121" s="13"/>
+      <c r="L121" s="13"/>
+      <c r="M121" s="13"/>
+      <c r="N121" s="13"/>
+      <c r="O121" s="13"/>
+      <c r="P121" s="13"/>
+      <c r="Q121" s="13"/>
+      <c r="R121" s="13"/>
+      <c r="S121" s="13"/>
+      <c r="T121" s="13"/>
+      <c r="U121" s="13"/>
+      <c r="V121" s="13"/>
+      <c r="W121" s="13"/>
+      <c r="X121" s="13"/>
+      <c r="Y121" s="13"/>
+      <c r="Z121" s="13"/>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B122" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C122" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C48" s="34"/>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B81" s="18" t="s">
-        <v>1355</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C82" s="19" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C83" s="19" t="s">
-        <v>1360</v>
-      </c>
-      <c r="D83" s="19" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C84" s="19" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D84" s="19" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C85" s="19" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D85" s="19" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C86" s="19" t="s">
-        <v>1371</v>
-      </c>
-      <c r="D86" s="19" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C87" s="19"/>
-      <c r="D87" s="19" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C88" s="19"/>
-      <c r="D88" s="19" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C89" s="19"/>
-      <c r="E89" s="19" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C90" s="19"/>
-      <c r="D90" s="19" t="s">
-        <v>1377</v>
-      </c>
-      <c r="E90" s="19"/>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C91" s="19"/>
-      <c r="E91" s="19" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C92" s="19"/>
-      <c r="E92" s="19" t="s">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B159" s="18" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C159" s="19" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B160" s="18"/>
+      <c r="C160" s="19" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B161" s="18"/>
+      <c r="C161" s="19" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D161" s="19" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B162" s="18"/>
+      <c r="D162" s="19" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B163" s="18"/>
+      <c r="D163" s="19" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E163" s="19" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B164" s="18"/>
+      <c r="D164" s="19" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E164" s="19" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B165" s="18"/>
+      <c r="D165" s="19" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E165" s="19" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B166" s="18"/>
+      <c r="D166" s="19" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E166" s="19" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C167" s="18" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D167" s="19" t="s">
         <v>1382</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C93" s="19" t="s">
-        <v>1372</v>
-      </c>
-      <c r="D93" s="19" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C94" s="19"/>
-      <c r="D94" s="19" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E94" s="19" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D95" s="19" t="s">
-        <v>1370</v>
-      </c>
-      <c r="E95" s="19" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B96" s="18" t="s">
-        <v>1363</v>
-      </c>
-      <c r="C96" s="19" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C97" s="19" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C98" s="19" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B99" s="18" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C99" s="19" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C100" s="19" t="s">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D168" s="19" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E168" s="19" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B101" s="18" t="s">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D169" s="19"/>
+      <c r="E169" s="19" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D170" s="19"/>
+      <c r="E170" s="19" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D171" s="19" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E171" s="19" t="s">
         <v>1384</v>
       </c>
-      <c r="C101" s="19" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C102" s="19" t="s">
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D172" s="19" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E172" s="19" t="s">
         <v>1386</v>
       </c>
-      <c r="D102" s="19" t="s">
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D173" s="19"/>
+      <c r="E173" s="19" t="s">
         <v>1387</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B103" s="18"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19" t="s">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E174" s="19" t="s">
         <v>1388</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C104" s="19" t="s">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E175" s="19" t="s">
         <v>1389</v>
       </c>
-      <c r="D104" s="19" t="s">
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D176" s="19" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E176" s="19" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C105" s="19"/>
-      <c r="D105" s="19" t="s">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D177" s="19"/>
+      <c r="E177" s="19" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B106" s="18"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19" t="s">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D178" s="19" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E178" s="19" t="s">
         <v>1392</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C107" s="19" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D107" s="19" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D108" s="19" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D109" s="19" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A111" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B111" s="17" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="13"/>
-      <c r="I111" s="13"/>
-      <c r="J111" s="13"/>
-      <c r="K111" s="13"/>
-      <c r="L111" s="13"/>
-      <c r="M111" s="13"/>
-      <c r="N111" s="13"/>
-      <c r="O111" s="13"/>
-      <c r="P111" s="13"/>
-      <c r="Q111" s="13"/>
-      <c r="R111" s="13"/>
-      <c r="S111" s="13"/>
-      <c r="T111" s="13"/>
-      <c r="U111" s="13"/>
-      <c r="V111" s="13"/>
-      <c r="W111" s="13"/>
-      <c r="X111" s="13"/>
-      <c r="Y111" s="13"/>
-      <c r="Z111" s="13"/>
-    </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B112" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C112" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B147" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="C147" s="19" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C148" s="19" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B149" s="18" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C149" s="19" t="s">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D179" s="19"/>
+      <c r="E179" s="19" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D180" s="19"/>
+      <c r="E180" s="19" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D181" s="19"/>
+      <c r="E181" s="19" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D182" s="19"/>
+      <c r="E182" s="19" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C183" s="19"/>
+      <c r="D183" s="19"/>
+      <c r="E183" s="19" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C184" s="19"/>
+      <c r="D184" s="19"/>
+      <c r="E184" s="19" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B185" s="18" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C185" s="19" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C186" s="19" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B187" s="18" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C150" s="19" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B151" s="18" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C151" s="19" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C152" s="19" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C153" s="19" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C154" s="19" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C155" s="19"/>
-    </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A156" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="B156" s="17" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C156" s="13"/>
-      <c r="D156" s="13"/>
-      <c r="E156" s="13"/>
-      <c r="F156" s="13"/>
-      <c r="G156" s="13"/>
-      <c r="H156" s="13"/>
-      <c r="I156" s="13"/>
-      <c r="J156" s="13"/>
-      <c r="K156" s="13"/>
-      <c r="L156" s="13"/>
-      <c r="M156" s="13"/>
-      <c r="N156" s="13"/>
-      <c r="O156" s="13"/>
-      <c r="P156" s="13"/>
-      <c r="Q156" s="13"/>
-      <c r="R156" s="13"/>
-      <c r="S156" s="13"/>
-      <c r="T156" s="13"/>
-      <c r="U156" s="13"/>
-      <c r="V156" s="13"/>
-      <c r="W156" s="13"/>
-      <c r="X156" s="13"/>
-      <c r="Y156" s="13"/>
-      <c r="Z156" s="13"/>
-    </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B157" s="18" t="s">
+      <c r="C187" s="19" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C188" s="19" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C189" s="19" t="s">
         <v>1057</v>
       </c>
-      <c r="C157" s="19" t="s">
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C190" s="19" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C159" s="19"/>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C161" s="19"/>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C163" s="19"/>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C165" s="19"/>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C167" s="19"/>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C169" s="19"/>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C171" s="19"/>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C173" s="19"/>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C175" s="19"/>
-    </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C177" s="19"/>
-    </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C179" s="19"/>
-    </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C181" s="19"/>
-    </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C183" s="19"/>
-    </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C185" s="19"/>
-    </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C187" s="19"/>
-    </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C189" s="19"/>
-    </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C191" s="19"/>
-    </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B192" s="18" t="s">
-        <v>1059</v>
-      </c>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B191" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="C191" s="19" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C192" s="19" t="s">
-        <v>1060</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="193" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C193" s="19" t="s">
-        <v>1061</v>
-      </c>
+      <c r="C193" s="19"/>
     </row>
     <row r="194" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C194" s="19" t="s">
-        <v>1062</v>
-      </c>
+      <c r="C194" s="19"/>
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C195" s="19" t="s">
-        <v>1063</v>
-      </c>
+      <c r="A195" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B195" s="17" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C195" s="13"/>
+      <c r="D195" s="13"/>
+      <c r="E195" s="13"/>
+      <c r="F195" s="13"/>
+      <c r="G195" s="13"/>
+      <c r="H195" s="13"/>
+      <c r="I195" s="13"/>
+      <c r="J195" s="13"/>
+      <c r="K195" s="13"/>
+      <c r="L195" s="13"/>
+      <c r="M195" s="13"/>
+      <c r="N195" s="13"/>
+      <c r="O195" s="13"/>
+      <c r="P195" s="13"/>
+      <c r="Q195" s="13"/>
+      <c r="R195" s="13"/>
+      <c r="S195" s="13"/>
+      <c r="T195" s="13"/>
+      <c r="U195" s="13"/>
+      <c r="V195" s="13"/>
+      <c r="W195" s="13"/>
+      <c r="X195" s="13"/>
+      <c r="Y195" s="13"/>
+      <c r="Z195" s="13"/>
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B196" s="18" t="s">
-        <v>1064</v>
+        <v>20</v>
       </c>
       <c r="C196" s="19" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C197" s="19" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C198" s="19" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C199" s="19" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B200" s="18" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C200" s="19" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C201" s="19" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C202" s="19" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C203" s="19"/>
-    </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C205" s="19"/>
-    </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C206" s="19"/>
-    </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A208" s="33" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B208" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B233" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C233" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C234" s="19" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C235" s="19" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D236" s="19" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="237" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B237" s="18" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C237" s="19" t="s">
         <v>1048</v>
       </c>
-      <c r="C208" s="13"/>
-      <c r="D208" s="13"/>
-      <c r="E208" s="13"/>
-      <c r="F208" s="13"/>
-      <c r="G208" s="13"/>
-      <c r="H208" s="13"/>
-      <c r="I208" s="13"/>
-      <c r="J208" s="13"/>
-      <c r="K208" s="13"/>
-      <c r="L208" s="13"/>
-      <c r="M208" s="13"/>
-      <c r="N208" s="13"/>
-      <c r="O208" s="13"/>
-      <c r="P208" s="13"/>
-      <c r="Q208" s="13"/>
-      <c r="R208" s="13"/>
-      <c r="S208" s="13"/>
-      <c r="T208" s="13"/>
-      <c r="U208" s="13"/>
-      <c r="V208" s="13"/>
-      <c r="W208" s="13"/>
-      <c r="X208" s="13"/>
-      <c r="Y208" s="13"/>
-      <c r="Z208" s="13"/>
-    </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B209" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C209" s="19" t="s">
-        <v>83</v>
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B238" s="18"/>
+      <c r="C238" s="19" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B239" s="18"/>
+      <c r="C239" s="19" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="240" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B240" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="C240" s="19" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C241" s="19" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C242" s="19" t="s">
+        <v>1422</v>
       </c>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B243" s="18" t="s">
-        <v>237</v>
-      </c>
       <c r="C243" s="19" t="s">
-        <v>49</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C244" s="19" t="s">
-        <v>1052</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B245" s="18" t="s">
-        <v>1049</v>
+        <v>418</v>
       </c>
       <c r="C245" s="19" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C246" s="19" t="s">
-        <v>1072</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B247" s="18" t="s">
-        <v>1049</v>
-      </c>
       <c r="C247" s="19" t="s">
-        <v>1054</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B248" s="18" t="s">
+        <v>1429</v>
+      </c>
       <c r="C248" s="19" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C249" s="19" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B250" s="18" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C250" s="19" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C251" s="19" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C252" s="19" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B253" s="18" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C253" s="19" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C254" s="19" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="267" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H267"/>
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="262" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H262"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -18761,7 +18933,7 @@
         <v>86</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -18801,7 +18973,7 @@
         <v>18</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -18830,138 +19002,138 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B37" s="18" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C38" s="19" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C39" s="19" t="s">
+        <v>934</v>
+      </c>
+      <c r="D39" s="19" t="s">
         <v>935</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
+        <v>937</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>938</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C41" s="19" t="s">
+        <v>939</v>
+      </c>
+      <c r="D41" s="19" t="s">
         <v>940</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C42" s="19" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B43" s="18" t="s">
+        <v>942</v>
+      </c>
+      <c r="C43" s="19" t="s">
         <v>943</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C44" s="19" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C45" s="19" t="s">
+        <v>946</v>
+      </c>
+      <c r="D45" s="19" t="s">
         <v>947</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C47" s="19" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C48" s="19" t="s">
+        <v>946</v>
+      </c>
+      <c r="D48" s="19" t="s">
         <v>947</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B49" s="18" t="s">
+        <v>949</v>
+      </c>
+      <c r="C49" s="19" t="s">
         <v>950</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C50" s="19" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C51" s="19" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C52" s="19" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C53" s="19" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.3">
@@ -18969,7 +19141,7 @@
         <v>81</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -18998,115 +19170,115 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B56" s="18" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="18" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C91" s="19" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D92" s="19" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D93" s="19" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D94" s="19" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C95" s="19" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D96" s="19" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D97" s="19"/>
       <c r="E97" s="19" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D98" s="19"/>
       <c r="E98" s="19" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D99" s="19" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D100" s="19"/>
       <c r="E100" s="19" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D101" s="19"/>
       <c r="E101" s="19" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="102" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D102" s="19" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="103" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D103" s="19"/>
       <c r="E103" s="19" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="104" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D104" s="19"/>
       <c r="E104" s="19" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="105" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D105" s="19"/>
       <c r="E105" s="19" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="106" spans="4:5" x14ac:dyDescent="0.3">
@@ -19159,34 +19331,34 @@
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C122" s="19" t="s">
+        <v>970</v>
+      </c>
+      <c r="D122" s="19" t="s">
         <v>971</v>
-      </c>
-      <c r="D122" s="19" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="123" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D123" s="19" t="s">
+        <v>972</v>
+      </c>
+      <c r="E123" s="19" t="s">
         <v>973</v>
-      </c>
-      <c r="E123" s="19" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D124" s="19" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E124" s="19" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="125" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D125" s="19" t="s">
+        <v>986</v>
+      </c>
+      <c r="E125" s="19" t="s">
         <v>987</v>
-      </c>
-      <c r="E125" s="19" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="126" spans="3:5" x14ac:dyDescent="0.3">
@@ -19203,7 +19375,7 @@
         <v>84</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C131" s="13"/>
       <c r="D131" s="13"/>
@@ -19232,212 +19404,212 @@
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B132" s="18" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B166" s="18" t="s">
+        <v>988</v>
+      </c>
+      <c r="C166" s="19" t="s">
         <v>989</v>
-      </c>
-      <c r="C166" s="19" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C167" s="19" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C168" s="19" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C169" s="19" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D169" s="19" t="s">
         <v>1009</v>
-      </c>
-      <c r="D169" s="19" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C170" s="19"/>
       <c r="D170" s="19" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C171" s="19" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D172" s="19" t="s">
+        <v>992</v>
+      </c>
+      <c r="E172" s="19" t="s">
         <v>993</v>
-      </c>
-      <c r="E172" s="19" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E173" s="19" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E174" s="19" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D175" s="19" t="s">
+        <v>996</v>
+      </c>
+      <c r="E175" s="19" t="s">
         <v>997</v>
-      </c>
-      <c r="E175" s="19" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D176" s="19"/>
       <c r="E176" s="19" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="177" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E177" s="19" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="178" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E178" s="19" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="179" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D179" s="19" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E179" s="19" t="s">
         <v>1001</v>
-      </c>
-      <c r="E179" s="19" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="180" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E180" s="19" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="181" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E181" s="19" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="182" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E182" s="19" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="183" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D183" s="19" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E183" s="19" t="s">
         <v>1024</v>
-      </c>
-      <c r="E183" s="19" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="184" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D184" s="19"/>
       <c r="E184" s="19" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="185" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E185" s="19" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="186" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E186" s="19" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="187" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C187" s="19" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D187" s="19" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="188" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D188" s="19" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E188" s="19" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="189" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D189" s="19" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E189" s="19" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="190" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D190" s="19" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E190" s="19" t="s">
         <v>1013</v>
-      </c>
-      <c r="E190" s="19" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="191" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C191" s="19" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D191" s="19" t="s">
         <v>1017</v>
-      </c>
-      <c r="D191" s="19" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="192" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D192" s="19" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="193" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D193" s="19" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E193" s="19" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="194" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E194" s="19" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E195" s="19" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E196" s="19" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="197" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E197" s="19" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="203" spans="1:26" x14ac:dyDescent="0.3">
@@ -19445,7 +19617,7 @@
         <v>366</v>
       </c>
       <c r="B203" s="17" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C203" s="13"/>
       <c r="D203" s="13"/>
@@ -19474,10 +19646,10 @@
     </row>
     <row r="204" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B204" s="18" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.3">
@@ -19490,17 +19662,17 @@
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C237" s="19" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C238" s="19" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C239" s="19" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
   </sheetData>
@@ -19576,7 +19748,7 @@
       </c>
     </row>
     <row r="5" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="57" t="s">
         <v>149</v>
       </c>
       <c r="C5" s="22" t="s">
@@ -19601,7 +19773,7 @@
       <c r="N5" s="22"/>
     </row>
     <row r="6" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="56"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="22" t="s">
         <v>131</v>
       </c>
@@ -19624,7 +19796,7 @@
       <c r="N6" s="22"/>
     </row>
     <row r="7" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="56"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="22" t="s">
         <v>132</v>
       </c>
@@ -19647,7 +19819,7 @@
       <c r="N7" s="22"/>
     </row>
     <row r="8" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="57" t="s">
         <v>150</v>
       </c>
       <c r="C8" s="22" t="s">
@@ -19672,7 +19844,7 @@
       <c r="N8" s="22"/>
     </row>
     <row r="9" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="56"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="22" t="s">
         <v>134</v>
       </c>
@@ -19695,7 +19867,7 @@
       <c r="N9" s="22"/>
     </row>
     <row r="10" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="56"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="22" t="s">
         <v>135</v>
       </c>
@@ -19721,7 +19893,7 @@
       </c>
     </row>
     <row r="11" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="57" t="s">
         <v>151</v>
       </c>
       <c r="C11" s="22" t="s">
@@ -19745,7 +19917,7 @@
       </c>
     </row>
     <row r="12" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="56"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="22" t="s">
         <v>137</v>
       </c>
@@ -19764,7 +19936,7 @@
       <c r="N12" s="22"/>
     </row>
     <row r="13" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B13" s="56"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="22" t="s">
         <v>144</v>
       </c>
@@ -19783,7 +19955,7 @@
       <c r="N13" s="22"/>
     </row>
     <row r="14" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="56"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="22" t="s">
         <v>145</v>
       </c>
@@ -19802,7 +19974,7 @@
       <c r="N14" s="22"/>
     </row>
     <row r="15" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="57" t="s">
         <v>152</v>
       </c>
       <c r="C15" s="22" t="s">
@@ -19823,7 +19995,7 @@
       <c r="N15" s="22"/>
     </row>
     <row r="16" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="56"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="22" t="s">
         <v>154</v>
       </c>
@@ -19842,7 +20014,7 @@
       <c r="N16" s="22"/>
     </row>
     <row r="17" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B17" s="56"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="22" t="s">
         <v>155</v>
       </c>
@@ -19861,7 +20033,7 @@
       <c r="N17" s="22"/>
     </row>
     <row r="18" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="56"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="22" t="s">
         <v>158</v>
       </c>
@@ -19880,7 +20052,7 @@
       <c r="N18" s="22"/>
     </row>
     <row r="19" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="56"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="22" t="s">
         <v>159</v>
       </c>
@@ -19899,7 +20071,7 @@
       <c r="N19" s="22"/>
     </row>
     <row r="20" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="56"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="24" t="s">
         <v>200</v>
       </c>
@@ -19918,7 +20090,7 @@
       <c r="N20" s="22"/>
     </row>
     <row r="21" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="57" t="s">
         <v>160</v>
       </c>
       <c r="C21" s="22" t="s">
@@ -19939,7 +20111,7 @@
       <c r="N21" s="22"/>
     </row>
     <row r="22" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B22" s="56"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="22" t="s">
         <v>162</v>
       </c>
@@ -19958,7 +20130,7 @@
       <c r="N22" s="22"/>
     </row>
     <row r="23" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="56"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="22" t="s">
         <v>163</v>
       </c>
@@ -19977,7 +20149,7 @@
       <c r="N23" s="22"/>
     </row>
     <row r="24" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B24" s="56"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="22" t="s">
         <v>164</v>
       </c>
@@ -19996,7 +20168,7 @@
       <c r="N24" s="22"/>
     </row>
     <row r="25" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B25" s="56"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="24" t="s">
         <v>201</v>
       </c>
@@ -20015,7 +20187,7 @@
       <c r="N25" s="22"/>
     </row>
     <row r="26" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B26" s="56"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="22" t="s">
         <v>165</v>
       </c>
@@ -20034,7 +20206,7 @@
       <c r="N26" s="22"/>
     </row>
     <row r="27" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="56"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="22" t="s">
         <v>166</v>
       </c>
@@ -20053,7 +20225,7 @@
       <c r="N27" s="22"/>
     </row>
     <row r="28" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="57" t="s">
         <v>167</v>
       </c>
       <c r="C28" s="22" t="s">
@@ -20074,7 +20246,7 @@
       <c r="N28" s="22"/>
     </row>
     <row r="29" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B29" s="56"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="22" t="s">
         <v>169</v>
       </c>
@@ -20093,7 +20265,7 @@
       <c r="N29" s="22"/>
     </row>
     <row r="30" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B30" s="56"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="22" t="s">
         <v>170</v>
       </c>
@@ -20112,7 +20284,7 @@
       <c r="N30" s="22"/>
     </row>
     <row r="31" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="57" t="s">
         <v>173</v>
       </c>
       <c r="C31" s="22" t="s">
@@ -20133,7 +20305,7 @@
       <c r="N31" s="22"/>
     </row>
     <row r="32" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B32" s="56"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="22" t="s">
         <v>175</v>
       </c>
@@ -20152,7 +20324,7 @@
       <c r="N32" s="22"/>
     </row>
     <row r="33" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B33" s="56"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="22" t="s">
         <v>176</v>
       </c>
@@ -20171,7 +20343,7 @@
       <c r="N33" s="22"/>
     </row>
     <row r="34" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B34" s="56"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="22" t="s">
         <v>177</v>
       </c>
@@ -20190,7 +20362,7 @@
       <c r="N34" s="22"/>
     </row>
     <row r="35" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B35" s="56"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="22" t="s">
         <v>178</v>
       </c>
@@ -20211,7 +20383,7 @@
       <c r="N35" s="22"/>
     </row>
     <row r="36" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B36" s="56"/>
+      <c r="B36" s="57"/>
       <c r="C36" s="22" t="s">
         <v>178</v>
       </c>
@@ -20232,7 +20404,7 @@
       <c r="N36" s="22"/>
     </row>
     <row r="37" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B37" s="56"/>
+      <c r="B37" s="57"/>
       <c r="C37" s="22" t="s">
         <v>178</v>
       </c>
@@ -20253,10 +20425,10 @@
       <c r="N37" s="22"/>
     </row>
     <row r="38" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="C38" s="56" t="s">
+      <c r="C38" s="57" t="s">
         <v>185</v>
       </c>
       <c r="D38" s="22" t="s">
@@ -20276,8 +20448,8 @@
       <c r="N38" s="22"/>
     </row>
     <row r="39" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
       <c r="D39" s="22" t="s">
         <v>193</v>
       </c>
@@ -20295,8 +20467,8 @@
       <c r="N39" s="22"/>
     </row>
     <row r="40" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
       <c r="D40" s="22" t="s">
         <v>194</v>
       </c>
@@ -20314,8 +20486,8 @@
       <c r="N40" s="22"/>
     </row>
     <row r="41" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
       <c r="D41" s="22" t="s">
         <v>195</v>
       </c>
@@ -20333,8 +20505,8 @@
       <c r="N41" s="22"/>
     </row>
     <row r="42" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B42" s="56"/>
-      <c r="C42" s="56" t="s">
+      <c r="B42" s="57"/>
+      <c r="C42" s="57" t="s">
         <v>186</v>
       </c>
       <c r="D42" s="22" t="s">
@@ -20354,8 +20526,8 @@
       <c r="N42" s="22"/>
     </row>
     <row r="43" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
       <c r="D43" s="22" t="s">
         <v>197</v>
       </c>
@@ -20373,7 +20545,7 @@
       <c r="N43" s="22"/>
     </row>
     <row r="44" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="57" t="s">
         <v>179</v>
       </c>
       <c r="C44" s="22" t="s">
@@ -20394,7 +20566,7 @@
       <c r="N44" s="22"/>
     </row>
     <row r="45" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B45" s="56"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="22" t="s">
         <v>188</v>
       </c>
@@ -20413,7 +20585,7 @@
       <c r="N45" s="22"/>
     </row>
     <row r="46" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B46" s="56"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="22" t="s">
         <v>189</v>
       </c>
@@ -20432,7 +20604,7 @@
       <c r="N46" s="22"/>
     </row>
     <row r="47" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B47" s="56"/>
+      <c r="B47" s="57"/>
       <c r="C47" s="22" t="s">
         <v>190</v>
       </c>
@@ -20451,7 +20623,7 @@
       <c r="N47" s="22"/>
     </row>
     <row r="48" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B48" s="56"/>
+      <c r="B48" s="57"/>
       <c r="C48" s="22" t="s">
         <v>191</v>
       </c>
@@ -20471,10 +20643,6 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B21:B27"/>
     <mergeCell ref="C38:C41"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="B38:B43"/>
@@ -20482,6 +20650,10 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B21:B27"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20511,7 +20683,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -20540,7 +20712,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -20548,7 +20720,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -20580,7 +20752,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
@@ -20588,7 +20760,7 @@
         <v>237</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
@@ -20596,7 +20768,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -20628,7 +20800,7 @@
         <v>20</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
@@ -20644,7 +20816,7 @@
         <v>24</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
@@ -20652,7 +20824,7 @@
         <v>50</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
@@ -20660,7 +20832,7 @@
         <v>52</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
@@ -20668,7 +20840,7 @@
         <v>54</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
@@ -20676,12 +20848,12 @@
         <v>30</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D56" s="19" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
@@ -20692,7 +20864,7 @@
         <v>237</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
@@ -20700,7 +20872,7 @@
         <v>73</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
@@ -20708,17 +20880,17 @@
         <v>468</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D61" s="19" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D62" s="19" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.3">
@@ -20726,7 +20898,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
@@ -20758,17 +20930,17 @@
         <v>20</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C83" s="19" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C84" s="19" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
@@ -20776,7 +20948,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
@@ -20808,12 +20980,12 @@
         <v>20</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C88" s="12" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.3">
@@ -20821,7 +20993,7 @@
         <v>44</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.3">
@@ -20829,7 +21001,7 @@
         <v>69</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.3">
@@ -20837,15 +21009,15 @@
         <v>433</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B92" s="18" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C92" s="19" t="s">
         <v>1035</v>
-      </c>
-      <c r="C92" s="19" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.3">
@@ -20885,7 +21057,7 @@
         <v>20</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.3">
@@ -20893,7 +21065,7 @@
         <v>44</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.3">
@@ -20901,7 +21073,7 @@
         <v>227</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
@@ -20933,7 +21105,7 @@
         <v>20</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
@@ -20941,7 +21113,7 @@
         <v>237</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="123" spans="1:26" x14